--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41180144-3C61-47CF-8AF2-1208D15A084E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D17EC98-5509-4056-AA75-92F2F1673D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="漢字注音" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <sheet name="轉調助記圖" sheetId="5" r:id="rId7"/>
     <sheet name="設定" sheetId="2" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="顯示注音輸入">設定!$C$2</definedName>
   </definedNames>
@@ -71,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="357">
   <si>
     <t>合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1277,324 +1274,388 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ㄚˋ</t>
+  </si>
+  <si>
+    <t>ㄚ</t>
+  </si>
+  <si>
+    <t>ㄚˇ</t>
+  </si>
+  <si>
+    <t>ㄚ+</t>
+  </si>
+  <si>
+    <t>ㄚ_</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>，</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>；</t>
+  </si>
+  <si>
+    <t>飛</t>
+  </si>
+  <si>
+    <t>過</t>
+  </si>
+  <si>
+    <t>鴉</t>
+  </si>
+  <si>
+    <t>馬</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>里</t>
+  </si>
+  <si>
+    <t>之</t>
+  </si>
+  <si>
+    <t>程</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>騎</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>往</t>
+  </si>
+  <si>
+    <t>沖</t>
+  </si>
+  <si>
+    <t>志</t>
+  </si>
+  <si>
+    <t>非</t>
+  </si>
+  <si>
+    <t>運</t>
+  </si>
+  <si>
+    <t>通</t>
+  </si>
+  <si>
+    <t>測</t>
+  </si>
+  <si>
+    <t>風</t>
+  </si>
+  <si>
+    <t>雲</t>
+  </si>
+  <si>
+    <t>旦</t>
+  </si>
+  <si>
+    <t>夕</t>
+  </si>
+  <si>
+    <t>禍</t>
+  </si>
+  <si>
+    <t>福</t>
+  </si>
+  <si>
+    <t>蜈</t>
+  </si>
+  <si>
+    <t>蚣</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>蛇</t>
+  </si>
+  <si>
+    <t>雄</t>
+  </si>
+  <si>
+    <t>雞</t>
+  </si>
+  <si>
+    <t>兩</t>
+  </si>
+  <si>
+    <t>翼</t>
+  </si>
+  <si>
     <t>thⁿi¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㄧ¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>u⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨ⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>put⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㄨ⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cik⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄑㄧ⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hong¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄛㄥ¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hun⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄨㄣ⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lang⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄤ⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tan³</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄢ³</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sik⁸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧ⁸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ho⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄜ⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hok⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄛ⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ngoo⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄥㄛ⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kang¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄤ¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pah⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㄚ⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ziok⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㄛ⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kⁿia⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㄚ⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kip⁸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧ⁸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zua⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄨㄚ⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hiong⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄧㄛㄥ⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ke¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄝ¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nng⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄋㄥ⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sit⁸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄒㄧ⁸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pue¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㄨㄝ¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ko¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄜ¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄚ¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ma¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄇㄚ¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cian¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄑㄧㄢ¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>li²</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧ²</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zi¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧ¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ting⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㄧㄥ⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bo⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄜ⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khia⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄎㄧㄚ⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lerng⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧㄥ⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zu⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄨ⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ong²</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄛㄥ²</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cong²</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄘㄛㄥ²</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zi³</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧ³</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hui¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㄨㄧ¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>un⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄨㄣ⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thong¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㄛㄥ¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2865,66 +2926,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="國語注音符號"/>
-      <sheetName val="台語注音符號"/>
-      <sheetName val="聲母發音表"/>
-      <sheetName val="135拼音-注音符號與台語音標"/>
-      <sheetName val="台語注音符號用例"/>
-      <sheetName val="135拼音-聲調符號"/>
-      <sheetName val="135拼音-聲調轉換"/>
-      <sheetName val="135拼音-聲調符號 (2)"/>
-      <sheetName val=" 135拼音-鍵盤設計"/>
-      <sheetName val="135拼音-注音符號、電腦鍵盤與音標編碼"/>
-      <sheetName val="台羅拼音字母"/>
-      <sheetName val="台灣十八音-45韻母"/>
-      <sheetName val="注音測試"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>ㄚ</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>ㄚˋ</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>ㄚ_</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>ㄚˇ</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>ㄚ+</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -3245,7 +3246,7 @@
   <dimension ref="B1:V23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -3376,45 +3377,45 @@
     <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C4" s="69"/>
       <c r="D4" s="70" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="J4" s="70"/>
       <c r="K4" s="70" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="L4" s="70" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="M4" s="70" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="N4" s="70" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="O4" s="70" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="P4" s="70" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="Q4" s="70"/>
       <c r="R4" s="70" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="S4" s="71"/>
     </row>
@@ -3423,110 +3424,95 @@
         <v>1</v>
       </c>
       <c r="C5" s="69"/>
-      <c r="D5" s="4" t="str" cm="1">
-        <f t="array" ref="D5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>天</v>
-      </c>
-      <c r="E5" s="4" t="str" cm="1">
-        <f t="array" ref="E5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>有</v>
-      </c>
-      <c r="F5" s="4" t="str" cm="1">
-        <f t="array" ref="F5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="G5" s="4" t="str" cm="1">
-        <f t="array" ref="G5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>測</v>
-      </c>
-      <c r="H5" s="4" t="str" cm="1">
-        <f t="array" ref="H5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>風</v>
-      </c>
-      <c r="I5" s="4" t="str" cm="1">
-        <f t="array" ref="I5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>雲</v>
-      </c>
-      <c r="J5" s="4" t="str" cm="1">
-        <f t="array" ref="J5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="K5" s="4" t="str" cm="1">
-        <f t="array" ref="K5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>人</v>
-      </c>
-      <c r="L5" s="4" t="str" cm="1">
-        <f t="array" ref="L5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>有</v>
-      </c>
-      <c r="M5" s="4" t="str" cm="1">
-        <f t="array" ref="M5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>旦</v>
-      </c>
-      <c r="N5" s="4" t="str" cm="1">
-        <f t="array" ref="N5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>夕</v>
-      </c>
-      <c r="O5" s="4" t="str" cm="1">
-        <f t="array" ref="O5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>禍</v>
-      </c>
-      <c r="P5" s="4" t="str" cm="1">
-        <f t="array" ref="P5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>福</v>
-      </c>
-      <c r="Q5" s="4" t="str" cm="1">
-        <f t="array" ref="Q5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>。</v>
-      </c>
-      <c r="R5" s="4" t="str" cm="1">
-        <f t="array" ref="R5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>蜈</v>
+      <c r="D5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="S5" s="72"/>
     </row>
     <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5">
       <c r="C6" s="73"/>
       <c r="D6" s="74" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="H6" s="74" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="I6" s="74" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="J6" s="74"/>
       <c r="K6" s="74" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="N6" s="74" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="O6" s="74" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="P6" s="74" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="Q6" s="74"/>
       <c r="R6" s="74" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="S6" s="75"/>
     </row>
@@ -3576,43 +3562,43 @@
     <row r="8" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C8" s="69"/>
       <c r="D8" s="70" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="G8" s="70"/>
       <c r="H8" s="70" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="I8" s="70" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="J8" s="70" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="K8" s="70" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="L8" s="70"/>
       <c r="M8" s="70" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="N8" s="70" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="O8" s="70" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="P8" s="70" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="70"/>
       <c r="R8" s="70" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="S8" s="71"/>
     </row>
@@ -3622,108 +3608,93 @@
         <v>2</v>
       </c>
       <c r="C9" s="69"/>
-      <c r="D9" s="4" t="str" cm="1">
-        <f t="array" ref="D9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>蚣</v>
-      </c>
-      <c r="E9" s="4" t="str" cm="1">
-        <f t="array" ref="E9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>百</v>
-      </c>
-      <c r="F9" s="4" t="str" cm="1">
-        <f t="array" ref="F9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>足</v>
-      </c>
-      <c r="G9" s="4" t="str" cm="1">
-        <f t="array" ref="G9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="H9" s="4" t="str" cm="1">
-        <f t="array" ref="H9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>行</v>
-      </c>
-      <c r="I9" s="4" t="str" cm="1">
-        <f t="array" ref="I9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="J9" s="4" t="str" cm="1">
-        <f t="array" ref="J9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>及</v>
-      </c>
-      <c r="K9" s="4" t="str" cm="1">
-        <f t="array" ref="K9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>蛇</v>
-      </c>
-      <c r="L9" s="4" t="str" cm="1">
-        <f t="array" ref="L9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>；</v>
-      </c>
-      <c r="M9" s="4" t="str" cm="1">
-        <f t="array" ref="M9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>雄</v>
-      </c>
-      <c r="N9" s="4" t="str" cm="1">
-        <f t="array" ref="N9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>雞</v>
-      </c>
-      <c r="O9" s="4" t="str" cm="1">
-        <f t="array" ref="O9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>兩</v>
-      </c>
-      <c r="P9" s="4" t="str" cm="1">
-        <f t="array" ref="P9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>翼</v>
-      </c>
-      <c r="Q9" s="4" t="str" cm="1">
-        <f t="array" ref="Q9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="R9" s="4" t="str" cm="1">
-        <f t="array" ref="R9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>飛</v>
+      <c r="D9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="S9" s="72"/>
     </row>
     <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5">
       <c r="C10" s="69"/>
       <c r="D10" s="74" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="G10" s="74"/>
       <c r="H10" s="74" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="J10" s="74" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="K10" s="74" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="L10" s="74"/>
       <c r="M10" s="74" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="N10" s="74" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="O10" s="74" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="P10" s="74" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="74"/>
       <c r="R10" s="74" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="S10" s="79"/>
     </row>
@@ -3775,45 +3746,45 @@
     <row r="12" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C12" s="69"/>
       <c r="D12" s="70" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="G12" s="70"/>
       <c r="H12" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="I12" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="I12" s="70" t="s">
-        <v>231</v>
-      </c>
       <c r="J12" s="70" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="K12" s="70" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="L12" s="70" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="M12" s="70" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="N12" s="70"/>
       <c r="O12" s="70" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="P12" s="70" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="Q12" s="70" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="R12" s="70" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="S12" s="71"/>
     </row>
@@ -3823,110 +3794,95 @@
         <v>3</v>
       </c>
       <c r="C13" s="69"/>
-      <c r="D13" s="4" t="str" cm="1">
-        <f t="array" ref="D13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="E13" s="4" t="str" cm="1">
-        <f t="array" ref="E13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>過</v>
-      </c>
-      <c r="F13" s="4" t="str" cm="1">
-        <f t="array" ref="F13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>鴉</v>
-      </c>
-      <c r="G13" s="4" t="str" cm="1">
-        <f t="array" ref="G13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>。</v>
-      </c>
-      <c r="H13" s="4" t="str" cm="1">
-        <f t="array" ref="H13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>馬</v>
-      </c>
-      <c r="I13" s="4" t="str" cm="1">
-        <f t="array" ref="I13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>有</v>
-      </c>
-      <c r="J13" s="4" t="str" cm="1">
-        <f t="array" ref="J13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>千</v>
-      </c>
-      <c r="K13" s="4" t="str" cm="1">
-        <f t="array" ref="K13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>里</v>
-      </c>
-      <c r="L13" s="4" t="str" cm="1">
-        <f t="array" ref="L13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="M13" s="4" t="str" cm="1">
-        <f t="array" ref="M13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>程</v>
-      </c>
-      <c r="N13" s="4" t="str" cm="1">
-        <f t="array" ref="N13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="O13" s="4" t="str" cm="1">
-        <f t="array" ref="O13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>無</v>
-      </c>
-      <c r="P13" s="4" t="str" cm="1">
-        <f t="array" ref="P13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>騎</v>
-      </c>
-      <c r="Q13" s="4" t="str" cm="1">
-        <f t="array" ref="Q13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="R13" s="4" t="str" cm="1">
-        <f t="array" ref="R13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>能</v>
+      <c r="D13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="S13" s="72"/>
     </row>
     <row r="14" spans="2:22" s="2" customFormat="1" ht="22.5">
       <c r="C14" s="69"/>
       <c r="D14" s="74" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="G14" s="74"/>
       <c r="H14" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="I14" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="I14" s="74" t="s">
-        <v>232</v>
-      </c>
       <c r="J14" s="74" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="K14" s="74" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="L14" s="74" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="M14" s="74" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="N14" s="74"/>
       <c r="O14" s="74" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="P14" s="74" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="74" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="R14" s="74" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="S14" s="79"/>
     </row>
@@ -3978,45 +3934,45 @@
     <row r="16" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C16" s="69"/>
       <c r="D16" s="70" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="70" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="I16" s="70" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="K16" s="70" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="L16" s="70" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="M16" s="70"/>
       <c r="N16" s="70" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="O16" s="70" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="P16" s="70" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="70" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="R16" s="70" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="S16" s="71"/>
     </row>
@@ -4026,110 +3982,95 @@
         <v>4</v>
       </c>
       <c r="C17" s="69"/>
-      <c r="D17" s="4" t="str" cm="1">
-        <f t="array" ref="D17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>自</v>
-      </c>
-      <c r="E17" s="4" t="str" cm="1">
-        <f t="array" ref="E17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>往</v>
-      </c>
-      <c r="F17" s="4" t="str" cm="1">
-        <f t="array" ref="F17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>；</v>
-      </c>
-      <c r="G17" s="4" t="str" cm="1">
-        <f t="array" ref="G17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>人</v>
-      </c>
-      <c r="H17" s="4" t="str" cm="1">
-        <f t="array" ref="H17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>有</v>
-      </c>
-      <c r="I17" s="4" t="str" cm="1">
-        <f t="array" ref="I17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>沖</v>
-      </c>
-      <c r="J17" s="4" t="str" cm="1">
-        <f t="array" ref="J17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>天</v>
-      </c>
-      <c r="K17" s="4" t="str" cm="1">
-        <f t="array" ref="K17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="L17" s="4" t="str" cm="1">
-        <f t="array" ref="L17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>志</v>
-      </c>
-      <c r="M17" s="4" t="str" cm="1">
-        <f t="array" ref="M17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="N17" s="4" t="str" cm="1">
-        <f t="array" ref="N17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>非</v>
-      </c>
-      <c r="O17" s="4" t="str" cm="1">
-        <f t="array" ref="O17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>運</v>
-      </c>
-      <c r="P17" s="4" t="str" cm="1">
-        <f t="array" ref="P17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="Q17" s="4" t="str" cm="1">
-        <f t="array" ref="Q17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>能</v>
-      </c>
-      <c r="R17" s="4" t="str" cm="1">
-        <f t="array" ref="R17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>自</v>
+      <c r="D17" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="S17" s="72"/>
     </row>
     <row r="18" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="C18" s="69"/>
       <c r="D18" s="74" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="F18" s="74"/>
       <c r="G18" s="74" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="H18" s="74" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="I18" s="74" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="J18" s="74" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="K18" s="74" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="L18" s="74" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="M18" s="74"/>
       <c r="N18" s="74" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="O18" s="74" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="P18" s="74" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="74" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="R18" s="74" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="S18" s="79"/>
     </row>
@@ -4157,7 +4098,7 @@
     <row r="20" spans="2:19" s="2" customFormat="1" ht="25.5">
       <c r="C20" s="69"/>
       <c r="D20" s="70" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="E20" s="70"/>
       <c r="F20" s="70"/>
@@ -4181,72 +4122,31 @@
         <v>5</v>
       </c>
       <c r="C21" s="69"/>
-      <c r="D21" s="4" t="str" cm="1">
-        <f t="array" ref="D21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>通</v>
-      </c>
-      <c r="E21" s="4" t="str" cm="1">
-        <f t="array" ref="E21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>。</v>
-      </c>
-      <c r="F21" s="4" t="str" cm="1">
-        <f t="array" ref="F21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="G21" s="4" t="str" cm="1">
-        <f t="array" ref="G21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="H21" s="4" t="str" cm="1">
-        <f t="array" ref="H21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="I21" s="4" t="str" cm="1">
-        <f t="array" ref="I21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="J21" s="4" t="str" cm="1">
-        <f t="array" ref="J21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="K21" s="4" t="str" cm="1">
-        <f t="array" ref="K21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="L21" s="4" t="str" cm="1">
-        <f t="array" ref="L21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="M21" s="4" t="str" cm="1">
-        <f t="array" ref="M21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="N21" s="4" t="str" cm="1">
-        <f t="array" ref="N21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="O21" s="4" t="str" cm="1">
-        <f t="array" ref="O21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="P21" s="4" t="str" cm="1">
-        <f t="array" ref="P21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="Q21" s="4" t="str" cm="1">
-        <f t="array" ref="Q21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="R21" s="4" t="str" cm="1">
-        <f t="array" ref="R21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
+      <c r="D21" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="72"/>
     </row>
     <row r="22" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="C22" s="69"/>
       <c r="D22" s="74" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="E22" s="74"/>
       <c r="F22" s="74"/>
@@ -7677,16 +7577,14 @@
       <c r="E4" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!D12</f>
-        <v>ㄚˋ</v>
+      <c r="F4" s="48" t="s">
+        <v>229</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!C12</f>
-        <v>ㄚ</v>
+      <c r="H4" s="48" t="s">
+        <v>230</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>85</v>
@@ -7749,16 +7647,14 @@
       <c r="E8" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!C19</f>
-        <v>ㄚˇ</v>
+      <c r="F8" s="48" t="s">
+        <v>231</v>
       </c>
       <c r="G8" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!E19</f>
-        <v>ㄚ+</v>
+      <c r="H8" s="48" t="s">
+        <v>232</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>96</v>
@@ -7818,16 +7714,14 @@
       <c r="E12" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!C12</f>
-        <v>ㄚ</v>
+      <c r="F12" s="48" t="s">
+        <v>230</v>
       </c>
       <c r="G12" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!E19</f>
-        <v>ㄚ+</v>
+      <c r="H12" s="48" t="s">
+        <v>232</v>
       </c>
       <c r="J12" s="44" t="s">
         <v>107</v>
@@ -7887,16 +7781,14 @@
       <c r="E16" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!E19</f>
-        <v>ㄚ+</v>
+      <c r="F16" s="48" t="s">
+        <v>232</v>
       </c>
       <c r="G16" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!E12</f>
-        <v>ㄚ_</v>
+      <c r="H16" s="48" t="s">
+        <v>233</v>
       </c>
       <c r="J16" s="44" t="s">
         <v>118</v>
@@ -7956,16 +7848,14 @@
       <c r="E20" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!E12</f>
-        <v>ㄚ_</v>
+      <c r="F20" s="48" t="s">
+        <v>233</v>
       </c>
       <c r="G20" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="48" t="str">
-        <f>'[1]135拼音-聲調符號 (2)'!D12</f>
-        <v>ㄚˋ</v>
+      <c r="H20" s="48" t="s">
+        <v>229</v>
       </c>
       <c r="J20" s="44" t="s">
         <v>130</v>

--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D17EC98-5509-4056-AA75-92F2F1673D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861201D2-3E70-4F49-8525-7639F802080D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="漢字注音" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,13 @@
     <sheet name="135拼音-聲調轉換" sheetId="4" r:id="rId6"/>
     <sheet name="轉調助記圖" sheetId="5" r:id="rId7"/>
     <sheet name="設定" sheetId="2" r:id="rId8"/>
+    <sheet name="env" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="FILE_NAME">env!$C$3</definedName>
+    <definedName name="IMAGE_URL">env!$C$5</definedName>
+    <definedName name="INPUT_FILE_PATH">env!$C$2</definedName>
+    <definedName name="TITLE">env!$C$4</definedName>
     <definedName name="顯示注音輸入">設定!$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -68,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="367">
   <si>
     <t>合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1657,12 +1662,62 @@
   <si>
     <t>ㄊㄛㄥ¹</t>
   </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>INPUT_FILE_PATH</t>
+  </si>
+  <si>
+    <t>/Users/alanjui/workspace/rime/piau-im/docs</t>
+  </si>
+  <si>
+    <t>FILE_NAME</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>IMAGE_URL</t>
+  </si>
+  <si>
+    <t>https://learnsmart.edu.hk/wp-content/uploads/elementor/thumbs/-q3e1ahonwlevxwmjx5oqk2jlokxnu3fugk0sf8i6gi.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tai_Gi_Zu_Im_Bun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="黒体-繁"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒窯賦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="60">
+  <fonts count="64">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2078,8 +2133,35 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="黒体-繁"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Heiti TC Light"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="黒体-繁"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2113,6 +2195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,10 +2346,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2517,9 +2611,23 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{76034F41-EF4D-45D9-9F7D-15143B8CF496}"/>
+    <cellStyle name="超連結" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -3245,7 +3353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B1:V23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
@@ -8074,7 +8182,7 @@
         <v>200</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8086,4 +8194,68 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E708D86-BBB8-44D0-8445-A03F101D45B0}">
+  <dimension ref="B1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="1.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" customWidth="1"/>
+    <col min="3" max="3" width="149.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="25.5">
+      <c r="B1" s="90" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="25.5">
+      <c r="B2" s="89" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="25.5">
+      <c r="B3" s="89" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="25.5">
+      <c r="B4" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="25.5">
+      <c r="B5" s="89" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{A253FE4E-0866-4DC5-A45F-0A6CBF8AEE39}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861201D2-3E70-4F49-8525-7639F802080D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BE01734-6867-46F4-B394-A10D1F72CC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="漢字注音" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,8 @@
     <sheet name="135拼音-聲調轉換" sheetId="4" r:id="rId6"/>
     <sheet name="轉調助記圖" sheetId="5" r:id="rId7"/>
     <sheet name="設定" sheetId="2" r:id="rId8"/>
-    <sheet name="env" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="FILE_NAME">env!$C$3</definedName>
-    <definedName name="IMAGE_URL">env!$C$5</definedName>
-    <definedName name="INPUT_FILE_PATH">env!$C$2</definedName>
-    <definedName name="TITLE">env!$C$4</definedName>
     <definedName name="顯示注音輸入">設定!$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -73,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="357">
   <si>
     <t>合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1662,62 +1657,12 @@
   <si>
     <t>ㄊㄛㄥ¹</t>
   </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>INPUT_FILE_PATH</t>
-  </si>
-  <si>
-    <t>/Users/alanjui/workspace/rime/piau-im/docs</t>
-  </si>
-  <si>
-    <t>FILE_NAME</t>
-  </si>
-  <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>IMAGE_URL</t>
-  </si>
-  <si>
-    <t>https://learnsmart.edu.hk/wp-content/uploads/elementor/thumbs/-q3e1ahonwlevxwmjx5oqk2jlokxnu3fugk0sf8i6gi.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tai_Gi_Zu_Im_Bun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="黒体-繁"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒窯賦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="64">
+  <fonts count="60">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -1988,11 +1933,15 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="16"/>
@@ -2133,35 +2082,8 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="黒体-繁"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Heiti TC Light"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="18"/>
-      <color theme="10"/>
-      <name val="黒体-繁"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2195,12 +2117,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2346,16 +2262,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2611,23 +2521,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{76034F41-EF4D-45D9-9F7D-15143B8CF496}"/>
-    <cellStyle name="超連結" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -3353,7 +3249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B1:V23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
@@ -3579,7 +3475,7 @@
       </c>
       <c r="S5" s="72"/>
     </row>
-    <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5">
+    <row r="6" spans="2:22" s="57" customFormat="1">
       <c r="C6" s="73"/>
       <c r="D6" s="74" t="s">
         <v>278</v>
@@ -3763,7 +3659,7 @@
       </c>
       <c r="S9" s="72"/>
     </row>
-    <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5">
+    <row r="10" spans="2:22" s="2" customFormat="1">
       <c r="C10" s="69"/>
       <c r="D10" s="74" t="s">
         <v>302</v>
@@ -3949,7 +3845,7 @@
       </c>
       <c r="S13" s="72"/>
     </row>
-    <row r="14" spans="2:22" s="2" customFormat="1" ht="22.5">
+    <row r="14" spans="2:22" s="2" customFormat="1">
       <c r="C14" s="69"/>
       <c r="D14" s="74" t="s">
         <v>282</v>
@@ -4137,7 +4033,7 @@
       </c>
       <c r="S17" s="72"/>
     </row>
-    <row r="18" spans="2:19" s="2" customFormat="1" ht="22.5">
+    <row r="18" spans="2:19" s="2" customFormat="1">
       <c r="C18" s="69"/>
       <c r="D18" s="74" t="s">
         <v>344</v>
@@ -4251,7 +4147,7 @@
       <c r="R21" s="4"/>
       <c r="S21" s="72"/>
     </row>
-    <row r="22" spans="2:19" s="2" customFormat="1" ht="22.5">
+    <row r="22" spans="2:19" s="2" customFormat="1">
       <c r="C22" s="69"/>
       <c r="D22" s="74" t="s">
         <v>356</v>
@@ -4590,7 +4486,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" s="60" customFormat="1" ht="22.5">
+    <row r="6" spans="2:19" s="60" customFormat="1">
       <c r="D6" s="63" t="str">
         <f t="shared" ref="D6:R6" si="2" xml:space="preserve"> IFERROR( RIGHT(D3,  LEN(D3) - FIND("〕", D3)), "")</f>
         <v>【ㄊㄧ¹】</v>
@@ -4825,7 +4721,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" s="2" customFormat="1" ht="22.5">
+    <row r="10" spans="2:19" s="2" customFormat="1">
       <c r="D10" s="63" t="str">
         <f t="shared" ref="D10:R10" si="4" xml:space="preserve"> IFERROR( RIGHT(D7,  LEN(D7) - FIND("〕", D7)), "")</f>
         <v>【ㄍㄤ¹】</v>
@@ -5062,7 +4958,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" s="2" customFormat="1" ht="22.5">
+    <row r="14" spans="2:19" s="2" customFormat="1">
       <c r="D14" s="63" t="str">
         <f t="shared" ref="D14:R14" si="6" xml:space="preserve"> IFERROR( RIGHT(D11,  LEN(D11) - FIND("〕", D11)), "")</f>
         <v>【ㄅㄨ⁴】</v>
@@ -5299,7 +5195,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" s="2" customFormat="1" ht="22.5">
+    <row r="18" spans="2:19" s="2" customFormat="1">
       <c r="D18" s="63" t="str">
         <f t="shared" ref="D18:R18" si="8" xml:space="preserve"> IFERROR( RIGHT(D15,  LEN(D15) - FIND("〕", D15)), "")</f>
         <v>【ㄗㄨ⁷】</v>
@@ -5512,7 +5408,7 @@
       </c>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="2:19" s="2" customFormat="1" ht="22.5">
+    <row r="22" spans="2:19" s="2" customFormat="1">
       <c r="D22" s="63" t="str">
         <f t="shared" ref="D22:R22" si="10" xml:space="preserve"> IFERROR( RIGHT(D19,  LEN(D19) - FIND("〕", D19)), "")</f>
         <v>【ㄊㄛㄥ¹】</v>
@@ -5898,7 +5794,7 @@
       </c>
       <c r="S5" s="72"/>
     </row>
-    <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5">
+    <row r="6" spans="2:22" s="57" customFormat="1">
       <c r="C6" s="73"/>
       <c r="D6" s="74" t="str">
         <f xml:space="preserve"> IFERROR( RIGHT(D3,  LEN(D3) - FIND("〕", D3)), "")</f>
@@ -6139,7 +6035,7 @@
       </c>
       <c r="S9" s="72"/>
     </row>
-    <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5">
+    <row r="10" spans="2:22" s="2" customFormat="1">
       <c r="C10" s="69"/>
       <c r="D10" s="74" t="str">
         <f xml:space="preserve"> IFERROR( RIGHT(D7,  LEN(D7) - FIND("〕", D7)), "")</f>
@@ -6376,7 +6272,7 @@
       </c>
       <c r="S13" s="72"/>
     </row>
-    <row r="14" spans="2:22" s="2" customFormat="1" ht="22.5">
+    <row r="14" spans="2:22" s="2" customFormat="1">
       <c r="C14" s="69"/>
       <c r="D14" s="74" t="str">
         <f xml:space="preserve"> IFERROR( RIGHT(D11,  LEN(D11) - FIND("〕", D11)), "")</f>
@@ -6591,7 +6487,7 @@
       </c>
       <c r="S17" s="72"/>
     </row>
-    <row r="18" spans="2:19" s="2" customFormat="1" ht="22.5">
+    <row r="18" spans="2:19" s="2" customFormat="1">
       <c r="C18" s="69"/>
       <c r="D18" s="74" t="str">
         <f xml:space="preserve"> IFERROR( RIGHT(D15,  LEN(D15) - FIND("〕", D15)), "")</f>
@@ -6806,7 +6702,7 @@
       </c>
       <c r="S21" s="72"/>
     </row>
-    <row r="22" spans="2:19" s="2" customFormat="1" ht="22.5">
+    <row r="22" spans="2:19" s="2" customFormat="1">
       <c r="C22" s="69"/>
       <c r="D22" s="74" t="str">
         <f xml:space="preserve"> IFERROR( RIGHT(D19,  LEN(D19) - FIND("〕", D19)), "")</f>
@@ -6972,7 +6868,7 @@
     <col min="18" max="18" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="44.25">
+    <row r="2" spans="2:18" ht="45.75">
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
@@ -7463,7 +7359,7 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
     </row>
-    <row r="18" spans="3:14" ht="32.25">
+    <row r="18" spans="3:14" ht="39">
       <c r="C18" s="37"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
@@ -7476,7 +7372,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="3:14" ht="22.5">
+    <row r="19" spans="3:14">
       <c r="C19" s="40"/>
       <c r="J19" s="40"/>
       <c r="K19" s="41"/>
@@ -7484,7 +7380,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="3:14" ht="22.5">
+    <row r="20" spans="3:14">
       <c r="C20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="41"/>
@@ -7492,7 +7388,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="3:14" ht="22.5">
+    <row r="21" spans="3:14">
       <c r="C21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="41"/>
@@ -7500,7 +7396,7 @@
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="3:14" ht="22.5">
+    <row r="22" spans="3:14">
       <c r="C22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="41"/>
@@ -7508,7 +7404,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="3:14" ht="22.5">
+    <row r="23" spans="3:14">
       <c r="C23" s="40"/>
       <c r="J23" s="40"/>
       <c r="K23" s="41"/>
@@ -7516,7 +7412,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="3:14" ht="22.5">
+    <row r="24" spans="3:14">
       <c r="C24" s="40"/>
       <c r="J24" s="40"/>
       <c r="K24" s="41"/>
@@ -7524,7 +7420,7 @@
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="3:14" ht="22.5">
+    <row r="25" spans="3:14">
       <c r="C25" s="40"/>
       <c r="J25" s="40"/>
       <c r="K25" s="41"/>
@@ -7532,7 +7428,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
     </row>
-    <row r="26" spans="3:14" ht="22.5">
+    <row r="26" spans="3:14">
       <c r="C26" s="40"/>
       <c r="J26" s="40"/>
       <c r="K26" s="41"/>
@@ -7540,7 +7436,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="3:14" ht="22.5">
+    <row r="27" spans="3:14">
       <c r="J27" s="40"/>
       <c r="K27" s="41"/>
       <c r="L27" s="41"/>
@@ -7554,63 +7450,63 @@
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="3:14" ht="22.5">
+    <row r="29" spans="3:14">
       <c r="J29" s="40"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="3:14" ht="22.5">
+    <row r="30" spans="3:14">
       <c r="J30" s="40"/>
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="3:14" ht="22.5">
+    <row r="31" spans="3:14">
       <c r="J31" s="40"/>
       <c r="K31" s="41"/>
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
     </row>
-    <row r="32" spans="3:14" ht="22.5">
+    <row r="32" spans="3:14">
       <c r="J32" s="40"/>
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
     </row>
-    <row r="33" spans="10:14" ht="22.5">
+    <row r="33" spans="10:14">
       <c r="J33" s="40"/>
       <c r="K33" s="41"/>
       <c r="L33" s="41"/>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="10:14" ht="22.5">
+    <row r="34" spans="10:14">
       <c r="J34" s="40"/>
       <c r="K34" s="41"/>
       <c r="L34" s="41"/>
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="10:14" ht="22.5">
+    <row r="35" spans="10:14">
       <c r="J35" s="40"/>
       <c r="K35" s="41"/>
       <c r="L35" s="41"/>
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="10:14" ht="22.5">
+    <row r="36" spans="10:14">
       <c r="J36" s="40"/>
       <c r="K36" s="41"/>
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
     </row>
-    <row r="37" spans="10:14" ht="22.5">
+    <row r="37" spans="10:14">
       <c r="J37" s="40"/>
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
@@ -8182,7 +8078,7 @@
         <v>200</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8194,68 +8090,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E708D86-BBB8-44D0-8445-A03F101D45B0}">
-  <dimension ref="B1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
-  <cols>
-    <col min="1" max="1" width="1.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" customWidth="1"/>
-    <col min="3" max="3" width="149.296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="25.5">
-      <c r="B1" s="90" t="s">
-        <v>357</v>
-      </c>
-      <c r="C1" s="90" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" ht="25.5">
-      <c r="B2" s="89" t="s">
-        <v>359</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="25.5">
-      <c r="B3" s="89" t="s">
-        <v>361</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="25.5">
-      <c r="B4" s="89" t="s">
-        <v>362</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="25.5">
-      <c r="B5" s="89" t="s">
-        <v>363</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>364</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{A253FE4E-0866-4DC5-A45F-0A6CBF8AEE39}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BE01734-6867-46F4-B394-A10D1F72CC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB81386E-EE5F-4F18-8E5D-F6CF64E0F617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="漢字注音" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,13 @@
     <sheet name="135拼音-聲調轉換" sheetId="4" r:id="rId6"/>
     <sheet name="轉調助記圖" sheetId="5" r:id="rId7"/>
     <sheet name="設定" sheetId="2" r:id="rId8"/>
+    <sheet name="env" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="FILE_NAME">env!$C$3</definedName>
+    <definedName name="IMAGE_URL">env!$C$5</definedName>
+    <definedName name="INPUT_FILE_PATH">env!$C$2</definedName>
+    <definedName name="TITLE">env!$C$4</definedName>
     <definedName name="顯示注音輸入">設定!$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -68,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="374">
   <si>
     <t>合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1436,18 +1441,9 @@
     <t>ㄅㄨ⁴</t>
   </si>
   <si>
-    <t>cik⁴</t>
-  </si>
-  <si>
-    <t>ㄑㄧ⁴</t>
-  </si>
-  <si>
     <t>hong¹</t>
   </si>
   <si>
-    <t>ㄏㄛㄥ¹</t>
-  </si>
-  <si>
     <t>hun⁵</t>
   </si>
   <si>
@@ -1656,13 +1652,143 @@
   </si>
   <si>
     <t>ㄊㄛㄥ¹</t>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="61" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="61" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPUT_FILE_PATH</t>
+  </si>
+  <si>
+    <t>FILE_NAME</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>IMAGE_URL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Tai_Gi_Zu_Im_Bun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="黒体-繁"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒窯賦</t>
+    <phoneticPr fontId="61" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="黒体-繁"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="黒体-繁"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\Piau-Im</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔thiⁿ¹〕【ㄊㆪˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔put⁴〕【ㄅㄨ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tshik⁴〕【ㄑㄧ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hong¹〕【ㄏㄛㄥˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hijoys.com/zb_users/upload/2023/07/202307061688657255802206.png</t>
+  </si>
+  <si>
+    <t>thiⁿ¹</t>
+  </si>
+  <si>
+    <t>ㄊㆪˉ</t>
+  </si>
+  <si>
+    <t>ㄅㄨ</t>
+  </si>
+  <si>
+    <t>tshik⁴</t>
+  </si>
+  <si>
+    <t>ㄑㄧ</t>
+  </si>
+  <si>
+    <t>ㄏㄛㄥˉ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="60">
+  <fonts count="67">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2082,8 +2208,57 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="黒体-繁"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="黒体-繁"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="黒体-繁"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Serif TC SemiBold"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2117,6 +2292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2262,10 +2443,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2512,6 +2699,12 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2521,11 +2714,28 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{A5F7C270-9EF9-47AE-A4BA-2FABD04D346C}"/>
+    <cellStyle name="超連結 2" xfId="2" xr:uid="{34C9E170-049B-4BAE-90BB-F976AD53B7A6}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="25">
     <dxf>
       <font>
         <b/>
@@ -2672,6 +2882,11 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2679,6 +2894,11 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2686,6 +2906,11 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2693,6 +2918,11 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2700,41 +2930,11 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3250,7 +3450,7 @@
   <dimension ref="B1:V23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -3328,45 +3528,45 @@
     </row>
     <row r="3" spans="2:22" s="58" customFormat="1" ht="26.1" customHeight="1">
       <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="86" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="I3" s="67" t="s">
+      <c r="F3" s="86" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" s="86" t="s">
+        <v>365</v>
+      </c>
+      <c r="H3" s="86" t="s">
+        <v>366</v>
+      </c>
+      <c r="I3" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67" t="s">
+      <c r="J3" s="86"/>
+      <c r="K3" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="M3" s="67" t="s">
+      <c r="M3" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="N3" s="67" t="s">
+      <c r="N3" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="O3" s="67" t="s">
+      <c r="O3" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="P3" s="67" t="s">
+      <c r="P3" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67" t="s">
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86" t="s">
         <v>170</v>
       </c>
       <c r="S3" s="68"/>
@@ -3381,7 +3581,7 @@
     <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C4" s="69"/>
       <c r="D4" s="70" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="E4" s="70" t="s">
         <v>279</v>
@@ -3390,36 +3590,36 @@
         <v>281</v>
       </c>
       <c r="G4" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="H4" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="H4" s="70" t="s">
-        <v>285</v>
-      </c>
       <c r="I4" s="70" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J4" s="70"/>
       <c r="K4" s="70" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L4" s="70" t="s">
         <v>279</v>
       </c>
       <c r="M4" s="70" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N4" s="70" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O4" s="70" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P4" s="70" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="70"/>
       <c r="R4" s="70" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S4" s="71"/>
     </row>
@@ -3428,137 +3628,137 @@
         <v>1</v>
       </c>
       <c r="C5" s="69"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="95" t="s">
         <v>238</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="95" t="s">
         <v>266</v>
       </c>
       <c r="S5" s="72"/>
     </row>
-    <row r="6" spans="2:22" s="57" customFormat="1">
+    <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5">
       <c r="C6" s="73"/>
       <c r="D6" s="74" t="s">
-        <v>278</v>
+        <v>369</v>
       </c>
       <c r="E6" s="74" t="s">
         <v>280</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>282</v>
+        <v>370</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>284</v>
+        <v>372</v>
       </c>
       <c r="H6" s="74" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="I6" s="74" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J6" s="74"/>
       <c r="K6" s="74" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L6" s="74" t="s">
         <v>280</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N6" s="74" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O6" s="74" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P6" s="74" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q6" s="74"/>
       <c r="R6" s="74" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S6" s="75"/>
     </row>
     <row r="7" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C7" s="76"/>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77" t="s">
+      <c r="G7" s="87"/>
+      <c r="H7" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77" t="s">
+      <c r="L7" s="87"/>
+      <c r="M7" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="N7" s="77" t="s">
+      <c r="N7" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="O7" s="77" t="s">
+      <c r="O7" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="P7" s="77" t="s">
+      <c r="P7" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77" t="s">
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87" t="s">
         <v>181</v>
       </c>
       <c r="S7" s="78"/>
@@ -3566,43 +3766,43 @@
     <row r="8" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C8" s="69"/>
       <c r="D8" s="70" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G8" s="70"/>
       <c r="H8" s="70" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I8" s="70" t="s">
         <v>281</v>
       </c>
       <c r="J8" s="70" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K8" s="70" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L8" s="70"/>
       <c r="M8" s="70" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N8" s="70" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O8" s="70" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P8" s="70" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="70"/>
       <c r="R8" s="70" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S8" s="71"/>
     </row>
@@ -3612,137 +3812,137 @@
         <v>2</v>
       </c>
       <c r="C9" s="69"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="95" t="s">
         <v>269</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="95" t="s">
         <v>271</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="95" t="s">
         <v>272</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="95" t="s">
         <v>273</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="95" t="s">
         <v>274</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="95" t="s">
         <v>275</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="95" t="s">
         <v>241</v>
       </c>
       <c r="S9" s="72"/>
     </row>
-    <row r="10" spans="2:22" s="2" customFormat="1">
+    <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5">
       <c r="C10" s="69"/>
       <c r="D10" s="74" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G10" s="74"/>
       <c r="H10" s="74" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I10" s="74" t="s">
         <v>282</v>
       </c>
       <c r="J10" s="74" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K10" s="74" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L10" s="74"/>
       <c r="M10" s="74" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N10" s="74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O10" s="74" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P10" s="74" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="74"/>
       <c r="R10" s="74" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S10" s="79"/>
     </row>
     <row r="11" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C11" s="76"/>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77" t="s">
+      <c r="G11" s="87"/>
+      <c r="H11" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="J11" s="77" t="s">
+      <c r="J11" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="K11" s="77" t="s">
+      <c r="K11" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="L11" s="77" t="s">
+      <c r="L11" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="M11" s="77" t="s">
+      <c r="M11" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77" t="s">
+      <c r="N11" s="87"/>
+      <c r="O11" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="P11" s="77" t="s">
+      <c r="P11" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="R11" s="77" t="s">
+      <c r="R11" s="87" t="s">
         <v>191</v>
       </c>
       <c r="S11" s="78"/>
@@ -3753,42 +3953,42 @@
         <v>281</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G12" s="70"/>
       <c r="H12" s="70" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I12" s="70" t="s">
         <v>279</v>
       </c>
       <c r="J12" s="70" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K12" s="70" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L12" s="70" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M12" s="70" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N12" s="70"/>
       <c r="O12" s="70" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P12" s="70" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q12" s="70" t="s">
         <v>281</v>
       </c>
       <c r="R12" s="70" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="S12" s="71"/>
     </row>
@@ -3798,139 +3998,139 @@
         <v>3</v>
       </c>
       <c r="C13" s="69"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="95" t="s">
         <v>242</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="95" t="s">
         <v>251</v>
       </c>
       <c r="S13" s="72"/>
     </row>
-    <row r="14" spans="2:22" s="2" customFormat="1">
+    <row r="14" spans="2:22" s="2" customFormat="1" ht="22.5">
       <c r="C14" s="69"/>
       <c r="D14" s="74" t="s">
         <v>282</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G14" s="74"/>
       <c r="H14" s="74" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I14" s="74" t="s">
         <v>280</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K14" s="74" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L14" s="74" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M14" s="74" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N14" s="74"/>
       <c r="O14" s="74" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P14" s="74" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="74" t="s">
         <v>282</v>
       </c>
       <c r="R14" s="74" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="S14" s="79"/>
     </row>
     <row r="15" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C15" s="76"/>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77" t="s">
+      <c r="F15" s="87"/>
+      <c r="G15" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="77" t="s">
+      <c r="H15" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="J15" s="77" t="s">
+      <c r="J15" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="K15" s="77" t="s">
+      <c r="K15" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="L15" s="77" t="s">
+      <c r="L15" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77" t="s">
+      <c r="M15" s="87"/>
+      <c r="N15" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="O15" s="77" t="s">
+      <c r="O15" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="P15" s="77" t="s">
+      <c r="P15" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="Q15" s="77" t="s">
+      <c r="Q15" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="R15" s="77" t="s">
+      <c r="R15" s="87" t="s">
         <v>192</v>
       </c>
       <c r="S15" s="78"/>
@@ -3938,45 +4138,45 @@
     <row r="16" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C16" s="69"/>
       <c r="D16" s="70" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="70" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H16" s="70" t="s">
         <v>279</v>
       </c>
       <c r="I16" s="70" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J16" s="70" t="s">
         <v>277</v>
       </c>
       <c r="K16" s="70" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L16" s="70" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M16" s="70"/>
       <c r="N16" s="70" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O16" s="70" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P16" s="70" t="s">
         <v>281</v>
       </c>
       <c r="Q16" s="70" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="R16" s="70" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="S16" s="71"/>
     </row>
@@ -3986,123 +4186,123 @@
         <v>4</v>
       </c>
       <c r="C17" s="69"/>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="95" t="s">
         <v>238</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="95" t="s">
         <v>252</v>
       </c>
       <c r="S17" s="72"/>
     </row>
-    <row r="18" spans="2:19" s="2" customFormat="1">
+    <row r="18" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="C18" s="69"/>
       <c r="D18" s="74" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F18" s="74"/>
       <c r="G18" s="74" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H18" s="74" t="s">
         <v>280</v>
       </c>
       <c r="I18" s="74" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J18" s="74" t="s">
         <v>278</v>
       </c>
       <c r="K18" s="74" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L18" s="74" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M18" s="74"/>
       <c r="N18" s="74" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O18" s="74" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P18" s="74" t="s">
         <v>282</v>
       </c>
       <c r="Q18" s="74" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="R18" s="74" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="S18" s="79"/>
     </row>
     <row r="19" spans="2:19" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C19" s="76"/>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
       <c r="S19" s="78"/>
     </row>
     <row r="20" spans="2:19" s="2" customFormat="1" ht="25.5">
       <c r="C20" s="69"/>
       <c r="D20" s="70" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E20" s="70"/>
       <c r="F20" s="70"/>
@@ -4126,31 +4326,31 @@
         <v>5</v>
       </c>
       <c r="C21" s="69"/>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
       <c r="S21" s="72"/>
     </row>
-    <row r="22" spans="2:19" s="2" customFormat="1">
+    <row r="22" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="C22" s="69"/>
       <c r="D22" s="74" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E22" s="74"/>
       <c r="F22" s="74"/>
@@ -4190,43 +4390,28 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="6">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="4">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4486,7 +4671,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" s="60" customFormat="1">
+    <row r="6" spans="2:19" s="60" customFormat="1" ht="22.5">
       <c r="D6" s="63" t="str">
         <f t="shared" ref="D6:R6" si="2" xml:space="preserve"> IFERROR( RIGHT(D3,  LEN(D3) - FIND("〕", D3)), "")</f>
         <v>【ㄊㄧ¹】</v>
@@ -4721,7 +4906,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:19" s="2" customFormat="1">
+    <row r="10" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="D10" s="63" t="str">
         <f t="shared" ref="D10:R10" si="4" xml:space="preserve"> IFERROR( RIGHT(D7,  LEN(D7) - FIND("〕", D7)), "")</f>
         <v>【ㄍㄤ¹】</v>
@@ -4958,7 +5143,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:19" s="2" customFormat="1">
+    <row r="14" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="D14" s="63" t="str">
         <f t="shared" ref="D14:R14" si="6" xml:space="preserve"> IFERROR( RIGHT(D11,  LEN(D11) - FIND("〕", D11)), "")</f>
         <v>【ㄅㄨ⁴】</v>
@@ -5195,7 +5380,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="2:19" s="2" customFormat="1">
+    <row r="18" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="D18" s="63" t="str">
         <f t="shared" ref="D18:R18" si="8" xml:space="preserve"> IFERROR( RIGHT(D15,  LEN(D15) - FIND("〕", D15)), "")</f>
         <v>【ㄗㄨ⁷】</v>
@@ -5408,7 +5593,7 @@
       </c>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="2:19" s="2" customFormat="1">
+    <row r="22" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="D22" s="63" t="str">
         <f t="shared" ref="D22:R22" si="10" xml:space="preserve"> IFERROR( RIGHT(D19,  LEN(D19) - FIND("〕", D19)), "")</f>
         <v>【ㄊㄛㄥ¹】</v>
@@ -5794,7 +5979,7 @@
       </c>
       <c r="S5" s="72"/>
     </row>
-    <row r="6" spans="2:22" s="57" customFormat="1">
+    <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5">
       <c r="C6" s="73"/>
       <c r="D6" s="74" t="str">
         <f xml:space="preserve"> IFERROR( RIGHT(D3,  LEN(D3) - FIND("〕", D3)), "")</f>
@@ -6035,7 +6220,7 @@
       </c>
       <c r="S9" s="72"/>
     </row>
-    <row r="10" spans="2:22" s="2" customFormat="1">
+    <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5">
       <c r="C10" s="69"/>
       <c r="D10" s="74" t="str">
         <f xml:space="preserve"> IFERROR( RIGHT(D7,  LEN(D7) - FIND("〕", D7)), "")</f>
@@ -6272,7 +6457,7 @@
       </c>
       <c r="S13" s="72"/>
     </row>
-    <row r="14" spans="2:22" s="2" customFormat="1">
+    <row r="14" spans="2:22" s="2" customFormat="1" ht="22.5">
       <c r="C14" s="69"/>
       <c r="D14" s="74" t="str">
         <f xml:space="preserve"> IFERROR( RIGHT(D11,  LEN(D11) - FIND("〕", D11)), "")</f>
@@ -6487,7 +6672,7 @@
       </c>
       <c r="S17" s="72"/>
     </row>
-    <row r="18" spans="2:19" s="2" customFormat="1">
+    <row r="18" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="C18" s="69"/>
       <c r="D18" s="74" t="str">
         <f xml:space="preserve"> IFERROR( RIGHT(D15,  LEN(D15) - FIND("〕", D15)), "")</f>
@@ -6702,7 +6887,7 @@
       </c>
       <c r="S21" s="72"/>
     </row>
-    <row r="22" spans="2:19" s="2" customFormat="1">
+    <row r="22" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="C22" s="69"/>
       <c r="D22" s="74" t="str">
         <f xml:space="preserve"> IFERROR( RIGHT(D19,  LEN(D19) - FIND("〕", D19)), "")</f>
@@ -6903,7 +7088,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -6921,7 +7106,7 @@
       <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="88" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -6946,7 +7131,7 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="87"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
@@ -6966,7 +7151,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="89"/>
       <c r="J6" s="15" t="s">
         <v>20</v>
       </c>
@@ -6988,7 +7173,7 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="87"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="19" t="s">
         <v>25</v>
       </c>
@@ -7004,7 +7189,7 @@
       <c r="G7" s="20">
         <v>30</v>
       </c>
-      <c r="I7" s="87"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="19" t="s">
         <v>25</v>
       </c>
@@ -7026,7 +7211,7 @@
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="87"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="15" t="s">
         <v>27</v>
       </c>
@@ -7042,7 +7227,7 @@
       <c r="G8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="87"/>
+      <c r="I8" s="89"/>
       <c r="J8" s="22" t="s">
         <v>27</v>
       </c>
@@ -7064,7 +7249,7 @@
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="87"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="15" t="s">
         <v>36</v>
       </c>
@@ -7080,7 +7265,7 @@
       <c r="G9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="89"/>
       <c r="J9" s="15" t="s">
         <v>36</v>
       </c>
@@ -7102,7 +7287,7 @@
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="88"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="15" t="s">
         <v>41</v>
       </c>
@@ -7118,7 +7303,7 @@
       <c r="G10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="88"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="15" t="s">
         <v>46</v>
       </c>
@@ -7141,7 +7326,7 @@
       <c r="R10" s="32"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="88" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -7159,7 +7344,7 @@
       <c r="G11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="88" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -7183,7 +7368,7 @@
       <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="87"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
@@ -7203,7 +7388,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="87"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="15" t="s">
         <v>20</v>
       </c>
@@ -7223,7 +7408,7 @@
       <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="87"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="19" t="s">
         <v>25</v>
       </c>
@@ -7237,7 +7422,7 @@
       <c r="G13" s="20">
         <v>50</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="89"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -7257,7 +7442,7 @@
       <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="87"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="15" t="s">
         <v>27</v>
       </c>
@@ -7271,7 +7456,7 @@
       <c r="G14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="87"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="15" t="s">
         <v>27</v>
       </c>
@@ -7291,7 +7476,7 @@
       <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="87"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="15" t="s">
         <v>36</v>
       </c>
@@ -7305,7 +7490,7 @@
       <c r="G15" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="87"/>
+      <c r="I15" s="89"/>
       <c r="J15" s="15" t="s">
         <v>36</v>
       </c>
@@ -7325,7 +7510,7 @@
       <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="88"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="15" t="s">
         <v>41</v>
       </c>
@@ -7339,7 +7524,7 @@
       <c r="G16" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="88"/>
+      <c r="I16" s="90"/>
       <c r="J16" s="15" t="s">
         <v>46</v>
       </c>
@@ -8090,4 +8275,66 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42963889-29A9-4CBC-8803-98F4B3C67876}">
+  <dimension ref="B1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" style="92" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="92" customWidth="1"/>
+    <col min="3" max="3" width="93.796875" style="92" customWidth="1"/>
+    <col min="4" max="16384" width="12" style="92"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="92" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="92" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB81386E-EE5F-4F18-8E5D-F6CF64E0F617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A3491F7-DDE8-4BF6-98B5-172875EA0DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-29025" yWindow="795" windowWidth="29010" windowHeight="14220" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="漢字注音" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="435">
   <si>
     <t>合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1139,10 +1139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天有不測風雲，人有旦夕禍福。蜈蚣百足，行不及蛇；雄雞兩翼，飛不過鴉。馬有千里之程，無騎不能自往；人有沖天之志，非運不能自通。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔cong²〕【ㄘㄛㄥ²】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1294,12 +1290,6 @@
     <t>ㄚ_</t>
   </si>
   <si>
-    <t>天</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
     <t>不</t>
   </si>
   <si>
@@ -1312,346 +1302,22 @@
     <t>。</t>
   </si>
   <si>
-    <t>；</t>
-  </si>
-  <si>
-    <t>飛</t>
-  </si>
-  <si>
-    <t>過</t>
-  </si>
-  <si>
-    <t>鴉</t>
-  </si>
-  <si>
-    <t>馬</t>
-  </si>
-  <si>
-    <t>千</t>
-  </si>
-  <si>
-    <t>里</t>
-  </si>
-  <si>
-    <t>之</t>
-  </si>
-  <si>
-    <t>程</t>
-  </si>
-  <si>
-    <t>無</t>
-  </si>
-  <si>
-    <t>騎</t>
-  </si>
-  <si>
-    <t>能</t>
-  </si>
-  <si>
-    <t>自</t>
-  </si>
-  <si>
-    <t>往</t>
-  </si>
-  <si>
-    <t>沖</t>
-  </si>
-  <si>
-    <t>志</t>
-  </si>
-  <si>
-    <t>非</t>
-  </si>
-  <si>
-    <t>運</t>
-  </si>
-  <si>
-    <t>通</t>
-  </si>
-  <si>
-    <t>測</t>
-  </si>
-  <si>
     <t>風</t>
   </si>
   <si>
-    <t>雲</t>
-  </si>
-  <si>
-    <t>旦</t>
-  </si>
-  <si>
-    <t>夕</t>
-  </si>
-  <si>
-    <t>禍</t>
-  </si>
-  <si>
-    <t>福</t>
-  </si>
-  <si>
-    <t>蜈</t>
-  </si>
-  <si>
-    <t>蚣</t>
-  </si>
-  <si>
-    <t>百</t>
-  </si>
-  <si>
-    <t>足</t>
-  </si>
-  <si>
-    <t>行</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>蛇</t>
-  </si>
-  <si>
-    <t>雄</t>
-  </si>
-  <si>
-    <t>雞</t>
-  </si>
-  <si>
-    <t>兩</t>
-  </si>
-  <si>
-    <t>翼</t>
-  </si>
-  <si>
-    <t>thⁿi¹</t>
-  </si>
-  <si>
-    <t>ㄊㄧ¹</t>
-  </si>
-  <si>
-    <t>u⁷</t>
-  </si>
-  <si>
-    <t>ㄨ⁷</t>
-  </si>
-  <si>
     <t>put⁴</t>
   </si>
   <si>
-    <t>ㄅㄨ⁴</t>
-  </si>
-  <si>
     <t>hong¹</t>
   </si>
   <si>
-    <t>hun⁵</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄣ⁵</t>
-  </si>
-  <si>
-    <t>lang⁵</t>
-  </si>
-  <si>
-    <t>ㄌㄤ⁵</t>
-  </si>
-  <si>
-    <t>tan³</t>
-  </si>
-  <si>
-    <t>ㄉㄢ³</t>
-  </si>
-  <si>
-    <t>sik⁸</t>
-  </si>
-  <si>
-    <t>ㄒㄧ⁸</t>
-  </si>
-  <si>
-    <t>ho⁷</t>
-  </si>
-  <si>
-    <t>ㄏㄜ⁷</t>
-  </si>
-  <si>
-    <t>hok⁴</t>
-  </si>
-  <si>
-    <t>ㄏㄛ⁴</t>
-  </si>
-  <si>
     <t>ngoo⁵</t>
   </si>
   <si>
-    <t>ㄥㄛ⁵</t>
-  </si>
-  <si>
-    <t>kang¹</t>
-  </si>
-  <si>
-    <t>ㄍㄤ¹</t>
-  </si>
-  <si>
-    <t>pah⁴</t>
-  </si>
-  <si>
-    <t>ㄅㄚ⁴</t>
-  </si>
-  <si>
-    <t>ziok⁴</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄛ⁴</t>
-  </si>
-  <si>
-    <t>kⁿia⁵</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄚ⁵</t>
-  </si>
-  <si>
-    <t>kip⁸</t>
-  </si>
-  <si>
-    <t>ㄍㄧ⁸</t>
-  </si>
-  <si>
-    <t>zua⁵</t>
-  </si>
-  <si>
-    <t>ㄗㄨㄚ⁵</t>
-  </si>
-  <si>
-    <t>hiong⁵</t>
-  </si>
-  <si>
-    <t>ㄏㄧㄛㄥ⁵</t>
-  </si>
-  <si>
-    <t>ke¹</t>
-  </si>
-  <si>
-    <t>ㄍㄝ¹</t>
-  </si>
-  <si>
-    <t>nng⁷</t>
-  </si>
-  <si>
-    <t>ㄋㄥ⁷</t>
-  </si>
-  <si>
-    <t>sit⁸</t>
-  </si>
-  <si>
-    <t>ㄒㄧ⁸</t>
-  </si>
-  <si>
-    <t>pue¹</t>
-  </si>
-  <si>
-    <t>ㄅㄨㄝ¹</t>
-  </si>
-  <si>
     <t>ko¹</t>
   </si>
   <si>
-    <t>ㄍㄜ¹</t>
-  </si>
-  <si>
-    <t>a¹</t>
-  </si>
-  <si>
-    <t>ㄚ¹</t>
-  </si>
-  <si>
-    <t>ma¹</t>
-  </si>
-  <si>
-    <t>ㄇㄚ¹</t>
-  </si>
-  <si>
-    <t>cian¹</t>
-  </si>
-  <si>
-    <t>ㄑㄧㄢ¹</t>
-  </si>
-  <si>
-    <t>li²</t>
-  </si>
-  <si>
-    <t>ㄌㄧ²</t>
-  </si>
-  <si>
-    <t>zi¹</t>
-  </si>
-  <si>
-    <t>ㄐㄧ¹</t>
-  </si>
-  <si>
     <t>ting⁵</t>
-  </si>
-  <si>
-    <t>ㄉㄧㄥ⁵</t>
-  </si>
-  <si>
-    <t>bo⁵</t>
-  </si>
-  <si>
-    <t>ㄜ⁵</t>
-  </si>
-  <si>
-    <t>khia⁵</t>
-  </si>
-  <si>
-    <t>ㄎㄧㄚ⁵</t>
-  </si>
-  <si>
-    <t>lerng⁵</t>
-  </si>
-  <si>
-    <t>ㄌㄧㄥ⁵</t>
-  </si>
-  <si>
-    <t>zu⁷</t>
-  </si>
-  <si>
-    <t>ㄗㄨ⁷</t>
-  </si>
-  <si>
-    <t>ong²</t>
-  </si>
-  <si>
-    <t>ㄛㄥ²</t>
-  </si>
-  <si>
-    <t>cong²</t>
-  </si>
-  <si>
-    <t>ㄘㄛㄥ²</t>
-  </si>
-  <si>
-    <t>zi³</t>
-  </si>
-  <si>
-    <t>ㄐㄧ³</t>
-  </si>
-  <si>
-    <t>hui¹</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄧ¹</t>
-  </si>
-  <si>
-    <t>un⁷</t>
-  </si>
-  <si>
-    <t>ㄨㄣ⁷</t>
-  </si>
-  <si>
-    <t>thong¹</t>
-  </si>
-  <si>
-    <t>ㄊㄛㄥ¹</t>
   </si>
   <si>
     <t>Key</t>
@@ -1695,10 +1361,6 @@
       <t>.xlsx</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒窯賦</t>
-    <phoneticPr fontId="61" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1747,48 +1409,643 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔thiⁿ¹〕【ㄊㆪˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔put⁴〕【ㄅㄨ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔tshik⁴〕【ㄑㄧ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔hong¹〕【ㄏㄛㄥˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hijoys.com/zb_users/upload/2023/07/202307061688657255802206.png</t>
-  </si>
-  <si>
-    <t>thiⁿ¹</t>
-  </si>
-  <si>
-    <t>ㄊㆪˉ</t>
-  </si>
-  <si>
-    <t>ㄅㄨ</t>
-  </si>
-  <si>
-    <t>tshik⁴</t>
-  </si>
-  <si>
-    <t>ㄑㄧ</t>
-  </si>
-  <si>
-    <t>ㄏㄛㄥˉ</t>
+    <t>採</t>
+  </si>
+  <si>
+    <t>桑</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>時</t>
+  </si>
+  <si>
+    <t>光</t>
+  </si>
+  <si>
+    <t>只</t>
+  </si>
+  <si>
+    <t>解</t>
+  </si>
+  <si>
+    <t>催</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>信</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>情</t>
+  </si>
+  <si>
+    <t>長</t>
+  </si>
+  <si>
+    <t>恨</t>
+  </si>
+  <si>
+    <t>離</t>
+  </si>
+  <si>
+    <t>亭</t>
+  </si>
+  <si>
+    <t>淚</t>
+  </si>
+  <si>
+    <t>滴</t>
+  </si>
+  <si>
+    <t>春</t>
+  </si>
+  <si>
+    <t>衫</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>易</t>
+  </si>
+  <si>
+    <t>醒</t>
+  </si>
+  <si>
+    <t>梧</t>
+  </si>
+  <si>
+    <t>桐</t>
+  </si>
+  <si>
+    <t>昨</t>
+  </si>
+  <si>
+    <t>夜</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>急</t>
+  </si>
+  <si>
+    <t>淡</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>朧</t>
+  </si>
+  <si>
+    <t>明</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>夢</t>
+  </si>
+  <si>
+    <t>頻</t>
+  </si>
+  <si>
+    <t>驚</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>處</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>樓</t>
+  </si>
+  <si>
+    <t>雁</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>聲</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <r>
+      <t>〔cai²〕【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>ㄘㄞ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ˋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔song¹〕【ㄙㆲˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zu²〕【ㄗㄨˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔si⁵〕【ㄒㄧˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kong¹〕【ㄍㆲˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zi²〕【ㄐㄧˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kai²〕【ㄍㄞˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔cui¹〕【ㄘㄨㄧˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔jin⁵〕【ㆡㄧㄣˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔noo²〕【ㄋㆦˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔put⁴〕【ㄅㄨㆵ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sin³〕【ㄒㄧㄣ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔to¹〕【ㄉㄜˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zing⁵〕【ㄐㄧㄥˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tiong⁵〕【ㄉㄧㆲˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hin⁷〕【ㄏㄧㄣ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔li¹〕【ㄌㄧˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ting⁵〕【ㄉㄧㄥˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lui⁷〕【ㄌㄨㄧ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tih⁴〕【ㄉㄧㆷ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔cun¹〕【ㄘㄨㄣˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔saⁿ¹〕【ㄙㆩˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ziu²〕【ㄐㄧㄨˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔i⁷〕【ㄧ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sing²〕【ㄒㄧㄥˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ngoo⁵〕【ㄫㆦˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tong⁵〕【ㄉㆲˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zok⁸〕【ㄗㆦㆶ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ia⁷〕【ㄧㄚ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔se¹〕【ㄙㆤˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hong¹〕【ㄏㆲˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kip⁴〕【ㄍㄧㆴ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tam⁷〕【ㄉㆰ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔guat⁸〕【ㆣㄨㄚㆵ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔long⁵〕【ㄌㆲˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔bing⁵〕【ㆠㄧㄥˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔pin⁵〕【ㄅㄧㄣˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔king¹〕【ㄍㄧㄥˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ho⁵〕【ㄏㄜˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔cu²〕【ㄘㄨˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ko¹〕【ㄍㄜˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔gan⁷〕【ㆣㄢ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔it⁴〕【ㄧㆵ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sing¹〕【ㄒㄧㄥˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔bong⁷〕【ㆠㆲ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hoⁿ³〕【ㄏ《No³】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔loo⁵〕【ㄌㆦˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cai²</t>
+  </si>
+  <si>
+    <t>ㄘㄞˋ</t>
+  </si>
+  <si>
+    <t>song¹</t>
+  </si>
+  <si>
+    <t>ㄙㆲˉ</t>
+  </si>
+  <si>
+    <t>zu²</t>
+  </si>
+  <si>
+    <t>ㄗㄨˋ</t>
+  </si>
+  <si>
+    <t>si⁵</t>
+  </si>
+  <si>
+    <t>ㄒㄧˊ</t>
+  </si>
+  <si>
+    <t>kong¹</t>
+  </si>
+  <si>
+    <t>ㄍㆲˉ</t>
+  </si>
+  <si>
+    <t>zi²</t>
+  </si>
+  <si>
+    <t>ㄐㄧˋ</t>
+  </si>
+  <si>
+    <t>kai²</t>
+  </si>
+  <si>
+    <t>ㄍㄞˋ</t>
+  </si>
+  <si>
+    <t>cui¹</t>
+  </si>
+  <si>
+    <t>ㄘㄨㄧˉ</t>
+  </si>
+  <si>
+    <t>jin⁵</t>
+  </si>
+  <si>
+    <t>ㆡㄧㄣˊ</t>
+  </si>
+  <si>
+    <t>noo²</t>
+  </si>
+  <si>
+    <t>ㄋㆦˋ</t>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+  </si>
+  <si>
+    <t>sin³</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄣ˪</t>
+  </si>
+  <si>
+    <t>to¹</t>
+  </si>
+  <si>
+    <t>ㄉㄜˉ</t>
+  </si>
+  <si>
+    <t>zing⁵</t>
+  </si>
+  <si>
+    <t>ㄐㄧㄥˊ</t>
+  </si>
+  <si>
+    <t>tiong⁵</t>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˊ</t>
+  </si>
+  <si>
+    <t>hin⁷</t>
+  </si>
+  <si>
+    <t>ㄏㄧㄣ˫</t>
+  </si>
+  <si>
+    <t>li¹</t>
+  </si>
+  <si>
+    <t>ㄌㄧˉ</t>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˊ</t>
+  </si>
+  <si>
+    <t>lui⁷</t>
+  </si>
+  <si>
+    <t>ㄌㄨㄧ˫</t>
+  </si>
+  <si>
+    <t>tih⁴</t>
+  </si>
+  <si>
+    <t>ㄉㄧㆷ</t>
+  </si>
+  <si>
+    <t>cun¹</t>
+  </si>
+  <si>
+    <t>ㄘㄨㄣˉ</t>
+  </si>
+  <si>
+    <t>saⁿ¹</t>
+  </si>
+  <si>
+    <t>ㄙㆩˉ</t>
+  </si>
+  <si>
+    <t>ziu²</t>
+  </si>
+  <si>
+    <t>ㄐㄧㄨˋ</t>
+  </si>
+  <si>
+    <t>i⁷</t>
+  </si>
+  <si>
+    <t>ㄧ˫</t>
+  </si>
+  <si>
+    <t>sing²</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˋ</t>
+  </si>
+  <si>
+    <t>ㄫㆦˊ</t>
+  </si>
+  <si>
+    <t>tong⁵</t>
+  </si>
+  <si>
+    <t>ㄉㆲˊ</t>
+  </si>
+  <si>
+    <t>zok⁸</t>
+  </si>
+  <si>
+    <t>ㄗㆦㆶ˙</t>
+  </si>
+  <si>
+    <t>ia⁷</t>
+  </si>
+  <si>
+    <t>ㄧㄚ˫</t>
+  </si>
+  <si>
+    <t>se¹</t>
+  </si>
+  <si>
+    <t>ㄙㆤˉ</t>
+  </si>
+  <si>
+    <t>ㄏㆲˉ</t>
+  </si>
+  <si>
+    <t>kip⁴</t>
+  </si>
+  <si>
+    <t>ㄍㄧㆴ</t>
+  </si>
+  <si>
+    <t>tam⁷</t>
+  </si>
+  <si>
+    <t>ㄉㆰ˫</t>
+  </si>
+  <si>
+    <t>guat⁸</t>
+  </si>
+  <si>
+    <t>ㆣㄨㄚㆵ˙</t>
+  </si>
+  <si>
+    <t>long⁵</t>
+  </si>
+  <si>
+    <t>ㄌㆲˊ</t>
+  </si>
+  <si>
+    <t>bing⁵</t>
+  </si>
+  <si>
+    <t>ㆠㄧㄥˊ</t>
+  </si>
+  <si>
+    <t>hoⁿ³</t>
+  </si>
+  <si>
+    <t>ㄏ《No³</t>
+  </si>
+  <si>
+    <t>bong⁷</t>
+  </si>
+  <si>
+    <t>ㆠㆲ˫</t>
+  </si>
+  <si>
+    <t>pin⁵</t>
+  </si>
+  <si>
+    <t>ㄅㄧㄣˊ</t>
+  </si>
+  <si>
+    <t>king¹</t>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˉ</t>
+  </si>
+  <si>
+    <t>ho⁵</t>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+  </si>
+  <si>
+    <t>cu²</t>
+  </si>
+  <si>
+    <t>ㄘㄨˋ</t>
+  </si>
+  <si>
+    <t>ㄍㄜˉ</t>
+  </si>
+  <si>
+    <t>loo⁵</t>
+  </si>
+  <si>
+    <t>ㄌㆦˊ</t>
+  </si>
+  <si>
+    <t>gan⁷</t>
+  </si>
+  <si>
+    <t>ㆣㄢ˫</t>
+  </si>
+  <si>
+    <t>it⁴</t>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+  </si>
+  <si>
+    <t>sing¹</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˉ</t>
+  </si>
+  <si>
+    <t>採桑子</t>
+    <phoneticPr fontId="61" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bkimg.cdn.bcebos.com/smart/9c16fdfaaf51f3de9b84eeff94eef01f3a297972-bkimg-process,v_1,rw_1,rh_1,pad_1,color_ffffff?x-bce-process=image/format,f_auto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="67">
+  <fonts count="70">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2257,6 +2514,26 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2452,7 +2729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2705,6 +2982,21 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2714,20 +3006,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3449,8 +3732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B1:V23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -3529,97 +3812,100 @@
     <row r="3" spans="2:22" s="58" customFormat="1" ht="26.1" customHeight="1">
       <c r="C3" s="66"/>
       <c r="D3" s="86" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="E3" s="86" t="s">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>364</v>
-      </c>
-      <c r="G3" s="86" t="s">
-        <v>365</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G3" s="86"/>
       <c r="H3" s="86" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="I3" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="86"/>
+        <v>301</v>
+      </c>
+      <c r="J3" s="86" t="s">
+        <v>302</v>
+      </c>
       <c r="K3" s="86" t="s">
-        <v>165</v>
+        <v>303</v>
       </c>
       <c r="L3" s="86" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="M3" s="86" t="s">
-        <v>166</v>
+        <v>305</v>
       </c>
       <c r="N3" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="O3" s="86" t="s">
-        <v>168</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="O3" s="86"/>
       <c r="P3" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q3" s="86"/>
+        <v>307</v>
+      </c>
+      <c r="Q3" s="86" t="s">
+        <v>308</v>
+      </c>
       <c r="R3" s="86" t="s">
-        <v>170</v>
+        <v>309</v>
       </c>
       <c r="S3" s="68"/>
       <c r="U3" s="85">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>62</v>
-      </c>
-      <c r="V3" t="s">
-        <v>194</v>
+        <v>57</v>
+      </c>
+      <c r="V3" s="96" t="str">
+        <f>"採桑子"&amp;CHAR(10)&amp;"時光只解催人老，不信多情，長恨離亭，淚滴春衫酒易醒。"&amp;CHAR(10)&amp;"梧桐昨夜西風急，淡月朧明，好夢頻驚，何處高樓雁一聲？"</f>
+        <v>採桑子
+時光只解催人老，不信多情，長恨離亭，淚滴春衫酒易醒。
+梧桐昨夜西風急，淡月朧明，好夢頻驚，何處高樓雁一聲？</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C4" s="69"/>
       <c r="D4" s="70" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>279</v>
+        <v>346</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>371</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G4" s="70"/>
       <c r="H4" s="70" t="s">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="J4" s="70"/>
+        <v>352</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>354</v>
+      </c>
       <c r="K4" s="70" t="s">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="L4" s="70" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="M4" s="70" t="s">
-        <v>288</v>
+        <v>360</v>
       </c>
       <c r="N4" s="70" t="s">
-        <v>290</v>
-      </c>
-      <c r="O4" s="70" t="s">
-        <v>292</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="O4" s="70"/>
       <c r="P4" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q4" s="70"/>
+        <v>238</v>
+      </c>
+      <c r="Q4" s="70" t="s">
+        <v>365</v>
+      </c>
       <c r="R4" s="70" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="S4" s="71"/>
     </row>
@@ -3628,182 +3914,182 @@
         <v>1</v>
       </c>
       <c r="C5" s="69"/>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="J5" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="K5" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="L5" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>235</v>
+      </c>
+      <c r="N5" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="O5" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="95" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="95" t="s">
-        <v>236</v>
-      </c>
-      <c r="G5" s="95" t="s">
-        <v>259</v>
-      </c>
-      <c r="H5" s="95" t="s">
-        <v>260</v>
-      </c>
-      <c r="I5" s="95" t="s">
+      <c r="P5" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q5" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="J5" s="95" t="s">
-        <v>237</v>
-      </c>
-      <c r="K5" s="95" t="s">
-        <v>238</v>
-      </c>
-      <c r="L5" s="95" t="s">
-        <v>235</v>
-      </c>
-      <c r="M5" s="95" t="s">
+      <c r="R5" s="92" t="s">
         <v>262</v>
-      </c>
-      <c r="N5" s="95" t="s">
-        <v>263</v>
-      </c>
-      <c r="O5" s="95" t="s">
-        <v>264</v>
-      </c>
-      <c r="P5" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q5" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="R5" s="95" t="s">
-        <v>266</v>
       </c>
       <c r="S5" s="72"/>
     </row>
     <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5">
       <c r="C6" s="73"/>
       <c r="D6" s="74" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>370</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>372</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G6" s="74"/>
       <c r="H6" s="74" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="I6" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="J6" s="74"/>
+        <v>353</v>
+      </c>
+      <c r="J6" s="74" t="s">
+        <v>355</v>
+      </c>
       <c r="K6" s="74" t="s">
-        <v>287</v>
+        <v>357</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>289</v>
+        <v>361</v>
       </c>
       <c r="N6" s="74" t="s">
-        <v>291</v>
-      </c>
-      <c r="O6" s="74" t="s">
-        <v>293</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="O6" s="74"/>
       <c r="P6" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q6" s="74"/>
+        <v>364</v>
+      </c>
+      <c r="Q6" s="74" t="s">
+        <v>366</v>
+      </c>
       <c r="R6" s="74" t="s">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="S6" s="75"/>
     </row>
     <row r="7" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C7" s="76"/>
       <c r="D7" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>172</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E7" s="87"/>
       <c r="F7" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="87"/>
+        <v>311</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>312</v>
+      </c>
       <c r="H7" s="87" t="s">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c r="I7" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="J7" s="87" t="s">
-        <v>175</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="J7" s="87"/>
       <c r="K7" s="87" t="s">
-        <v>176</v>
-      </c>
-      <c r="L7" s="87"/>
+        <v>315</v>
+      </c>
+      <c r="L7" s="87" t="s">
+        <v>316</v>
+      </c>
       <c r="M7" s="87" t="s">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c r="N7" s="87" t="s">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="O7" s="87" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="P7" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87" t="s">
-        <v>181</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="Q7" s="87" t="s">
+        <v>321</v>
+      </c>
+      <c r="R7" s="87"/>
       <c r="S7" s="78"/>
     </row>
     <row r="8" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C8" s="69"/>
       <c r="D8" s="70" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>300</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="E8" s="70"/>
       <c r="F8" s="70" t="s">
-        <v>302</v>
-      </c>
-      <c r="G8" s="70"/>
+        <v>371</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>373</v>
+      </c>
       <c r="H8" s="70" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="I8" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="J8" s="70" t="s">
-        <v>306</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="J8" s="70"/>
       <c r="K8" s="70" t="s">
-        <v>308</v>
-      </c>
-      <c r="L8" s="70"/>
+        <v>378</v>
+      </c>
+      <c r="L8" s="70" t="s">
+        <v>380</v>
+      </c>
       <c r="M8" s="70" t="s">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="N8" s="70" t="s">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="O8" s="70" t="s">
-        <v>314</v>
+        <v>386</v>
       </c>
       <c r="P8" s="70" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70" t="s">
-        <v>318</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>390</v>
+      </c>
+      <c r="R8" s="70"/>
       <c r="S8" s="71"/>
     </row>
     <row r="9" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
@@ -3812,183 +4098,179 @@
         <v>2</v>
       </c>
       <c r="C9" s="69"/>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" s="92" t="s">
         <v>267</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="J9" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="K9" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="L9" s="92" t="s">
         <v>269</v>
       </c>
-      <c r="G9" s="95" t="s">
-        <v>237</v>
-      </c>
-      <c r="H9" s="95" t="s">
+      <c r="M9" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="N9" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="O9" s="92" t="s">
+        <v>272</v>
+      </c>
+      <c r="P9" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q9" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="R9" s="92" t="s">
         <v>236</v>
-      </c>
-      <c r="J9" s="95" t="s">
-        <v>271</v>
-      </c>
-      <c r="K9" s="95" t="s">
-        <v>272</v>
-      </c>
-      <c r="L9" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="M9" s="95" t="s">
-        <v>273</v>
-      </c>
-      <c r="N9" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="O9" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="P9" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q9" s="95" t="s">
-        <v>237</v>
-      </c>
-      <c r="R9" s="95" t="s">
-        <v>241</v>
       </c>
       <c r="S9" s="72"/>
     </row>
     <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5">
       <c r="C10" s="69"/>
       <c r="D10" s="74" t="s">
-        <v>299</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>301</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E10" s="74"/>
       <c r="F10" s="74" t="s">
-        <v>303</v>
-      </c>
-      <c r="G10" s="74"/>
+        <v>372</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>374</v>
+      </c>
       <c r="H10" s="74" t="s">
-        <v>305</v>
+        <v>376</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="J10" s="74" t="s">
-        <v>307</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="J10" s="74"/>
       <c r="K10" s="74" t="s">
-        <v>309</v>
-      </c>
-      <c r="L10" s="74"/>
+        <v>379</v>
+      </c>
+      <c r="L10" s="74" t="s">
+        <v>381</v>
+      </c>
       <c r="M10" s="74" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="N10" s="74" t="s">
-        <v>313</v>
+        <v>385</v>
       </c>
       <c r="O10" s="74" t="s">
-        <v>315</v>
+        <v>387</v>
       </c>
       <c r="P10" s="74" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74" t="s">
-        <v>319</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="Q10" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="R10" s="74"/>
       <c r="S10" s="79"/>
     </row>
     <row r="11" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C11" s="76"/>
-      <c r="D11" s="87" t="s">
-        <v>161</v>
-      </c>
+      <c r="D11" s="87"/>
       <c r="E11" s="87" t="s">
-        <v>182</v>
+        <v>322</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="G11" s="87"/>
+        <v>323</v>
+      </c>
+      <c r="G11" s="87" t="s">
+        <v>324</v>
+      </c>
       <c r="H11" s="87" t="s">
-        <v>184</v>
+        <v>325</v>
       </c>
       <c r="I11" s="87" t="s">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="J11" s="87" t="s">
-        <v>185</v>
+        <v>327</v>
       </c>
       <c r="K11" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="L11" s="87" t="s">
-        <v>187</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="L11" s="87"/>
       <c r="M11" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="N11" s="87"/>
+        <v>329</v>
+      </c>
+      <c r="N11" s="87" t="s">
+        <v>330</v>
+      </c>
       <c r="O11" s="87" t="s">
-        <v>189</v>
+        <v>331</v>
       </c>
       <c r="P11" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q11" s="87" t="s">
-        <v>161</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="Q11" s="87"/>
       <c r="R11" s="87" t="s">
-        <v>191</v>
+        <v>342</v>
       </c>
       <c r="S11" s="78"/>
     </row>
     <row r="12" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C12" s="69"/>
-      <c r="D12" s="70" t="s">
-        <v>281</v>
-      </c>
+      <c r="D12" s="70"/>
       <c r="E12" s="70" t="s">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="G12" s="70"/>
+        <v>393</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>395</v>
+      </c>
       <c r="H12" s="70" t="s">
-        <v>324</v>
+        <v>397</v>
       </c>
       <c r="I12" s="70" t="s">
-        <v>279</v>
+        <v>399</v>
       </c>
       <c r="J12" s="70" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="K12" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="L12" s="70" t="s">
-        <v>330</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="L12" s="70"/>
       <c r="M12" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="N12" s="70"/>
+        <v>404</v>
+      </c>
+      <c r="N12" s="70" t="s">
+        <v>406</v>
+      </c>
       <c r="O12" s="70" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="P12" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q12" s="70" t="s">
-        <v>281</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="Q12" s="70"/>
       <c r="R12" s="70" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="S12" s="71"/>
     </row>
@@ -3998,186 +4280,172 @@
         <v>3</v>
       </c>
       <c r="C13" s="69"/>
-      <c r="D13" s="95" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13" s="95" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="95" t="s">
-        <v>243</v>
-      </c>
-      <c r="G13" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="H13" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="I13" s="95" t="s">
-        <v>235</v>
-      </c>
-      <c r="J13" s="95" t="s">
-        <v>245</v>
-      </c>
-      <c r="K13" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="L13" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="M13" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="N13" s="95" t="s">
+      <c r="D13" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="92" t="s">
+        <v>279</v>
+      </c>
+      <c r="J13" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="O13" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="P13" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q13" s="95" t="s">
-        <v>236</v>
-      </c>
-      <c r="R13" s="95" t="s">
-        <v>251</v>
+      <c r="K13" s="92" t="s">
+        <v>280</v>
+      </c>
+      <c r="L13" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="M13" s="92" t="s">
+        <v>281</v>
+      </c>
+      <c r="N13" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="O13" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="P13" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q13" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="R13" s="92" t="s">
+        <v>285</v>
       </c>
       <c r="S13" s="72"/>
     </row>
     <row r="14" spans="2:22" s="2" customFormat="1" ht="22.5">
       <c r="C14" s="69"/>
-      <c r="D14" s="74" t="s">
-        <v>282</v>
-      </c>
+      <c r="D14" s="74"/>
       <c r="E14" s="74" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>323</v>
-      </c>
-      <c r="G14" s="74"/>
+        <v>394</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>396</v>
+      </c>
       <c r="H14" s="74" t="s">
-        <v>325</v>
+        <v>398</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="K14" s="74" t="s">
-        <v>329</v>
-      </c>
-      <c r="L14" s="74" t="s">
-        <v>331</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="L14" s="74"/>
       <c r="M14" s="74" t="s">
-        <v>333</v>
-      </c>
-      <c r="N14" s="74"/>
+        <v>405</v>
+      </c>
+      <c r="N14" s="74" t="s">
+        <v>407</v>
+      </c>
       <c r="O14" s="74" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="P14" s="74" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q14" s="74" t="s">
-        <v>282</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="Q14" s="74"/>
       <c r="R14" s="74" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="S14" s="79"/>
     </row>
     <row r="15" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C15" s="76"/>
       <c r="D15" s="87" t="s">
-        <v>192</v>
+        <v>341</v>
       </c>
       <c r="E15" s="87" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87" t="s">
-        <v>165</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="F15" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="G15" s="87"/>
       <c r="H15" s="87" t="s">
-        <v>159</v>
+        <v>335</v>
       </c>
       <c r="I15" s="87" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="J15" s="87" t="s">
-        <v>160</v>
+        <v>337</v>
       </c>
       <c r="K15" s="87" t="s">
-        <v>187</v>
+        <v>343</v>
       </c>
       <c r="L15" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="M15" s="87"/>
+        <v>338</v>
+      </c>
+      <c r="M15" s="87" t="s">
+        <v>339</v>
+      </c>
       <c r="N15" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="O15" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="P15" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q15" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="R15" s="87" t="s">
-        <v>192</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
       <c r="S15" s="78"/>
     </row>
     <row r="16" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="C16" s="69"/>
       <c r="D16" s="70" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>342</v>
-      </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70" t="s">
-        <v>286</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="G16" s="70"/>
       <c r="H16" s="70" t="s">
-        <v>279</v>
+        <v>420</v>
       </c>
       <c r="I16" s="70" t="s">
-        <v>344</v>
+        <v>422</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="K16" s="70" t="s">
-        <v>330</v>
+        <v>425</v>
       </c>
       <c r="L16" s="70" t="s">
-        <v>346</v>
-      </c>
-      <c r="M16" s="70"/>
+        <v>427</v>
+      </c>
+      <c r="M16" s="70" t="s">
+        <v>429</v>
+      </c>
       <c r="N16" s="70" t="s">
-        <v>348</v>
-      </c>
-      <c r="O16" s="70" t="s">
-        <v>350</v>
-      </c>
-      <c r="P16" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q16" s="70" t="s">
-        <v>338</v>
-      </c>
-      <c r="R16" s="70" t="s">
-        <v>340</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
       <c r="S16" s="71"/>
     </row>
     <row r="17" spans="2:19" s="2" customFormat="1" ht="63.75" customHeight="1">
@@ -4186,103 +4454,89 @@
         <v>4</v>
       </c>
       <c r="C17" s="69"/>
-      <c r="D17" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="E17" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="F17" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" s="95" t="s">
-        <v>238</v>
-      </c>
-      <c r="H17" s="95" t="s">
-        <v>235</v>
-      </c>
-      <c r="I17" s="95" t="s">
-        <v>254</v>
-      </c>
-      <c r="J17" s="95" t="s">
+      <c r="D17" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="92" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="K17" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="L17" s="95" t="s">
-        <v>255</v>
-      </c>
-      <c r="M17" s="95" t="s">
-        <v>237</v>
-      </c>
-      <c r="N17" s="95" t="s">
-        <v>256</v>
-      </c>
-      <c r="O17" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="P17" s="95" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q17" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="R17" s="95" t="s">
-        <v>252</v>
-      </c>
+      <c r="H17" s="92" t="s">
+        <v>289</v>
+      </c>
+      <c r="I17" s="92" t="s">
+        <v>290</v>
+      </c>
+      <c r="J17" s="92" t="s">
+        <v>291</v>
+      </c>
+      <c r="K17" s="92" t="s">
+        <v>292</v>
+      </c>
+      <c r="L17" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="M17" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="N17" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="O17" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
       <c r="S17" s="72"/>
     </row>
     <row r="18" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="C18" s="69"/>
       <c r="D18" s="74" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>343</v>
-      </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74" t="s">
-        <v>287</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>419</v>
+      </c>
+      <c r="G18" s="74"/>
       <c r="H18" s="74" t="s">
-        <v>280</v>
+        <v>421</v>
       </c>
       <c r="I18" s="74" t="s">
-        <v>345</v>
+        <v>423</v>
       </c>
       <c r="J18" s="74" t="s">
-        <v>278</v>
+        <v>424</v>
       </c>
       <c r="K18" s="74" t="s">
-        <v>331</v>
+        <v>426</v>
       </c>
       <c r="L18" s="74" t="s">
-        <v>347</v>
-      </c>
-      <c r="M18" s="74"/>
+        <v>428</v>
+      </c>
+      <c r="M18" s="74" t="s">
+        <v>430</v>
+      </c>
       <c r="N18" s="74" t="s">
-        <v>349</v>
-      </c>
-      <c r="O18" s="74" t="s">
-        <v>351</v>
-      </c>
-      <c r="P18" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q18" s="74" t="s">
-        <v>339</v>
-      </c>
-      <c r="R18" s="74" t="s">
-        <v>341</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
       <c r="S18" s="79"/>
     </row>
     <row r="19" spans="2:19" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C19" s="76"/>
-      <c r="D19" s="87" t="s">
-        <v>199</v>
-      </c>
+      <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="87"/>
       <c r="G19" s="87"/>
@@ -4301,9 +4555,7 @@
     </row>
     <row r="20" spans="2:19" s="2" customFormat="1" ht="25.5">
       <c r="C20" s="69"/>
-      <c r="D20" s="70" t="s">
-        <v>352</v>
-      </c>
+      <c r="D20" s="70"/>
       <c r="E20" s="70"/>
       <c r="F20" s="70"/>
       <c r="G20" s="70"/>
@@ -4326,32 +4578,26 @@
         <v>5</v>
       </c>
       <c r="C21" s="69"/>
-      <c r="D21" s="95" t="s">
-        <v>258</v>
-      </c>
-      <c r="E21" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
       <c r="S21" s="72"/>
     </row>
     <row r="22" spans="2:19" s="2" customFormat="1" ht="22.5">
       <c r="C22" s="69"/>
-      <c r="D22" s="74" t="s">
-        <v>353</v>
-      </c>
+      <c r="D22" s="74"/>
       <c r="E22" s="74"/>
       <c r="F22" s="74"/>
       <c r="G22" s="74"/>
@@ -4611,63 +4857,64 @@
       </c>
       <c r="D5" s="53" t="str" cm="1">
         <f t="array" ref="D5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>有</v>
+        <v>桑</v>
       </c>
       <c r="E5" s="53" t="str" cm="1">
         <f t="array" ref="E5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>不</v>
+        <v>子</v>
       </c>
       <c r="F5" s="53" t="str" cm="1">
         <f t="array" ref="F5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>測</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="G5" s="53" t="str" cm="1">
         <f t="array" ref="G5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>風</v>
+        <v>時</v>
       </c>
       <c r="H5" s="53" t="str" cm="1">
         <f t="array" ref="H5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>雲</v>
+        <v>光</v>
       </c>
       <c r="I5" s="53" t="str" cm="1">
         <f t="array" ref="I5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>，</v>
+        <v>只</v>
       </c>
       <c r="J5" s="53" t="str" cm="1">
         <f t="array" ref="J5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>人</v>
+        <v>解</v>
       </c>
       <c r="K5" s="53" t="str" cm="1">
         <f t="array" ref="K5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>有</v>
+        <v>催</v>
       </c>
       <c r="L5" s="53" t="str" cm="1">
         <f t="array" ref="L5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>旦</v>
+        <v>人</v>
       </c>
       <c r="M5" s="53" t="str" cm="1">
         <f t="array" ref="M5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>夕</v>
+        <v>老</v>
       </c>
       <c r="N5" s="53" t="str" cm="1">
         <f t="array" ref="N5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>禍</v>
+        <v>，</v>
       </c>
       <c r="O5" s="53" t="str" cm="1">
         <f t="array" ref="O5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>福</v>
+        <v>不</v>
       </c>
       <c r="P5" s="53" t="str" cm="1">
         <f t="array" ref="P5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>。</v>
+        <v>信</v>
       </c>
       <c r="Q5" s="53" t="str" cm="1">
         <f t="array" ref="Q5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>蜈</v>
+        <v>多</v>
       </c>
       <c r="R5" s="53" t="str" cm="1">
         <f t="array" ref="R5" xml:space="preserve"> MID(漢字注音!$V$3, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>蚣</v>
+        <v>情</v>
       </c>
       <c r="S5" s="4"/>
     </row>
@@ -4846,63 +5093,64 @@
       </c>
       <c r="D9" s="53" t="str" cm="1">
         <f t="array" ref="D9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>百</v>
+        <v>，</v>
       </c>
       <c r="E9" s="53" t="str" cm="1">
         <f t="array" ref="E9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>足</v>
+        <v>長</v>
       </c>
       <c r="F9" s="53" t="str" cm="1">
         <f t="array" ref="F9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>，</v>
+        <v>恨</v>
       </c>
       <c r="G9" s="53" t="str" cm="1">
         <f t="array" ref="G9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>行</v>
+        <v>離</v>
       </c>
       <c r="H9" s="53" t="str" cm="1">
         <f t="array" ref="H9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>不</v>
+        <v>亭</v>
       </c>
       <c r="I9" s="53" t="str" cm="1">
         <f t="array" ref="I9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>及</v>
+        <v>，</v>
       </c>
       <c r="J9" s="53" t="str" cm="1">
         <f t="array" ref="J9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>蛇</v>
+        <v>淚</v>
       </c>
       <c r="K9" s="53" t="str" cm="1">
         <f t="array" ref="K9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>；</v>
+        <v>滴</v>
       </c>
       <c r="L9" s="53" t="str" cm="1">
         <f t="array" ref="L9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>雄</v>
+        <v>春</v>
       </c>
       <c r="M9" s="53" t="str" cm="1">
         <f t="array" ref="M9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>雞</v>
+        <v>衫</v>
       </c>
       <c r="N9" s="53" t="str" cm="1">
         <f t="array" ref="N9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>兩</v>
+        <v>酒</v>
       </c>
       <c r="O9" s="53" t="str" cm="1">
         <f t="array" ref="O9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>翼</v>
+        <v>易</v>
       </c>
       <c r="P9" s="53" t="str" cm="1">
         <f t="array" ref="P9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>，</v>
+        <v>醒</v>
       </c>
       <c r="Q9" s="53" t="str" cm="1">
         <f t="array" ref="Q9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>飛</v>
+        <v>。</v>
       </c>
       <c r="R9" s="53" t="str" cm="1">
         <f t="array" ref="R9" xml:space="preserve"> MID(漢字注音!$V$3, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>不</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="S9" s="4"/>
     </row>
@@ -5083,63 +5331,63 @@
       </c>
       <c r="D13" s="53" t="str" cm="1">
         <f t="array" ref="D13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>過</v>
+        <v>梧</v>
       </c>
       <c r="E13" s="53" t="str" cm="1">
         <f t="array" ref="E13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>鴉</v>
+        <v>桐</v>
       </c>
       <c r="F13" s="53" t="str" cm="1">
         <f t="array" ref="F13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>。</v>
+        <v>昨</v>
       </c>
       <c r="G13" s="53" t="str" cm="1">
         <f t="array" ref="G13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>馬</v>
+        <v>夜</v>
       </c>
       <c r="H13" s="53" t="str" cm="1">
         <f t="array" ref="H13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>有</v>
+        <v>西</v>
       </c>
       <c r="I13" s="53" t="str" cm="1">
         <f t="array" ref="I13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>千</v>
+        <v>風</v>
       </c>
       <c r="J13" s="53" t="str" cm="1">
         <f t="array" ref="J13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>里</v>
+        <v>急</v>
       </c>
       <c r="K13" s="53" t="str" cm="1">
         <f t="array" ref="K13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>之</v>
+        <v>，</v>
       </c>
       <c r="L13" s="53" t="str" cm="1">
         <f t="array" ref="L13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>程</v>
+        <v>淡</v>
       </c>
       <c r="M13" s="53" t="str" cm="1">
         <f t="array" ref="M13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>，</v>
+        <v>月</v>
       </c>
       <c r="N13" s="53" t="str" cm="1">
         <f t="array" ref="N13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>無</v>
+        <v>朧</v>
       </c>
       <c r="O13" s="53" t="str" cm="1">
         <f t="array" ref="O13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>騎</v>
+        <v>明</v>
       </c>
       <c r="P13" s="53" t="str" cm="1">
         <f t="array" ref="P13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>不</v>
+        <v>，</v>
       </c>
       <c r="Q13" s="53" t="str" cm="1">
         <f t="array" ref="Q13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>能</v>
+        <v>好</v>
       </c>
       <c r="R13" s="53" t="str" cm="1">
         <f t="array" ref="R13" xml:space="preserve"> MID(漢字注音!$V$3, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>自</v>
+        <v>夢</v>
       </c>
       <c r="S13" s="4"/>
     </row>
@@ -5221,7 +5469,7 @@
         <v>159</v>
       </c>
       <c r="I15" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J15" s="62" t="s">
         <v>160</v>
@@ -5230,14 +5478,14 @@
         <v>187</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M15" s="62"/>
       <c r="N15" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="O15" s="62" t="s">
         <v>197</v>
-      </c>
-      <c r="O15" s="62" t="s">
-        <v>198</v>
       </c>
       <c r="P15" s="62" t="s">
         <v>161</v>
@@ -5320,63 +5568,63 @@
       </c>
       <c r="D17" s="53" t="str" cm="1">
         <f t="array" ref="D17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>往</v>
+        <v>頻</v>
       </c>
       <c r="E17" s="53" t="str" cm="1">
         <f t="array" ref="E17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>；</v>
+        <v>驚</v>
       </c>
       <c r="F17" s="53" t="str" cm="1">
         <f t="array" ref="F17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>人</v>
+        <v>，</v>
       </c>
       <c r="G17" s="53" t="str" cm="1">
         <f t="array" ref="G17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>有</v>
+        <v>何</v>
       </c>
       <c r="H17" s="53" t="str" cm="1">
         <f t="array" ref="H17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>沖</v>
+        <v>處</v>
       </c>
       <c r="I17" s="53" t="str" cm="1">
         <f t="array" ref="I17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>天</v>
+        <v>高</v>
       </c>
       <c r="J17" s="53" t="str" cm="1">
         <f t="array" ref="J17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>之</v>
+        <v>樓</v>
       </c>
       <c r="K17" s="53" t="str" cm="1">
         <f t="array" ref="K17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>志</v>
+        <v>雁</v>
       </c>
       <c r="L17" s="53" t="str" cm="1">
         <f t="array" ref="L17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>，</v>
+        <v>一</v>
       </c>
       <c r="M17" s="53" t="str" cm="1">
         <f t="array" ref="M17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>非</v>
+        <v>聲</v>
       </c>
       <c r="N17" s="53" t="str" cm="1">
         <f t="array" ref="N17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>運</v>
+        <v>？</v>
       </c>
       <c r="O17" s="53" t="str" cm="1">
         <f t="array" ref="O17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>不</v>
+        <v/>
       </c>
       <c r="P17" s="53" t="str" cm="1">
         <f t="array" ref="P17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>能</v>
+        <v/>
       </c>
       <c r="Q17" s="53" t="str" cm="1">
         <f t="array" ref="Q17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>自</v>
+        <v/>
       </c>
       <c r="R17" s="53" t="str" cm="1">
         <f t="array" ref="R17" xml:space="preserve"> MID(漢字注音!$V$3, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>通</v>
+        <v/>
       </c>
       <c r="S17" s="4"/>
     </row>
@@ -5445,7 +5693,7 @@
     </row>
     <row r="19" spans="2:19" s="61" customFormat="1" ht="26.1" customHeight="1">
       <c r="D19" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E19" s="62"/>
       <c r="F19" s="62"/>
@@ -5533,7 +5781,7 @@
       </c>
       <c r="D21" s="53" t="str" cm="1">
         <f t="array" ref="D21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>。</v>
+        <v/>
       </c>
       <c r="E21" s="53" t="str" cm="1">
         <f t="array" ref="E21" xml:space="preserve"> MID(漢字注音!$V$3, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
@@ -5805,30 +6053,30 @@
     <row r="3" spans="2:22" s="58" customFormat="1" ht="26.1" customHeight="1">
       <c r="C3" s="66"/>
       <c r="D3" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="67" t="s">
         <v>202</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>203</v>
       </c>
       <c r="F3" s="67"/>
       <c r="G3" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="I3" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="J3" s="67" t="s">
         <v>206</v>
-      </c>
-      <c r="J3" s="67" t="s">
-        <v>207</v>
       </c>
       <c r="K3" s="67"/>
       <c r="L3" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3" s="67" t="s">
         <v>208</v>
-      </c>
-      <c r="M3" s="67" t="s">
-        <v>209</v>
       </c>
       <c r="N3" s="67" t="s">
         <v>161</v>
@@ -5837,15 +6085,15 @@
         <v>191</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q3" s="67"/>
       <c r="R3" s="67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S3" s="68"/>
       <c r="V3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5">
@@ -6046,7 +6294,7 @@
     <row r="7" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C7" s="76"/>
       <c r="D7" s="77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="77" t="s">
         <v>161</v>
@@ -6055,36 +6303,36 @@
         <v>191</v>
       </c>
       <c r="G7" s="77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H7" s="77"/>
       <c r="I7" s="77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K7" s="77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L7" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M7" s="77"/>
       <c r="N7" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="O7" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="O7" s="77" t="s">
+      <c r="P7" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="P7" s="77" t="s">
+      <c r="Q7" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="R7" s="77" t="s">
         <v>217</v>
-      </c>
-      <c r="Q7" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="R7" s="77" t="s">
-        <v>218</v>
       </c>
       <c r="S7" s="78"/>
     </row>
@@ -6287,39 +6535,39 @@
     <row r="11" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="C11" s="76"/>
       <c r="D11" s="77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" s="77"/>
       <c r="F11" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="H11" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="I11" s="77" t="s">
         <v>222</v>
-      </c>
-      <c r="I11" s="77" t="s">
-        <v>223</v>
       </c>
       <c r="J11" s="77"/>
       <c r="K11" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="L11" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="L11" s="77" t="s">
+      <c r="M11" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="M11" s="77" t="s">
+      <c r="N11" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="O11" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="N11" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="O11" s="77" t="s">
+      <c r="P11" s="77" t="s">
         <v>227</v>
-      </c>
-      <c r="P11" s="77" t="s">
-        <v>228</v>
       </c>
       <c r="Q11" s="77"/>
       <c r="R11" s="77"/>
@@ -7088,7 +7336,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="93" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -7106,7 +7354,7 @@
       <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="93" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -7131,7 +7379,7 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="89"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
@@ -7151,7 +7399,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="89"/>
+      <c r="I6" s="94"/>
       <c r="J6" s="15" t="s">
         <v>20</v>
       </c>
@@ -7173,7 +7421,7 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="89"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="19" t="s">
         <v>25</v>
       </c>
@@ -7189,7 +7437,7 @@
       <c r="G7" s="20">
         <v>30</v>
       </c>
-      <c r="I7" s="89"/>
+      <c r="I7" s="94"/>
       <c r="J7" s="19" t="s">
         <v>25</v>
       </c>
@@ -7211,7 +7459,7 @@
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="89"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="15" t="s">
         <v>27</v>
       </c>
@@ -7227,7 +7475,7 @@
       <c r="G8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="89"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="22" t="s">
         <v>27</v>
       </c>
@@ -7249,7 +7497,7 @@
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="89"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="15" t="s">
         <v>36</v>
       </c>
@@ -7265,7 +7513,7 @@
       <c r="G9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="89"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="15" t="s">
         <v>36</v>
       </c>
@@ -7287,7 +7535,7 @@
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="90"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="15" t="s">
         <v>41</v>
       </c>
@@ -7303,7 +7551,7 @@
       <c r="G10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="90"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="15" t="s">
         <v>46</v>
       </c>
@@ -7326,7 +7574,7 @@
       <c r="R10" s="32"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="93" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -7344,7 +7592,7 @@
       <c r="G11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="88" t="s">
+      <c r="I11" s="93" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -7368,7 +7616,7 @@
       <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="89"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
@@ -7388,7 +7636,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="89"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="15" t="s">
         <v>20</v>
       </c>
@@ -7408,7 +7656,7 @@
       <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="89"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="19" t="s">
         <v>25</v>
       </c>
@@ -7422,7 +7670,7 @@
       <c r="G13" s="20">
         <v>50</v>
       </c>
-      <c r="I13" s="89"/>
+      <c r="I13" s="94"/>
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
@@ -7442,7 +7690,7 @@
       <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="89"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="15" t="s">
         <v>27</v>
       </c>
@@ -7456,7 +7704,7 @@
       <c r="G14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="89"/>
+      <c r="I14" s="94"/>
       <c r="J14" s="15" t="s">
         <v>27</v>
       </c>
@@ -7476,7 +7724,7 @@
       <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="89"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="15" t="s">
         <v>36</v>
       </c>
@@ -7490,7 +7738,7 @@
       <c r="G15" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="89"/>
+      <c r="I15" s="94"/>
       <c r="J15" s="15" t="s">
         <v>36</v>
       </c>
@@ -7510,7 +7758,7 @@
       <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="90"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="15" t="s">
         <v>41</v>
       </c>
@@ -7524,7 +7772,7 @@
       <c r="G16" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="90"/>
+      <c r="I16" s="95"/>
       <c r="J16" s="15" t="s">
         <v>46</v>
       </c>
@@ -7767,13 +8015,13 @@
         <v>83</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>84</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>85</v>
@@ -7837,13 +8085,13 @@
         <v>95</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" s="49" t="s">
         <v>84</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>96</v>
@@ -7904,13 +8152,13 @@
         <v>106</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G12" s="49" t="s">
         <v>84</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J12" s="44" t="s">
         <v>107</v>
@@ -7971,13 +8219,13 @@
         <v>117</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G16" s="49" t="s">
         <v>84</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J16" s="44" t="s">
         <v>118</v>
@@ -8038,13 +8286,13 @@
         <v>129</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G20" s="49" t="s">
         <v>84</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J20" s="44" t="s">
         <v>130</v>
@@ -8260,10 +8508,10 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8281,56 +8529,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42963889-29A9-4CBC-8803-98F4B3C67876}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="92" customWidth="1"/>
-    <col min="2" max="2" width="21.19921875" style="92" customWidth="1"/>
-    <col min="3" max="3" width="93.796875" style="92" customWidth="1"/>
-    <col min="4" max="16384" width="12" style="92"/>
+    <col min="1" max="1" width="3.69921875" style="89" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="89" customWidth="1"/>
+    <col min="3" max="3" width="93.796875" style="89" customWidth="1"/>
+    <col min="4" max="16384" width="12" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="91" t="s">
-        <v>354</v>
-      </c>
-      <c r="C1" s="91" t="s">
-        <v>355</v>
+      <c r="B1" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="92" t="s">
-        <v>356</v>
-      </c>
-      <c r="C2" s="92" t="s">
-        <v>362</v>
+      <c r="B2" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="92" t="s">
-        <v>357</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>360</v>
+      <c r="B3" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="92" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>361</v>
+      <c r="B4" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="92" t="s">
-        <v>359</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>367</v>
+      <c r="B5" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6064A4-BCAE-4721-9D1B-988352903830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9C31EF-34A1-4FF4-95DE-0C5E557167B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="502">
   <si>
     <t>〔thⁿi¹〕【ㄊㄧ¹】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1639,9 +1639,6 @@
     <t>ciⁿ¹</t>
   </si>
   <si>
-    <t>ㄘㆪˉ</t>
-  </si>
-  <si>
     <t>u⁷</t>
   </si>
   <si>
@@ -1670,12 +1667,6 @@
   </si>
   <si>
     <t>ㆣㄧˊ</t>
-  </si>
-  <si>
-    <t>hoo¹</t>
-  </si>
-  <si>
-    <t>ㄏㆦ˪</t>
   </si>
   <si>
     <t>愛蓮說</t>
@@ -2115,9 +2106,6 @@
     <t>〔au⁷〕【ㄠ˫】</t>
   </si>
   <si>
-    <t>〔ciⁿ¹〕【ㄘㆪˉ】</t>
-  </si>
-  <si>
     <t>〔u⁷〕【ㄨ˫】</t>
   </si>
   <si>
@@ -2133,13 +2121,31 @@
     <t>〔gi⁵〕【ㆣㄧˊ】</t>
   </si>
   <si>
-    <t>〔hoo¹〕【ㄏㆦ˪】</t>
-  </si>
-  <si>
     <t>〔i²〕【ㄧˋ】</t>
   </si>
   <si>
     <t>ㄐㄧㆲ˪</t>
+  </si>
+  <si>
+    <t>〔hoo⁵〕【ㄏㆦˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ciⁿ¹〕【ㄑㆪˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~〔boo²〕【ㆠㆦˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㆦˋ</t>
+  </si>
+  <si>
+    <t>ㄑㆪˉ</t>
+  </si>
+  <si>
+    <t>hoo⁵</t>
   </si>
 </sst>
 </file>
@@ -4295,7 +4301,7 @@
         <v>206</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -4303,7 +4309,7 @@
         <v>207</v>
       </c>
       <c r="C5" s="115" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4319,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -4406,45 +4412,45 @@
       <c r="B3" s="83"/>
       <c r="C3" s="82"/>
       <c r="D3" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>429</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>430</v>
+      </c>
+      <c r="G3" s="66" t="s">
         <v>431</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="H3" s="66" t="s">
         <v>432</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="I3" s="66" t="s">
         <v>433</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>434</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>435</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>436</v>
       </c>
       <c r="J3" s="66"/>
       <c r="K3" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>435</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>436</v>
+      </c>
+      <c r="N3" s="66" t="s">
         <v>437</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="O3" s="66" t="s">
         <v>438</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>439</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>440</v>
-      </c>
-      <c r="O3" s="66" t="s">
-        <v>441</v>
       </c>
       <c r="P3" s="66"/>
       <c r="Q3" s="66" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="R3" s="66" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="S3" s="67"/>
       <c r="T3" s="116"/>
@@ -4505,49 +4511,49 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="N5" s="91" t="s">
         <v>360</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="N5" s="91" t="s">
+      <c r="Q5" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="S5" s="71"/>
       <c r="U5" s="106"/>
@@ -4605,45 +4611,45 @@
       <c r="B7" s="83"/>
       <c r="C7" s="73"/>
       <c r="D7" s="74" t="s">
+        <v>441</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>442</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>435</v>
+      </c>
+      <c r="H7" s="74" t="s">
         <v>444</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>445</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>446</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>438</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>447</v>
       </c>
       <c r="I7" s="74"/>
       <c r="J7" s="74" t="s">
+        <v>445</v>
+      </c>
+      <c r="K7" s="74" t="s">
+        <v>446</v>
+      </c>
+      <c r="L7" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="M7" s="74" t="s">
         <v>448</v>
-      </c>
-      <c r="K7" s="74" t="s">
-        <v>449</v>
-      </c>
-      <c r="L7" s="74" t="s">
-        <v>450</v>
-      </c>
-      <c r="M7" s="74" t="s">
-        <v>451</v>
       </c>
       <c r="N7" s="74"/>
       <c r="O7" s="74" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="P7" s="74" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Q7" s="74" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="R7" s="74" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="S7" s="75"/>
       <c r="U7" s="108"/>
@@ -4704,49 +4710,49 @@
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="N9" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="Q9" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="S9" s="71"/>
       <c r="T9" s="116"/>
@@ -4804,44 +4810,44 @@
       <c r="B11" s="83"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F11" s="74"/>
       <c r="G11" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="H11" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>435</v>
+      </c>
+      <c r="J11" s="74" t="s">
+        <v>454</v>
+      </c>
+      <c r="K11" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="L11" s="74" t="s">
+        <v>455</v>
+      </c>
+      <c r="M11" s="74" t="s">
         <v>456</v>
       </c>
-      <c r="H11" s="74" t="s">
-        <v>446</v>
-      </c>
-      <c r="I11" s="74" t="s">
-        <v>438</v>
-      </c>
-      <c r="J11" s="74" t="s">
+      <c r="N11" s="74" t="s">
         <v>457</v>
       </c>
-      <c r="K11" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="L11" s="74" t="s">
+      <c r="O11" s="74" t="s">
         <v>458</v>
       </c>
-      <c r="M11" s="74" t="s">
+      <c r="P11" s="74" t="s">
         <v>459</v>
       </c>
-      <c r="N11" s="74" t="s">
+      <c r="Q11" s="74" t="s">
         <v>460</v>
-      </c>
-      <c r="O11" s="74" t="s">
-        <v>461</v>
-      </c>
-      <c r="P11" s="74" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q11" s="74" t="s">
-        <v>463</v>
       </c>
       <c r="R11" s="74"/>
       <c r="S11" s="75"/>
@@ -4901,49 +4907,49 @@
       </c>
       <c r="C13" s="68"/>
       <c r="D13" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="K13" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="R13" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="S13" s="71"/>
       <c r="V13" s="112"/>
@@ -4999,45 +5005,45 @@
       <c r="B15" s="83"/>
       <c r="C15" s="73"/>
       <c r="D15" s="74" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H15" s="74" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I15" s="74" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J15" s="74"/>
       <c r="K15" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="L15" s="74" t="s">
+        <v>465</v>
+      </c>
+      <c r="M15" s="74" t="s">
+        <v>466</v>
+      </c>
+      <c r="N15" s="74" t="s">
         <v>467</v>
-      </c>
-      <c r="L15" s="74" t="s">
-        <v>468</v>
-      </c>
-      <c r="M15" s="74" t="s">
-        <v>469</v>
-      </c>
-      <c r="N15" s="74" t="s">
-        <v>470</v>
       </c>
       <c r="O15" s="74"/>
       <c r="P15" s="74" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q15" s="74" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="R15" s="74" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S15" s="75"/>
       <c r="V15" s="114"/>
@@ -5096,49 +5102,49 @@
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="91" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="J17" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="O17" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="R17" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="S17" s="71"/>
       <c r="V17" s="113"/>
@@ -5194,43 +5200,43 @@
       <c r="B19" s="83"/>
       <c r="C19" s="73"/>
       <c r="D19" s="74" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E19" s="74"/>
       <c r="F19" s="74" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H19" s="74" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I19" s="74" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J19" s="74"/>
       <c r="K19" s="74" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L19" s="74" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M19" s="74" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="N19" s="74" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O19" s="74"/>
       <c r="P19" s="74" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="74" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="R19" s="74" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="S19" s="75"/>
       <c r="V19" s="114"/>
@@ -5287,49 +5293,49 @@
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F21" s="91" t="s">
+        <v>396</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H21" s="91" t="s">
         <v>398</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="F21" s="91" t="s">
+      <c r="I21" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="L21" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="H21" s="91" t="s">
+      <c r="N21" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="O21" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="S21" s="71"/>
       <c r="V21" s="113"/>
@@ -5383,22 +5389,22 @@
       <c r="B23" s="83"/>
       <c r="C23" s="73"/>
       <c r="D23" s="74" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E23" s="74" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F23" s="74" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G23" s="74" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H23" s="74" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I23" s="74" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J23" s="74"/>
       <c r="K23" s="74"/>
@@ -5452,49 +5458,49 @@
       </c>
       <c r="C25" s="68"/>
       <c r="D25" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K25" s="117" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="S25" s="71"/>
       <c r="T25" s="2">
@@ -5530,28 +5536,28 @@
       </c>
       <c r="J26" s="87"/>
       <c r="K26" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L26" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M26" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="N26" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O26" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P26" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q26" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="R26" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="S26" s="76"/>
       <c r="T26" s="58"/>
@@ -5561,40 +5567,40 @@
       <c r="B27" s="89"/>
       <c r="C27" s="61"/>
       <c r="D27" s="74" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F27" s="74"/>
       <c r="G27" s="74" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H27" s="74"/>
       <c r="I27" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="J27" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="K27" s="74" t="s">
+        <v>480</v>
+      </c>
+      <c r="L27" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="M27" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="J27" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="K27" s="74" t="s">
-        <v>483</v>
-      </c>
-      <c r="L27" s="74" t="s">
-        <v>484</v>
-      </c>
-      <c r="M27" s="74" t="s">
-        <v>439</v>
-      </c>
       <c r="N27" s="74" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O27" s="74"/>
       <c r="P27" s="74" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="Q27" s="74" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="R27" s="74"/>
       <c r="S27" s="75"/>
@@ -5650,49 +5656,49 @@
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="M29" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="M29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="N29" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="P29" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="S29" s="71"/>
       <c r="T29" s="2">
@@ -5735,7 +5741,7 @@
       </c>
       <c r="O30" s="87"/>
       <c r="P30" s="87" t="s">
-        <v>260</v>
+        <v>499</v>
       </c>
       <c r="Q30" s="87" t="s">
         <v>262</v>
@@ -5749,45 +5755,45 @@
       <c r="B31" s="89"/>
       <c r="C31" s="61"/>
       <c r="D31" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="E31" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="F31" s="74" t="s">
+        <v>483</v>
+      </c>
+      <c r="G31" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="H31" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="E31" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="F31" s="74" t="s">
-        <v>486</v>
-      </c>
-      <c r="G31" s="74" t="s">
-        <v>487</v>
-      </c>
-      <c r="H31" s="74" t="s">
-        <v>439</v>
-      </c>
       <c r="I31" s="74" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J31" s="74"/>
       <c r="K31" s="74" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L31" s="74"/>
       <c r="M31" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="N31" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="O31" s="74" t="s">
+        <v>485</v>
+      </c>
+      <c r="P31" s="74" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q31" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="N31" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="O31" s="74" t="s">
-        <v>488</v>
-      </c>
-      <c r="P31" s="74" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q31" s="74" t="s">
-        <v>439</v>
-      </c>
       <c r="R31" s="74" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="S31" s="75"/>
       <c r="T31" s="56"/>
@@ -5847,49 +5853,49 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="P33" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="L33" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>362</v>
-      </c>
       <c r="R33" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="S33" s="71"/>
       <c r="T33" s="2"/>
@@ -5946,40 +5952,40 @@
       <c r="C35" s="73"/>
       <c r="D35" s="74"/>
       <c r="E35" s="74" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F35" s="74"/>
       <c r="G35" s="74" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H35" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="I35" s="74" t="s">
         <v>435</v>
-      </c>
-      <c r="I35" s="74" t="s">
-        <v>438</v>
       </c>
       <c r="J35" s="74"/>
       <c r="K35" s="74" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L35" s="74" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M35" s="74" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="N35" s="74" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="O35" s="74" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P35" s="74"/>
       <c r="Q35" s="74" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="R35" s="74" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="S35" s="75"/>
       <c r="T35" s="56"/>
@@ -6012,10 +6018,10 @@
         <v>333</v>
       </c>
       <c r="N36" s="69" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O36" s="69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P36" s="69"/>
       <c r="Q36" s="69" t="s">
@@ -6034,49 +6040,49 @@
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E37" s="91" t="s">
+        <v>415</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="M37" s="91" t="s">
         <v>418</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="L37" s="4" t="s">
+      <c r="O37" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="M37" s="91" t="s">
-        <v>421</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="P37" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="S37" s="71"/>
       <c r="T37" s="2"/>
@@ -6106,13 +6112,13 @@
         <v>332</v>
       </c>
       <c r="M38" s="87" t="s">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="N38" s="87" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O38" s="87" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P38" s="87"/>
       <c r="Q38" s="87" t="s">
@@ -6128,43 +6134,43 @@
       <c r="B39" s="89"/>
       <c r="C39" s="73"/>
       <c r="D39" s="74" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E39" s="74"/>
       <c r="F39" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="G39" s="74" t="s">
+        <v>491</v>
+      </c>
+      <c r="H39" s="74" t="s">
+        <v>436</v>
+      </c>
+      <c r="I39" s="74" t="s">
+        <v>492</v>
+      </c>
+      <c r="J39" s="74" t="s">
         <v>450</v>
-      </c>
-      <c r="G39" s="74" t="s">
-        <v>495</v>
-      </c>
-      <c r="H39" s="74" t="s">
-        <v>439</v>
-      </c>
-      <c r="I39" s="74" t="s">
-        <v>496</v>
-      </c>
-      <c r="J39" s="74" t="s">
-        <v>453</v>
       </c>
       <c r="K39" s="74"/>
       <c r="L39" s="74" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M39" s="74" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N39" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="O39" s="74" t="s">
         <v>435</v>
-      </c>
-      <c r="O39" s="74" t="s">
-        <v>438</v>
       </c>
       <c r="P39" s="74"/>
       <c r="Q39" s="74" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="R39" s="74" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="S39" s="75"/>
       <c r="T39" s="56"/>
@@ -6180,13 +6186,13 @@
         <v>251</v>
       </c>
       <c r="G40" s="69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H40" s="69" t="s">
         <v>229</v>
       </c>
       <c r="I40" s="69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J40" s="69" t="s">
         <v>257</v>
@@ -6206,10 +6212,10 @@
       </c>
       <c r="P40" s="69"/>
       <c r="Q40" s="69" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R40" s="69" t="s">
-        <v>345</v>
+        <v>501</v>
       </c>
       <c r="S40" s="70"/>
       <c r="T40" s="2"/>
@@ -6221,49 +6227,49 @@
       </c>
       <c r="C41" s="68"/>
       <c r="D41" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="I41" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q41" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="R41" s="91" t="s">
         <v>425</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="R41" s="91" t="s">
-        <v>428</v>
       </c>
       <c r="S41" s="71"/>
       <c r="T41" s="2"/>
@@ -6279,13 +6285,13 @@
         <v>252</v>
       </c>
       <c r="G42" s="87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H42" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I42" s="87" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J42" s="87" t="s">
         <v>258</v>
@@ -6305,10 +6311,10 @@
       </c>
       <c r="P42" s="87"/>
       <c r="Q42" s="87" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R42" s="87" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="S42" s="76"/>
       <c r="T42" s="2"/>
@@ -6317,10 +6323,10 @@
       <c r="B43" s="89"/>
       <c r="C43" s="73"/>
       <c r="D43" s="74" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E43" s="74" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F43" s="74"/>
       <c r="G43" s="74"/>
@@ -6342,10 +6348,10 @@
       <c r="B44" s="84"/>
       <c r="C44" s="68"/>
       <c r="D44" s="69" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E44" s="69" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F44" s="69"/>
       <c r="G44" s="69"/>
@@ -6370,49 +6376,49 @@
       </c>
       <c r="C45" s="68"/>
       <c r="D45" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="S45" s="71"/>
       <c r="T45" s="2"/>
@@ -6421,47 +6427,47 @@
       <c r="B46" s="90"/>
       <c r="C46" s="68"/>
       <c r="D46" s="87" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E46" s="87" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F46" s="87"/>
       <c r="G46" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H46" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I46" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J46" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K46" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L46" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M46" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="N46" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O46" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P46" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q46" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="R46" s="87" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="S46" s="70"/>
       <c r="T46" s="2"/>
@@ -11929,7 +11935,7 @@
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>

--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9C31EF-34A1-4FF4-95DE-0C5E557167B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43B47AD-F451-42D7-B074-D750A5BA5B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="499">
   <si>
     <t>〔thⁿi¹〕【ㄊㄧ¹】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1267,10 +1267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>呼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水陸草木之花，可愛者甚蕃；晉陶淵明獨愛菊。自李唐來，世人甚愛牡丹。予獨愛蓮之出淤泥而不染，濯清漣而不妖；中通外直，不蔓不枝；香遠益清，亭亭淨植，可遠觀而不可褻玩焉。
 予謂︰菊，花之隱逸者也；牡丹，花之富貴者也；蓮，花之君子者也。噫！菊之愛，陶後鮮有聞；蓮之愛，同予者何人？牡丹之愛，宜乎眾矣！</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1417,9 +1413,6 @@
     <t>boo²</t>
   </si>
   <si>
-    <t>ㆠㆦㄜˋ</t>
-  </si>
-  <si>
     <t>tan¹</t>
   </si>
   <si>
@@ -1992,9 +1985,6 @@
     <t>〔lang⁵〕【ㄌㄤˊ】</t>
   </si>
   <si>
-    <t>〔boo²〕【ㆠㆦㄜˋ】</t>
-  </si>
-  <si>
     <t>〔tan¹〕【ㄉㄢˉ】</t>
   </si>
   <si>
@@ -2135,10 +2125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~〔boo²〕【ㆠㆦˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㆠㆦˋ</t>
   </si>
   <si>
@@ -2146,6 +2132,10 @@
   </si>
   <si>
     <t>hoo⁵</t>
+  </si>
+  <si>
+    <t>〔boo²〕【ㆠㆦˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2927,7 +2917,7 @@
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3192,6 +3182,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3230,45 +3247,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4301,15 +4279,15 @@
         <v>206</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="115" t="s">
-        <v>345</v>
+      <c r="C5" s="95" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4325,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -4337,7 +4315,7 @@
     <col min="4" max="18" width="11.5" style="2" customWidth="1"/>
     <col min="19" max="19" width="3.69921875" style="2" customWidth="1"/>
     <col min="20" max="20" width="10.3984375" customWidth="1"/>
-    <col min="22" max="22" width="71.69921875" style="113" customWidth="1"/>
+    <col min="22" max="22" width="71.69921875" style="93" customWidth="1"/>
     <col min="23" max="23" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4403,7 +4381,7 @@
         <v>15</v>
       </c>
       <c r="S2" s="78"/>
-      <c r="V2" s="109">
+      <c r="V2" s="92">
         <f xml:space="preserve"> LEN(V3)</f>
         <v>146</v>
       </c>
@@ -4412,296 +4390,290 @@
       <c r="B3" s="83"/>
       <c r="C3" s="82"/>
       <c r="D3" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>427</v>
+      </c>
+      <c r="F3" s="66" t="s">
         <v>428</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="G3" s="66" t="s">
         <v>429</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="H3" s="66" t="s">
         <v>430</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="I3" s="66" t="s">
         <v>431</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>432</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>433</v>
       </c>
       <c r="J3" s="66"/>
       <c r="K3" s="66" t="s">
+        <v>432</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>433</v>
+      </c>
+      <c r="M3" s="66" t="s">
         <v>434</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="N3" s="66" t="s">
         <v>435</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="O3" s="66" t="s">
         <v>436</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>437</v>
-      </c>
-      <c r="O3" s="66" t="s">
-        <v>438</v>
       </c>
       <c r="P3" s="66"/>
       <c r="Q3" s="66" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="R3" s="66" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S3" s="67"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="110" t="s">
-        <v>212</v>
+      <c r="T3" s="96"/>
+      <c r="V3" s="98" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="B4" s="84"/>
       <c r="D4" s="69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J4" s="69"/>
       <c r="K4" s="69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L4" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M4" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N4" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P4" s="69"/>
       <c r="Q4" s="69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R4" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S4" s="70"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="111"/>
+      <c r="V4" s="99"/>
     </row>
     <row r="5" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B5" s="85">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="91" t="s">
         <v>358</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="N5" s="91" t="s">
+      <c r="P5" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="S5" s="71"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="111"/>
+      <c r="V5" s="99"/>
     </row>
     <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="B6" s="86"/>
       <c r="C6" s="60"/>
       <c r="D6" s="87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H6" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J6" s="87"/>
       <c r="K6" s="87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L6" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M6" s="87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N6" s="87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O6" s="87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P6" s="87"/>
       <c r="Q6" s="87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R6" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S6" s="72"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="111"/>
+      <c r="V6" s="99"/>
     </row>
     <row r="7" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="83"/>
       <c r="C7" s="73"/>
       <c r="D7" s="74" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" s="74" t="s">
         <v>441</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="G7" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="H7" s="74" t="s">
         <v>442</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>443</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>444</v>
       </c>
       <c r="I7" s="74"/>
       <c r="J7" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="K7" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="L7" s="74" t="s">
         <v>445</v>
       </c>
-      <c r="K7" s="74" t="s">
+      <c r="M7" s="74" t="s">
         <v>446</v>
-      </c>
-      <c r="L7" s="74" t="s">
-        <v>447</v>
-      </c>
-      <c r="M7" s="74" t="s">
-        <v>448</v>
       </c>
       <c r="N7" s="74"/>
       <c r="O7" s="74" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P7" s="74" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Q7" s="74" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="R7" s="74" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="S7" s="75"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="111"/>
+      <c r="V7" s="99"/>
     </row>
     <row r="8" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="B8" s="84"/>
       <c r="C8" s="68"/>
       <c r="D8" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I8" s="69"/>
       <c r="J8" s="69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L8" s="69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M8" s="69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N8" s="69"/>
       <c r="O8" s="69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P8" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R8" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S8" s="70"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="111"/>
+      <c r="V8" s="99"/>
     </row>
     <row r="9" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B9" s="85">
@@ -4710,195 +4682,194 @@
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="J9" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="N9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>358</v>
-      </c>
       <c r="S9" s="71"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="111"/>
+      <c r="T9" s="96"/>
+      <c r="V9" s="99"/>
     </row>
     <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B10" s="86"/>
       <c r="C10" s="68"/>
       <c r="D10" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G10" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H10" s="87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I10" s="87"/>
       <c r="J10" s="87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K10" s="87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L10" s="87" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M10" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N10" s="87"/>
       <c r="O10" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P10" s="87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R10" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S10" s="76"/>
-      <c r="V10" s="111"/>
+      <c r="V10" s="99"/>
     </row>
     <row r="11" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B11" s="83"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F11" s="74"/>
       <c r="G11" s="74" t="s">
+        <v>450</v>
+      </c>
+      <c r="H11" s="74" t="s">
+        <v>441</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="J11" s="74" t="s">
+        <v>451</v>
+      </c>
+      <c r="K11" s="74" t="s">
+        <v>430</v>
+      </c>
+      <c r="L11" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="M11" s="74" t="s">
         <v>453</v>
       </c>
-      <c r="H11" s="74" t="s">
-        <v>443</v>
-      </c>
-      <c r="I11" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="J11" s="74" t="s">
+      <c r="N11" s="74" t="s">
         <v>454</v>
       </c>
-      <c r="K11" s="74" t="s">
-        <v>432</v>
-      </c>
-      <c r="L11" s="74" t="s">
+      <c r="O11" s="74" t="s">
         <v>455</v>
       </c>
-      <c r="M11" s="74" t="s">
+      <c r="P11" s="74" t="s">
         <v>456</v>
       </c>
-      <c r="N11" s="74" t="s">
+      <c r="Q11" s="74" t="s">
         <v>457</v>
-      </c>
-      <c r="O11" s="74" t="s">
-        <v>458</v>
-      </c>
-      <c r="P11" s="74" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q11" s="74" t="s">
-        <v>460</v>
       </c>
       <c r="R11" s="74"/>
       <c r="S11" s="75"/>
-      <c r="V11" s="111"/>
+      <c r="V11" s="99"/>
     </row>
     <row r="12" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="B12" s="84"/>
       <c r="C12" s="68"/>
       <c r="D12" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="69" t="s">
         <v>259</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>261</v>
       </c>
       <c r="F12" s="69"/>
       <c r="G12" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="H12" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="I12" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="J12" s="69" t="s">
+      <c r="K12" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="K12" s="69" t="s">
-        <v>221</v>
-      </c>
-      <c r="L12" s="69" t="s">
+      <c r="M12" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="M12" s="69" t="s">
+      <c r="N12" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="N12" s="69" t="s">
+      <c r="O12" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="O12" s="69" t="s">
+      <c r="P12" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="P12" s="69" t="s">
+      <c r="Q12" s="69" t="s">
         <v>275</v>
-      </c>
-      <c r="Q12" s="69" t="s">
-        <v>277</v>
       </c>
       <c r="R12" s="69"/>
       <c r="S12" s="70"/>
-      <c r="V12" s="111"/>
+      <c r="V12" s="99"/>
     </row>
     <row r="13" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B13" s="85">
@@ -4907,193 +4878,193 @@
       </c>
       <c r="C13" s="68"/>
       <c r="D13" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="H13" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="K13" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="N13" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="S13" s="71"/>
-      <c r="V13" s="112"/>
+      <c r="V13" s="100"/>
     </row>
     <row r="14" spans="2:22" s="2" customFormat="1">
       <c r="B14" s="86"/>
       <c r="C14" s="68"/>
       <c r="D14" s="87" t="s">
+        <v>495</v>
+      </c>
+      <c r="E14" s="87" t="s">
         <v>260</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>262</v>
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="J14" s="87" t="s">
         <v>264</v>
       </c>
-      <c r="H14" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="I14" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="J14" s="87" t="s">
+      <c r="K14" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="K14" s="87" t="s">
-        <v>222</v>
-      </c>
-      <c r="L14" s="87" t="s">
+      <c r="M14" s="87" t="s">
         <v>268</v>
       </c>
-      <c r="M14" s="87" t="s">
+      <c r="N14" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="N14" s="87" t="s">
+      <c r="O14" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="O14" s="87" t="s">
+      <c r="P14" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="P14" s="87" t="s">
+      <c r="Q14" s="87" t="s">
         <v>276</v>
-      </c>
-      <c r="Q14" s="87" t="s">
-        <v>278</v>
       </c>
       <c r="R14" s="87"/>
       <c r="S14" s="76"/>
-      <c r="V14" s="113"/>
+      <c r="V14" s="93"/>
     </row>
     <row r="15" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B15" s="83"/>
       <c r="C15" s="73"/>
       <c r="D15" s="74" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H15" s="74" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I15" s="74" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J15" s="74"/>
       <c r="K15" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="L15" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="M15" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="N15" s="74" t="s">
         <v>464</v>
-      </c>
-      <c r="L15" s="74" t="s">
-        <v>465</v>
-      </c>
-      <c r="M15" s="74" t="s">
-        <v>466</v>
-      </c>
-      <c r="N15" s="74" t="s">
-        <v>467</v>
       </c>
       <c r="O15" s="74"/>
       <c r="P15" s="74" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q15" s="74" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="R15" s="74" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="S15" s="75"/>
-      <c r="V15" s="114"/>
+      <c r="V15" s="94"/>
     </row>
     <row r="16" spans="2:22" s="2" customFormat="1">
       <c r="B16" s="84"/>
       <c r="C16" s="68"/>
       <c r="D16" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="F16" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="I16" s="69" t="s">
         <v>281</v>
-      </c>
-      <c r="F16" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="69" t="s">
-        <v>273</v>
-      </c>
-      <c r="H16" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="I16" s="69" t="s">
-        <v>283</v>
       </c>
       <c r="J16" s="69"/>
       <c r="K16" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="L16" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="L16" s="69" t="s">
+      <c r="M16" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="M16" s="69" t="s">
+      <c r="N16" s="69" t="s">
         <v>289</v>
-      </c>
-      <c r="N16" s="69" t="s">
-        <v>291</v>
       </c>
       <c r="O16" s="69"/>
       <c r="P16" s="69" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="69" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R16" s="69" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S16" s="70"/>
-      <c r="V16" s="113"/>
+      <c r="V16" s="93"/>
     </row>
     <row r="17" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B17" s="85">
@@ -5102,189 +5073,189 @@
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="G17" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="J17" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="O17" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>394</v>
-      </c>
       <c r="R17" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S17" s="71"/>
-      <c r="V17" s="113"/>
+      <c r="V17" s="93"/>
     </row>
     <row r="18" spans="2:22" s="2" customFormat="1">
       <c r="B18" s="86"/>
       <c r="C18" s="68"/>
       <c r="D18" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="E18" s="87" t="s">
+      <c r="F18" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="I18" s="87" t="s">
         <v>282</v>
-      </c>
-      <c r="F18" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="G18" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="H18" s="87" t="s">
-        <v>276</v>
-      </c>
-      <c r="I18" s="87" t="s">
-        <v>284</v>
       </c>
       <c r="J18" s="87"/>
       <c r="K18" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="L18" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="L18" s="87" t="s">
+      <c r="M18" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="M18" s="87" t="s">
+      <c r="N18" s="87" t="s">
         <v>290</v>
-      </c>
-      <c r="N18" s="87" t="s">
-        <v>292</v>
       </c>
       <c r="O18" s="87"/>
       <c r="P18" s="87" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="87" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R18" s="87" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S18" s="76"/>
-      <c r="V18" s="113"/>
+      <c r="V18" s="93"/>
     </row>
     <row r="19" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B19" s="83"/>
       <c r="C19" s="73"/>
       <c r="D19" s="74" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E19" s="74"/>
       <c r="F19" s="74" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H19" s="74" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I19" s="74" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J19" s="74"/>
       <c r="K19" s="74" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L19" s="74" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M19" s="74" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N19" s="74" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O19" s="74"/>
       <c r="P19" s="74" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="74" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="R19" s="74" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S19" s="75"/>
-      <c r="V19" s="114"/>
+      <c r="V19" s="94"/>
     </row>
     <row r="20" spans="2:22" s="2" customFormat="1">
       <c r="B20" s="84"/>
       <c r="C20" s="68"/>
       <c r="D20" s="69" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E20" s="69"/>
       <c r="F20" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="G20" s="69" t="s">
         <v>297</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="H20" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="H20" s="69" t="s">
-        <v>301</v>
-      </c>
       <c r="I20" s="69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J20" s="69"/>
       <c r="K20" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="L20" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="M20" s="69" t="s">
         <v>303</v>
       </c>
-      <c r="L20" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="M20" s="69" t="s">
+      <c r="N20" s="69" t="s">
         <v>305</v>
-      </c>
-      <c r="N20" s="69" t="s">
-        <v>307</v>
       </c>
       <c r="O20" s="69"/>
       <c r="P20" s="69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="69" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="R20" s="69" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="S20" s="70"/>
-      <c r="V20" s="113"/>
+      <c r="V20" s="93"/>
     </row>
     <row r="21" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B21" s="85">
@@ -5293,118 +5264,118 @@
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F21" s="91" t="s">
+        <v>394</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F21" s="91" t="s">
+      <c r="H21" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="I21" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="H21" s="91" t="s">
+      <c r="L21" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="M21" s="4" t="s">
+      <c r="O21" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>402</v>
-      </c>
       <c r="S21" s="71"/>
-      <c r="V21" s="113"/>
+      <c r="V21" s="93"/>
     </row>
     <row r="22" spans="2:22" s="2" customFormat="1">
       <c r="B22" s="86"/>
       <c r="C22" s="68"/>
       <c r="D22" s="87" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E22" s="87"/>
       <c r="F22" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="G22" s="87" t="s">
         <v>298</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="H22" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="H22" s="87" t="s">
-        <v>302</v>
-      </c>
       <c r="I22" s="87" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J22" s="87"/>
       <c r="K22" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="L22" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="M22" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="L22" s="87" t="s">
-        <v>304</v>
-      </c>
-      <c r="M22" s="87" t="s">
+      <c r="N22" s="87" t="s">
         <v>306</v>
-      </c>
-      <c r="N22" s="87" t="s">
-        <v>308</v>
       </c>
       <c r="O22" s="87"/>
       <c r="P22" s="87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="87" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="R22" s="87" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="S22" s="76"/>
-      <c r="V22" s="113"/>
+      <c r="V22" s="93"/>
     </row>
     <row r="23" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B23" s="83"/>
       <c r="C23" s="73"/>
       <c r="D23" s="74" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E23" s="74" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F23" s="74" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G23" s="74" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H23" s="74" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I23" s="74" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J23" s="74"/>
       <c r="K23" s="74"/>
@@ -5416,28 +5387,28 @@
       <c r="Q23" s="74"/>
       <c r="R23" s="74"/>
       <c r="S23" s="75"/>
-      <c r="V23" s="114"/>
+      <c r="V23" s="94"/>
     </row>
     <row r="24" spans="2:22" s="2" customFormat="1">
       <c r="B24" s="84"/>
       <c r="C24" s="68"/>
       <c r="D24" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="E24" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="E24" s="69" t="s">
-        <v>275</v>
-      </c>
       <c r="F24" s="69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I24" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J24" s="69"/>
       <c r="K24" s="69"/>
@@ -5449,7 +5420,7 @@
       <c r="Q24" s="69"/>
       <c r="R24" s="69"/>
       <c r="S24" s="70"/>
-      <c r="V24" s="113"/>
+      <c r="V24" s="93"/>
     </row>
     <row r="25" spans="2:22" s="2" customFormat="1" ht="67.5">
       <c r="B25" s="85">
@@ -5458,390 +5429,383 @@
       </c>
       <c r="C25" s="68"/>
       <c r="D25" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>405</v>
-      </c>
       <c r="J25" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="K25" s="117" t="s">
-        <v>478</v>
+        <v>367</v>
+      </c>
+      <c r="K25" s="97" t="s">
+        <v>475</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S25" s="71"/>
-      <c r="T25" s="2">
-        <f xml:space="preserve"> (5*15) + 8</f>
-        <v>83</v>
-      </c>
-      <c r="U25" s="2">
-        <f>T25+T29</f>
-        <v>146</v>
-      </c>
-      <c r="V25" s="113"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="93"/>
     </row>
     <row r="26" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B26" s="86"/>
       <c r="C26" s="68"/>
       <c r="D26" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="87" t="s">
-        <v>276</v>
-      </c>
       <c r="F26" s="87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G26" s="87" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H26" s="87" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I26" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J26" s="87"/>
       <c r="K26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R26" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S26" s="76"/>
-      <c r="T26" s="58"/>
-      <c r="V26" s="113"/>
+      <c r="V26" s="93"/>
     </row>
     <row r="27" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B27" s="89"/>
       <c r="C27" s="61"/>
       <c r="D27" s="74" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F27" s="74"/>
       <c r="G27" s="74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H27" s="74"/>
       <c r="I27" s="74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J27" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K27" s="74" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L27" s="74" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M27" s="74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N27" s="74" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="O27" s="74"/>
       <c r="P27" s="74" t="s">
         <v>498</v>
       </c>
       <c r="Q27" s="74" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="R27" s="74"/>
       <c r="S27" s="75"/>
       <c r="T27" s="56"/>
-      <c r="V27" s="113"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="93"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="84"/>
       <c r="C28" s="2"/>
       <c r="D28" s="69" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F28" s="69"/>
       <c r="G28" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H28" s="69"/>
       <c r="I28" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J28" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K28" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="L28" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="L28" s="69" t="s">
+      <c r="M28" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="N28" s="69" t="s">
         <v>317</v>
-      </c>
-      <c r="M28" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="N28" s="69" t="s">
-        <v>319</v>
       </c>
       <c r="O28" s="69"/>
       <c r="P28" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q28" s="69" t="s">
         <v>259</v>
-      </c>
-      <c r="Q28" s="69" t="s">
-        <v>261</v>
       </c>
       <c r="R28" s="69"/>
       <c r="S28" s="70"/>
       <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:22" s="2" customFormat="1" ht="67.5">
       <c r="B29" s="85">
-        <f>B26+1</f>
-        <v>1</v>
+        <f>B25+1</f>
+        <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="J29" s="4" t="s">
+      <c r="M29" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="R29" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="S29" s="71"/>
-      <c r="T29" s="2">
-        <f xml:space="preserve"> (4*15) + 3</f>
-        <v>63</v>
-      </c>
-      <c r="V29" s="113"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="93"/>
     </row>
     <row r="30" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B30" s="90"/>
       <c r="C30" s="60"/>
       <c r="D30" s="87" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E30" s="87" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F30" s="87"/>
       <c r="G30" s="87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H30" s="87"/>
       <c r="I30" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J30" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K30" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="L30" s="87" t="s">
         <v>316</v>
       </c>
-      <c r="L30" s="87" t="s">
+      <c r="M30" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="N30" s="87" t="s">
         <v>318</v>
-      </c>
-      <c r="M30" s="87" t="s">
-        <v>230</v>
-      </c>
-      <c r="N30" s="87" t="s">
-        <v>320</v>
       </c>
       <c r="O30" s="87"/>
       <c r="P30" s="87" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Q30" s="87" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="R30" s="87"/>
       <c r="S30" s="72"/>
-      <c r="T30" s="57"/>
-      <c r="V30" s="113"/>
+      <c r="V30" s="93"/>
     </row>
     <row r="31" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B31" s="89"/>
       <c r="C31" s="61"/>
       <c r="D31" s="74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E31" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F31" s="74" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G31" s="74" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H31" s="74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I31" s="74" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J31" s="74"/>
       <c r="K31" s="74" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L31" s="74"/>
       <c r="M31" s="74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N31" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O31" s="74" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="P31" s="74" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Q31" s="74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="R31" s="74" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="S31" s="75"/>
       <c r="T31" s="56"/>
-      <c r="V31" s="113"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="93"/>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="84"/>
       <c r="C32" s="2"/>
       <c r="D32" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F32" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="G32" s="69" t="s">
         <v>321</v>
       </c>
-      <c r="G32" s="69" t="s">
-        <v>323</v>
-      </c>
       <c r="H32" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I32" s="69" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J32" s="69"/>
       <c r="K32" s="69" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L32" s="69"/>
       <c r="M32" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N32" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O32" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="P32" s="69" t="s">
         <v>325</v>
       </c>
-      <c r="P32" s="69" t="s">
-        <v>327</v>
-      </c>
       <c r="Q32" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R32" s="69" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S32" s="70"/>
       <c r="T32" s="2"/>
@@ -5849,53 +5813,53 @@
     <row r="33" spans="2:20" ht="67.5">
       <c r="B33" s="85">
         <f>B29+1</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="M33" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O33" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="Q33" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S33" s="71"/>
       <c r="T33" s="2"/>
@@ -5904,45 +5868,45 @@
       <c r="B34" s="90"/>
       <c r="C34" s="2"/>
       <c r="D34" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E34" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F34" s="87" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="G34" s="87" t="s">
-        <v>324</v>
-      </c>
       <c r="H34" s="87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I34" s="87" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J34" s="87"/>
       <c r="K34" s="87" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L34" s="87"/>
       <c r="M34" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N34" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O34" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="P34" s="87" t="s">
         <v>326</v>
       </c>
-      <c r="P34" s="87" t="s">
-        <v>328</v>
-      </c>
       <c r="Q34" s="87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R34" s="87" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S34" s="76"/>
       <c r="T34" s="2"/>
@@ -5952,40 +5916,40 @@
       <c r="C35" s="73"/>
       <c r="D35" s="74"/>
       <c r="E35" s="74" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F35" s="74"/>
       <c r="G35" s="74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H35" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I35" s="74" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J35" s="74"/>
       <c r="K35" s="74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L35" s="74" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M35" s="74" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="N35" s="74" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="O35" s="74" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P35" s="74"/>
       <c r="Q35" s="74" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="R35" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S35" s="75"/>
       <c r="T35" s="56"/>
@@ -5995,40 +5959,40 @@
       <c r="C36" s="68"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F36" s="69"/>
       <c r="G36" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I36" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J36" s="69"/>
       <c r="K36" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L36" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="M36" s="69" t="s">
         <v>331</v>
       </c>
-      <c r="M36" s="69" t="s">
-        <v>333</v>
-      </c>
       <c r="N36" s="69" t="s">
+        <v>332</v>
+      </c>
+      <c r="O36" s="69" t="s">
         <v>334</v>
-      </c>
-      <c r="O36" s="69" t="s">
-        <v>336</v>
       </c>
       <c r="P36" s="69"/>
       <c r="Q36" s="69" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="R36" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S36" s="70"/>
       <c r="T36" s="2"/>
@@ -6036,53 +6000,53 @@
     <row r="37" spans="2:20" ht="67.5">
       <c r="B37" s="85">
         <f>B33+1</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E37" s="91" t="s">
+        <v>413</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="M37" s="91" t="s">
         <v>416</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="L37" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="M37" s="91" t="s">
+      <c r="O37" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="N37" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="P37" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="S37" s="71"/>
       <c r="T37" s="2"/>
@@ -6092,40 +6056,40 @@
       <c r="C38" s="68"/>
       <c r="D38" s="87"/>
       <c r="E38" s="87" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F38" s="87"/>
       <c r="G38" s="87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H38" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I38" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J38" s="87"/>
       <c r="K38" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L38" s="87" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M38" s="87" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N38" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="O38" s="87" t="s">
         <v>335</v>
-      </c>
-      <c r="O38" s="87" t="s">
-        <v>337</v>
       </c>
       <c r="P38" s="87"/>
       <c r="Q38" s="87" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R38" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S38" s="76"/>
       <c r="T38" s="2"/>
@@ -6134,43 +6098,43 @@
       <c r="B39" s="89"/>
       <c r="C39" s="73"/>
       <c r="D39" s="74" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E39" s="74"/>
       <c r="F39" s="74" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G39" s="74" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H39" s="74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I39" s="74" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J39" s="74" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K39" s="74"/>
       <c r="L39" s="74" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="M39" s="74" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="N39" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O39" s="74" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="P39" s="74"/>
       <c r="Q39" s="74" t="s">
+        <v>490</v>
+      </c>
+      <c r="R39" s="74" t="s">
         <v>493</v>
-      </c>
-      <c r="R39" s="74" t="s">
-        <v>496</v>
       </c>
       <c r="S39" s="75"/>
       <c r="T39" s="56"/>
@@ -6179,43 +6143,43 @@
       <c r="B40" s="84"/>
       <c r="C40" s="68"/>
       <c r="D40" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E40" s="69"/>
       <c r="F40" s="69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G40" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="H40" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="H40" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="I40" s="69" t="s">
-        <v>340</v>
-      </c>
       <c r="J40" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K40" s="69"/>
       <c r="L40" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="M40" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="M40" s="69" t="s">
-        <v>261</v>
-      </c>
       <c r="N40" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O40" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P40" s="69"/>
       <c r="Q40" s="69" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="R40" s="69" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="S40" s="70"/>
       <c r="T40" s="2"/>
@@ -6223,53 +6187,53 @@
     <row r="41" spans="2:20" ht="67.5">
       <c r="B41" s="85">
         <f>B37+1</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C41" s="68"/>
       <c r="D41" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O41" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="P41" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q41" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="K41" s="4" t="s">
+      <c r="R41" s="91" t="s">
         <v>423</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="R41" s="91" t="s">
-        <v>425</v>
       </c>
       <c r="S41" s="71"/>
       <c r="T41" s="2"/>
@@ -6278,43 +6242,43 @@
       <c r="B42" s="90"/>
       <c r="C42" s="68"/>
       <c r="D42" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E42" s="87"/>
       <c r="F42" s="87" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G42" s="87" t="s">
+        <v>337</v>
+      </c>
+      <c r="H42" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="I42" s="87" t="s">
         <v>339</v>
       </c>
-      <c r="H42" s="87" t="s">
-        <v>230</v>
-      </c>
-      <c r="I42" s="87" t="s">
-        <v>341</v>
-      </c>
       <c r="J42" s="87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K42" s="87"/>
       <c r="L42" s="87" t="s">
+        <v>495</v>
+      </c>
+      <c r="M42" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="M42" s="87" t="s">
-        <v>262</v>
-      </c>
       <c r="N42" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O42" s="87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P42" s="87"/>
       <c r="Q42" s="87" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R42" s="87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S42" s="76"/>
       <c r="T42" s="2"/>
@@ -6323,10 +6287,10 @@
       <c r="B43" s="89"/>
       <c r="C43" s="73"/>
       <c r="D43" s="74" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E43" s="74" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F43" s="74"/>
       <c r="G43" s="74"/>
@@ -6348,10 +6312,10 @@
       <c r="B44" s="84"/>
       <c r="C44" s="68"/>
       <c r="D44" s="69" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E44" s="69" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F44" s="69"/>
       <c r="G44" s="69"/>
@@ -6372,53 +6336,53 @@
     <row r="45" spans="2:20" ht="67.5">
       <c r="B45" s="85">
         <f>B41+1</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C45" s="68"/>
       <c r="D45" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S45" s="71"/>
       <c r="T45" s="2"/>
@@ -6427,47 +6391,47 @@
       <c r="B46" s="90"/>
       <c r="C46" s="68"/>
       <c r="D46" s="87" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E46" s="87" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F46" s="87"/>
       <c r="G46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R46" s="87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S46" s="70"/>
       <c r="T46" s="2"/>
@@ -6517,7 +6481,7 @@
     <row r="49" spans="2:20" ht="67.5">
       <c r="B49" s="85">
         <f>B45+1</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C49" s="68"/>
       <c r="D49" s="4"/>
@@ -6571,9 +6535,7 @@
       <c r="R57" s="69"/>
     </row>
     <row r="58" spans="2:20" ht="67.5">
-      <c r="R58" s="4" t="s">
-        <v>211</v>
-      </c>
+      <c r="R58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6581,106 +6543,106 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="57" priority="53">
+    <cfRule type="expression" dxfId="57" priority="57">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="54">
+    <cfRule type="expression" dxfId="56" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="55" priority="51">
+    <cfRule type="expression" dxfId="55" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="52">
+    <cfRule type="expression" dxfId="54" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="53" priority="11">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="12">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="51" priority="9">
+    <cfRule type="expression" dxfId="51" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="10">
+    <cfRule type="expression" dxfId="50" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="49" priority="7">
+    <cfRule type="expression" dxfId="49" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="8">
+    <cfRule type="expression" dxfId="48" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="6">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="44" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="43" priority="27">
+    <cfRule type="expression" dxfId="43" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="28">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="41" priority="25">
+    <cfRule type="expression" dxfId="41" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="26">
+    <cfRule type="expression" dxfId="40" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="39" priority="23">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="24">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="37" priority="21">
+    <cfRule type="expression" dxfId="37" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="22">
+    <cfRule type="expression" dxfId="36" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="35" priority="19">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R56">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9186,212 +9148,212 @@
   <sheetFormatPr defaultRowHeight="21"/>
   <sheetData>
     <row r="2" spans="2:10" ht="21" customHeight="1">
-      <c r="B2" s="92">
+      <c r="B2" s="101">
         <f xml:space="preserve"> ROW() - 1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="2:10" ht="21" customHeight="1">
-      <c r="B3" s="92"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="2:10" ht="21" customHeight="1">
-      <c r="B4" s="92"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="2:10" ht="21" customHeight="1">
-      <c r="B5" s="92"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="98"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="107"/>
     </row>
     <row r="6" spans="2:10" ht="21" customHeight="1">
-      <c r="B6" s="92"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
     </row>
     <row r="7" spans="2:10" ht="21" customHeight="1">
-      <c r="B7" s="92"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="98"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="107"/>
     </row>
     <row r="8" spans="2:10" ht="21" customHeight="1">
-      <c r="B8" s="92"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="98"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="107"/>
     </row>
     <row r="9" spans="2:10" ht="21" customHeight="1">
-      <c r="B9" s="92"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="98"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107"/>
     </row>
     <row r="10" spans="2:10" ht="21" customHeight="1">
-      <c r="B10" s="92"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="92">
+      <c r="B11" s="101">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="92"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="98"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="92"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="98"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="92"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="98"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="107"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="92"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="98"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="107"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="92"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="107"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="92"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="98"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="107"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="92"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="92"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10763,7 +10725,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="111" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -10781,7 +10743,7 @@
       <c r="G5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="111" t="s">
         <v>46</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -10806,7 +10768,7 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="103"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="15" t="s">
         <v>56</v>
       </c>
@@ -10826,7 +10788,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="103"/>
+      <c r="I6" s="112"/>
       <c r="J6" s="15" t="s">
         <v>57</v>
       </c>
@@ -10848,7 +10810,7 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="103"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="19" t="s">
         <v>62</v>
       </c>
@@ -10864,7 +10826,7 @@
       <c r="G7" s="20">
         <v>30</v>
       </c>
-      <c r="I7" s="103"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="19" t="s">
         <v>62</v>
       </c>
@@ -10886,7 +10848,7 @@
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="103"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="15" t="s">
         <v>64</v>
       </c>
@@ -10902,7 +10864,7 @@
       <c r="G8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="103"/>
+      <c r="I8" s="112"/>
       <c r="J8" s="22" t="s">
         <v>64</v>
       </c>
@@ -10924,7 +10886,7 @@
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="103"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="15" t="s">
         <v>73</v>
       </c>
@@ -10940,7 +10902,7 @@
       <c r="G9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="103"/>
+      <c r="I9" s="112"/>
       <c r="J9" s="15" t="s">
         <v>73</v>
       </c>
@@ -10962,7 +10924,7 @@
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="104"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="15" t="s">
         <v>78</v>
       </c>
@@ -10978,7 +10940,7 @@
       <c r="G10" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="104"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="15" t="s">
         <v>83</v>
       </c>
@@ -11001,7 +10963,7 @@
       <c r="R10" s="32"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="111" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -11019,7 +10981,7 @@
       <c r="G11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="102" t="s">
+      <c r="I11" s="111" t="s">
         <v>88</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -11043,7 +11005,7 @@
       <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="103"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="15" t="s">
         <v>56</v>
       </c>
@@ -11063,7 +11025,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="103"/>
+      <c r="I12" s="112"/>
       <c r="J12" s="15" t="s">
         <v>57</v>
       </c>
@@ -11083,7 +11045,7 @@
       <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="103"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="19" t="s">
         <v>62</v>
       </c>
@@ -11097,7 +11059,7 @@
       <c r="G13" s="20">
         <v>50</v>
       </c>
-      <c r="I13" s="103"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="19" t="s">
         <v>62</v>
       </c>
@@ -11117,7 +11079,7 @@
       <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="103"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="15" t="s">
         <v>64</v>
       </c>
@@ -11131,7 +11093,7 @@
       <c r="G14" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="103"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="15" t="s">
         <v>64</v>
       </c>
@@ -11151,7 +11113,7 @@
       <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="103"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="15" t="s">
         <v>73</v>
       </c>
@@ -11165,7 +11127,7 @@
       <c r="G15" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="103"/>
+      <c r="I15" s="112"/>
       <c r="J15" s="15" t="s">
         <v>73</v>
       </c>
@@ -11185,7 +11147,7 @@
       <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="104"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="15" t="s">
         <v>78</v>
       </c>
@@ -11199,7 +11161,7 @@
       <c r="G16" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="104"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="15" t="s">
         <v>83</v>
       </c>
@@ -11948,7 +11910,7 @@
         <v>199</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43B47AD-F451-42D7-B074-D750A5BA5B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6CF68E-F226-45F2-A8A5-3B99D26C8291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="255">
   <si>
     <t>〔thⁿi¹〕【ㄊㄧ¹】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1267,401 +1267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水陸草木之花，可愛者甚蕃；晉陶淵明獨愛菊。自李唐來，世人甚愛牡丹。予獨愛蓮之出淤泥而不染，濯清漣而不妖；中通外直，不蔓不枝；香遠益清，亭亭淨植，可遠觀而不可褻玩焉。
-予謂︰菊，花之隱逸者也；牡丹，花之富貴者也；蓮，花之君子者也。噫！菊之愛，陶後鮮有聞；蓮之愛，同予者何人？牡丹之愛，宜乎眾矣！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zui²</t>
-  </si>
-  <si>
-    <t>ㄗㄨㄧˋ</t>
-  </si>
-  <si>
-    <t>liok⁸</t>
-  </si>
-  <si>
-    <t>ㄌㄧㆦㆶ˙</t>
-  </si>
-  <si>
-    <t>cau²</t>
-  </si>
-  <si>
-    <t>ㄘㄠˋ</t>
-  </si>
-  <si>
-    <t>bak⁸</t>
-  </si>
-  <si>
-    <t>ㆠㄚㆶ˙</t>
-  </si>
-  <si>
-    <t>zi¹</t>
-  </si>
-  <si>
-    <t>ㄐㄧˉ</t>
-  </si>
-  <si>
-    <t>hue¹</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄝˉ</t>
-  </si>
-  <si>
-    <t>kho²</t>
-  </si>
-  <si>
-    <t>ㄎㆦˋ</t>
-  </si>
-  <si>
-    <t>ai³</t>
-  </si>
-  <si>
-    <t>ㄞ˪</t>
-  </si>
-  <si>
-    <t>zia²</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄚˋ</t>
-  </si>
-  <si>
-    <t>sim⁷</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆬ˫</t>
-  </si>
-  <si>
-    <t>huan¹</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄢˉ</t>
-  </si>
-  <si>
-    <t>zin³</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄣ˪</t>
-  </si>
-  <si>
-    <t>to⁵</t>
-  </si>
-  <si>
-    <t>ㄉㆦˊ</t>
-  </si>
-  <si>
-    <t>ian¹</t>
-  </si>
-  <si>
-    <t>ㄧㄢˉ</t>
-  </si>
-  <si>
-    <t>bing⁵</t>
-  </si>
-  <si>
-    <t>ㆠㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>tok⁸</t>
-  </si>
-  <si>
-    <t>ㄉㆦㆶ˙</t>
-  </si>
-  <si>
-    <t>kiok⁴</t>
-  </si>
-  <si>
-    <t>ㄍㄧㆦㆶ</t>
-  </si>
-  <si>
-    <t>zu⁷</t>
-  </si>
-  <si>
-    <t>ㄗㄨ˫</t>
-  </si>
-  <si>
-    <t>li²</t>
-  </si>
-  <si>
-    <t>ㄌㄧˋ</t>
-  </si>
-  <si>
-    <t>tong⁵</t>
-  </si>
-  <si>
-    <t>ㄉㆲˊ</t>
-  </si>
-  <si>
-    <t>lai⁵</t>
-  </si>
-  <si>
-    <t>ㄌㄞˊ</t>
-  </si>
-  <si>
-    <t>se³</t>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-  </si>
-  <si>
-    <t>lang⁵</t>
-  </si>
-  <si>
-    <t>ㄌㄤˊ</t>
-  </si>
-  <si>
-    <t>boo²</t>
-  </si>
-  <si>
-    <t>tan¹</t>
-  </si>
-  <si>
-    <t>ㄉㄢˉ</t>
-  </si>
-  <si>
-    <t>u⁵</t>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-  </si>
-  <si>
-    <t>lian⁵</t>
-  </si>
-  <si>
-    <t>ㄌㄧㄢˊ</t>
-  </si>
-  <si>
-    <t>cut⁴</t>
-  </si>
-  <si>
-    <t>ㄘㄨㆵ</t>
-  </si>
-  <si>
-    <t>u¹</t>
-  </si>
-  <si>
-    <t>ㄨˉ</t>
-  </si>
-  <si>
-    <t>ni⁵</t>
-  </si>
-  <si>
-    <t>ㄋㄧˊ</t>
-  </si>
-  <si>
-    <t>li⁵</t>
-  </si>
-  <si>
-    <t>ㄌㄧˊ</t>
-  </si>
-  <si>
-    <t>put⁴</t>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ</t>
-  </si>
-  <si>
-    <t>liam²</t>
-  </si>
-  <si>
-    <t>ㄌㄧㆰˋ</t>
-  </si>
-  <si>
-    <t>zok⁸</t>
-  </si>
-  <si>
-    <t>ㄗㆦㆶ˙</t>
-  </si>
-  <si>
-    <t>cing¹</t>
-  </si>
-  <si>
-    <t>ㄑㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>iau¹</t>
-  </si>
-  <si>
-    <t>ㄧㄠˉ</t>
-  </si>
-  <si>
-    <t>tiong¹</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆲˉ</t>
-  </si>
-  <si>
-    <t>thong¹</t>
-  </si>
-  <si>
-    <t>ㄊㆲˉ</t>
-  </si>
-  <si>
-    <t>gua⁷</t>
-  </si>
-  <si>
-    <t>ㆣㄨㄚ˫</t>
-  </si>
-  <si>
-    <t>tit⁸</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>ban⁷</t>
-  </si>
-  <si>
-    <t>ㆠㄢ˫</t>
-  </si>
-  <si>
-    <t>ki¹</t>
-  </si>
-  <si>
-    <t>ㄍㄧˉ</t>
-  </si>
-  <si>
-    <t>hiang¹</t>
-  </si>
-  <si>
-    <t>ㄏㄧㄤˉ</t>
-  </si>
-  <si>
-    <t>uan²</t>
-  </si>
-  <si>
-    <t>ㄨㄢˋ</t>
-  </si>
-  <si>
-    <t>iah⁴</t>
-  </si>
-  <si>
-    <t>ㄧㄚㆷ</t>
-  </si>
-  <si>
-    <t>ting⁵</t>
-  </si>
-  <si>
-    <t>ㄉㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>zing⁷</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄥ˫</t>
-  </si>
-  <si>
-    <t>sit⁸</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>kuan¹</t>
-  </si>
-  <si>
-    <t>ㄍㄨㄢˉ</t>
-  </si>
-  <si>
-    <t>siat⁴</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄚㆵ</t>
-  </si>
-  <si>
-    <t>ui⁷</t>
-  </si>
-  <si>
-    <t>ㄨㄧ˫</t>
-  </si>
-  <si>
-    <t>un²</t>
-  </si>
-  <si>
-    <t>ㄨㄣˋ</t>
-  </si>
-  <si>
-    <t>it⁸</t>
-  </si>
-  <si>
-    <t>ㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>ia⁷</t>
-  </si>
-  <si>
-    <t>ㄧㄚ˫</t>
-  </si>
-  <si>
-    <t>hu³</t>
-  </si>
-  <si>
-    <t>ㄏㄨ˪</t>
-  </si>
-  <si>
-    <t>kui³</t>
-  </si>
-  <si>
-    <t>ㄍㄨㄧ˪</t>
-  </si>
-  <si>
-    <t>kun¹</t>
-  </si>
-  <si>
-    <t>ㄍㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>zu²</t>
-  </si>
-  <si>
-    <t>ㄗㄨˋ</t>
-  </si>
-  <si>
-    <t>eh⁴</t>
-  </si>
-  <si>
-    <t>ㆤㆷ</t>
-  </si>
-  <si>
-    <t>au⁷</t>
-  </si>
-  <si>
-    <t>ㄠ˫</t>
-  </si>
-  <si>
-    <t>ciⁿ¹</t>
-  </si>
-  <si>
-    <t>u⁷</t>
-  </si>
-  <si>
-    <t>ㄨ˫</t>
-  </si>
-  <si>
-    <t>bun⁵</t>
-  </si>
-  <si>
-    <t>ㆠㄨㄣˊ</t>
-  </si>
-  <si>
-    <t>u²</t>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-  </si>
-  <si>
-    <t>ho⁵</t>
-  </si>
-  <si>
-    <t>ㄏㆦˊ</t>
-  </si>
-  <si>
-    <t>gi⁵</t>
-  </si>
-  <si>
-    <t>ㆣㄧˊ</t>
-  </si>
-  <si>
     <t>愛蓮說</t>
     <phoneticPr fontId="60" type="noConversion"/>
   </si>
@@ -1670,472 +1275,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔ziong³〕【ㄐㄧㆲ˪】</t>
-  </si>
-  <si>
-    <t>ziong³</t>
-  </si>
-  <si>
-    <t>i²</t>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-  </si>
-  <si>
     <t>水</t>
   </si>
   <si>
-    <t>陸</t>
-  </si>
-  <si>
-    <t>草</t>
-  </si>
-  <si>
-    <t>木</t>
-  </si>
-  <si>
-    <t>之</t>
-  </si>
-  <si>
-    <t>花</t>
-  </si>
-  <si>
     <t>，</t>
   </si>
   <si>
-    <t>可</t>
-  </si>
-  <si>
-    <t>愛</t>
-  </si>
-  <si>
-    <t>者</t>
-  </si>
-  <si>
-    <t>甚</t>
-  </si>
-  <si>
-    <t>蕃</t>
-  </si>
-  <si>
-    <t>；</t>
-  </si>
-  <si>
-    <t>晉</t>
-  </si>
-  <si>
-    <t>陶</t>
-  </si>
-  <si>
-    <t>淵</t>
-  </si>
-  <si>
-    <t>明</t>
-  </si>
-  <si>
-    <t>獨</t>
-  </si>
-  <si>
-    <t>菊</t>
-  </si>
-  <si>
-    <t>。</t>
-  </si>
-  <si>
-    <t>自</t>
-  </si>
-  <si>
-    <t>李</t>
-  </si>
-  <si>
-    <t>唐</t>
-  </si>
-  <si>
-    <t>來</t>
-  </si>
-  <si>
-    <t>世</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>牡</t>
-  </si>
-  <si>
-    <t>丹</t>
-  </si>
-  <si>
-    <t>予</t>
-  </si>
-  <si>
-    <t>蓮</t>
-  </si>
-  <si>
-    <t>出</t>
-  </si>
-  <si>
-    <t>淤</t>
-  </si>
-  <si>
-    <t>泥</t>
-  </si>
-  <si>
-    <t>而</t>
-  </si>
-  <si>
-    <t>不</t>
-  </si>
-  <si>
-    <t>染</t>
-  </si>
-  <si>
-    <t>濯</t>
-  </si>
-  <si>
-    <t>清</t>
-  </si>
-  <si>
-    <t>漣</t>
-  </si>
-  <si>
-    <t>妖</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>通</t>
-  </si>
-  <si>
-    <t>外</t>
-  </si>
-  <si>
-    <t>直</t>
-  </si>
-  <si>
-    <t>蔓</t>
-  </si>
-  <si>
-    <t>枝</t>
-  </si>
-  <si>
-    <t>香</t>
-  </si>
-  <si>
     <t>遠</t>
   </si>
   <si>
-    <t>益</t>
-  </si>
-  <si>
-    <t>亭</t>
-  </si>
-  <si>
-    <t>淨</t>
-  </si>
-  <si>
-    <t>植</t>
-  </si>
-  <si>
-    <t>觀</t>
-  </si>
-  <si>
-    <t>褻</t>
-  </si>
-  <si>
-    <t>玩</t>
-  </si>
-  <si>
-    <t>焉</t>
-  </si>
-  <si>
-    <t>謂</t>
-  </si>
-  <si>
-    <t>︰</t>
-  </si>
-  <si>
-    <t>隱</t>
-  </si>
-  <si>
-    <t>逸</t>
-  </si>
-  <si>
-    <t>也</t>
-  </si>
-  <si>
-    <t>富</t>
-  </si>
-  <si>
-    <t>貴</t>
-  </si>
-  <si>
     <t>君</t>
   </si>
   <si>
-    <t>子</t>
-  </si>
-  <si>
-    <t>噫</t>
-  </si>
-  <si>
     <t>！</t>
   </si>
   <si>
-    <t>後</t>
-  </si>
-  <si>
-    <t>鮮</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>聞</t>
-  </si>
-  <si>
-    <t>同</t>
-  </si>
-  <si>
-    <t>何</t>
-  </si>
-  <si>
     <t>？</t>
   </si>
   <si>
-    <t>宜</t>
-  </si>
-  <si>
-    <t>乎</t>
-  </si>
-  <si>
-    <t>眾</t>
-  </si>
-  <si>
-    <t>矣</t>
-  </si>
-  <si>
-    <t>〔zui²〕【ㄗㄨㄧˋ】</t>
-  </si>
-  <si>
-    <t>〔liok⁸〕【ㄌㄧㆦㆶ˙】</t>
-  </si>
-  <si>
-    <t>〔cau²〕【ㄘㄠˋ】</t>
-  </si>
-  <si>
-    <t>〔bak⁸〕【ㆠㄚㆶ˙】</t>
-  </si>
-  <si>
-    <t>〔zi¹〕【ㄐㄧˉ】</t>
-  </si>
-  <si>
-    <t>〔hue¹〕【ㄏㄨㄝˉ】</t>
-  </si>
-  <si>
-    <t>〔kho²〕【ㄎㆦˋ】</t>
-  </si>
-  <si>
-    <t>〔ai³〕【ㄞ˪】</t>
-  </si>
-  <si>
-    <t>〔zia²〕【ㄐㄧㄚˋ】</t>
-  </si>
-  <si>
-    <t>〔sim⁷〕【ㄒㄧㆬ˫】</t>
-  </si>
-  <si>
-    <t>〔huan¹〕【ㄏㄨㄢˉ】</t>
-  </si>
-  <si>
-    <t>〔zin³〕【ㄐㄧㄣ˪】</t>
-  </si>
-  <si>
-    <t>〔to⁵〕【ㄉㆦˊ】</t>
-  </si>
-  <si>
-    <t>〔ian¹〕【ㄧㄢˉ】</t>
-  </si>
-  <si>
-    <t>〔bing⁵〕【ㆠㄧㄥˊ】</t>
-  </si>
-  <si>
-    <t>〔tok⁸〕【ㄉㆦㆶ˙】</t>
-  </si>
-  <si>
-    <t>〔kiok⁴〕【ㄍㄧㆦㆶ】</t>
-  </si>
-  <si>
-    <t>〔zu⁷〕【ㄗㄨ˫】</t>
-  </si>
-  <si>
-    <t>〔li²〕【ㄌㄧˋ】</t>
-  </si>
-  <si>
-    <t>〔tong⁵〕【ㄉㆲˊ】</t>
-  </si>
-  <si>
-    <t>〔lai⁵〕【ㄌㄞˊ】</t>
-  </si>
-  <si>
-    <t>〔se³〕【ㄙㆤ˪】</t>
-  </si>
-  <si>
-    <t>〔lang⁵〕【ㄌㄤˊ】</t>
-  </si>
-  <si>
-    <t>〔tan¹〕【ㄉㄢˉ】</t>
-  </si>
-  <si>
-    <t>〔u⁵〕【ㄨˊ】</t>
-  </si>
-  <si>
-    <t>〔lian⁵〕【ㄌㄧㄢˊ】</t>
-  </si>
-  <si>
-    <t>〔cut⁴〕【ㄘㄨㆵ】</t>
-  </si>
-  <si>
-    <t>〔u¹〕【ㄨˉ】</t>
-  </si>
-  <si>
-    <t>〔ni⁵〕【ㄋㄧˊ】</t>
-  </si>
-  <si>
-    <t>〔li⁵〕【ㄌㄧˊ】</t>
-  </si>
-  <si>
-    <t>〔put⁴〕【ㄅㄨㆵ】</t>
-  </si>
-  <si>
-    <t>〔liam²〕【ㄌㄧㆰˋ】</t>
-  </si>
-  <si>
-    <t>〔zok⁸〕【ㄗㆦㆶ˙】</t>
-  </si>
-  <si>
-    <t>〔cing¹〕【ㄑㄧㄥˉ】</t>
-  </si>
-  <si>
-    <t>〔iau¹〕【ㄧㄠˉ】</t>
-  </si>
-  <si>
-    <t>〔tiong¹〕【ㄉㄧㆲˉ】</t>
-  </si>
-  <si>
-    <t>〔thong¹〕【ㄊㆲˉ】</t>
-  </si>
-  <si>
-    <t>〔gua⁷〕【ㆣㄨㄚ˫】</t>
-  </si>
-  <si>
-    <t>〔tit⁸〕【ㄉㄧㆵ˙】</t>
-  </si>
-  <si>
-    <t>〔ban⁷〕【ㆠㄢ˫】</t>
-  </si>
-  <si>
-    <t>〔ki¹〕【ㄍㄧˉ】</t>
-  </si>
-  <si>
-    <t>〔hiang¹〕【ㄏㄧㄤˉ】</t>
-  </si>
-  <si>
-    <t>〔uan²〕【ㄨㄢˋ】</t>
-  </si>
-  <si>
-    <t>〔iah⁴〕【ㄧㄚㆷ】</t>
-  </si>
-  <si>
-    <t>〔ting⁵〕【ㄉㄧㄥˊ】</t>
-  </si>
-  <si>
-    <t>〔zing⁷〕【ㄐㄧㄥ˫】</t>
-  </si>
-  <si>
-    <t>〔sit⁸〕【ㄒㄧㆵ˙】</t>
-  </si>
-  <si>
-    <t>〔kuan¹〕【ㄍㄨㄢˉ】</t>
-  </si>
-  <si>
-    <t>〔siat⁴〕【ㄒㄧㄚㆵ】</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>〔ui⁷〕【ㄨㄧ˫】</t>
-  </si>
-  <si>
-    <t>〔un²〕【ㄨㄣˋ】</t>
-  </si>
-  <si>
-    <t>〔it⁸〕【ㄧㆵ˙】</t>
-  </si>
-  <si>
-    <t>〔ia⁷〕【ㄧㄚ˫】</t>
-  </si>
-  <si>
-    <t>〔hu³〕【ㄏㄨ˪】</t>
-  </si>
-  <si>
-    <t>〔kui³〕【ㄍㄨㄧ˪】</t>
-  </si>
-  <si>
-    <t>〔kun¹〕【ㄍㄨㄣˉ】</t>
-  </si>
-  <si>
-    <t>〔zu²〕【ㄗㄨˋ】</t>
-  </si>
-  <si>
-    <t>〔eh⁴〕【ㆤㆷ】</t>
-  </si>
-  <si>
-    <t>〔au⁷〕【ㄠ˫】</t>
-  </si>
-  <si>
-    <t>〔u⁷〕【ㄨ˫】</t>
-  </si>
-  <si>
-    <t>〔bun⁵〕【ㆠㄨㄣˊ】</t>
-  </si>
-  <si>
-    <t>〔u²〕【ㄨˋ】</t>
-  </si>
-  <si>
-    <t>〔ho⁵〕【ㄏㆦˊ】</t>
-  </si>
-  <si>
-    <t>〔gi⁵〕【ㆣㄧˊ】</t>
-  </si>
-  <si>
-    <t>〔i²〕【ㄧˋ】</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆲ˪</t>
-  </si>
-  <si>
-    <t>〔hoo⁵〕【ㄏㆦˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ciⁿ¹〕【ㄑㆪˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㆦˋ</t>
-  </si>
-  <si>
-    <t>ㄑㆪˉ</t>
-  </si>
-  <si>
-    <t>hoo⁵</t>
-  </si>
-  <si>
-    <t>〔boo²〕【ㆠㆦˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>《天易見，見君難》
+漫道帝城天樣遠，天易見，見君難！
+畫堂新構近孤山，曲闌干，為誰安？
+欲掉小舟尋舊事，無處問，水連天！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>易</t>
+  </si>
+  <si>
+    <t>見</t>
+  </si>
+  <si>
+    <t>難</t>
+  </si>
+  <si>
+    <t>》</t>
+  </si>
+  <si>
+    <t>漫</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>帝</t>
+  </si>
+  <si>
+    <t>城</t>
+  </si>
+  <si>
+    <t>樣</t>
+  </si>
+  <si>
+    <t>畫</t>
+  </si>
+  <si>
+    <t>堂</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>構</t>
+  </si>
+  <si>
+    <t>近</t>
+  </si>
+  <si>
+    <t>孤</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>曲</t>
+  </si>
+  <si>
+    <t>闌</t>
+  </si>
+  <si>
+    <t>干</t>
+  </si>
+  <si>
+    <t>為</t>
+  </si>
+  <si>
+    <t>誰</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>欲</t>
+  </si>
+  <si>
+    <t>掉</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>舟</t>
+  </si>
+  <si>
+    <t>尋</t>
+  </si>
+  <si>
+    <t>舊</t>
+  </si>
+  <si>
+    <t>事</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>處</t>
+  </si>
+  <si>
+    <t>問</t>
+  </si>
+  <si>
+    <t>連</t>
   </si>
 </sst>
 </file>
@@ -2917,7 +2184,7 @@
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3179,9 +2446,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3197,9 +2461,6 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="67" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -3247,6 +2508,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4279,15 +3558,15 @@
         <v>206</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>342</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="95" t="s">
-        <v>343</v>
+      <c r="C5" s="94" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4303,8 +3582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -4315,7 +3594,7 @@
     <col min="4" max="18" width="11.5" style="2" customWidth="1"/>
     <col min="19" max="19" width="3.69921875" style="2" customWidth="1"/>
     <col min="20" max="20" width="10.3984375" customWidth="1"/>
-    <col min="22" max="22" width="71.69921875" style="93" customWidth="1"/>
+    <col min="22" max="22" width="71.69921875" style="92" customWidth="1"/>
     <col min="23" max="23" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4381,299 +3660,157 @@
         <v>15</v>
       </c>
       <c r="S2" s="78"/>
-      <c r="V2" s="92">
+      <c r="V2" s="91">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>146</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:22" s="58" customFormat="1" ht="26.1" customHeight="1">
       <c r="B3" s="83"/>
       <c r="C3" s="82"/>
-      <c r="D3" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>427</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>428</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>429</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>430</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>431</v>
-      </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66" t="s">
-        <v>432</v>
-      </c>
-      <c r="L3" s="66" t="s">
-        <v>433</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>434</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>435</v>
-      </c>
-      <c r="O3" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66" t="s">
-        <v>437</v>
-      </c>
-      <c r="R3" s="66" t="s">
-        <v>438</v>
-      </c>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
       <c r="S3" s="67"/>
-      <c r="T3" s="96"/>
-      <c r="V3" s="98" t="s">
-        <v>211</v>
+      <c r="T3" s="95"/>
+      <c r="V3" s="96" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="B4" s="84"/>
-      <c r="D4" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>216</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="I4" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="L4" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="M4" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="N4" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="O4" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69" t="s">
-        <v>234</v>
-      </c>
-      <c r="R4" s="69" t="s">
-        <v>236</v>
-      </c>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
       <c r="S4" s="70"/>
-      <c r="V4" s="99"/>
+      <c r="V4" s="97"/>
     </row>
     <row r="5" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B5" s="85">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="N5" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>362</v>
-      </c>
+      <c r="D5" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" s="114" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="L5" s="114" t="s">
+        <v>225</v>
+      </c>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
       <c r="S5" s="71"/>
-      <c r="V5" s="99"/>
+      <c r="V5" s="97"/>
     </row>
     <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="B6" s="86"/>
       <c r="C6" s="60"/>
-      <c r="D6" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="G6" s="87" t="s">
-        <v>219</v>
-      </c>
-      <c r="H6" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="I6" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="L6" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="M6" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="N6" s="87" t="s">
-        <v>231</v>
-      </c>
-      <c r="O6" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="R6" s="87" t="s">
-        <v>237</v>
-      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
       <c r="S6" s="72"/>
-      <c r="V6" s="99"/>
+      <c r="V6" s="97"/>
     </row>
     <row r="7" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="83"/>
       <c r="C7" s="73"/>
-      <c r="D7" s="74" t="s">
-        <v>439</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>440</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>441</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>433</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>442</v>
-      </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74" t="s">
-        <v>443</v>
-      </c>
-      <c r="K7" s="74" t="s">
-        <v>444</v>
-      </c>
-      <c r="L7" s="74" t="s">
-        <v>445</v>
-      </c>
-      <c r="M7" s="74" t="s">
-        <v>446</v>
-      </c>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74" t="s">
-        <v>447</v>
-      </c>
-      <c r="P7" s="74" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q7" s="74" t="s">
-        <v>435</v>
-      </c>
-      <c r="R7" s="74" t="s">
-        <v>433</v>
-      </c>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
       <c r="S7" s="75"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="97"/>
     </row>
     <row r="8" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="B8" s="84"/>
       <c r="C8" s="68"/>
-      <c r="D8" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="69" t="s">
-        <v>244</v>
-      </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="K8" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="L8" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="M8" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="P8" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q8" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="R8" s="69" t="s">
-        <v>226</v>
-      </c>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
       <c r="S8" s="70"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="97"/>
     </row>
     <row r="9" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B9" s="85">
@@ -4681,195 +3818,117 @@
         <v>2</v>
       </c>
       <c r="C9" s="68"/>
-      <c r="D9" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>356</v>
+      <c r="D9" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="G9" s="114" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="I9" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="L9" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="M9" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="N9" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="O9" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="P9" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q9" s="114" t="s">
+        <v>216</v>
+      </c>
+      <c r="R9" s="114" t="s">
+        <v>224</v>
       </c>
       <c r="S9" s="71"/>
-      <c r="T9" s="96"/>
-      <c r="V9" s="99"/>
+      <c r="T9" s="95"/>
+      <c r="V9" s="97"/>
     </row>
     <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B10" s="86"/>
       <c r="C10" s="68"/>
-      <c r="D10" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="H10" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="K10" s="87" t="s">
-        <v>249</v>
-      </c>
-      <c r="L10" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="M10" s="87" t="s">
-        <v>253</v>
-      </c>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87" t="s">
-        <v>255</v>
-      </c>
-      <c r="P10" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q10" s="87" t="s">
-        <v>231</v>
-      </c>
-      <c r="R10" s="87" t="s">
-        <v>227</v>
-      </c>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
       <c r="S10" s="76"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="97"/>
     </row>
     <row r="11" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B11" s="83"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="74" t="s">
-        <v>498</v>
-      </c>
-      <c r="E11" s="74" t="s">
-        <v>449</v>
-      </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74" t="s">
-        <v>450</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>441</v>
-      </c>
-      <c r="I11" s="74" t="s">
-        <v>433</v>
-      </c>
-      <c r="J11" s="74" t="s">
-        <v>451</v>
-      </c>
-      <c r="K11" s="74" t="s">
-        <v>430</v>
-      </c>
-      <c r="L11" s="74" t="s">
-        <v>452</v>
-      </c>
-      <c r="M11" s="74" t="s">
-        <v>453</v>
-      </c>
-      <c r="N11" s="74" t="s">
-        <v>454</v>
-      </c>
-      <c r="O11" s="74" t="s">
-        <v>455</v>
-      </c>
-      <c r="P11" s="74" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q11" s="74" t="s">
-        <v>457</v>
-      </c>
-      <c r="R11" s="74"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116"/>
       <c r="S11" s="75"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="97"/>
     </row>
     <row r="12" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="B12" s="84"/>
       <c r="C12" s="68"/>
-      <c r="D12" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>259</v>
-      </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69" t="s">
-        <v>261</v>
-      </c>
-      <c r="H12" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="I12" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="K12" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="L12" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="M12" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="N12" s="69" t="s">
-        <v>269</v>
-      </c>
-      <c r="O12" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="P12" s="69" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q12" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="R12" s="69"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
       <c r="S12" s="70"/>
-      <c r="V12" s="99"/>
+      <c r="V12" s="97"/>
     </row>
     <row r="13" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B13" s="85">
@@ -4877,194 +3936,88 @@
         <v>3</v>
       </c>
       <c r="C13" s="68"/>
-      <c r="D13" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>354</v>
-      </c>
+      <c r="D13" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
       <c r="S13" s="71"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="98"/>
     </row>
     <row r="14" spans="2:22" s="2" customFormat="1">
       <c r="B14" s="86"/>
       <c r="C14" s="68"/>
-      <c r="D14" s="87" t="s">
-        <v>495</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>260</v>
-      </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="H14" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="I14" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="J14" s="87" t="s">
-        <v>264</v>
-      </c>
-      <c r="K14" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="M14" s="87" t="s">
-        <v>268</v>
-      </c>
-      <c r="N14" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="O14" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="P14" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q14" s="87" t="s">
-        <v>276</v>
-      </c>
-      <c r="R14" s="87"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
       <c r="S14" s="76"/>
-      <c r="V14" s="93"/>
+      <c r="V14" s="92"/>
     </row>
     <row r="15" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B15" s="83"/>
       <c r="C15" s="73"/>
-      <c r="D15" s="74" t="s">
-        <v>458</v>
-      </c>
-      <c r="E15" s="74" t="s">
-        <v>459</v>
-      </c>
-      <c r="F15" s="74" t="s">
-        <v>451</v>
-      </c>
-      <c r="G15" s="74" t="s">
-        <v>455</v>
-      </c>
-      <c r="H15" s="74" t="s">
-        <v>456</v>
-      </c>
-      <c r="I15" s="74" t="s">
-        <v>460</v>
-      </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74" t="s">
-        <v>461</v>
-      </c>
-      <c r="L15" s="74" t="s">
-        <v>462</v>
-      </c>
-      <c r="M15" s="74" t="s">
-        <v>463</v>
-      </c>
-      <c r="N15" s="74" t="s">
-        <v>464</v>
-      </c>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q15" s="74" t="s">
-        <v>465</v>
-      </c>
-      <c r="R15" s="74" t="s">
-        <v>456</v>
-      </c>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="116"/>
       <c r="S15" s="75"/>
-      <c r="V15" s="94"/>
+      <c r="V15" s="93"/>
     </row>
     <row r="16" spans="2:22" s="2" customFormat="1">
       <c r="B16" s="84"/>
       <c r="C16" s="68"/>
-      <c r="D16" s="69" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" s="69" t="s">
-        <v>279</v>
-      </c>
-      <c r="F16" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="G16" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="H16" s="69" t="s">
-        <v>273</v>
-      </c>
-      <c r="I16" s="69" t="s">
-        <v>281</v>
-      </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69" t="s">
-        <v>283</v>
-      </c>
-      <c r="L16" s="69" t="s">
-        <v>285</v>
-      </c>
-      <c r="M16" s="69" t="s">
-        <v>287</v>
-      </c>
-      <c r="N16" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q16" s="69" t="s">
-        <v>291</v>
-      </c>
-      <c r="R16" s="69" t="s">
-        <v>273</v>
-      </c>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
       <c r="S16" s="70"/>
-      <c r="V16" s="93"/>
+      <c r="V16" s="92"/>
     </row>
     <row r="17" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B17" s="85">
@@ -5072,190 +4025,116 @@
         <v>4</v>
       </c>
       <c r="C17" s="68"/>
-      <c r="D17" s="91" t="s">
-        <v>384</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>382</v>
+      <c r="D17" s="114" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="G17" s="114" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17" s="114" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" s="114" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="L17" s="114" t="s">
+        <v>238</v>
+      </c>
+      <c r="M17" s="114" t="s">
+        <v>239</v>
+      </c>
+      <c r="N17" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="P17" s="114" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q17" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="R17" s="114" t="s">
+        <v>243</v>
       </c>
       <c r="S17" s="71"/>
-      <c r="V17" s="93"/>
+      <c r="V17" s="92"/>
     </row>
     <row r="18" spans="2:22" s="2" customFormat="1">
       <c r="B18" s="86"/>
       <c r="C18" s="68"/>
-      <c r="D18" s="87" t="s">
-        <v>278</v>
-      </c>
-      <c r="E18" s="87" t="s">
-        <v>280</v>
-      </c>
-      <c r="F18" s="87" t="s">
-        <v>264</v>
-      </c>
-      <c r="G18" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="H18" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="I18" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="L18" s="87" t="s">
-        <v>286</v>
-      </c>
-      <c r="M18" s="87" t="s">
-        <v>288</v>
-      </c>
-      <c r="N18" s="87" t="s">
-        <v>290</v>
-      </c>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q18" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="R18" s="87" t="s">
-        <v>274</v>
-      </c>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="115"/>
       <c r="S18" s="76"/>
-      <c r="V18" s="93"/>
+      <c r="V18" s="92"/>
     </row>
     <row r="19" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B19" s="83"/>
       <c r="C19" s="73"/>
-      <c r="D19" s="74" t="s">
-        <v>466</v>
-      </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74" t="s">
-        <v>467</v>
-      </c>
-      <c r="G19" s="74" t="s">
-        <v>468</v>
-      </c>
-      <c r="H19" s="74" t="s">
-        <v>469</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>459</v>
-      </c>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74" t="s">
-        <v>470</v>
-      </c>
-      <c r="L19" s="74" t="s">
-        <v>470</v>
-      </c>
-      <c r="M19" s="74" t="s">
-        <v>471</v>
-      </c>
-      <c r="N19" s="74" t="s">
-        <v>472</v>
-      </c>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q19" s="74" t="s">
-        <v>468</v>
-      </c>
-      <c r="R19" s="74" t="s">
-        <v>473</v>
-      </c>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="116"/>
       <c r="S19" s="75"/>
-      <c r="V19" s="94"/>
+      <c r="V19" s="93"/>
     </row>
     <row r="20" spans="2:22" s="2" customFormat="1">
       <c r="B20" s="84"/>
       <c r="C20" s="68"/>
-      <c r="D20" s="69" t="s">
-        <v>293</v>
-      </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69" t="s">
-        <v>295</v>
-      </c>
-      <c r="G20" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="H20" s="69" t="s">
-        <v>299</v>
-      </c>
-      <c r="I20" s="69" t="s">
-        <v>279</v>
-      </c>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="L20" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="M20" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="N20" s="69" t="s">
-        <v>305</v>
-      </c>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q20" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="R20" s="69" t="s">
-        <v>307</v>
-      </c>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
       <c r="S20" s="70"/>
-      <c r="V20" s="93"/>
+      <c r="V20" s="92"/>
     </row>
     <row r="21" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B21" s="85">
@@ -5263,164 +4142,88 @@
         <v>5</v>
       </c>
       <c r="C21" s="68"/>
-      <c r="D21" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F21" s="91" t="s">
-        <v>394</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="H21" s="91" t="s">
-        <v>396</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>400</v>
-      </c>
+      <c r="D21" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
       <c r="S21" s="71"/>
-      <c r="V21" s="93"/>
+      <c r="V21" s="92"/>
     </row>
     <row r="22" spans="2:22" s="2" customFormat="1">
       <c r="B22" s="86"/>
       <c r="C22" s="68"/>
-      <c r="D22" s="87" t="s">
-        <v>294</v>
-      </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87" t="s">
-        <v>296</v>
-      </c>
-      <c r="G22" s="87" t="s">
-        <v>298</v>
-      </c>
-      <c r="H22" s="87" t="s">
-        <v>300</v>
-      </c>
-      <c r="I22" s="87" t="s">
-        <v>280</v>
-      </c>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87" t="s">
-        <v>302</v>
-      </c>
-      <c r="L22" s="87" t="s">
-        <v>302</v>
-      </c>
-      <c r="M22" s="87" t="s">
-        <v>304</v>
-      </c>
-      <c r="N22" s="87" t="s">
-        <v>306</v>
-      </c>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q22" s="87" t="s">
-        <v>298</v>
-      </c>
-      <c r="R22" s="87" t="s">
-        <v>308</v>
-      </c>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="115"/>
       <c r="S22" s="76"/>
-      <c r="V22" s="93"/>
+      <c r="V22" s="92"/>
     </row>
     <row r="23" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B23" s="83"/>
       <c r="C23" s="73"/>
-      <c r="D23" s="74" t="s">
-        <v>455</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>456</v>
-      </c>
-      <c r="F23" s="74" t="s">
-        <v>432</v>
-      </c>
-      <c r="G23" s="74" t="s">
-        <v>474</v>
-      </c>
-      <c r="H23" s="74" t="s">
-        <v>468</v>
-      </c>
-      <c r="I23" s="74" t="s">
-        <v>439</v>
-      </c>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116"/>
       <c r="S23" s="75"/>
-      <c r="V23" s="94"/>
+      <c r="V23" s="93"/>
     </row>
     <row r="24" spans="2:22" s="2" customFormat="1">
       <c r="B24" s="84"/>
       <c r="C24" s="68"/>
-      <c r="D24" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="E24" s="69" t="s">
-        <v>273</v>
-      </c>
-      <c r="F24" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="G24" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="H24" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="I24" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
       <c r="S24" s="70"/>
-      <c r="V24" s="93"/>
+      <c r="V24" s="92"/>
     </row>
     <row r="25" spans="2:22" s="2" customFormat="1" ht="67.5">
       <c r="B25" s="85">
@@ -5428,190 +4231,118 @@
         <v>6</v>
       </c>
       <c r="C25" s="68"/>
-      <c r="D25" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="K25" s="97" t="s">
-        <v>475</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>475</v>
+      <c r="D25" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" s="114" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" s="114" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="114" t="s">
+        <v>248</v>
+      </c>
+      <c r="I25" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="J25" s="114" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="N25" s="114" t="s">
+        <v>253</v>
+      </c>
+      <c r="O25" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="P25" s="114" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q25" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="R25" s="114" t="s">
+        <v>221</v>
       </c>
       <c r="S25" s="71"/>
       <c r="T25" s="56"/>
       <c r="U25" s="56"/>
-      <c r="V25" s="93"/>
+      <c r="V25" s="92"/>
     </row>
     <row r="26" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B26" s="86"/>
       <c r="C26" s="68"/>
-      <c r="D26" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="E26" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="F26" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="G26" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="H26" s="87" t="s">
-        <v>298</v>
-      </c>
-      <c r="I26" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="L26" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="M26" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="N26" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="O26" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="P26" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q26" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="R26" s="87" t="s">
-        <v>475</v>
-      </c>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
       <c r="S26" s="76"/>
-      <c r="V26" s="93"/>
+      <c r="V26" s="92"/>
     </row>
     <row r="27" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B27" s="89"/>
       <c r="C27" s="61"/>
-      <c r="D27" s="74" t="s">
-        <v>450</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>476</v>
-      </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74" t="s">
-        <v>442</v>
-      </c>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74" t="s">
-        <v>431</v>
-      </c>
-      <c r="J27" s="74" t="s">
-        <v>430</v>
-      </c>
-      <c r="K27" s="74" t="s">
-        <v>477</v>
-      </c>
-      <c r="L27" s="74" t="s">
-        <v>478</v>
-      </c>
-      <c r="M27" s="74" t="s">
-        <v>434</v>
-      </c>
-      <c r="N27" s="74" t="s">
-        <v>479</v>
-      </c>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q27" s="74" t="s">
-        <v>449</v>
-      </c>
-      <c r="R27" s="74"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="116"/>
+      <c r="Q27" s="116"/>
+      <c r="R27" s="116"/>
       <c r="S27" s="75"/>
       <c r="T27" s="56"/>
       <c r="U27" s="56"/>
-      <c r="V27" s="93"/>
+      <c r="V27" s="92"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="84"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="69" t="s">
-        <v>261</v>
-      </c>
-      <c r="E28" s="69" t="s">
-        <v>311</v>
-      </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69" t="s">
-        <v>244</v>
-      </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="J28" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="K28" s="69" t="s">
-        <v>313</v>
-      </c>
-      <c r="L28" s="69" t="s">
-        <v>315</v>
-      </c>
-      <c r="M28" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="N28" s="69" t="s">
-        <v>317</v>
-      </c>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q28" s="69" t="s">
-        <v>259</v>
-      </c>
-      <c r="R28" s="69"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
       <c r="S28" s="70"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -5621,192 +4352,90 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>354</v>
-      </c>
+      <c r="D29" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
       <c r="S29" s="71"/>
       <c r="T29" s="56"/>
       <c r="U29" s="56"/>
-      <c r="V29" s="93"/>
+      <c r="V29" s="92"/>
     </row>
     <row r="30" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B30" s="90"/>
       <c r="C30" s="60"/>
-      <c r="D30" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>312</v>
-      </c>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="J30" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="K30" s="87" t="s">
-        <v>314</v>
-      </c>
-      <c r="L30" s="87" t="s">
-        <v>316</v>
-      </c>
-      <c r="M30" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="N30" s="87" t="s">
-        <v>318</v>
-      </c>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q30" s="87" t="s">
-        <v>260</v>
-      </c>
-      <c r="R30" s="87"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="115"/>
       <c r="S30" s="72"/>
-      <c r="V30" s="93"/>
+      <c r="V30" s="92"/>
     </row>
     <row r="31" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B31" s="89"/>
       <c r="C31" s="61"/>
-      <c r="D31" s="74" t="s">
-        <v>431</v>
-      </c>
-      <c r="E31" s="74" t="s">
-        <v>430</v>
-      </c>
-      <c r="F31" s="74" t="s">
-        <v>480</v>
-      </c>
-      <c r="G31" s="74" t="s">
-        <v>481</v>
-      </c>
-      <c r="H31" s="74" t="s">
-        <v>434</v>
-      </c>
-      <c r="I31" s="74" t="s">
-        <v>479</v>
-      </c>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74" t="s">
-        <v>451</v>
-      </c>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74" t="s">
-        <v>431</v>
-      </c>
-      <c r="N31" s="74" t="s">
-        <v>430</v>
-      </c>
-      <c r="O31" s="74" t="s">
-        <v>482</v>
-      </c>
-      <c r="P31" s="74" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q31" s="74" t="s">
-        <v>434</v>
-      </c>
-      <c r="R31" s="74" t="s">
-        <v>479</v>
-      </c>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="116"/>
+      <c r="Q31" s="116"/>
+      <c r="R31" s="116"/>
       <c r="S31" s="75"/>
       <c r="T31" s="56"/>
       <c r="U31" s="56"/>
-      <c r="V31" s="93"/>
+      <c r="V31" s="92"/>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="84"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="E32" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="F32" s="69" t="s">
-        <v>319</v>
-      </c>
-      <c r="G32" s="69" t="s">
-        <v>321</v>
-      </c>
-      <c r="H32" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="I32" s="69" t="s">
-        <v>317</v>
-      </c>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="N32" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="O32" s="69" t="s">
-        <v>323</v>
-      </c>
-      <c r="P32" s="69" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q32" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="R32" s="69" t="s">
-        <v>317</v>
-      </c>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
       <c r="S32" s="70"/>
       <c r="T32" s="2"/>
     </row>
@@ -5816,184 +4445,84 @@
         <v>8</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>408</v>
-      </c>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="114"/>
       <c r="S33" s="71"/>
       <c r="T33" s="2"/>
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="90"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="F34" s="87" t="s">
-        <v>320</v>
-      </c>
-      <c r="G34" s="87" t="s">
-        <v>322</v>
-      </c>
-      <c r="H34" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="I34" s="87" t="s">
-        <v>318</v>
-      </c>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87" t="s">
-        <v>264</v>
-      </c>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="N34" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="O34" s="87" t="s">
-        <v>324</v>
-      </c>
-      <c r="P34" s="87" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q34" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="R34" s="87" t="s">
-        <v>318</v>
-      </c>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="115"/>
+      <c r="O34" s="115"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="115"/>
+      <c r="R34" s="115"/>
       <c r="S34" s="76"/>
       <c r="T34" s="2"/>
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="89"/>
       <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74" t="s">
-        <v>484</v>
-      </c>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74" t="s">
-        <v>442</v>
-      </c>
-      <c r="H35" s="74" t="s">
-        <v>430</v>
-      </c>
-      <c r="I35" s="74" t="s">
-        <v>433</v>
-      </c>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74" t="s">
-        <v>438</v>
-      </c>
-      <c r="L35" s="74" t="s">
-        <v>485</v>
-      </c>
-      <c r="M35" s="74" t="s">
-        <v>494</v>
-      </c>
-      <c r="N35" s="74" t="s">
-        <v>486</v>
-      </c>
-      <c r="O35" s="74" t="s">
-        <v>487</v>
-      </c>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74" t="s">
-        <v>451</v>
-      </c>
-      <c r="R35" s="74" t="s">
-        <v>430</v>
-      </c>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="116"/>
+      <c r="Q35" s="116"/>
+      <c r="R35" s="116"/>
       <c r="S35" s="75"/>
       <c r="T35" s="56"/>
     </row>
     <row r="36" spans="2:20">
       <c r="B36" s="84"/>
       <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69" t="s">
-        <v>327</v>
-      </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69" t="s">
-        <v>244</v>
-      </c>
-      <c r="H36" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="I36" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="L36" s="69" t="s">
-        <v>329</v>
-      </c>
-      <c r="M36" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="N36" s="69" t="s">
-        <v>332</v>
-      </c>
-      <c r="O36" s="69" t="s">
-        <v>334</v>
-      </c>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="R36" s="69" t="s">
-        <v>220</v>
-      </c>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="113"/>
       <c r="S36" s="70"/>
       <c r="T36" s="2"/>
     </row>
@@ -6003,184 +4532,84 @@
         <v>9</v>
       </c>
       <c r="C37" s="68"/>
-      <c r="D37" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E37" s="91" t="s">
-        <v>413</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="M37" s="91" t="s">
-        <v>416</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>352</v>
-      </c>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="114"/>
       <c r="S37" s="71"/>
       <c r="T37" s="2"/>
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="90"/>
       <c r="C38" s="68"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87" t="s">
-        <v>328</v>
-      </c>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="H38" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="I38" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="L38" s="87" t="s">
-        <v>330</v>
-      </c>
-      <c r="M38" s="87" t="s">
-        <v>496</v>
-      </c>
-      <c r="N38" s="87" t="s">
-        <v>333</v>
-      </c>
-      <c r="O38" s="87" t="s">
-        <v>335</v>
-      </c>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87" t="s">
-        <v>264</v>
-      </c>
-      <c r="R38" s="87" t="s">
-        <v>221</v>
-      </c>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="115"/>
+      <c r="O38" s="115"/>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="115"/>
+      <c r="R38" s="115"/>
       <c r="S38" s="76"/>
       <c r="T38" s="2"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="89"/>
       <c r="C39" s="73"/>
-      <c r="D39" s="74" t="s">
-        <v>433</v>
-      </c>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74" t="s">
-        <v>445</v>
-      </c>
-      <c r="G39" s="74" t="s">
-        <v>488</v>
-      </c>
-      <c r="H39" s="74" t="s">
-        <v>434</v>
-      </c>
-      <c r="I39" s="74" t="s">
-        <v>489</v>
-      </c>
-      <c r="J39" s="74" t="s">
-        <v>448</v>
-      </c>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74" t="s">
-        <v>498</v>
-      </c>
-      <c r="M39" s="74" t="s">
-        <v>449</v>
-      </c>
-      <c r="N39" s="74" t="s">
-        <v>430</v>
-      </c>
-      <c r="O39" s="74" t="s">
-        <v>433</v>
-      </c>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74" t="s">
-        <v>490</v>
-      </c>
-      <c r="R39" s="74" t="s">
-        <v>493</v>
-      </c>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="116"/>
+      <c r="P39" s="116"/>
+      <c r="Q39" s="116"/>
+      <c r="R39" s="116"/>
       <c r="S39" s="75"/>
       <c r="T39" s="56"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="84"/>
       <c r="C40" s="68"/>
-      <c r="D40" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="G40" s="69" t="s">
-        <v>336</v>
-      </c>
-      <c r="H40" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="I40" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="J40" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="M40" s="69" t="s">
-        <v>259</v>
-      </c>
-      <c r="N40" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="O40" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="69" t="s">
-        <v>340</v>
-      </c>
-      <c r="R40" s="69" t="s">
-        <v>497</v>
-      </c>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
       <c r="S40" s="70"/>
       <c r="T40" s="2"/>
     </row>
@@ -6190,146 +4619,84 @@
         <v>10</v>
       </c>
       <c r="C41" s="68"/>
-      <c r="D41" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="R41" s="91" t="s">
-        <v>423</v>
-      </c>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="114"/>
+      <c r="R41" s="114"/>
       <c r="S41" s="71"/>
       <c r="T41" s="2"/>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="90"/>
       <c r="C42" s="68"/>
-      <c r="D42" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="G42" s="87" t="s">
-        <v>337</v>
-      </c>
-      <c r="H42" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="I42" s="87" t="s">
-        <v>339</v>
-      </c>
-      <c r="J42" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87" t="s">
-        <v>495</v>
-      </c>
-      <c r="M42" s="87" t="s">
-        <v>260</v>
-      </c>
-      <c r="N42" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="O42" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87" t="s">
-        <v>341</v>
-      </c>
-      <c r="R42" s="87" t="s">
-        <v>339</v>
-      </c>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="115"/>
+      <c r="M42" s="115"/>
+      <c r="N42" s="115"/>
+      <c r="O42" s="115"/>
+      <c r="P42" s="115"/>
+      <c r="Q42" s="115"/>
+      <c r="R42" s="115"/>
       <c r="S42" s="76"/>
       <c r="T42" s="2"/>
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="89"/>
       <c r="C43" s="73"/>
-      <c r="D43" s="74" t="s">
-        <v>344</v>
-      </c>
-      <c r="E43" s="74" t="s">
-        <v>491</v>
-      </c>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="116"/>
+      <c r="R43" s="116"/>
       <c r="S43" s="75"/>
       <c r="T43" s="56"/>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="84"/>
       <c r="C44" s="68"/>
-      <c r="D44" s="69" t="s">
-        <v>345</v>
-      </c>
-      <c r="E44" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="69"/>
-      <c r="Q44" s="69"/>
-      <c r="R44" s="69"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
       <c r="S44" s="70"/>
       <c r="T44" s="2"/>
     </row>
@@ -6339,100 +4706,42 @@
         <v>11</v>
       </c>
       <c r="C45" s="68"/>
-      <c r="D45" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>475</v>
-      </c>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="114"/>
       <c r="S45" s="71"/>
       <c r="T45" s="2"/>
     </row>
     <row r="46" spans="2:20">
       <c r="B46" s="90"/>
       <c r="C46" s="68"/>
-      <c r="D46" s="87" t="s">
-        <v>492</v>
-      </c>
-      <c r="E46" s="87" t="s">
-        <v>347</v>
-      </c>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
       <c r="F46" s="87"/>
-      <c r="G46" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="H46" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="I46" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="J46" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="K46" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="L46" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="M46" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="N46" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="O46" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="P46" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q46" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="R46" s="87" t="s">
-        <v>475</v>
-      </c>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="87"/>
       <c r="S46" s="70"/>
       <c r="T46" s="2"/>
     </row>
@@ -9148,212 +7457,212 @@
   <sheetFormatPr defaultRowHeight="21"/>
   <sheetData>
     <row r="2" spans="2:10" ht="21" customHeight="1">
-      <c r="B2" s="101">
+      <c r="B2" s="99">
         <f xml:space="preserve"> ROW() - 1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="2:10" ht="21" customHeight="1">
-      <c r="B3" s="101"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="105"/>
     </row>
     <row r="4" spans="2:10" ht="21" customHeight="1">
-      <c r="B4" s="101"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="107"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="105"/>
     </row>
     <row r="5" spans="2:10" ht="21" customHeight="1">
-      <c r="B5" s="101"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="105"/>
     </row>
     <row r="6" spans="2:10" ht="21" customHeight="1">
-      <c r="B6" s="101"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
     </row>
     <row r="7" spans="2:10" ht="21" customHeight="1">
-      <c r="B7" s="101"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="107"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="105"/>
     </row>
     <row r="8" spans="2:10" ht="21" customHeight="1">
-      <c r="B8" s="101"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="107"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
     </row>
     <row r="9" spans="2:10" ht="21" customHeight="1">
-      <c r="B9" s="101"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="107"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="105"/>
     </row>
     <row r="10" spans="2:10" ht="21" customHeight="1">
-      <c r="B10" s="101"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="101">
+      <c r="B11" s="99">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="100" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="101"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="107"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="101"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="101"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="107"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="105"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="101"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="107"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="105"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="101"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="107"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="105"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="101"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="105"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="101"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="107"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="105"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="101"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="110"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10725,7 +9034,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="109" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -10743,7 +9052,7 @@
       <c r="G5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="109" t="s">
         <v>46</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -10768,7 +9077,7 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="112"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="15" t="s">
         <v>56</v>
       </c>
@@ -10788,7 +9097,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="112"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="15" t="s">
         <v>57</v>
       </c>
@@ -10810,7 +9119,7 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="112"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="19" t="s">
         <v>62</v>
       </c>
@@ -10826,7 +9135,7 @@
       <c r="G7" s="20">
         <v>30</v>
       </c>
-      <c r="I7" s="112"/>
+      <c r="I7" s="110"/>
       <c r="J7" s="19" t="s">
         <v>62</v>
       </c>
@@ -10848,7 +9157,7 @@
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="112"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="15" t="s">
         <v>64</v>
       </c>
@@ -10864,7 +9173,7 @@
       <c r="G8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="112"/>
+      <c r="I8" s="110"/>
       <c r="J8" s="22" t="s">
         <v>64</v>
       </c>
@@ -10886,7 +9195,7 @@
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="112"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="15" t="s">
         <v>73</v>
       </c>
@@ -10902,7 +9211,7 @@
       <c r="G9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="112"/>
+      <c r="I9" s="110"/>
       <c r="J9" s="15" t="s">
         <v>73</v>
       </c>
@@ -10924,7 +9233,7 @@
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="113"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="15" t="s">
         <v>78</v>
       </c>
@@ -10940,7 +9249,7 @@
       <c r="G10" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="113"/>
+      <c r="I10" s="111"/>
       <c r="J10" s="15" t="s">
         <v>83</v>
       </c>
@@ -10963,7 +9272,7 @@
       <c r="R10" s="32"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="109" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -10981,7 +9290,7 @@
       <c r="G11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="111" t="s">
+      <c r="I11" s="109" t="s">
         <v>88</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -11005,7 +9314,7 @@
       <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="112"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="15" t="s">
         <v>56</v>
       </c>
@@ -11025,7 +9334,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="112"/>
+      <c r="I12" s="110"/>
       <c r="J12" s="15" t="s">
         <v>57</v>
       </c>
@@ -11045,7 +9354,7 @@
       <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="112"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="19" t="s">
         <v>62</v>
       </c>
@@ -11059,7 +9368,7 @@
       <c r="G13" s="20">
         <v>50</v>
       </c>
-      <c r="I13" s="112"/>
+      <c r="I13" s="110"/>
       <c r="J13" s="19" t="s">
         <v>62</v>
       </c>
@@ -11079,7 +9388,7 @@
       <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="112"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="15" t="s">
         <v>64</v>
       </c>
@@ -11093,7 +9402,7 @@
       <c r="G14" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="112"/>
+      <c r="I14" s="110"/>
       <c r="J14" s="15" t="s">
         <v>64</v>
       </c>
@@ -11113,7 +9422,7 @@
       <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="112"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="15" t="s">
         <v>73</v>
       </c>
@@ -11127,7 +9436,7 @@
       <c r="G15" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="112"/>
+      <c r="I15" s="110"/>
       <c r="J15" s="15" t="s">
         <v>73</v>
       </c>
@@ -11147,7 +9456,7 @@
       <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="113"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="15" t="s">
         <v>78</v>
       </c>
@@ -11161,7 +9470,7 @@
       <c r="G16" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="113"/>
+      <c r="I16" s="111"/>
       <c r="J16" s="15" t="s">
         <v>83</v>
       </c>
@@ -11910,7 +10219,7 @@
         <v>199</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6CF68E-F226-45F2-A8A5-3B99D26C8291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC287329-0DA4-4611-8425-D730E3F849D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
     <sheet name="漢字注音" sheetId="1" r:id="rId2"/>
-    <sheet name="漢字注音 (3)" sheetId="12" r:id="rId3"/>
-    <sheet name="原文" sheetId="11" r:id="rId4"/>
-    <sheet name="漢字注音 (2)" sheetId="8" state="hidden" r:id="rId5"/>
-    <sheet name="135拼音-聲調符號" sheetId="3" r:id="rId6"/>
-    <sheet name="135拼音-聲調轉換" sheetId="4" r:id="rId7"/>
-    <sheet name="轉調助記圖" sheetId="5" r:id="rId8"/>
-    <sheet name="設定" sheetId="2" r:id="rId9"/>
+    <sheet name="漢字注音 (2)" sheetId="8" state="hidden" r:id="rId3"/>
+    <sheet name="漢字注音 (3)" sheetId="13" r:id="rId4"/>
+    <sheet name="135拼音-聲調符號" sheetId="3" r:id="rId5"/>
+    <sheet name="135拼音-聲調轉換" sheetId="4" r:id="rId6"/>
+    <sheet name="轉調助記圖" sheetId="5" r:id="rId7"/>
+    <sheet name="設定" sheetId="2" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$3</definedName>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="359">
   <si>
     <t>〔thⁿi¹〕【ㄊㄧ¹】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1255,24 +1254,44 @@
     <t>IMAGE_URL</t>
   </si>
   <si>
-    <t>水陸草木之花，可愛者甚蕃；晉陶淵明獨愛菊。自李唐來，世人甚愛牡丹。予獨愛蓮之出淤泥而不染，濯清漣而不妖；中通外直，不蔓不枝；香遠益清，亭亭淨植，可遠觀而不可褻玩焉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>予謂︰菊，花之隱逸者也；牡丹，花之富貴者也；蓮，花之君子者也。噫！菊之愛，陶後鮮有聞；蓮之愛，同予者何人？牡丹之愛，宜乎眾矣！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔hoo⁷〕【ㄏㆦㄜ˫】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>愛蓮說</t>
-    <phoneticPr fontId="60" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://5b0988e595225.cdn.sohucs.com/images/20180812/7ec0fe0ca34144da8955f7208cd985f8.jpeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>zui²</t>
+  </si>
+  <si>
+    <t>ㄗㄨㄧˋ</t>
+  </si>
+  <si>
+    <t>tong⁵</t>
+  </si>
+  <si>
+    <t>ㄉㆲˊ</t>
+  </si>
+  <si>
+    <t>lian⁵</t>
+  </si>
+  <si>
+    <t>ㄌㄧㄢˊ</t>
+  </si>
+  <si>
+    <t>ban⁷</t>
+  </si>
+  <si>
+    <t>ㆠㄢ˫</t>
+  </si>
+  <si>
+    <t>uan²</t>
+  </si>
+  <si>
+    <t>ㄨㄢˋ</t>
+  </si>
+  <si>
+    <t>kun¹</t>
+  </si>
+  <si>
+    <t>ㄍㄨㄣˉ</t>
   </si>
   <si>
     <t>水</t>
@@ -1403,13 +1422,360 @@
   </si>
   <si>
     <t>連</t>
+  </si>
+  <si>
+    <t>天易見，見君難</t>
+    <phoneticPr fontId="60" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i1.kknews.cc/z5JiPfLkV6qU-v2XS9sdDsjMfPL9ohuAAlOAYBfk45I/0.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>〔thiⁿ¹〕【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>ㄊ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ㆪˉ】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔i⁷〕【ㄧ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kiⁿ³〕【ㄍㆪ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kun¹〕【ㄍㄨㄣˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lan⁵〕【ㄌㄢˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ban⁷〕【ㆠㄢ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔to⁷〕【ㄉㆦ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔te³〕【ㄉㆤ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sing⁵〕【ㄒㄧㄥˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔thiⁿ¹〕【ㄊㆪˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔iong⁷〕【ㄧㆲ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔uan²〕【ㄨㄢˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ue⁷〕【ㄨㄝ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tong⁵〕【ㄉㆲˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sin¹〕【ㄒㄧㄣˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔koo³〕【ㄍㆦ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kin⁷〕【ㄍㄧㄣ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔koo¹〕【ㄍㆦˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔san¹〕【ㄙㄢˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔khik⁴〕【ㄎㄧㆶ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kan¹〕【ㄍㄢˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ui⁵〕【ㄨㄧˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sui⁵〕【ㄙㄨㄧˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔an¹〕【ㄢˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔beh⁴〕【ㆠㆤㆷ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tiau⁷〕【ㄉㄧㄠ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sio²〕【ㄒㄧㄜˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ziu¹〕【ㄐㄧㄨˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔cue⁷〕【ㄘㄨㄝ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ku⁷〕【ㄍㄨ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔su⁷〕【ㄙㄨ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔bo⁵〕【ㆠㆦˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔cu²〕【ㄘㄨˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔mng⁷〕【ㄇㄫ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zui²〕【ㄗㄨㄧˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lian⁵〕【ㄌㄧㄢˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thiⁿ¹</t>
+  </si>
+  <si>
+    <t>ㄊㆪˉ</t>
+  </si>
+  <si>
+    <t>i⁷</t>
+  </si>
+  <si>
+    <t>ㄧ˫</t>
+  </si>
+  <si>
+    <t>kiⁿ³</t>
+  </si>
+  <si>
+    <t>ㄍㆪ˪</t>
+  </si>
+  <si>
+    <t>lan⁵</t>
+  </si>
+  <si>
+    <t>ㄌㄢˊ</t>
+  </si>
+  <si>
+    <t>to⁷</t>
+  </si>
+  <si>
+    <t>ㄉㆦ˫</t>
+  </si>
+  <si>
+    <t>te³</t>
+  </si>
+  <si>
+    <t>ㄉㆤ˪</t>
+  </si>
+  <si>
+    <t>sing⁵</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˊ</t>
+  </si>
+  <si>
+    <t>iong⁷</t>
+  </si>
+  <si>
+    <t>ㄧㆲ˫</t>
+  </si>
+  <si>
+    <t>ue⁷</t>
+  </si>
+  <si>
+    <t>ㄨㄝ˫</t>
+  </si>
+  <si>
+    <t>sin¹</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄣˉ</t>
+  </si>
+  <si>
+    <t>koo³</t>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+  </si>
+  <si>
+    <t>kin⁷</t>
+  </si>
+  <si>
+    <t>ㄍㄧㄣ˫</t>
+  </si>
+  <si>
+    <t>koo¹</t>
+  </si>
+  <si>
+    <t>ㄍㆦˉ</t>
+  </si>
+  <si>
+    <t>san¹</t>
+  </si>
+  <si>
+    <t>ㄙㄢˉ</t>
+  </si>
+  <si>
+    <t>khik⁴</t>
+  </si>
+  <si>
+    <t>ㄎㄧㆶ</t>
+  </si>
+  <si>
+    <t>kan¹</t>
+  </si>
+  <si>
+    <t>ㄍㄢˉ</t>
+  </si>
+  <si>
+    <t>ui⁵</t>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+  </si>
+  <si>
+    <t>sui⁵</t>
+  </si>
+  <si>
+    <t>ㄙㄨㄧˊ</t>
+  </si>
+  <si>
+    <t>an¹</t>
+  </si>
+  <si>
+    <t>ㄢˉ</t>
+  </si>
+  <si>
+    <t>beh⁴</t>
+  </si>
+  <si>
+    <t>ㆠㆤㆷ</t>
+  </si>
+  <si>
+    <t>tiau⁷</t>
+  </si>
+  <si>
+    <t>ㄉㄧㄠ˫</t>
+  </si>
+  <si>
+    <t>sio²</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄜˋ</t>
+  </si>
+  <si>
+    <t>ziu¹</t>
+  </si>
+  <si>
+    <t>ㄐㄧㄨˉ</t>
+  </si>
+  <si>
+    <t>cue⁷</t>
+  </si>
+  <si>
+    <t>ㄘㄨㄝ˫</t>
+  </si>
+  <si>
+    <t>ku⁷</t>
+  </si>
+  <si>
+    <t>ㄍㄨ˫</t>
+  </si>
+  <si>
+    <t>su⁷</t>
+  </si>
+  <si>
+    <t>ㄙㄨ˫</t>
+  </si>
+  <si>
+    <t>bo⁵</t>
+  </si>
+  <si>
+    <t>ㆠㆦˊ</t>
+  </si>
+  <si>
+    <t>cu²</t>
+  </si>
+  <si>
+    <t>ㄘㄨˋ</t>
+  </si>
+  <si>
+    <t>mng⁷</t>
+  </si>
+  <si>
+    <t>ㄇㄫ˫</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="70">
+  <fonts count="71">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -1865,12 +2231,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="28"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="吳守禮細明台語注音"/>
@@ -1897,6 +2257,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1943,7 +2316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2042,94 +2415,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FFFF0000"/>
@@ -2182,9 +2469,9 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2371,9 +2658,6 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -2422,83 +2706,53 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2518,7 +2772,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2534,7 +2788,35 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3523,56 +3805,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="80" customWidth="1"/>
-    <col min="2" max="2" width="21.19921875" style="80" customWidth="1"/>
-    <col min="3" max="3" width="93.796875" style="80" customWidth="1"/>
-    <col min="4" max="16384" width="12" style="80"/>
+    <col min="1" max="1" width="3.69921875" style="79" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="79" customWidth="1"/>
+    <col min="3" max="3" width="93.796875" style="79" customWidth="1"/>
+    <col min="4" max="16384" width="12" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="79" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="79" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="81" t="s">
-        <v>211</v>
+      <c r="C4" s="80" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="94" t="s">
-        <v>212</v>
+      <c r="C5" s="93" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{AD4C7A1F-F5D2-4CE5-8A58-A8D55C0C44C3}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{86699235-1CD2-476F-B47D-9825E2B5FB85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3582,8 +3864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:N12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3594,1205 +3876,1475 @@
     <col min="4" max="18" width="11.5" style="2" customWidth="1"/>
     <col min="19" max="19" width="3.69921875" style="2" customWidth="1"/>
     <col min="20" max="20" width="10.3984375" customWidth="1"/>
-    <col min="22" max="22" width="71.69921875" style="92" customWidth="1"/>
+    <col min="22" max="22" width="71.69921875" style="91" customWidth="1"/>
     <col min="23" max="23" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" s="77" customFormat="1" ht="36" customHeight="1">
-      <c r="D2" s="78" cm="1">
+    <row r="2" spans="2:22" s="76" customFormat="1" ht="36" customHeight="1">
+      <c r="D2" s="77" cm="1">
         <f t="array" ref="D2">COLUMN() - COLUMN($C:$C)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="78" cm="1">
+      <c r="E2" s="77" cm="1">
         <f t="array" ref="E2">COLUMN() - COLUMN($C:$C)</f>
         <v>2</v>
       </c>
-      <c r="F2" s="78" cm="1">
+      <c r="F2" s="77" cm="1">
         <f t="array" ref="F2">COLUMN() - COLUMN($C:$C)</f>
         <v>3</v>
       </c>
-      <c r="G2" s="78" cm="1">
+      <c r="G2" s="77" cm="1">
         <f t="array" ref="G2">COLUMN() - COLUMN($C:$C)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="78" cm="1">
+      <c r="H2" s="77" cm="1">
         <f t="array" ref="H2">COLUMN() - COLUMN($C:$C)</f>
         <v>5</v>
       </c>
-      <c r="I2" s="78" cm="1">
+      <c r="I2" s="77" cm="1">
         <f t="array" ref="I2">COLUMN() - COLUMN($C:$C)</f>
         <v>6</v>
       </c>
-      <c r="J2" s="78" cm="1">
+      <c r="J2" s="77" cm="1">
         <f t="array" ref="J2">COLUMN() - COLUMN($C:$C)</f>
         <v>7</v>
       </c>
-      <c r="K2" s="78" cm="1">
+      <c r="K2" s="77" cm="1">
         <f t="array" ref="K2">COLUMN() - COLUMN($C:$C)</f>
         <v>8</v>
       </c>
-      <c r="L2" s="78" cm="1">
+      <c r="L2" s="77" cm="1">
         <f t="array" ref="L2">COLUMN() - COLUMN($C:$C)</f>
         <v>9</v>
       </c>
-      <c r="M2" s="78" cm="1">
+      <c r="M2" s="77" cm="1">
         <f t="array" ref="M2">COLUMN() - COLUMN($C:$C)</f>
         <v>10</v>
       </c>
-      <c r="N2" s="78" cm="1">
+      <c r="N2" s="77" cm="1">
         <f t="array" ref="N2">COLUMN() - COLUMN($C:$C)</f>
         <v>11</v>
       </c>
-      <c r="O2" s="78" cm="1">
+      <c r="O2" s="77" cm="1">
         <f t="array" ref="O2">COLUMN() - COLUMN($C:$C)</f>
         <v>12</v>
       </c>
-      <c r="P2" s="78" cm="1">
+      <c r="P2" s="77" cm="1">
         <f t="array" ref="P2">COLUMN() - COLUMN($C:$C)</f>
         <v>13</v>
       </c>
-      <c r="Q2" s="78" cm="1">
+      <c r="Q2" s="77" cm="1">
         <f t="array" ref="Q2">COLUMN() - COLUMN($C:$C)</f>
         <v>14</v>
       </c>
-      <c r="R2" s="78" cm="1">
+      <c r="R2" s="77" cm="1">
         <f t="array" ref="R2">COLUMN() - COLUMN($C:$C)</f>
         <v>15</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="V2" s="91">
+      <c r="S2" s="77"/>
+      <c r="V2" s="90">
         <f xml:space="preserve"> LEN(V3)</f>
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:22" s="58" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B3" s="83"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="95"/>
-      <c r="V3" s="96" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="K3" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="94"/>
+      <c r="V3" s="95" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B4" s="83"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="J4" s="102" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B4" s="84"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="70"/>
-      <c r="V4" s="97"/>
+      <c r="K4" s="102" t="s">
+        <v>307</v>
+      </c>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="69"/>
+      <c r="V4" s="96"/>
     </row>
     <row r="5" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
-      <c r="B5" s="85">
+      <c r="B5" s="84">
         <v>1</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="103" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="103" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="103" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="70"/>
+      <c r="V5" s="96"/>
+    </row>
+    <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B6" s="85"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="J6" s="104" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="114" t="s">
-        <v>221</v>
-      </c>
-      <c r="F5" s="114" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" s="114" t="s">
-        <v>216</v>
-      </c>
-      <c r="K5" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="L5" s="114" t="s">
-        <v>225</v>
-      </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="71"/>
-      <c r="V5" s="97"/>
-    </row>
-    <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B6" s="86"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="72"/>
-      <c r="V6" s="97"/>
+      <c r="K6" s="104" t="s">
+        <v>308</v>
+      </c>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="71"/>
+      <c r="V6" s="96"/>
     </row>
     <row r="7" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B7" s="83"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="75"/>
-      <c r="V7" s="97"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="105" t="s">
+        <v>273</v>
+      </c>
+      <c r="H7" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" s="105" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="M7" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="N7" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="R7" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="S7" s="74"/>
+      <c r="V7" s="96"/>
     </row>
     <row r="8" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="84"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="70"/>
-      <c r="V8" s="97"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="102" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="102" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="I8" s="102" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="102" t="s">
+        <v>217</v>
+      </c>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="M8" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="N8" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q8" s="102" t="s">
+        <v>219</v>
+      </c>
+      <c r="R8" s="102" t="s">
+        <v>307</v>
+      </c>
+      <c r="S8" s="69"/>
+      <c r="V8" s="96"/>
     </row>
     <row r="9" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
-      <c r="B9" s="85">
+      <c r="B9" s="84">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="114" t="s">
-        <v>226</v>
-      </c>
-      <c r="E9" s="114" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" s="114" t="s">
-        <v>228</v>
-      </c>
-      <c r="G9" s="114" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="103" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="103" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="103" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="103" t="s">
         <v>229</v>
       </c>
-      <c r="H9" s="114" t="s">
-        <v>221</v>
-      </c>
-      <c r="I9" s="114" t="s">
+      <c r="I9" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="J9" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="K9" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="L9" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="M9" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="114" t="s">
-        <v>215</v>
-      </c>
-      <c r="K9" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="L9" s="114" t="s">
-        <v>221</v>
-      </c>
-      <c r="M9" s="114" t="s">
+      <c r="N9" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="O9" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="N9" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="O9" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="P9" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q9" s="114" t="s">
+      <c r="P9" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q9" s="103" t="s">
+        <v>224</v>
+      </c>
+      <c r="R9" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="S9" s="70"/>
+      <c r="T9" s="94"/>
+      <c r="V9" s="96"/>
+    </row>
+    <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B10" s="85"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="R9" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="S9" s="71"/>
-      <c r="T9" s="95"/>
-      <c r="V9" s="97"/>
-    </row>
-    <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B10" s="86"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="76"/>
-      <c r="V10" s="97"/>
+      <c r="E10" s="104" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>314</v>
+      </c>
+      <c r="H10" s="104" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" s="104" t="s">
+        <v>316</v>
+      </c>
+      <c r="J10" s="104" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104" t="s">
+        <v>302</v>
+      </c>
+      <c r="M10" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="N10" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q10" s="104" t="s">
+        <v>220</v>
+      </c>
+      <c r="R10" s="104" t="s">
+        <v>308</v>
+      </c>
+      <c r="S10" s="75"/>
+      <c r="V10" s="96"/>
     </row>
     <row r="11" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B11" s="83"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="75"/>
-      <c r="V11" s="97"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="74"/>
+      <c r="V11" s="96"/>
     </row>
     <row r="12" spans="2:22" s="2" customFormat="1" ht="25.5">
-      <c r="B12" s="84"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="70"/>
-      <c r="V12" s="97"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="69"/>
+      <c r="V12" s="96"/>
     </row>
     <row r="13" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
-      <c r="B13" s="85">
+      <c r="B13" s="84">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="114" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="71"/>
-      <c r="V13" s="98"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="70"/>
+      <c r="V13" s="97"/>
     </row>
     <row r="14" spans="2:22" s="2" customFormat="1">
-      <c r="B14" s="86"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="76"/>
-      <c r="V14" s="92"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="75"/>
+      <c r="V14" s="91"/>
     </row>
     <row r="15" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B15" s="83"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="75"/>
-      <c r="V15" s="93"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="I15" s="105" t="s">
+        <v>282</v>
+      </c>
+      <c r="J15" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="M15" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="N15" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q15" s="105" t="s">
+        <v>287</v>
+      </c>
+      <c r="R15" s="105" t="s">
+        <v>288</v>
+      </c>
+      <c r="S15" s="74"/>
+      <c r="V15" s="92"/>
     </row>
     <row r="16" spans="2:22" s="2" customFormat="1">
-      <c r="B16" s="84"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="70"/>
-      <c r="V16" s="92"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="102" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="102" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" s="102" t="s">
+        <v>321</v>
+      </c>
+      <c r="H16" s="102" t="s">
+        <v>323</v>
+      </c>
+      <c r="I16" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="J16" s="102" t="s">
+        <v>327</v>
+      </c>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102" t="s">
+        <v>329</v>
+      </c>
+      <c r="M16" s="102" t="s">
+        <v>307</v>
+      </c>
+      <c r="N16" s="102" t="s">
+        <v>331</v>
+      </c>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q16" s="102" t="s">
+        <v>335</v>
+      </c>
+      <c r="R16" s="102" t="s">
+        <v>337</v>
+      </c>
+      <c r="S16" s="69"/>
+      <c r="V16" s="91"/>
     </row>
     <row r="17" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
-      <c r="B17" s="85">
+      <c r="B17" s="84">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="114" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="F17" s="114" t="s">
-        <v>233</v>
-      </c>
-      <c r="G17" s="114" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17" s="114" t="s">
-        <v>235</v>
-      </c>
-      <c r="I17" s="114" t="s">
-        <v>236</v>
-      </c>
-      <c r="J17" s="114" t="s">
-        <v>237</v>
-      </c>
-      <c r="K17" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="L17" s="114" t="s">
-        <v>238</v>
-      </c>
-      <c r="M17" s="114" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="N17" s="114" t="s">
+      <c r="E17" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="P17" s="114" t="s">
+      <c r="F17" s="103" t="s">
         <v>241</v>
       </c>
-      <c r="Q17" s="114" t="s">
+      <c r="G17" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="R17" s="114" t="s">
+      <c r="H17" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="S17" s="71"/>
-      <c r="V17" s="92"/>
+      <c r="I17" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="J17" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="M17" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="N17" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="O17" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="P17" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q17" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="R17" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="S17" s="70"/>
+      <c r="V17" s="91"/>
     </row>
     <row r="18" spans="2:22" s="2" customFormat="1">
-      <c r="B18" s="86"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="115"/>
-      <c r="S18" s="76"/>
-      <c r="V18" s="92"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="104" t="s">
+        <v>318</v>
+      </c>
+      <c r="E18" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="G18" s="104" t="s">
+        <v>322</v>
+      </c>
+      <c r="H18" s="104" t="s">
+        <v>324</v>
+      </c>
+      <c r="I18" s="104" t="s">
+        <v>326</v>
+      </c>
+      <c r="J18" s="104" t="s">
+        <v>328</v>
+      </c>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104" t="s">
+        <v>330</v>
+      </c>
+      <c r="M18" s="104" t="s">
+        <v>308</v>
+      </c>
+      <c r="N18" s="104" t="s">
+        <v>332</v>
+      </c>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q18" s="104" t="s">
+        <v>336</v>
+      </c>
+      <c r="R18" s="104" t="s">
+        <v>338</v>
+      </c>
+      <c r="S18" s="75"/>
+      <c r="V18" s="91"/>
     </row>
     <row r="19" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B19" s="83"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="75"/>
-      <c r="V19" s="93"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="74"/>
+      <c r="V19" s="92"/>
     </row>
     <row r="20" spans="2:22" s="2" customFormat="1">
-      <c r="B20" s="84"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="70"/>
-      <c r="V20" s="92"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="69"/>
+      <c r="V20" s="91"/>
     </row>
     <row r="21" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
-      <c r="B21" s="85">
+      <c r="B21" s="84">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="114" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="114"/>
-      <c r="S21" s="71"/>
-      <c r="V21" s="92"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="103" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="70"/>
+      <c r="V21" s="91"/>
     </row>
     <row r="22" spans="2:22" s="2" customFormat="1">
-      <c r="B22" s="86"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="115"/>
-      <c r="S22" s="76"/>
-      <c r="V22" s="92"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="75"/>
+      <c r="V22" s="91"/>
     </row>
     <row r="23" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B23" s="83"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="75"/>
-      <c r="V23" s="93"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="105" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="105" t="s">
+        <v>290</v>
+      </c>
+      <c r="F23" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="G23" s="105" t="s">
+        <v>292</v>
+      </c>
+      <c r="H23" s="105" t="s">
+        <v>293</v>
+      </c>
+      <c r="I23" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="J23" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="M23" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="N23" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q23" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="R23" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="S23" s="74"/>
+      <c r="V23" s="92"/>
     </row>
     <row r="24" spans="2:22" s="2" customFormat="1">
-      <c r="B24" s="84"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="70"/>
-      <c r="V24" s="92"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="102" t="s">
+        <v>339</v>
+      </c>
+      <c r="E24" s="102" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="102" t="s">
+        <v>343</v>
+      </c>
+      <c r="G24" s="102" t="s">
+        <v>345</v>
+      </c>
+      <c r="H24" s="102" t="s">
+        <v>347</v>
+      </c>
+      <c r="I24" s="102" t="s">
+        <v>349</v>
+      </c>
+      <c r="J24" s="102" t="s">
+        <v>351</v>
+      </c>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102" t="s">
+        <v>353</v>
+      </c>
+      <c r="M24" s="102" t="s">
+        <v>355</v>
+      </c>
+      <c r="N24" s="102" t="s">
+        <v>357</v>
+      </c>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q24" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="R24" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="S24" s="69"/>
+      <c r="V24" s="91"/>
     </row>
     <row r="25" spans="2:22" s="2" customFormat="1" ht="67.5">
-      <c r="B25" s="85">
+      <c r="B25" s="84">
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="114" t="s">
-        <v>244</v>
-      </c>
-      <c r="E25" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" s="114" t="s">
-        <v>246</v>
-      </c>
-      <c r="G25" s="114" t="s">
-        <v>247</v>
-      </c>
-      <c r="H25" s="114" t="s">
-        <v>248</v>
-      </c>
-      <c r="I25" s="114" t="s">
-        <v>249</v>
-      </c>
-      <c r="J25" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="K25" s="117" t="s">
-        <v>214</v>
-      </c>
-      <c r="L25" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="M25" s="114" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="103" t="s">
         <v>252</v>
       </c>
-      <c r="N25" s="114" t="s">
+      <c r="E25" s="103" t="s">
         <v>253</v>
       </c>
-      <c r="O25" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="P25" s="114" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q25" s="114" t="s">
+      <c r="F25" s="103" t="s">
         <v>254</v>
       </c>
-      <c r="R25" s="114" t="s">
+      <c r="G25" s="103" t="s">
+        <v>255</v>
+      </c>
+      <c r="H25" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="K25" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="M25" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="N25" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="O25" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="P25" s="103" t="s">
         <v>221</v>
       </c>
-      <c r="S25" s="71"/>
+      <c r="Q25" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="R25" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="S25" s="70"/>
       <c r="T25" s="56"/>
       <c r="U25" s="56"/>
-      <c r="V25" s="92"/>
+      <c r="V25" s="91"/>
     </row>
     <row r="26" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B26" s="86"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="115"/>
-      <c r="S26" s="76"/>
-      <c r="V26" s="92"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="104" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" s="104" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="104" t="s">
+        <v>344</v>
+      </c>
+      <c r="G26" s="104" t="s">
+        <v>346</v>
+      </c>
+      <c r="H26" s="104" t="s">
+        <v>348</v>
+      </c>
+      <c r="I26" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="J26" s="104" t="s">
+        <v>352</v>
+      </c>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104" t="s">
+        <v>354</v>
+      </c>
+      <c r="M26" s="104" t="s">
+        <v>356</v>
+      </c>
+      <c r="N26" s="104" t="s">
+        <v>358</v>
+      </c>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q26" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="R26" s="104" t="s">
+        <v>302</v>
+      </c>
+      <c r="S26" s="75"/>
+      <c r="V26" s="91"/>
     </row>
     <row r="27" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B27" s="89"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="61"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="75"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="74"/>
       <c r="T27" s="56"/>
       <c r="U27" s="56"/>
-      <c r="V27" s="92"/>
+      <c r="V27" s="91"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="84"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="113"/>
-      <c r="Q28" s="113"/>
-      <c r="R28" s="113"/>
-      <c r="S28" s="70"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="69"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:22" s="2" customFormat="1" ht="67.5">
-      <c r="B29" s="85">
+      <c r="B29" s="84">
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="114" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="71"/>
+      <c r="D29" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="70"/>
       <c r="T29" s="56"/>
       <c r="U29" s="56"/>
-      <c r="V29" s="92"/>
+      <c r="V29" s="91"/>
     </row>
     <row r="30" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B30" s="90"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="60"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="115"/>
-      <c r="R30" s="115"/>
-      <c r="S30" s="72"/>
-      <c r="V30" s="92"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="71"/>
+      <c r="V30" s="91"/>
     </row>
     <row r="31" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B31" s="89"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="61"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="116"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="116"/>
-      <c r="S31" s="75"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="74"/>
       <c r="T31" s="56"/>
       <c r="U31" s="56"/>
-      <c r="V31" s="92"/>
+      <c r="V31" s="91"/>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="84"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="113"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="70"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="69"/>
       <c r="T32" s="2"/>
     </row>
     <row r="33" spans="2:20" ht="67.5">
-      <c r="B33" s="85">
+      <c r="B33" s="84">
         <f>B29+1</f>
         <v>8</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="114"/>
-      <c r="Q33" s="114"/>
-      <c r="R33" s="114"/>
-      <c r="S33" s="71"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="70"/>
       <c r="T33" s="2"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="90"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="115"/>
-      <c r="O34" s="115"/>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="115"/>
-      <c r="R34" s="115"/>
-      <c r="S34" s="76"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="75"/>
       <c r="T34" s="2"/>
     </row>
     <row r="35" spans="2:20">
-      <c r="B35" s="89"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
-      <c r="S35" s="75"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="74"/>
       <c r="T35" s="56"/>
     </row>
     <row r="36" spans="2:20">
-      <c r="B36" s="84"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="70"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="102"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="102"/>
+      <c r="S36" s="69"/>
       <c r="T36" s="2"/>
     </row>
     <row r="37" spans="2:20" ht="67.5">
-      <c r="B37" s="85">
+      <c r="B37" s="84">
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="114"/>
-      <c r="P37" s="114"/>
-      <c r="Q37" s="114"/>
-      <c r="R37" s="114"/>
-      <c r="S37" s="71"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="70"/>
       <c r="T37" s="2"/>
     </row>
     <row r="38" spans="2:20">
-      <c r="B38" s="90"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="115"/>
-      <c r="O38" s="115"/>
-      <c r="P38" s="115"/>
-      <c r="Q38" s="115"/>
-      <c r="R38" s="115"/>
-      <c r="S38" s="76"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="75"/>
       <c r="T38" s="2"/>
     </row>
     <row r="39" spans="2:20">
-      <c r="B39" s="89"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="116"/>
-      <c r="M39" s="116"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="116"/>
-      <c r="P39" s="116"/>
-      <c r="Q39" s="116"/>
-      <c r="R39" s="116"/>
-      <c r="S39" s="75"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="74"/>
       <c r="T39" s="56"/>
     </row>
     <row r="40" spans="2:20">
-      <c r="B40" s="84"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="70"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="69"/>
       <c r="T40" s="2"/>
     </row>
     <row r="41" spans="2:20" ht="67.5">
-      <c r="B41" s="85">
+      <c r="B41" s="84">
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="114"/>
-      <c r="P41" s="114"/>
-      <c r="Q41" s="114"/>
-      <c r="R41" s="114"/>
-      <c r="S41" s="71"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="70"/>
       <c r="T41" s="2"/>
     </row>
     <row r="42" spans="2:20">
-      <c r="B42" s="90"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="115"/>
-      <c r="N42" s="115"/>
-      <c r="O42" s="115"/>
-      <c r="P42" s="115"/>
-      <c r="Q42" s="115"/>
-      <c r="R42" s="115"/>
-      <c r="S42" s="76"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="104"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="75"/>
       <c r="T42" s="2"/>
     </row>
     <row r="43" spans="2:20">
-      <c r="B43" s="89"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="116"/>
-      <c r="S43" s="75"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="74"/>
       <c r="T43" s="56"/>
     </row>
     <row r="44" spans="2:20">
-      <c r="B44" s="84"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="70"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="102"/>
+      <c r="O44" s="102"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="102"/>
+      <c r="R44" s="102"/>
+      <c r="S44" s="69"/>
       <c r="T44" s="2"/>
     </row>
     <row r="45" spans="2:20" ht="67.5">
-      <c r="B45" s="85">
+      <c r="B45" s="84">
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="114"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="114"/>
-      <c r="S45" s="71"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="103"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="70"/>
       <c r="T45" s="2"/>
     </row>
     <row r="46" spans="2:20">
-      <c r="B46" s="90"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="70"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="86"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="86"/>
+      <c r="Q46" s="86"/>
+      <c r="R46" s="86"/>
+      <c r="S46" s="69"/>
       <c r="T46" s="2"/>
     </row>
     <row r="47" spans="2:20">
-      <c r="B47" s="89"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="75"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="74"/>
       <c r="T47" s="56"/>
     </row>
     <row r="48" spans="2:20">
-      <c r="B48" s="84"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="69"/>
-      <c r="P48" s="69"/>
-      <c r="Q48" s="69"/>
-      <c r="R48" s="69"/>
-      <c r="S48" s="76"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="75"/>
       <c r="T48" s="2"/>
     </row>
     <row r="49" spans="2:20" ht="67.5">
-      <c r="B49" s="85">
+      <c r="B49" s="84">
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="C49" s="68"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -4801,47 +5353,47 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="4" t="str" cm="1">
-        <f t="array" ref="L49" xml:space="preserve"> MID(原文!$C$2, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="M49" s="4" t="str" cm="1">
-        <f t="array" ref="M49" xml:space="preserve"> MID(原文!$C$2, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="N49" s="4" t="str" cm="1">
-        <f t="array" ref="N49" xml:space="preserve"> MID(原文!$C$2, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="O49" s="4" t="str" cm="1">
-        <f t="array" ref="O49" xml:space="preserve"> MID(原文!$C$2, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="P49" s="4" t="str" cm="1">
-        <f t="array" ref="P49" xml:space="preserve"> MID(原文!$C$2, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="Q49" s="4" t="str" cm="1">
-        <f t="array" ref="Q49" xml:space="preserve"> MID(原文!$C$2, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="R49" s="4" t="str" cm="1">
-        <f t="array" ref="R49" xml:space="preserve"> MID(原文!$C$2, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="S49" s="70"/>
+      <c r="L49" s="4" t="e" cm="1">
+        <f t="array" ref="L49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M49" s="4" t="e" cm="1">
+        <f t="array" ref="M49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N49" s="4" t="e" cm="1">
+        <f t="array" ref="N49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O49" s="4" t="e" cm="1">
+        <f t="array" ref="O49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P49" s="4" t="e" cm="1">
+        <f t="array" ref="P49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q49" s="4" t="e" cm="1">
+        <f t="array" ref="Q49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R49" s="4" t="e" cm="1">
+        <f t="array" ref="R49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S49" s="69"/>
       <c r="T49" s="2"/>
     </row>
     <row r="50" spans="2:20">
-      <c r="B50" s="90"/>
+      <c r="B50" s="88"/>
     </row>
     <row r="56" spans="2:20">
-      <c r="R56" s="74" t="s">
-        <v>210</v>
+      <c r="R56" s="73" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="2:20">
-      <c r="R57" s="69"/>
+      <c r="R57" s="68"/>
     </row>
     <row r="58" spans="2:20" ht="67.5">
       <c r="R58" s="4"/>
@@ -4852,106 +5404,106 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="57" priority="57">
+    <cfRule type="expression" dxfId="61" priority="57">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="58">
+    <cfRule type="expression" dxfId="60" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="55" priority="55">
+    <cfRule type="expression" dxfId="59" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="58" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="51" priority="13">
+    <cfRule type="expression" dxfId="55" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="14">
+    <cfRule type="expression" dxfId="54" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="53" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="12">
+    <cfRule type="expression" dxfId="52" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="47" priority="9">
+    <cfRule type="expression" dxfId="51" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="10">
+    <cfRule type="expression" dxfId="50" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="45" priority="7">
+    <cfRule type="expression" dxfId="49" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="8">
+    <cfRule type="expression" dxfId="48" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="43" priority="31">
+    <cfRule type="expression" dxfId="47" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="32">
+    <cfRule type="expression" dxfId="46" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="41" priority="29">
+    <cfRule type="expression" dxfId="45" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="30">
+    <cfRule type="expression" dxfId="44" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="37" priority="25">
+    <cfRule type="expression" dxfId="41" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="35" priority="23">
+    <cfRule type="expression" dxfId="39" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="24">
+    <cfRule type="expression" dxfId="38" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R56">
-    <cfRule type="expression" dxfId="33" priority="5">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4961,2722 +5513,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D5F531-9DAD-4D86-84BD-3171A6DE8421}">
-  <dimension ref="B2:T49"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y40" sqref="Y40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
-  <cols>
-    <col min="1" max="1" width="0.69921875" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="3.69921875" customWidth="1"/>
-    <col min="4" max="18" width="11.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="3.69921875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="5.5" customWidth="1"/>
-    <col min="23" max="23" width="10.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:19" s="77" customFormat="1" ht="36" customHeight="1">
-      <c r="D2" s="78" cm="1">
-        <f t="array" ref="D2">COLUMN() - COLUMN($C:$C)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="78" cm="1">
-        <f t="array" ref="E2">COLUMN() - COLUMN($C:$C)</f>
-        <v>2</v>
-      </c>
-      <c r="F2" s="78" cm="1">
-        <f t="array" ref="F2">COLUMN() - COLUMN($C:$C)</f>
-        <v>3</v>
-      </c>
-      <c r="G2" s="78" cm="1">
-        <f t="array" ref="G2">COLUMN() - COLUMN($C:$C)</f>
-        <v>4</v>
-      </c>
-      <c r="H2" s="78" cm="1">
-        <f t="array" ref="H2">COLUMN() - COLUMN($C:$C)</f>
-        <v>5</v>
-      </c>
-      <c r="I2" s="78" cm="1">
-        <f t="array" ref="I2">COLUMN() - COLUMN($C:$C)</f>
-        <v>6</v>
-      </c>
-      <c r="J2" s="78" cm="1">
-        <f t="array" ref="J2">COLUMN() - COLUMN($C:$C)</f>
-        <v>7</v>
-      </c>
-      <c r="K2" s="78" cm="1">
-        <f t="array" ref="K2">COLUMN() - COLUMN($C:$C)</f>
-        <v>8</v>
-      </c>
-      <c r="L2" s="78" cm="1">
-        <f t="array" ref="L2">COLUMN() - COLUMN($C:$C)</f>
-        <v>9</v>
-      </c>
-      <c r="M2" s="78" cm="1">
-        <f t="array" ref="M2">COLUMN() - COLUMN($C:$C)</f>
-        <v>10</v>
-      </c>
-      <c r="N2" s="78" cm="1">
-        <f t="array" ref="N2">COLUMN() - COLUMN($C:$C)</f>
-        <v>11</v>
-      </c>
-      <c r="O2" s="78" cm="1">
-        <f t="array" ref="O2">COLUMN() - COLUMN($C:$C)</f>
-        <v>12</v>
-      </c>
-      <c r="P2" s="78" cm="1">
-        <f t="array" ref="P2">COLUMN() - COLUMN($C:$C)</f>
-        <v>13</v>
-      </c>
-      <c r="Q2" s="78" cm="1">
-        <f t="array" ref="Q2">COLUMN() - COLUMN($C:$C)</f>
-        <v>14</v>
-      </c>
-      <c r="R2" s="78" cm="1">
-        <f t="array" ref="R2">COLUMN() - COLUMN($C:$C)</f>
-        <v>15</v>
-      </c>
-      <c r="S2" s="78"/>
-    </row>
-    <row r="3" spans="2:19" s="58" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B3" s="83"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="67"/>
-    </row>
-    <row r="4" spans="2:19" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B4" s="84"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="70"/>
-    </row>
-    <row r="5" spans="2:19" s="2" customFormat="1" ht="63.75" customHeight="1">
-      <c r="B5" s="85">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="str" cm="1">
-        <f t="array" ref="D5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>水</v>
-      </c>
-      <c r="E5" s="4" t="str" cm="1">
-        <f t="array" ref="E5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>陸</v>
-      </c>
-      <c r="F5" s="4" t="str" cm="1">
-        <f t="array" ref="F5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>草</v>
-      </c>
-      <c r="G5" s="4" t="str" cm="1">
-        <f t="array" ref="G5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>木</v>
-      </c>
-      <c r="H5" s="4" t="str" cm="1">
-        <f t="array" ref="H5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="I5" s="4" t="str" cm="1">
-        <f t="array" ref="I5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>花</v>
-      </c>
-      <c r="J5" s="4" t="str" cm="1">
-        <f t="array" ref="J5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="K5" s="4" t="str" cm="1">
-        <f t="array" ref="K5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>可</v>
-      </c>
-      <c r="L5" s="4" t="str" cm="1">
-        <f t="array" ref="L5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>愛</v>
-      </c>
-      <c r="M5" s="4" t="str" cm="1">
-        <f t="array" ref="M5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>者</v>
-      </c>
-      <c r="N5" s="4" t="str" cm="1">
-        <f t="array" ref="N5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>甚</v>
-      </c>
-      <c r="O5" s="4" t="str" cm="1">
-        <f t="array" ref="O5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>蕃</v>
-      </c>
-      <c r="P5" s="4" t="str" cm="1">
-        <f t="array" ref="P5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>；</v>
-      </c>
-      <c r="Q5" s="4" t="str" cm="1">
-        <f t="array" ref="Q5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>晉</v>
-      </c>
-      <c r="R5" s="4" t="str" cm="1">
-        <f t="array" ref="R5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>陶</v>
-      </c>
-      <c r="S5" s="71"/>
-    </row>
-    <row r="6" spans="2:19" s="57" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B6" s="86"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="87" t="str">
-        <f>D5</f>
-        <v>水</v>
-      </c>
-      <c r="E6" s="87" t="str">
-        <f t="shared" ref="E6:R6" si="0">E5</f>
-        <v>陸</v>
-      </c>
-      <c r="F6" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>草</v>
-      </c>
-      <c r="G6" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>木</v>
-      </c>
-      <c r="H6" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>之</v>
-      </c>
-      <c r="I6" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>花</v>
-      </c>
-      <c r="J6" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>，</v>
-      </c>
-      <c r="K6" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>可</v>
-      </c>
-      <c r="L6" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>愛</v>
-      </c>
-      <c r="M6" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>者</v>
-      </c>
-      <c r="N6" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>甚</v>
-      </c>
-      <c r="O6" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>蕃</v>
-      </c>
-      <c r="P6" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>；</v>
-      </c>
-      <c r="Q6" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>晉</v>
-      </c>
-      <c r="R6" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>陶</v>
-      </c>
-      <c r="S6" s="72"/>
-    </row>
-    <row r="7" spans="2:19" s="56" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B7" s="83"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="75"/>
-    </row>
-    <row r="8" spans="2:19" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B8" s="84"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="70"/>
-    </row>
-    <row r="9" spans="2:19" s="2" customFormat="1" ht="63.75" customHeight="1">
-      <c r="B9" s="85">
-        <f>B5+1</f>
-        <v>2</v>
-      </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="4" t="str" cm="1">
-        <f t="array" ref="D9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>淵</v>
-      </c>
-      <c r="E9" s="4" t="str" cm="1">
-        <f t="array" ref="E9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>明</v>
-      </c>
-      <c r="F9" s="4" t="str" cm="1">
-        <f t="array" ref="F9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>獨</v>
-      </c>
-      <c r="G9" s="4" t="str" cm="1">
-        <f t="array" ref="G9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>愛</v>
-      </c>
-      <c r="H9" s="4" t="str" cm="1">
-        <f t="array" ref="H9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>菊</v>
-      </c>
-      <c r="I9" s="4" t="str" cm="1">
-        <f t="array" ref="I9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>。</v>
-      </c>
-      <c r="J9" s="4" t="str" cm="1">
-        <f t="array" ref="J9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>自</v>
-      </c>
-      <c r="K9" s="4" t="str" cm="1">
-        <f t="array" ref="K9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>李</v>
-      </c>
-      <c r="L9" s="4" t="str" cm="1">
-        <f t="array" ref="L9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>唐</v>
-      </c>
-      <c r="M9" s="4" t="str" cm="1">
-        <f t="array" ref="M9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>來</v>
-      </c>
-      <c r="N9" s="4" t="str" cm="1">
-        <f t="array" ref="N9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="O9" s="4" t="str" cm="1">
-        <f t="array" ref="O9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>世</v>
-      </c>
-      <c r="P9" s="4" t="str" cm="1">
-        <f t="array" ref="P9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>人</v>
-      </c>
-      <c r="Q9" s="4" t="str" cm="1">
-        <f t="array" ref="Q9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>甚</v>
-      </c>
-      <c r="R9" s="4" t="str" cm="1">
-        <f t="array" ref="R9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>愛</v>
-      </c>
-      <c r="S9" s="71"/>
-    </row>
-    <row r="10" spans="2:19" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B10" s="86"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="87" t="str">
-        <f>D9</f>
-        <v>淵</v>
-      </c>
-      <c r="E10" s="87" t="str">
-        <f t="shared" ref="E10:R10" si="1">E9</f>
-        <v>明</v>
-      </c>
-      <c r="F10" s="87" t="str">
-        <f t="shared" si="1"/>
-        <v>獨</v>
-      </c>
-      <c r="G10" s="87" t="str">
-        <f t="shared" si="1"/>
-        <v>愛</v>
-      </c>
-      <c r="H10" s="87" t="str">
-        <f t="shared" si="1"/>
-        <v>菊</v>
-      </c>
-      <c r="I10" s="87" t="str">
-        <f t="shared" si="1"/>
-        <v>。</v>
-      </c>
-      <c r="J10" s="87" t="str">
-        <f t="shared" si="1"/>
-        <v>自</v>
-      </c>
-      <c r="K10" s="87" t="str">
-        <f t="shared" si="1"/>
-        <v>李</v>
-      </c>
-      <c r="L10" s="87" t="str">
-        <f t="shared" si="1"/>
-        <v>唐</v>
-      </c>
-      <c r="M10" s="87" t="str">
-        <f t="shared" si="1"/>
-        <v>來</v>
-      </c>
-      <c r="N10" s="87" t="str">
-        <f t="shared" si="1"/>
-        <v>，</v>
-      </c>
-      <c r="O10" s="87" t="str">
-        <f t="shared" si="1"/>
-        <v>世</v>
-      </c>
-      <c r="P10" s="87" t="str">
-        <f t="shared" si="1"/>
-        <v>人</v>
-      </c>
-      <c r="Q10" s="87" t="str">
-        <f t="shared" si="1"/>
-        <v>甚</v>
-      </c>
-      <c r="R10" s="87" t="str">
-        <f t="shared" si="1"/>
-        <v>愛</v>
-      </c>
-      <c r="S10" s="76"/>
-    </row>
-    <row r="11" spans="2:19" s="56" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B11" s="83"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="75"/>
-    </row>
-    <row r="12" spans="2:19" s="2" customFormat="1" ht="25.5">
-      <c r="B12" s="84"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="70"/>
-    </row>
-    <row r="13" spans="2:19" s="2" customFormat="1" ht="63.75" customHeight="1">
-      <c r="B13" s="85">
-        <f>B9+1</f>
-        <v>3</v>
-      </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="4" t="str" cm="1">
-        <f t="array" ref="D13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>牡</v>
-      </c>
-      <c r="E13" s="4" t="str" cm="1">
-        <f t="array" ref="E13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>丹</v>
-      </c>
-      <c r="F13" s="4" t="str" cm="1">
-        <f t="array" ref="F13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>。</v>
-      </c>
-      <c r="G13" s="4" t="str" cm="1">
-        <f t="array" ref="G13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>予</v>
-      </c>
-      <c r="H13" s="4" t="str" cm="1">
-        <f t="array" ref="H13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>獨</v>
-      </c>
-      <c r="I13" s="4" t="str" cm="1">
-        <f t="array" ref="I13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>愛</v>
-      </c>
-      <c r="J13" s="4" t="str" cm="1">
-        <f t="array" ref="J13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>蓮</v>
-      </c>
-      <c r="K13" s="4" t="str" cm="1">
-        <f t="array" ref="K13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="L13" s="4" t="str" cm="1">
-        <f t="array" ref="L13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>出</v>
-      </c>
-      <c r="M13" s="4" t="str" cm="1">
-        <f t="array" ref="M13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>淤</v>
-      </c>
-      <c r="N13" s="4" t="str" cm="1">
-        <f t="array" ref="N13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>泥</v>
-      </c>
-      <c r="O13" s="4" t="str" cm="1">
-        <f t="array" ref="O13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>而</v>
-      </c>
-      <c r="P13" s="4" t="str" cm="1">
-        <f t="array" ref="P13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="Q13" s="4" t="str" cm="1">
-        <f t="array" ref="Q13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>染</v>
-      </c>
-      <c r="R13" s="4" t="str" cm="1">
-        <f t="array" ref="R13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="S13" s="71"/>
-    </row>
-    <row r="14" spans="2:19" s="2" customFormat="1" ht="22.5">
-      <c r="B14" s="86"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="87" t="str">
-        <f>D13</f>
-        <v>牡</v>
-      </c>
-      <c r="E14" s="87" t="str">
-        <f t="shared" ref="E14:R14" si="2">E13</f>
-        <v>丹</v>
-      </c>
-      <c r="F14" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>。</v>
-      </c>
-      <c r="G14" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>予</v>
-      </c>
-      <c r="H14" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>獨</v>
-      </c>
-      <c r="I14" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>愛</v>
-      </c>
-      <c r="J14" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>蓮</v>
-      </c>
-      <c r="K14" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>之</v>
-      </c>
-      <c r="L14" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>出</v>
-      </c>
-      <c r="M14" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>淤</v>
-      </c>
-      <c r="N14" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>泥</v>
-      </c>
-      <c r="O14" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>而</v>
-      </c>
-      <c r="P14" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>不</v>
-      </c>
-      <c r="Q14" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>染</v>
-      </c>
-      <c r="R14" s="87" t="str">
-        <f t="shared" si="2"/>
-        <v>，</v>
-      </c>
-      <c r="S14" s="76"/>
-    </row>
-    <row r="15" spans="2:19" s="56" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B15" s="83"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="S15" s="75"/>
-    </row>
-    <row r="16" spans="2:19" s="2" customFormat="1" ht="25.5">
-      <c r="B16" s="84"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="70"/>
-    </row>
-    <row r="17" spans="2:20" s="2" customFormat="1" ht="63.75" customHeight="1">
-      <c r="B17" s="85">
-        <f>B13+1</f>
-        <v>4</v>
-      </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="4" t="str" cm="1">
-        <f t="array" ref="D17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>濯</v>
-      </c>
-      <c r="E17" s="4" t="str" cm="1">
-        <f t="array" ref="E17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>清</v>
-      </c>
-      <c r="F17" s="4" t="str" cm="1">
-        <f t="array" ref="F17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>漣</v>
-      </c>
-      <c r="G17" s="4" t="str" cm="1">
-        <f t="array" ref="G17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>而</v>
-      </c>
-      <c r="H17" s="4" t="str" cm="1">
-        <f t="array" ref="H17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="I17" s="4" t="str" cm="1">
-        <f t="array" ref="I17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>妖</v>
-      </c>
-      <c r="J17" s="4" t="str" cm="1">
-        <f t="array" ref="J17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>；</v>
-      </c>
-      <c r="K17" s="4" t="str" cm="1">
-        <f t="array" ref="K17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>中</v>
-      </c>
-      <c r="L17" s="4" t="str" cm="1">
-        <f t="array" ref="L17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>通</v>
-      </c>
-      <c r="M17" s="4" t="str" cm="1">
-        <f t="array" ref="M17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>外</v>
-      </c>
-      <c r="N17" s="4" t="str" cm="1">
-        <f t="array" ref="N17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>直</v>
-      </c>
-      <c r="O17" s="4" t="str" cm="1">
-        <f t="array" ref="O17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="P17" s="4" t="str" cm="1">
-        <f t="array" ref="P17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="Q17" s="4" t="str" cm="1">
-        <f t="array" ref="Q17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>蔓</v>
-      </c>
-      <c r="R17" s="4" t="str" cm="1">
-        <f t="array" ref="R17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="S17" s="71"/>
-    </row>
-    <row r="18" spans="2:20" s="2" customFormat="1" ht="22.5">
-      <c r="B18" s="86"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="87" t="str">
-        <f>D17</f>
-        <v>濯</v>
-      </c>
-      <c r="E18" s="87" t="str">
-        <f t="shared" ref="E18:R18" si="3">E17</f>
-        <v>清</v>
-      </c>
-      <c r="F18" s="87" t="str">
-        <f t="shared" si="3"/>
-        <v>漣</v>
-      </c>
-      <c r="G18" s="87" t="str">
-        <f t="shared" si="3"/>
-        <v>而</v>
-      </c>
-      <c r="H18" s="87" t="str">
-        <f t="shared" si="3"/>
-        <v>不</v>
-      </c>
-      <c r="I18" s="87" t="str">
-        <f t="shared" si="3"/>
-        <v>妖</v>
-      </c>
-      <c r="J18" s="87" t="str">
-        <f t="shared" si="3"/>
-        <v>；</v>
-      </c>
-      <c r="K18" s="87" t="str">
-        <f t="shared" si="3"/>
-        <v>中</v>
-      </c>
-      <c r="L18" s="87" t="str">
-        <f t="shared" si="3"/>
-        <v>通</v>
-      </c>
-      <c r="M18" s="87" t="str">
-        <f t="shared" si="3"/>
-        <v>外</v>
-      </c>
-      <c r="N18" s="87" t="str">
-        <f t="shared" si="3"/>
-        <v>直</v>
-      </c>
-      <c r="O18" s="87" t="str">
-        <f t="shared" si="3"/>
-        <v>，</v>
-      </c>
-      <c r="P18" s="87" t="str">
-        <f t="shared" si="3"/>
-        <v>不</v>
-      </c>
-      <c r="Q18" s="87" t="str">
-        <f t="shared" si="3"/>
-        <v>蔓</v>
-      </c>
-      <c r="R18" s="87" t="str">
-        <f t="shared" si="3"/>
-        <v>不</v>
-      </c>
-      <c r="S18" s="76"/>
-    </row>
-    <row r="19" spans="2:20" s="56" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B19" s="83"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19" s="75"/>
-    </row>
-    <row r="20" spans="2:20" s="2" customFormat="1" ht="25.5">
-      <c r="B20" s="84"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="70"/>
-    </row>
-    <row r="21" spans="2:20" s="2" customFormat="1" ht="63.75" customHeight="1">
-      <c r="B21" s="85">
-        <f>B17+1</f>
-        <v>5</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="4" t="str" cm="1">
-        <f t="array" ref="D21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>枝</v>
-      </c>
-      <c r="E21" s="4" t="str" cm="1">
-        <f t="array" ref="E21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>；</v>
-      </c>
-      <c r="F21" s="4" t="str" cm="1">
-        <f t="array" ref="F21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>香</v>
-      </c>
-      <c r="G21" s="4" t="str" cm="1">
-        <f t="array" ref="G21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>遠</v>
-      </c>
-      <c r="H21" s="4" t="str" cm="1">
-        <f t="array" ref="H21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>益</v>
-      </c>
-      <c r="I21" s="4" t="str" cm="1">
-        <f t="array" ref="I21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>清</v>
-      </c>
-      <c r="J21" s="4" t="str" cm="1">
-        <f t="array" ref="J21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="K21" s="4" t="str" cm="1">
-        <f t="array" ref="K21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>亭</v>
-      </c>
-      <c r="L21" s="4" t="str" cm="1">
-        <f t="array" ref="L21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>亭</v>
-      </c>
-      <c r="M21" s="4" t="str" cm="1">
-        <f t="array" ref="M21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>淨</v>
-      </c>
-      <c r="N21" s="4" t="str" cm="1">
-        <f t="array" ref="N21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>植</v>
-      </c>
-      <c r="O21" s="4" t="str" cm="1">
-        <f t="array" ref="O21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="P21" s="4" t="str" cm="1">
-        <f t="array" ref="P21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>可</v>
-      </c>
-      <c r="Q21" s="4" t="str" cm="1">
-        <f t="array" ref="Q21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>遠</v>
-      </c>
-      <c r="R21" s="4" t="str" cm="1">
-        <f t="array" ref="R21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>觀</v>
-      </c>
-      <c r="S21" s="71"/>
-    </row>
-    <row r="22" spans="2:20" s="2" customFormat="1" ht="22.5">
-      <c r="B22" s="86"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="87" t="str">
-        <f>D21</f>
-        <v>枝</v>
-      </c>
-      <c r="E22" s="87" t="str">
-        <f t="shared" ref="E22:R22" si="4">E21</f>
-        <v>；</v>
-      </c>
-      <c r="F22" s="87" t="str">
-        <f t="shared" si="4"/>
-        <v>香</v>
-      </c>
-      <c r="G22" s="87" t="str">
-        <f t="shared" si="4"/>
-        <v>遠</v>
-      </c>
-      <c r="H22" s="87" t="str">
-        <f t="shared" si="4"/>
-        <v>益</v>
-      </c>
-      <c r="I22" s="87" t="str">
-        <f t="shared" si="4"/>
-        <v>清</v>
-      </c>
-      <c r="J22" s="87" t="str">
-        <f t="shared" si="4"/>
-        <v>，</v>
-      </c>
-      <c r="K22" s="87" t="str">
-        <f t="shared" si="4"/>
-        <v>亭</v>
-      </c>
-      <c r="L22" s="87" t="str">
-        <f t="shared" si="4"/>
-        <v>亭</v>
-      </c>
-      <c r="M22" s="87" t="str">
-        <f t="shared" si="4"/>
-        <v>淨</v>
-      </c>
-      <c r="N22" s="87" t="str">
-        <f t="shared" si="4"/>
-        <v>植</v>
-      </c>
-      <c r="O22" s="87" t="str">
-        <f t="shared" si="4"/>
-        <v>，</v>
-      </c>
-      <c r="P22" s="87" t="str">
-        <f t="shared" si="4"/>
-        <v>可</v>
-      </c>
-      <c r="Q22" s="87" t="str">
-        <f t="shared" si="4"/>
-        <v>遠</v>
-      </c>
-      <c r="R22" s="87" t="str">
-        <f t="shared" si="4"/>
-        <v>觀</v>
-      </c>
-      <c r="S22" s="76"/>
-    </row>
-    <row r="23" spans="2:20" s="56" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B23" s="83"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="O23" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="S23" s="75"/>
-    </row>
-    <row r="24" spans="2:20" s="2" customFormat="1" ht="25.5">
-      <c r="B24" s="84"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="70"/>
-    </row>
-    <row r="25" spans="2:20" s="2" customFormat="1" ht="67.5">
-      <c r="B25" s="85">
-        <f>B21+1</f>
-        <v>6</v>
-      </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="4" t="str" cm="1">
-        <f t="array" ref="D25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>而</v>
-      </c>
-      <c r="E25" s="4" t="str" cm="1">
-        <f t="array" ref="E25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="F25" s="4" t="str" cm="1">
-        <f t="array" ref="F25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>可</v>
-      </c>
-      <c r="G25" s="4" t="str" cm="1">
-        <f t="array" ref="G25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>褻</v>
-      </c>
-      <c r="H25" s="4" t="str" cm="1">
-        <f t="array" ref="H25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>玩</v>
-      </c>
-      <c r="I25" s="4" t="str" cm="1">
-        <f t="array" ref="I25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>焉</v>
-      </c>
-      <c r="J25" s="4" t="str" cm="1">
-        <f t="array" ref="J25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>。</v>
-      </c>
-      <c r="K25" s="4" t="str" cm="1">
-        <f t="array" ref="K25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="L25" s="4" t="str" cm="1">
-        <f t="array" ref="L25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="M25" s="4" t="str" cm="1">
-        <f t="array" ref="M25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="N25" s="4" t="str" cm="1">
-        <f t="array" ref="N25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="O25" s="4" t="str" cm="1">
-        <f t="array" ref="O25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="P25" s="4" t="str" cm="1">
-        <f t="array" ref="P25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="Q25" s="4" t="str" cm="1">
-        <f t="array" ref="Q25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="R25" s="4" t="str" cm="1">
-        <f t="array" ref="R25" xml:space="preserve"> MID(原文!$C$2, (($B25 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="S25" s="71"/>
-    </row>
-    <row r="26" spans="2:20" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B26" s="86"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="87" t="str">
-        <f>D25</f>
-        <v>而</v>
-      </c>
-      <c r="E26" s="87" t="str">
-        <f t="shared" ref="E26:R26" si="5">E25</f>
-        <v>不</v>
-      </c>
-      <c r="F26" s="87" t="str">
-        <f t="shared" si="5"/>
-        <v>可</v>
-      </c>
-      <c r="G26" s="87" t="str">
-        <f t="shared" si="5"/>
-        <v>褻</v>
-      </c>
-      <c r="H26" s="87" t="str">
-        <f t="shared" si="5"/>
-        <v>玩</v>
-      </c>
-      <c r="I26" s="87" t="str">
-        <f t="shared" si="5"/>
-        <v>焉</v>
-      </c>
-      <c r="J26" s="87" t="str">
-        <f t="shared" si="5"/>
-        <v>。</v>
-      </c>
-      <c r="K26" s="87" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L26" s="87" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M26" s="87" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N26" s="87" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O26" s="87" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P26" s="87" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q26" s="87" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R26" s="87" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S26" s="76"/>
-      <c r="T26" s="58"/>
-    </row>
-    <row r="27" spans="2:20" s="56" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B27" s="88"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="69" t="str">
-        <f xml:space="preserve"> IFERROR( LEFT(D26,  FIND("【", D26)-1), "")</f>
-        <v/>
-      </c>
-      <c r="E27" s="69" t="str">
-        <f t="shared" ref="E27:R27" si="6" xml:space="preserve"> IFERROR( LEFT(E26,  FIND("【", E26)-1), "")</f>
-        <v/>
-      </c>
-      <c r="F27" s="69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G27" s="69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H27" s="69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I27" s="69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J27" s="69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K27" s="69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L27" s="69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M27" s="69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N27" s="69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O27" s="69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P27" s="69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q27" s="69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R27" s="69" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="S27" s="70"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="2:20" s="2" customFormat="1" ht="67.5">
-      <c r="B28" s="85">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="str" cm="1">
-        <f t="array" ref="D28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>予</v>
-      </c>
-      <c r="E28" s="4" t="str" cm="1">
-        <f t="array" ref="E28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>謂</v>
-      </c>
-      <c r="F28" s="4" t="str" cm="1">
-        <f t="array" ref="F28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>︰</v>
-      </c>
-      <c r="G28" s="4" t="str" cm="1">
-        <f t="array" ref="G28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>菊</v>
-      </c>
-      <c r="H28" s="4" t="str" cm="1">
-        <f t="array" ref="H28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="I28" s="4" t="str" cm="1">
-        <f t="array" ref="I28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>花</v>
-      </c>
-      <c r="J28" s="4" t="str" cm="1">
-        <f t="array" ref="J28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="K28" s="4" t="str" cm="1">
-        <f t="array" ref="K28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>隱</v>
-      </c>
-      <c r="L28" s="4" t="str" cm="1">
-        <f t="array" ref="L28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>逸</v>
-      </c>
-      <c r="M28" s="4" t="str" cm="1">
-        <f t="array" ref="M28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>者</v>
-      </c>
-      <c r="N28" s="4" t="str" cm="1">
-        <f t="array" ref="N28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>也</v>
-      </c>
-      <c r="O28" s="4" t="str" cm="1">
-        <f t="array" ref="O28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>；</v>
-      </c>
-      <c r="P28" s="4" t="str" cm="1">
-        <f t="array" ref="P28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>牡</v>
-      </c>
-      <c r="Q28" s="4" t="str" cm="1">
-        <f t="array" ref="Q28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>丹</v>
-      </c>
-      <c r="R28" s="4" t="str" cm="1">
-        <f t="array" ref="R28" xml:space="preserve"> MID(原文!$C$11, (($B28 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="S28" s="71"/>
-    </row>
-    <row r="29" spans="2:20" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B29" s="86"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="87" t="str">
-        <f>D28</f>
-        <v>予</v>
-      </c>
-      <c r="E29" s="87" t="str">
-        <f t="shared" ref="E29:R29" si="7">E28</f>
-        <v>謂</v>
-      </c>
-      <c r="F29" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>︰</v>
-      </c>
-      <c r="G29" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>菊</v>
-      </c>
-      <c r="H29" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>，</v>
-      </c>
-      <c r="I29" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>花</v>
-      </c>
-      <c r="J29" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>之</v>
-      </c>
-      <c r="K29" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>隱</v>
-      </c>
-      <c r="L29" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>逸</v>
-      </c>
-      <c r="M29" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>者</v>
-      </c>
-      <c r="N29" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>也</v>
-      </c>
-      <c r="O29" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>；</v>
-      </c>
-      <c r="P29" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>牡</v>
-      </c>
-      <c r="Q29" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>丹</v>
-      </c>
-      <c r="R29" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>，</v>
-      </c>
-      <c r="S29" s="72"/>
-      <c r="T29" s="57"/>
-    </row>
-    <row r="30" spans="2:20" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B30" s="89"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="N30" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="O30" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="S30" s="75"/>
-      <c r="T30" s="56"/>
-    </row>
-    <row r="31" spans="2:20" ht="25.5">
-      <c r="B31" s="84"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="2:20" ht="67.5">
-      <c r="B32" s="85">
-        <f>B28+1</f>
-        <v>2</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4" t="str" cm="1">
-        <f t="array" ref="D32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>花</v>
-      </c>
-      <c r="E32" s="4" t="str" cm="1">
-        <f t="array" ref="E32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="F32" s="4" t="str" cm="1">
-        <f t="array" ref="F32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>富</v>
-      </c>
-      <c r="G32" s="4" t="str" cm="1">
-        <f t="array" ref="G32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>貴</v>
-      </c>
-      <c r="H32" s="4" t="str" cm="1">
-        <f t="array" ref="H32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>者</v>
-      </c>
-      <c r="I32" s="4" t="str" cm="1">
-        <f t="array" ref="I32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>也</v>
-      </c>
-      <c r="J32" s="4" t="str" cm="1">
-        <f t="array" ref="J32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>；</v>
-      </c>
-      <c r="K32" s="4" t="str" cm="1">
-        <f t="array" ref="K32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>蓮</v>
-      </c>
-      <c r="L32" s="4" t="str" cm="1">
-        <f t="array" ref="L32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="M32" s="4" t="str" cm="1">
-        <f t="array" ref="M32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>花</v>
-      </c>
-      <c r="N32" s="4" t="str" cm="1">
-        <f t="array" ref="N32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="O32" s="4" t="str" cm="1">
-        <f t="array" ref="O32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>君</v>
-      </c>
-      <c r="P32" s="4" t="str" cm="1">
-        <f t="array" ref="P32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>子</v>
-      </c>
-      <c r="Q32" s="4" t="str" cm="1">
-        <f t="array" ref="Q32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>者</v>
-      </c>
-      <c r="R32" s="4" t="str" cm="1">
-        <f t="array" ref="R32" xml:space="preserve"> MID(原文!$C$11, (($B32 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>也</v>
-      </c>
-      <c r="S32" s="71"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="2:20">
-      <c r="B33" s="90"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="87" t="str">
-        <f>D32</f>
-        <v>花</v>
-      </c>
-      <c r="E33" s="87" t="str">
-        <f t="shared" ref="E33:R33" si="8">E32</f>
-        <v>之</v>
-      </c>
-      <c r="F33" s="87" t="str">
-        <f t="shared" si="8"/>
-        <v>富</v>
-      </c>
-      <c r="G33" s="87" t="str">
-        <f t="shared" si="8"/>
-        <v>貴</v>
-      </c>
-      <c r="H33" s="87" t="str">
-        <f t="shared" si="8"/>
-        <v>者</v>
-      </c>
-      <c r="I33" s="87" t="str">
-        <f t="shared" si="8"/>
-        <v>也</v>
-      </c>
-      <c r="J33" s="87" t="str">
-        <f t="shared" si="8"/>
-        <v>；</v>
-      </c>
-      <c r="K33" s="87" t="str">
-        <f t="shared" si="8"/>
-        <v>蓮</v>
-      </c>
-      <c r="L33" s="87" t="str">
-        <f t="shared" si="8"/>
-        <v>，</v>
-      </c>
-      <c r="M33" s="87" t="str">
-        <f t="shared" si="8"/>
-        <v>花</v>
-      </c>
-      <c r="N33" s="87" t="str">
-        <f t="shared" si="8"/>
-        <v>之</v>
-      </c>
-      <c r="O33" s="87" t="str">
-        <f t="shared" si="8"/>
-        <v>君</v>
-      </c>
-      <c r="P33" s="87" t="str">
-        <f t="shared" si="8"/>
-        <v>子</v>
-      </c>
-      <c r="Q33" s="87" t="str">
-        <f t="shared" si="8"/>
-        <v>者</v>
-      </c>
-      <c r="R33" s="87" t="str">
-        <f t="shared" si="8"/>
-        <v>也</v>
-      </c>
-      <c r="S33" s="76"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="2:20" ht="22.5">
-      <c r="B34" s="89"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="P34" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q34" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="R34" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="S34" s="75"/>
-      <c r="T34" s="56"/>
-    </row>
-    <row r="35" spans="2:20" ht="25.5">
-      <c r="B35" s="84"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="2:20" ht="67.5">
-      <c r="B36" s="85">
-        <f>B32+1</f>
-        <v>3</v>
-      </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="4" t="str" cm="1">
-        <f t="array" ref="D36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>。</v>
-      </c>
-      <c r="E36" s="4" t="str" cm="1">
-        <f t="array" ref="E36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>噫</v>
-      </c>
-      <c r="F36" s="4" t="str" cm="1">
-        <f t="array" ref="F36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>！</v>
-      </c>
-      <c r="G36" s="4" t="str" cm="1">
-        <f t="array" ref="G36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>菊</v>
-      </c>
-      <c r="H36" s="4" t="str" cm="1">
-        <f t="array" ref="H36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="I36" s="4" t="str" cm="1">
-        <f t="array" ref="I36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>愛</v>
-      </c>
-      <c r="J36" s="4" t="str" cm="1">
-        <f t="array" ref="J36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="K36" s="4" t="str" cm="1">
-        <f t="array" ref="K36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>陶</v>
-      </c>
-      <c r="L36" s="4" t="str" cm="1">
-        <f t="array" ref="L36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>後</v>
-      </c>
-      <c r="M36" s="4" t="str" cm="1">
-        <f t="array" ref="M36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>鮮</v>
-      </c>
-      <c r="N36" s="4" t="str" cm="1">
-        <f t="array" ref="N36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>有</v>
-      </c>
-      <c r="O36" s="4" t="str" cm="1">
-        <f t="array" ref="O36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>聞</v>
-      </c>
-      <c r="P36" s="4" t="str" cm="1">
-        <f t="array" ref="P36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>；</v>
-      </c>
-      <c r="Q36" s="4" t="str" cm="1">
-        <f t="array" ref="Q36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>蓮</v>
-      </c>
-      <c r="R36" s="4" t="str" cm="1">
-        <f t="array" ref="R36" xml:space="preserve"> MID(原文!$C$11, (($B36 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="S36" s="71"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="2:20">
-      <c r="B37" s="90"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="87" t="str">
-        <f>D36</f>
-        <v>。</v>
-      </c>
-      <c r="E37" s="87" t="str">
-        <f t="shared" ref="E37:R37" si="9">E36</f>
-        <v>噫</v>
-      </c>
-      <c r="F37" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>！</v>
-      </c>
-      <c r="G37" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>菊</v>
-      </c>
-      <c r="H37" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>之</v>
-      </c>
-      <c r="I37" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>愛</v>
-      </c>
-      <c r="J37" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>，</v>
-      </c>
-      <c r="K37" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>陶</v>
-      </c>
-      <c r="L37" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>後</v>
-      </c>
-      <c r="M37" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>鮮</v>
-      </c>
-      <c r="N37" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>有</v>
-      </c>
-      <c r="O37" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>聞</v>
-      </c>
-      <c r="P37" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>；</v>
-      </c>
-      <c r="Q37" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>蓮</v>
-      </c>
-      <c r="R37" s="87" t="str">
-        <f t="shared" si="9"/>
-        <v>之</v>
-      </c>
-      <c r="S37" s="76"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="2:20" ht="22.5">
-      <c r="B38" s="89"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="J38" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="K38" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="L38" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="O38" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="P38" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="R38" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="S38" s="75"/>
-      <c r="T38" s="56"/>
-    </row>
-    <row r="39" spans="2:20" ht="25.5">
-      <c r="B39" s="84"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="69"/>
-      <c r="R39" s="69"/>
-      <c r="S39" s="70"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="2:20" ht="67.5">
-      <c r="B40" s="85">
-        <f>B36+1</f>
-        <v>4</v>
-      </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="4" t="str" cm="1">
-        <f t="array" ref="D40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>愛</v>
-      </c>
-      <c r="E40" s="4" t="str" cm="1">
-        <f t="array" ref="E40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="F40" s="4" t="str" cm="1">
-        <f t="array" ref="F40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>同</v>
-      </c>
-      <c r="G40" s="4" t="str" cm="1">
-        <f t="array" ref="G40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>予</v>
-      </c>
-      <c r="H40" s="4" t="str" cm="1">
-        <f t="array" ref="H40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>者</v>
-      </c>
-      <c r="I40" s="4" t="str" cm="1">
-        <f t="array" ref="I40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>何</v>
-      </c>
-      <c r="J40" s="4" t="str" cm="1">
-        <f t="array" ref="J40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>人</v>
-      </c>
-      <c r="K40" s="4" t="str" cm="1">
-        <f t="array" ref="K40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>？</v>
-      </c>
-      <c r="L40" s="4" t="str" cm="1">
-        <f t="array" ref="L40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>牡</v>
-      </c>
-      <c r="M40" s="4" t="str" cm="1">
-        <f t="array" ref="M40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>丹</v>
-      </c>
-      <c r="N40" s="4" t="str" cm="1">
-        <f t="array" ref="N40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="O40" s="4" t="str" cm="1">
-        <f t="array" ref="O40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>愛</v>
-      </c>
-      <c r="P40" s="4" t="str" cm="1">
-        <f t="array" ref="P40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="Q40" s="4" t="str" cm="1">
-        <f t="array" ref="Q40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>宜</v>
-      </c>
-      <c r="R40" s="4" t="str" cm="1">
-        <f t="array" ref="R40" xml:space="preserve"> MID(原文!$C$11, (($B40 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>乎</v>
-      </c>
-      <c r="S40" s="71"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="2:20">
-      <c r="B41" s="90"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="87" t="str">
-        <f>D40</f>
-        <v>愛</v>
-      </c>
-      <c r="E41" s="87" t="str">
-        <f t="shared" ref="E41:R41" si="10">E40</f>
-        <v>，</v>
-      </c>
-      <c r="F41" s="87" t="str">
-        <f t="shared" si="10"/>
-        <v>同</v>
-      </c>
-      <c r="G41" s="87" t="str">
-        <f t="shared" si="10"/>
-        <v>予</v>
-      </c>
-      <c r="H41" s="87" t="str">
-        <f t="shared" si="10"/>
-        <v>者</v>
-      </c>
-      <c r="I41" s="87" t="str">
-        <f t="shared" si="10"/>
-        <v>何</v>
-      </c>
-      <c r="J41" s="87" t="str">
-        <f t="shared" si="10"/>
-        <v>人</v>
-      </c>
-      <c r="K41" s="87" t="str">
-        <f t="shared" si="10"/>
-        <v>？</v>
-      </c>
-      <c r="L41" s="87" t="str">
-        <f t="shared" si="10"/>
-        <v>牡</v>
-      </c>
-      <c r="M41" s="87" t="str">
-        <f t="shared" si="10"/>
-        <v>丹</v>
-      </c>
-      <c r="N41" s="87" t="str">
-        <f t="shared" si="10"/>
-        <v>之</v>
-      </c>
-      <c r="O41" s="87" t="str">
-        <f t="shared" si="10"/>
-        <v>愛</v>
-      </c>
-      <c r="P41" s="87" t="str">
-        <f t="shared" si="10"/>
-        <v>，</v>
-      </c>
-      <c r="Q41" s="87" t="str">
-        <f t="shared" si="10"/>
-        <v>宜</v>
-      </c>
-      <c r="R41" s="87" t="str">
-        <f t="shared" si="10"/>
-        <v>乎</v>
-      </c>
-      <c r="S41" s="76"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="2:20" ht="22.5">
-      <c r="B42" s="89"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="J42" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="K42" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="L42" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="O42" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="P42" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="R42" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="S42" s="75"/>
-      <c r="T42" s="56"/>
-    </row>
-    <row r="43" spans="2:20" ht="25.5">
-      <c r="B43" s="84"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69" t="str">
-        <f t="shared" ref="F43" si="11" xml:space="preserve"> IFERROR( LEFT(F42,  FIND("【", F42)-1), "")</f>
-        <v/>
-      </c>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="69"/>
-      <c r="R43" s="69"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="2:20" ht="67.5">
-      <c r="B44" s="85">
-        <f>B40+1</f>
-        <v>5</v>
-      </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="4" t="str" cm="1">
-        <f t="array" ref="D44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>眾</v>
-      </c>
-      <c r="E44" s="4" t="str" cm="1">
-        <f t="array" ref="E44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>矣</v>
-      </c>
-      <c r="F44" s="4" t="str" cm="1">
-        <f t="array" ref="F44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>！</v>
-      </c>
-      <c r="G44" s="4" t="str" cm="1">
-        <f t="array" ref="G44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="H44" s="4" t="str" cm="1">
-        <f t="array" ref="H44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="I44" s="4" t="str" cm="1">
-        <f t="array" ref="I44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="J44" s="4" t="str" cm="1">
-        <f t="array" ref="J44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="K44" s="4" t="str" cm="1">
-        <f t="array" ref="K44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="L44" s="4" t="str" cm="1">
-        <f t="array" ref="L44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="M44" s="4" t="str" cm="1">
-        <f t="array" ref="M44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="N44" s="4" t="str" cm="1">
-        <f t="array" ref="N44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="O44" s="4" t="str" cm="1">
-        <f t="array" ref="O44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="P44" s="4" t="str" cm="1">
-        <f t="array" ref="P44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="Q44" s="4" t="str" cm="1">
-        <f t="array" ref="Q44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="R44" s="4" t="str" cm="1">
-        <f t="array" ref="R44" xml:space="preserve"> MID(原文!$C$11, (($B44 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="S44" s="71"/>
-      <c r="T44" s="2"/>
-    </row>
-    <row r="45" spans="2:20">
-      <c r="B45" s="90"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="87" t="str">
-        <f>D44</f>
-        <v>眾</v>
-      </c>
-      <c r="E45" s="87" t="str">
-        <f t="shared" ref="E45:R45" si="12">E44</f>
-        <v>矣</v>
-      </c>
-      <c r="F45" s="87" t="str">
-        <f t="shared" si="12"/>
-        <v>！</v>
-      </c>
-      <c r="G45" s="87" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H45" s="87" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I45" s="87" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J45" s="87" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K45" s="87" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L45" s="87" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M45" s="87" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="N45" s="87" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O45" s="87" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="P45" s="87" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Q45" s="87" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="R45" s="87" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S45" s="70"/>
-      <c r="T45" s="2"/>
-    </row>
-    <row r="46" spans="2:20" ht="22.5">
-      <c r="B46" s="89"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="I46" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="J46" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="K46" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="O46" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="P46" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q46" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="R46" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="S46" s="75"/>
-      <c r="T46" s="56"/>
-    </row>
-    <row r="47" spans="2:20" ht="25.5">
-      <c r="B47" s="84"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="69"/>
-      <c r="P47" s="69"/>
-      <c r="Q47" s="69"/>
-      <c r="R47" s="69"/>
-      <c r="S47" s="76"/>
-      <c r="T47" s="2"/>
-    </row>
-    <row r="48" spans="2:20" ht="67.5">
-      <c r="B48" s="85">
-        <f>B44+1</f>
-        <v>6</v>
-      </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4" t="str" cm="1">
-        <f t="array" ref="L48" xml:space="preserve"> MID(原文!$C$2, (($B48 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="M48" s="4" t="str" cm="1">
-        <f t="array" ref="M48" xml:space="preserve"> MID(原文!$C$2, (($B48 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="N48" s="4" t="str" cm="1">
-        <f t="array" ref="N48" xml:space="preserve"> MID(原文!$C$2, (($B48 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="O48" s="4" t="str" cm="1">
-        <f t="array" ref="O48" xml:space="preserve"> MID(原文!$C$2, (($B48 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="P48" s="4" t="str" cm="1">
-        <f t="array" ref="P48" xml:space="preserve"> MID(原文!$C$2, (($B48 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="Q48" s="4" t="str" cm="1">
-        <f t="array" ref="Q48" xml:space="preserve"> MID(原文!$C$2, (($B48 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="R48" s="4" t="str" cm="1">
-        <f t="array" ref="R48" xml:space="preserve"> MID(原文!$C$2, (($B48 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v/>
-      </c>
-      <c r="S48" s="70"/>
-      <c r="T48" s="2"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="90"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="31" priority="21">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="29" priority="19">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="27" priority="7">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="25" priority="5">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="6">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="23" priority="3">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="4">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="21" priority="1">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:R30">
-    <cfRule type="expression" dxfId="19" priority="17">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:R34">
-    <cfRule type="expression" dxfId="17" priority="15">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:R38">
-    <cfRule type="expression" dxfId="15" priority="13">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:R42">
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46:R46">
-    <cfRule type="expression" dxfId="11" priority="9">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EB6E75-4687-4705-8ECD-33BBB761D74E}">
-  <dimension ref="B2:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
-  <sheetData>
-    <row r="2" spans="2:10" ht="21" customHeight="1">
-      <c r="B2" s="99">
-        <f xml:space="preserve"> ROW() - 1</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="100" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-    </row>
-    <row r="3" spans="2:10" ht="21" customHeight="1">
-      <c r="B3" s="99"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="105"/>
-    </row>
-    <row r="4" spans="2:10" ht="21" customHeight="1">
-      <c r="B4" s="99"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="105"/>
-    </row>
-    <row r="5" spans="2:10" ht="21" customHeight="1">
-      <c r="B5" s="99"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105"/>
-    </row>
-    <row r="6" spans="2:10" ht="21" customHeight="1">
-      <c r="B6" s="99"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-    </row>
-    <row r="7" spans="2:10" ht="21" customHeight="1">
-      <c r="B7" s="99"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
-    </row>
-    <row r="8" spans="2:10" ht="21" customHeight="1">
-      <c r="B8" s="99"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-    </row>
-    <row r="9" spans="2:10" ht="21" customHeight="1">
-      <c r="B9" s="99"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-    </row>
-    <row r="10" spans="2:10" ht="21" customHeight="1">
-      <c r="B10" s="99"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="99">
-        <f>B2+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="100" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="99"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="99"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="99"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="99"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="105"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="99"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="105"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="99"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="105"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="99"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="105"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="99"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="108"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:J10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:J19"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BDDFCA-E867-4C22-9E84-9772F7351F14}">
   <dimension ref="B2:S23"/>
   <sheetViews>
@@ -7866,65 +5702,65 @@
       <c r="B5" s="54">
         <v>1</v>
       </c>
-      <c r="D5" s="53" t="str" cm="1">
-        <f t="array" ref="D5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>陸</v>
-      </c>
-      <c r="E5" s="53" t="str" cm="1">
-        <f t="array" ref="E5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>草</v>
-      </c>
-      <c r="F5" s="53" t="str" cm="1">
-        <f t="array" ref="F5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>木</v>
-      </c>
-      <c r="G5" s="53" t="str" cm="1">
-        <f t="array" ref="G5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="H5" s="53" t="str" cm="1">
-        <f t="array" ref="H5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>花</v>
-      </c>
-      <c r="I5" s="53" t="str" cm="1">
-        <f t="array" ref="I5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="J5" s="53" t="str" cm="1">
-        <f t="array" ref="J5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>可</v>
-      </c>
-      <c r="K5" s="53" t="str" cm="1">
-        <f t="array" ref="K5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>愛</v>
-      </c>
-      <c r="L5" s="53" t="str" cm="1">
-        <f t="array" ref="L5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>者</v>
-      </c>
-      <c r="M5" s="53" t="str" cm="1">
-        <f t="array" ref="M5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>甚</v>
-      </c>
-      <c r="N5" s="53" t="str" cm="1">
-        <f t="array" ref="N5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>蕃</v>
-      </c>
-      <c r="O5" s="53" t="str" cm="1">
-        <f t="array" ref="O5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>；</v>
-      </c>
-      <c r="P5" s="53" t="str" cm="1">
-        <f t="array" ref="P5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>晉</v>
-      </c>
-      <c r="Q5" s="53" t="str" cm="1">
-        <f t="array" ref="Q5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>陶</v>
-      </c>
-      <c r="R5" s="53" t="str" cm="1">
-        <f t="array" ref="R5" xml:space="preserve"> MID(原文!$C$2, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>淵</v>
+      <c r="D5" s="53" t="e" cm="1">
+        <f t="array" ref="D5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="53" t="e" cm="1">
+        <f t="array" ref="E5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="53" t="e" cm="1">
+        <f t="array" ref="F5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="53" t="e" cm="1">
+        <f t="array" ref="G5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="53" t="e" cm="1">
+        <f t="array" ref="H5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" s="53" t="e" cm="1">
+        <f t="array" ref="I5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J5" s="53" t="e" cm="1">
+        <f t="array" ref="J5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K5" s="53" t="e" cm="1">
+        <f t="array" ref="K5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L5" s="53" t="e" cm="1">
+        <f t="array" ref="L5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M5" s="53" t="e" cm="1">
+        <f t="array" ref="M5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N5" s="53" t="e" cm="1">
+        <f t="array" ref="N5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O5" s="53" t="e" cm="1">
+        <f t="array" ref="O5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P5" s="53" t="e" cm="1">
+        <f t="array" ref="P5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q5" s="53" t="e" cm="1">
+        <f t="array" ref="Q5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R5" s="53" t="e" cm="1">
+        <f t="array" ref="R5" xml:space="preserve"> MID(#REF!, (($B5 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
       </c>
       <c r="S5" s="4"/>
     </row>
@@ -8101,65 +5937,65 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="53" t="str" cm="1">
-        <f t="array" ref="D9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>明</v>
-      </c>
-      <c r="E9" s="53" t="str" cm="1">
-        <f t="array" ref="E9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>獨</v>
-      </c>
-      <c r="F9" s="53" t="str" cm="1">
-        <f t="array" ref="F9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>愛</v>
-      </c>
-      <c r="G9" s="53" t="str" cm="1">
-        <f t="array" ref="G9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>菊</v>
-      </c>
-      <c r="H9" s="53" t="str" cm="1">
-        <f t="array" ref="H9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>。</v>
-      </c>
-      <c r="I9" s="53" t="str" cm="1">
-        <f t="array" ref="I9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>自</v>
-      </c>
-      <c r="J9" s="53" t="str" cm="1">
-        <f t="array" ref="J9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>李</v>
-      </c>
-      <c r="K9" s="53" t="str" cm="1">
-        <f t="array" ref="K9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>唐</v>
-      </c>
-      <c r="L9" s="53" t="str" cm="1">
-        <f t="array" ref="L9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>來</v>
-      </c>
-      <c r="M9" s="53" t="str" cm="1">
-        <f t="array" ref="M9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="N9" s="53" t="str" cm="1">
-        <f t="array" ref="N9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>世</v>
-      </c>
-      <c r="O9" s="53" t="str" cm="1">
-        <f t="array" ref="O9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>人</v>
-      </c>
-      <c r="P9" s="53" t="str" cm="1">
-        <f t="array" ref="P9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>甚</v>
-      </c>
-      <c r="Q9" s="53" t="str" cm="1">
-        <f t="array" ref="Q9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>愛</v>
-      </c>
-      <c r="R9" s="53" t="str" cm="1">
-        <f t="array" ref="R9" xml:space="preserve"> MID(原文!$C$2, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>牡</v>
+      <c r="D9" s="53" t="e" cm="1">
+        <f t="array" ref="D9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="53" t="e" cm="1">
+        <f t="array" ref="E9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="53" t="e" cm="1">
+        <f t="array" ref="F9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="53" t="e" cm="1">
+        <f t="array" ref="G9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="53" t="e" cm="1">
+        <f t="array" ref="H9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="53" t="e" cm="1">
+        <f t="array" ref="I9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="53" t="e" cm="1">
+        <f t="array" ref="J9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K9" s="53" t="e" cm="1">
+        <f t="array" ref="K9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="53" t="e" cm="1">
+        <f t="array" ref="L9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M9" s="53" t="e" cm="1">
+        <f t="array" ref="M9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N9" s="53" t="e" cm="1">
+        <f t="array" ref="N9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O9" s="53" t="e" cm="1">
+        <f t="array" ref="O9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P9" s="53" t="e" cm="1">
+        <f t="array" ref="P9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q9" s="53" t="e" cm="1">
+        <f t="array" ref="Q9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R9" s="53" t="e" cm="1">
+        <f t="array" ref="R9" xml:space="preserve"> MID(#REF!, (($B9 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
       </c>
       <c r="S9" s="4"/>
     </row>
@@ -8338,65 +6174,65 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="53" t="str" cm="1">
-        <f t="array" ref="D13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>丹</v>
-      </c>
-      <c r="E13" s="53" t="str" cm="1">
-        <f t="array" ref="E13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>。</v>
-      </c>
-      <c r="F13" s="53" t="str" cm="1">
-        <f t="array" ref="F13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>予</v>
-      </c>
-      <c r="G13" s="53" t="str" cm="1">
-        <f t="array" ref="G13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>獨</v>
-      </c>
-      <c r="H13" s="53" t="str" cm="1">
-        <f t="array" ref="H13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>愛</v>
-      </c>
-      <c r="I13" s="53" t="str" cm="1">
-        <f t="array" ref="I13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>蓮</v>
-      </c>
-      <c r="J13" s="53" t="str" cm="1">
-        <f t="array" ref="J13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>之</v>
-      </c>
-      <c r="K13" s="53" t="str" cm="1">
-        <f t="array" ref="K13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>出</v>
-      </c>
-      <c r="L13" s="53" t="str" cm="1">
-        <f t="array" ref="L13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>淤</v>
-      </c>
-      <c r="M13" s="53" t="str" cm="1">
-        <f t="array" ref="M13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>泥</v>
-      </c>
-      <c r="N13" s="53" t="str" cm="1">
-        <f t="array" ref="N13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>而</v>
-      </c>
-      <c r="O13" s="53" t="str" cm="1">
-        <f t="array" ref="O13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="P13" s="53" t="str" cm="1">
-        <f t="array" ref="P13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>染</v>
-      </c>
-      <c r="Q13" s="53" t="str" cm="1">
-        <f t="array" ref="Q13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="R13" s="53" t="str" cm="1">
-        <f t="array" ref="R13" xml:space="preserve"> MID(原文!$C$2, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>濯</v>
+      <c r="D13" s="53" t="e" cm="1">
+        <f t="array" ref="D13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="53" t="e" cm="1">
+        <f t="array" ref="E13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="53" t="e" cm="1">
+        <f t="array" ref="F13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="53" t="e" cm="1">
+        <f t="array" ref="G13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="53" t="e" cm="1">
+        <f t="array" ref="H13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="53" t="e" cm="1">
+        <f t="array" ref="I13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="53" t="e" cm="1">
+        <f t="array" ref="J13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K13" s="53" t="e" cm="1">
+        <f t="array" ref="K13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="53" t="e" cm="1">
+        <f t="array" ref="L13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M13" s="53" t="e" cm="1">
+        <f t="array" ref="M13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N13" s="53" t="e" cm="1">
+        <f t="array" ref="N13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O13" s="53" t="e" cm="1">
+        <f t="array" ref="O13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P13" s="53" t="e" cm="1">
+        <f t="array" ref="P13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q13" s="53" t="e" cm="1">
+        <f t="array" ref="Q13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R13" s="53" t="e" cm="1">
+        <f t="array" ref="R13" xml:space="preserve"> MID(#REF!, (($B13 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
       </c>
       <c r="S13" s="4"/>
     </row>
@@ -8575,65 +6411,65 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="53" t="str" cm="1">
-        <f t="array" ref="D17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>清</v>
-      </c>
-      <c r="E17" s="53" t="str" cm="1">
-        <f t="array" ref="E17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>漣</v>
-      </c>
-      <c r="F17" s="53" t="str" cm="1">
-        <f t="array" ref="F17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>而</v>
-      </c>
-      <c r="G17" s="53" t="str" cm="1">
-        <f t="array" ref="G17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="H17" s="53" t="str" cm="1">
-        <f t="array" ref="H17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>妖</v>
-      </c>
-      <c r="I17" s="53" t="str" cm="1">
-        <f t="array" ref="I17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>；</v>
-      </c>
-      <c r="J17" s="53" t="str" cm="1">
-        <f t="array" ref="J17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>中</v>
-      </c>
-      <c r="K17" s="53" t="str" cm="1">
-        <f t="array" ref="K17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>通</v>
-      </c>
-      <c r="L17" s="53" t="str" cm="1">
-        <f t="array" ref="L17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>外</v>
-      </c>
-      <c r="M17" s="53" t="str" cm="1">
-        <f t="array" ref="M17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>直</v>
-      </c>
-      <c r="N17" s="53" t="str" cm="1">
-        <f t="array" ref="N17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="O17" s="53" t="str" cm="1">
-        <f t="array" ref="O17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="P17" s="53" t="str" cm="1">
-        <f t="array" ref="P17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>蔓</v>
-      </c>
-      <c r="Q17" s="53" t="str" cm="1">
-        <f t="array" ref="Q17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>不</v>
-      </c>
-      <c r="R17" s="53" t="str" cm="1">
-        <f t="array" ref="R17" xml:space="preserve"> MID(原文!$C$2, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>枝</v>
+      <c r="D17" s="53" t="e" cm="1">
+        <f t="array" ref="D17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="53" t="e" cm="1">
+        <f t="array" ref="E17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="53" t="e" cm="1">
+        <f t="array" ref="F17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="53" t="e" cm="1">
+        <f t="array" ref="G17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="53" t="e" cm="1">
+        <f t="array" ref="H17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I17" s="53" t="e" cm="1">
+        <f t="array" ref="I17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J17" s="53" t="e" cm="1">
+        <f t="array" ref="J17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K17" s="53" t="e" cm="1">
+        <f t="array" ref="K17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L17" s="53" t="e" cm="1">
+        <f t="array" ref="L17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M17" s="53" t="e" cm="1">
+        <f t="array" ref="M17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N17" s="53" t="e" cm="1">
+        <f t="array" ref="N17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O17" s="53" t="e" cm="1">
+        <f t="array" ref="O17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P17" s="53" t="e" cm="1">
+        <f t="array" ref="P17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q17" s="53" t="e" cm="1">
+        <f t="array" ref="Q17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R17" s="53" t="e" cm="1">
+        <f t="array" ref="R17" xml:space="preserve"> MID(#REF!, (($B17 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
       </c>
       <c r="S17" s="4"/>
     </row>
@@ -8788,65 +6624,65 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="53" t="str" cm="1">
-        <f t="array" ref="D21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>；</v>
-      </c>
-      <c r="E21" s="53" t="str" cm="1">
-        <f t="array" ref="E21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>香</v>
-      </c>
-      <c r="F21" s="53" t="str" cm="1">
-        <f t="array" ref="F21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>遠</v>
-      </c>
-      <c r="G21" s="53" t="str" cm="1">
-        <f t="array" ref="G21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>益</v>
-      </c>
-      <c r="H21" s="53" t="str" cm="1">
-        <f t="array" ref="H21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>清</v>
-      </c>
-      <c r="I21" s="53" t="str" cm="1">
-        <f t="array" ref="I21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="J21" s="53" t="str" cm="1">
-        <f t="array" ref="J21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>亭</v>
-      </c>
-      <c r="K21" s="53" t="str" cm="1">
-        <f t="array" ref="K21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>亭</v>
-      </c>
-      <c r="L21" s="53" t="str" cm="1">
-        <f t="array" ref="L21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>淨</v>
-      </c>
-      <c r="M21" s="53" t="str" cm="1">
-        <f t="array" ref="M21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>植</v>
-      </c>
-      <c r="N21" s="53" t="str" cm="1">
-        <f t="array" ref="N21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>，</v>
-      </c>
-      <c r="O21" s="53" t="str" cm="1">
-        <f t="array" ref="O21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>可</v>
-      </c>
-      <c r="P21" s="53" t="str" cm="1">
-        <f t="array" ref="P21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>遠</v>
-      </c>
-      <c r="Q21" s="53" t="str" cm="1">
-        <f t="array" ref="Q21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>觀</v>
-      </c>
-      <c r="R21" s="53" t="str" cm="1">
-        <f t="array" ref="R21" xml:space="preserve"> MID(原文!$C$2, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
-        <v>而</v>
+      <c r="D21" s="53" t="e" cm="1">
+        <f t="array" ref="D21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E21" s="53" t="e" cm="1">
+        <f t="array" ref="E21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F21" s="53" t="e" cm="1">
+        <f t="array" ref="F21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="53" t="e" cm="1">
+        <f t="array" ref="G21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="53" t="e" cm="1">
+        <f t="array" ref="H21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I21" s="53" t="e" cm="1">
+        <f t="array" ref="I21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J21" s="53" t="e" cm="1">
+        <f t="array" ref="J21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K21" s="53" t="e" cm="1">
+        <f t="array" ref="K21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L21" s="53" t="e" cm="1">
+        <f t="array" ref="L21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M21" s="53" t="e" cm="1">
+        <f t="array" ref="M21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N21" s="53" t="e" cm="1">
+        <f t="array" ref="N21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O21" s="53" t="e" cm="1">
+        <f t="array" ref="O21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P21" s="53" t="e" cm="1">
+        <f t="array" ref="P21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q21" s="53" t="e" cm="1">
+        <f t="array" ref="Q21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R21" s="53" t="e" cm="1">
+        <f t="array" ref="R21" xml:space="preserve"> MID(#REF!, (($B21 - 1)*15  + (COLUMN() - COLUMN($B:$B))), 1)</f>
+        <v>#REF!</v>
       </c>
       <c r="S21" s="4"/>
     </row>
@@ -8934,42 +6770,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="34" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="32" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8978,7 +6814,1635 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AAAF4C-D97F-43F7-9C51-82DE64196BD9}">
+  <dimension ref="B2:V58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="39"/>
+  <cols>
+    <col min="1" max="1" width="0.69921875" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="3.69921875" customWidth="1"/>
+    <col min="4" max="18" width="11.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="3.69921875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.3984375" customWidth="1"/>
+    <col min="22" max="22" width="71.69921875" style="91" customWidth="1"/>
+    <col min="23" max="23" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" s="76" customFormat="1" ht="36" customHeight="1">
+      <c r="D2" s="77" cm="1">
+        <f t="array" ref="D2">COLUMN() - COLUMN($C:$C)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="77" cm="1">
+        <f t="array" ref="E2">COLUMN() - COLUMN($C:$C)</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="77" cm="1">
+        <f t="array" ref="F2">COLUMN() - COLUMN($C:$C)</f>
+        <v>3</v>
+      </c>
+      <c r="G2" s="77" cm="1">
+        <f t="array" ref="G2">COLUMN() - COLUMN($C:$C)</f>
+        <v>4</v>
+      </c>
+      <c r="H2" s="77" cm="1">
+        <f t="array" ref="H2">COLUMN() - COLUMN($C:$C)</f>
+        <v>5</v>
+      </c>
+      <c r="I2" s="77" cm="1">
+        <f t="array" ref="I2">COLUMN() - COLUMN($C:$C)</f>
+        <v>6</v>
+      </c>
+      <c r="J2" s="77" cm="1">
+        <f t="array" ref="J2">COLUMN() - COLUMN($C:$C)</f>
+        <v>7</v>
+      </c>
+      <c r="K2" s="77" cm="1">
+        <f t="array" ref="K2">COLUMN() - COLUMN($C:$C)</f>
+        <v>8</v>
+      </c>
+      <c r="L2" s="77" cm="1">
+        <f t="array" ref="L2">COLUMN() - COLUMN($C:$C)</f>
+        <v>9</v>
+      </c>
+      <c r="M2" s="77" cm="1">
+        <f t="array" ref="M2">COLUMN() - COLUMN($C:$C)</f>
+        <v>10</v>
+      </c>
+      <c r="N2" s="77" cm="1">
+        <f t="array" ref="N2">COLUMN() - COLUMN($C:$C)</f>
+        <v>11</v>
+      </c>
+      <c r="O2" s="77" cm="1">
+        <f t="array" ref="O2">COLUMN() - COLUMN($C:$C)</f>
+        <v>12</v>
+      </c>
+      <c r="P2" s="77" cm="1">
+        <f t="array" ref="P2">COLUMN() - COLUMN($C:$C)</f>
+        <v>13</v>
+      </c>
+      <c r="Q2" s="77" cm="1">
+        <f t="array" ref="Q2">COLUMN() - COLUMN($C:$C)</f>
+        <v>14</v>
+      </c>
+      <c r="R2" s="77" cm="1">
+        <f t="array" ref="R2">COLUMN() - COLUMN($C:$C)</f>
+        <v>15</v>
+      </c>
+      <c r="S2" s="77"/>
+      <c r="V2" s="90">
+        <f xml:space="preserve"> LEN(V3)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" s="58" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B3" s="82"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="K3" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="94"/>
+      <c r="V3" s="95" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B4" s="83"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="69"/>
+      <c r="V4" s="96"/>
+    </row>
+    <row r="5" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
+      <c r="B5" s="84">
+        <v>1</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="103" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="103" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="70"/>
+      <c r="V5" s="96"/>
+    </row>
+    <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B6" s="85"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104" t="str">
+        <f>E5</f>
+        <v>天</v>
+      </c>
+      <c r="F6" s="104" t="str">
+        <f t="shared" ref="F6:K6" si="0">F5</f>
+        <v>易</v>
+      </c>
+      <c r="G6" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>見</v>
+      </c>
+      <c r="H6" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>，</v>
+      </c>
+      <c r="I6" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>見</v>
+      </c>
+      <c r="J6" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>君</v>
+      </c>
+      <c r="K6" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v>難</v>
+      </c>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="71"/>
+      <c r="V6" s="96"/>
+    </row>
+    <row r="7" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B7" s="82"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="105" t="s">
+        <v>273</v>
+      </c>
+      <c r="H7" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" s="105" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="M7" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="N7" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="R7" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="S7" s="74"/>
+      <c r="V7" s="96"/>
+    </row>
+    <row r="8" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B8" s="83"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="69"/>
+      <c r="V8" s="96"/>
+    </row>
+    <row r="9" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
+      <c r="B9" s="84">
+        <f>B5+1</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="103" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="103" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="103" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="J9" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="K9" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="L9" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="M9" s="103" t="s">
+        <v>230</v>
+      </c>
+      <c r="N9" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="O9" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="P9" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q9" s="103" t="s">
+        <v>224</v>
+      </c>
+      <c r="R9" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="S9" s="70"/>
+      <c r="T9" s="94"/>
+      <c r="V9" s="96"/>
+    </row>
+    <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B10" s="85"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="104" t="str">
+        <f>D9</f>
+        <v>漫</v>
+      </c>
+      <c r="E10" s="104" t="str">
+        <f t="shared" ref="E10:R10" si="1">E9</f>
+        <v>道</v>
+      </c>
+      <c r="F10" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>帝</v>
+      </c>
+      <c r="G10" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>城</v>
+      </c>
+      <c r="H10" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>天</v>
+      </c>
+      <c r="I10" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>樣</v>
+      </c>
+      <c r="J10" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>遠</v>
+      </c>
+      <c r="K10" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>，</v>
+      </c>
+      <c r="L10" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>天</v>
+      </c>
+      <c r="M10" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>易</v>
+      </c>
+      <c r="N10" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>見</v>
+      </c>
+      <c r="O10" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>，</v>
+      </c>
+      <c r="P10" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>見</v>
+      </c>
+      <c r="Q10" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>君</v>
+      </c>
+      <c r="R10" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>難</v>
+      </c>
+      <c r="S10" s="75"/>
+      <c r="V10" s="96"/>
+    </row>
+    <row r="11" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B11" s="82"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="74"/>
+      <c r="V11" s="96"/>
+    </row>
+    <row r="12" spans="2:22" s="2" customFormat="1" ht="25.5">
+      <c r="B12" s="83"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="69"/>
+      <c r="V12" s="96"/>
+    </row>
+    <row r="13" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
+      <c r="B13" s="84">
+        <f>B9+1</f>
+        <v>3</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="70"/>
+      <c r="V13" s="97"/>
+    </row>
+    <row r="14" spans="2:22" s="2" customFormat="1">
+      <c r="B14" s="85"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="75"/>
+      <c r="V14" s="91"/>
+    </row>
+    <row r="15" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B15" s="82"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="I15" s="105" t="s">
+        <v>282</v>
+      </c>
+      <c r="J15" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="M15" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="N15" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q15" s="105" t="s">
+        <v>287</v>
+      </c>
+      <c r="R15" s="105" t="s">
+        <v>288</v>
+      </c>
+      <c r="S15" s="74"/>
+      <c r="V15" s="92"/>
+    </row>
+    <row r="16" spans="2:22" s="2" customFormat="1">
+      <c r="B16" s="83"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="69"/>
+      <c r="V16" s="91"/>
+    </row>
+    <row r="17" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
+      <c r="B17" s="84">
+        <f>B13+1</f>
+        <v>4</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="103" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="J17" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="M17" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="N17" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="O17" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="P17" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q17" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="R17" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="S17" s="70"/>
+      <c r="V17" s="91"/>
+    </row>
+    <row r="18" spans="2:22" s="2" customFormat="1">
+      <c r="B18" s="85"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="104" t="str">
+        <f>D17</f>
+        <v>畫</v>
+      </c>
+      <c r="E18" s="104" t="str">
+        <f t="shared" ref="E18:R18" si="2">E17</f>
+        <v>堂</v>
+      </c>
+      <c r="F18" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>新</v>
+      </c>
+      <c r="G18" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>構</v>
+      </c>
+      <c r="H18" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>近</v>
+      </c>
+      <c r="I18" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>孤</v>
+      </c>
+      <c r="J18" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>山</v>
+      </c>
+      <c r="K18" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>，</v>
+      </c>
+      <c r="L18" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>曲</v>
+      </c>
+      <c r="M18" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>闌</v>
+      </c>
+      <c r="N18" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>干</v>
+      </c>
+      <c r="O18" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>，</v>
+      </c>
+      <c r="P18" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>為</v>
+      </c>
+      <c r="Q18" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>誰</v>
+      </c>
+      <c r="R18" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>安</v>
+      </c>
+      <c r="S18" s="75"/>
+      <c r="V18" s="91"/>
+    </row>
+    <row r="19" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B19" s="82"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="74"/>
+      <c r="V19" s="92"/>
+    </row>
+    <row r="20" spans="2:22" s="2" customFormat="1">
+      <c r="B20" s="83"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="69"/>
+      <c r="V20" s="91"/>
+    </row>
+    <row r="21" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
+      <c r="B21" s="84">
+        <f>B17+1</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="103" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="70"/>
+      <c r="V21" s="91"/>
+    </row>
+    <row r="22" spans="2:22" s="2" customFormat="1">
+      <c r="B22" s="85"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="75"/>
+      <c r="V22" s="91"/>
+    </row>
+    <row r="23" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B23" s="82"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="105" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="105" t="s">
+        <v>290</v>
+      </c>
+      <c r="F23" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="G23" s="105" t="s">
+        <v>292</v>
+      </c>
+      <c r="H23" s="105" t="s">
+        <v>293</v>
+      </c>
+      <c r="I23" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="J23" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="M23" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="N23" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q23" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="R23" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="S23" s="74"/>
+      <c r="V23" s="92"/>
+    </row>
+    <row r="24" spans="2:22" s="2" customFormat="1">
+      <c r="B24" s="83"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="69"/>
+      <c r="V24" s="91"/>
+    </row>
+    <row r="25" spans="2:22" s="2" customFormat="1" ht="67.5">
+      <c r="B25" s="84">
+        <f>B21+1</f>
+        <v>6</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="103" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="103" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" s="103" t="s">
+        <v>255</v>
+      </c>
+      <c r="H25" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="K25" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="M25" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="N25" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="O25" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="P25" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q25" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="R25" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="S25" s="70"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="91"/>
+    </row>
+    <row r="26" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B26" s="85"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="104" t="str">
+        <f>D25</f>
+        <v>欲</v>
+      </c>
+      <c r="E26" s="104" t="str">
+        <f t="shared" ref="E26:R26" si="3">E25</f>
+        <v>掉</v>
+      </c>
+      <c r="F26" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>小</v>
+      </c>
+      <c r="G26" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>舟</v>
+      </c>
+      <c r="H26" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>尋</v>
+      </c>
+      <c r="I26" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>舊</v>
+      </c>
+      <c r="J26" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>事</v>
+      </c>
+      <c r="K26" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>，</v>
+      </c>
+      <c r="L26" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>無</v>
+      </c>
+      <c r="M26" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>處</v>
+      </c>
+      <c r="N26" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>問</v>
+      </c>
+      <c r="O26" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>，</v>
+      </c>
+      <c r="P26" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>水</v>
+      </c>
+      <c r="Q26" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>連</v>
+      </c>
+      <c r="R26" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>天</v>
+      </c>
+      <c r="S26" s="75"/>
+      <c r="V26" s="91"/>
+    </row>
+    <row r="27" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B27" s="87"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="91"/>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="83"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="2:22" s="2" customFormat="1" ht="67.5">
+      <c r="B29" s="84">
+        <f>B25+1</f>
+        <v>7</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="91"/>
+    </row>
+    <row r="30" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B30" s="88"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="71"/>
+      <c r="V30" s="91"/>
+    </row>
+    <row r="31" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B31" s="87"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="91"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="83"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="2:20" ht="67.5">
+      <c r="B33" s="84">
+        <f>B29+1</f>
+        <v>8</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="88"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="87"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="56"/>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="83"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="102"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="102"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="2:20" ht="67.5">
+      <c r="B37" s="84">
+        <f>B33+1</f>
+        <v>9</v>
+      </c>
+      <c r="C37" s="67"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="88"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="87"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="56"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="83"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="69"/>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="2:20" ht="67.5">
+      <c r="B41" s="84">
+        <f>B37+1</f>
+        <v>10</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="70"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" s="88"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="104"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" s="87"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="56"/>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" s="83"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="102"/>
+      <c r="O44" s="102"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="102"/>
+      <c r="R44" s="102"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="2:20" ht="67.5">
+      <c r="B45" s="84">
+        <f>B41+1</f>
+        <v>11</v>
+      </c>
+      <c r="C45" s="67"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="103"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" s="88"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="86"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="86"/>
+      <c r="Q46" s="86"/>
+      <c r="R46" s="86"/>
+      <c r="S46" s="69"/>
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="B47" s="87"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="74"/>
+      <c r="T47" s="56"/>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="B48" s="83"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="2:20" ht="67.5">
+      <c r="B49" s="84">
+        <f>B45+1</f>
+        <v>12</v>
+      </c>
+      <c r="C49" s="67"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4" t="e" cm="1">
+        <f t="array" ref="L49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M49" s="4" t="e" cm="1">
+        <f t="array" ref="M49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N49" s="4" t="e" cm="1">
+        <f t="array" ref="N49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O49" s="4" t="e" cm="1">
+        <f t="array" ref="O49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P49" s="4" t="e" cm="1">
+        <f t="array" ref="P49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q49" s="4" t="e" cm="1">
+        <f t="array" ref="Q49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R49" s="4" t="e" cm="1">
+        <f t="array" ref="R49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S49" s="69"/>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="2:20">
+      <c r="B50" s="88"/>
+    </row>
+    <row r="56" spans="2:20">
+      <c r="R56" s="73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20">
+      <c r="R57" s="68"/>
+    </row>
+    <row r="58" spans="2:20" ht="67.5">
+      <c r="R58" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V3:V13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D3:R3">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:R7">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:R11">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:R15">
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:R19">
+    <cfRule type="expression" dxfId="17" priority="11">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:R23">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:R27">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:R31">
+    <cfRule type="expression" dxfId="11" priority="21">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:R35">
+    <cfRule type="expression" dxfId="9" priority="19">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="20">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:R39">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:R43">
+    <cfRule type="expression" dxfId="5" priority="17">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:R47">
+    <cfRule type="expression" dxfId="3" priority="15">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R56">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C038C983-B125-4E67-81BB-FB3249D119F4}">
   <dimension ref="B2:R37"/>
   <sheetViews>
@@ -9034,7 +8498,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="98" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -9052,7 +8516,7 @@
       <c r="G5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="98" t="s">
         <v>46</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -9077,7 +8541,7 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="110"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="15" t="s">
         <v>56</v>
       </c>
@@ -9097,7 +8561,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="110"/>
+      <c r="I6" s="99"/>
       <c r="J6" s="15" t="s">
         <v>57</v>
       </c>
@@ -9119,7 +8583,7 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="110"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="19" t="s">
         <v>62</v>
       </c>
@@ -9135,7 +8599,7 @@
       <c r="G7" s="20">
         <v>30</v>
       </c>
-      <c r="I7" s="110"/>
+      <c r="I7" s="99"/>
       <c r="J7" s="19" t="s">
         <v>62</v>
       </c>
@@ -9157,7 +8621,7 @@
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="110"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="15" t="s">
         <v>64</v>
       </c>
@@ -9173,7 +8637,7 @@
       <c r="G8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="110"/>
+      <c r="I8" s="99"/>
       <c r="J8" s="22" t="s">
         <v>64</v>
       </c>
@@ -9195,7 +8659,7 @@
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="110"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="15" t="s">
         <v>73</v>
       </c>
@@ -9211,7 +8675,7 @@
       <c r="G9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="110"/>
+      <c r="I9" s="99"/>
       <c r="J9" s="15" t="s">
         <v>73</v>
       </c>
@@ -9233,7 +8697,7 @@
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="111"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="15" t="s">
         <v>78</v>
       </c>
@@ -9249,7 +8713,7 @@
       <c r="G10" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="111"/>
+      <c r="I10" s="100"/>
       <c r="J10" s="15" t="s">
         <v>83</v>
       </c>
@@ -9272,7 +8736,7 @@
       <c r="R10" s="32"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="98" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -9290,7 +8754,7 @@
       <c r="G11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="109" t="s">
+      <c r="I11" s="98" t="s">
         <v>88</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -9314,7 +8778,7 @@
       <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="110"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="15" t="s">
         <v>56</v>
       </c>
@@ -9334,7 +8798,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="110"/>
+      <c r="I12" s="99"/>
       <c r="J12" s="15" t="s">
         <v>57</v>
       </c>
@@ -9354,7 +8818,7 @@
       <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="110"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="19" t="s">
         <v>62</v>
       </c>
@@ -9368,7 +8832,7 @@
       <c r="G13" s="20">
         <v>50</v>
       </c>
-      <c r="I13" s="110"/>
+      <c r="I13" s="99"/>
       <c r="J13" s="19" t="s">
         <v>62</v>
       </c>
@@ -9388,7 +8852,7 @@
       <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="110"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="15" t="s">
         <v>64</v>
       </c>
@@ -9402,7 +8866,7 @@
       <c r="G14" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="110"/>
+      <c r="I14" s="99"/>
       <c r="J14" s="15" t="s">
         <v>64</v>
       </c>
@@ -9422,7 +8886,7 @@
       <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="110"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="15" t="s">
         <v>73</v>
       </c>
@@ -9436,7 +8900,7 @@
       <c r="G15" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="110"/>
+      <c r="I15" s="99"/>
       <c r="J15" s="15" t="s">
         <v>73</v>
       </c>
@@ -9456,7 +8920,7 @@
       <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="111"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="15" t="s">
         <v>78</v>
       </c>
@@ -9470,7 +8934,7 @@
       <c r="G16" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="111"/>
+      <c r="I16" s="100"/>
       <c r="J16" s="15" t="s">
         <v>83</v>
       </c>
@@ -9657,7 +9121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3FADB1-5996-43FA-9088-1195345750BF}">
   <dimension ref="A2:Q30"/>
   <sheetViews>
@@ -10184,7 +9648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E996769-E0A0-48CC-8CA4-0FCF71044A6B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10201,7 +9665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EC0C63-CAC1-4493-B432-A838DD60DC6A}">
   <dimension ref="B2:C2"/>
   <sheetViews>

--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC287329-0DA4-4611-8425-D730E3F849D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644C42F3-1E55-40FB-91DF-4252A8B219F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="395">
   <si>
     <t>〔thⁿi¹〕【ㄊㄧ¹】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1769,6 +1769,117 @@
   </si>
   <si>
     <t>ㄇㄫ˫</t>
+  </si>
+  <si>
+    <t>《天易見，見君難》
+漫道帝城天樣遠，天易見，見君難！
+畫堂新構近孤山，曲闌干，為誰安？
+欲掉小舟尋舊事，無處問，水連天！</t>
+  </si>
+  <si>
+    <t>〔zui²〕【ㄗㄨㄧˋ】</t>
+  </si>
+  <si>
+    <t>〔tong⁵〕【ㄉㆲˊ】</t>
+  </si>
+  <si>
+    <t>〔lian⁵〕【ㄌㄧㄢˊ】</t>
+  </si>
+  <si>
+    <t>〔ban⁷〕【ㆠㄢ˫】</t>
+  </si>
+  <si>
+    <t>〔uan²〕【ㄨㄢˋ】</t>
+  </si>
+  <si>
+    <t>〔kun¹〕【ㄍㄨㄣˉ】</t>
+  </si>
+  <si>
+    <t>〔thiⁿ¹〕【ㄊㆪˉ】</t>
+  </si>
+  <si>
+    <t>〔i⁷〕【ㄧ˫】</t>
+  </si>
+  <si>
+    <t>〔kiⁿ³〕【ㄍㆪ˪】</t>
+  </si>
+  <si>
+    <t>〔lan⁵〕【ㄌㄢˊ】</t>
+  </si>
+  <si>
+    <t>〔to⁷〕【ㄉㆦ˫】</t>
+  </si>
+  <si>
+    <t>〔te³〕【ㄉㆤ˪】</t>
+  </si>
+  <si>
+    <t>〔sing⁵〕【ㄒㄧㄥˊ】</t>
+  </si>
+  <si>
+    <t>〔iong⁷〕【ㄧㆲ˫】</t>
+  </si>
+  <si>
+    <t>〔ue⁷〕【ㄨㄝ˫】</t>
+  </si>
+  <si>
+    <t>〔sin¹〕【ㄒㄧㄣˉ】</t>
+  </si>
+  <si>
+    <t>〔koo³〕【ㄍㆦ˪】</t>
+  </si>
+  <si>
+    <t>〔kin⁷〕【ㄍㄧㄣ˫】</t>
+  </si>
+  <si>
+    <t>〔koo¹〕【ㄍㆦˉ】</t>
+  </si>
+  <si>
+    <t>〔san¹〕【ㄙㄢˉ】</t>
+  </si>
+  <si>
+    <t>〔khik⁴〕【ㄎㄧㆶ】</t>
+  </si>
+  <si>
+    <t>〔kan¹〕【ㄍㄢˉ】</t>
+  </si>
+  <si>
+    <t>〔ui⁵〕【ㄨㄧˊ】</t>
+  </si>
+  <si>
+    <t>〔sui⁵〕【ㄙㄨㄧˊ】</t>
+  </si>
+  <si>
+    <t>〔an¹〕【ㄢˉ】</t>
+  </si>
+  <si>
+    <t>〔beh⁴〕【ㆠㆤㆷ】</t>
+  </si>
+  <si>
+    <t>〔tiau⁷〕【ㄉㄧㄠ˫】</t>
+  </si>
+  <si>
+    <t>〔sio²〕【ㄒㄧㄜˋ】</t>
+  </si>
+  <si>
+    <t>〔ziu¹〕【ㄐㄧㄨˉ】</t>
+  </si>
+  <si>
+    <t>〔cue⁷〕【ㄘㄨㄝ˫】</t>
+  </si>
+  <si>
+    <t>〔ku⁷〕【ㄍㄨ˫】</t>
+  </si>
+  <si>
+    <t>〔su⁷〕【ㄙㄨ˫】</t>
+  </si>
+  <si>
+    <t>〔bo⁵〕【ㆠㆦˊ】</t>
+  </si>
+  <si>
+    <t>〔cu²〕【ㄘㄨˋ】</t>
+  </si>
+  <si>
+    <t>〔mng⁷〕【ㄇㄫ˫】</t>
   </si>
 </sst>
 </file>
@@ -2471,7 +2582,7 @@
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2745,6 +2856,12 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="66" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -2762,24 +2879,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3864,8 +3963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3875,7 +3974,8 @@
     <col min="3" max="3" width="3.69921875" customWidth="1"/>
     <col min="4" max="18" width="11.5" style="2" customWidth="1"/>
     <col min="19" max="19" width="3.69921875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.3984375" customWidth="1"/>
+    <col min="20" max="20" width="2.796875" customWidth="1"/>
+    <col min="21" max="21" width="6.19921875" customWidth="1"/>
     <col min="22" max="22" width="71.69921875" style="91" customWidth="1"/>
     <col min="23" max="23" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3950,237 +4050,237 @@
     <row r="3" spans="2:22" s="58" customFormat="1" ht="26.1" customHeight="1">
       <c r="B3" s="82"/>
       <c r="C3" s="81"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="101" t="s">
-        <v>267</v>
-      </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101" t="s">
-        <v>267</v>
-      </c>
-      <c r="J3" s="101" t="s">
-        <v>268</v>
-      </c>
-      <c r="K3" s="101" t="s">
-        <v>269</v>
-      </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95" t="s">
+        <v>368</v>
+      </c>
+      <c r="J3" s="95" t="s">
+        <v>365</v>
+      </c>
+      <c r="K3" s="95" t="s">
+        <v>369</v>
+      </c>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
       <c r="S3" s="66"/>
       <c r="T3" s="94"/>
-      <c r="V3" s="95" t="s">
-        <v>227</v>
+      <c r="V3" s="97" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="B4" s="83"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102" t="s">
+      <c r="H4" s="68"/>
+      <c r="I4" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="69"/>
-      <c r="V4" s="96"/>
+      <c r="V4" s="98"/>
     </row>
     <row r="5" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B5" s="84">
         <v>1</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="K5" s="103" t="s">
+      <c r="K5" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="L5" s="103" t="s">
+      <c r="L5" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
       <c r="S5" s="70"/>
-      <c r="V5" s="96"/>
+      <c r="V5" s="98"/>
     </row>
     <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="B6" s="85"/>
       <c r="C6" s="60"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104" t="s">
+      <c r="D6" s="86"/>
+      <c r="E6" s="86" t="s">
         <v>302</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="86" t="s">
         <v>304</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="86" t="s">
         <v>306</v>
       </c>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104" t="s">
+      <c r="H6" s="86"/>
+      <c r="I6" s="86" t="s">
         <v>306</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="K6" s="104" t="s">
+      <c r="K6" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
       <c r="S6" s="71"/>
-      <c r="V6" s="96"/>
+      <c r="V6" s="98"/>
     </row>
     <row r="7" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="82"/>
       <c r="C7" s="72"/>
-      <c r="D7" s="105" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="105" t="s">
-        <v>271</v>
-      </c>
-      <c r="F7" s="105" t="s">
-        <v>272</v>
-      </c>
-      <c r="G7" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="H7" s="105" t="s">
-        <v>274</v>
-      </c>
-      <c r="I7" s="105" t="s">
-        <v>275</v>
-      </c>
-      <c r="J7" s="105" t="s">
-        <v>276</v>
-      </c>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105" t="s">
-        <v>274</v>
-      </c>
-      <c r="M7" s="105" t="s">
-        <v>266</v>
-      </c>
-      <c r="N7" s="105" t="s">
-        <v>267</v>
-      </c>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q7" s="105" t="s">
-        <v>268</v>
-      </c>
-      <c r="R7" s="105" t="s">
-        <v>269</v>
+      <c r="D7" s="73" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>373</v>
+      </c>
+      <c r="J7" s="73" t="s">
+        <v>364</v>
+      </c>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="M7" s="73" t="s">
+        <v>367</v>
+      </c>
+      <c r="N7" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q7" s="73" t="s">
+        <v>365</v>
+      </c>
+      <c r="R7" s="73" t="s">
+        <v>369</v>
       </c>
       <c r="S7" s="74"/>
-      <c r="V7" s="96"/>
+      <c r="V7" s="98"/>
     </row>
     <row r="8" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="B8" s="83"/>
       <c r="C8" s="67"/>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="102" t="s">
+      <c r="G8" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="H8" s="102" t="s">
+      <c r="H8" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="I8" s="102" t="s">
+      <c r="I8" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102" t="s">
+      <c r="K8" s="68"/>
+      <c r="L8" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="M8" s="102" t="s">
+      <c r="M8" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="N8" s="102" t="s">
+      <c r="N8" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102" t="s">
+      <c r="O8" s="68"/>
+      <c r="P8" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="Q8" s="102" t="s">
+      <c r="Q8" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="R8" s="102" t="s">
+      <c r="R8" s="68" t="s">
         <v>307</v>
       </c>
       <c r="S8" s="69"/>
-      <c r="V8" s="96"/>
+      <c r="V8" s="98"/>
     </row>
     <row r="9" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B9" s="84">
@@ -4188,143 +4288,143 @@
         <v>2</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F9" s="103" t="s">
+      <c r="F9" s="4" t="s">
         <v>236</v>
       </c>
       <c r="G9" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="4" t="s">
         <v>229</v>
       </c>
       <c r="I9" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="J9" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K9" s="103" t="s">
+      <c r="K9" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="L9" s="103" t="s">
+      <c r="L9" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="M9" s="103" t="s">
+      <c r="M9" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="N9" s="103" t="s">
+      <c r="N9" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="O9" s="103" t="s">
+      <c r="O9" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="P9" s="103" t="s">
+      <c r="P9" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="Q9" s="103" t="s">
+      <c r="Q9" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="R9" s="103" t="s">
+      <c r="R9" s="4" t="s">
         <v>232</v>
       </c>
       <c r="S9" s="70"/>
       <c r="T9" s="94"/>
-      <c r="V9" s="96"/>
+      <c r="V9" s="98"/>
     </row>
     <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B10" s="85"/>
       <c r="C10" s="67"/>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="86" t="s">
         <v>310</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="86" t="s">
         <v>312</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="86" t="s">
         <v>314</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="86" t="s">
         <v>302</v>
       </c>
-      <c r="I10" s="104" t="s">
+      <c r="I10" s="86" t="s">
         <v>316</v>
       </c>
-      <c r="J10" s="104" t="s">
+      <c r="J10" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104" t="s">
+      <c r="K10" s="86"/>
+      <c r="L10" s="86" t="s">
         <v>302</v>
       </c>
-      <c r="M10" s="104" t="s">
+      <c r="M10" s="86" t="s">
         <v>304</v>
       </c>
-      <c r="N10" s="104" t="s">
+      <c r="N10" s="86" t="s">
         <v>306</v>
       </c>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104" t="s">
+      <c r="O10" s="86"/>
+      <c r="P10" s="86" t="s">
         <v>306</v>
       </c>
-      <c r="Q10" s="104" t="s">
+      <c r="Q10" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="R10" s="104" t="s">
+      <c r="R10" s="86" t="s">
         <v>308</v>
       </c>
       <c r="S10" s="75"/>
-      <c r="V10" s="96"/>
+      <c r="V10" s="98"/>
     </row>
     <row r="11" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B11" s="82"/>
       <c r="C11" s="72"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
       <c r="S11" s="74"/>
-      <c r="V11" s="96"/>
+      <c r="V11" s="98"/>
     </row>
     <row r="12" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="B12" s="83"/>
       <c r="C12" s="67"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
       <c r="S12" s="69"/>
-      <c r="V12" s="96"/>
+      <c r="V12" s="98"/>
     </row>
     <row r="13" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B13" s="84">
@@ -4332,90 +4432,90 @@
         <v>3</v>
       </c>
       <c r="C13" s="67"/>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="70"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="99"/>
     </row>
     <row r="14" spans="2:22" s="2" customFormat="1">
       <c r="B14" s="85"/>
       <c r="C14" s="67"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
       <c r="S14" s="75"/>
       <c r="V14" s="91"/>
     </row>
     <row r="15" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B15" s="82"/>
       <c r="C15" s="72"/>
-      <c r="D15" s="105" t="s">
-        <v>277</v>
-      </c>
-      <c r="E15" s="105" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="105" t="s">
-        <v>279</v>
-      </c>
-      <c r="G15" s="105" t="s">
-        <v>280</v>
-      </c>
-      <c r="H15" s="105" t="s">
-        <v>281</v>
-      </c>
-      <c r="I15" s="105" t="s">
-        <v>282</v>
-      </c>
-      <c r="J15" s="105" t="s">
-        <v>283</v>
-      </c>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105" t="s">
-        <v>284</v>
-      </c>
-      <c r="M15" s="105" t="s">
-        <v>269</v>
-      </c>
-      <c r="N15" s="105" t="s">
-        <v>285</v>
-      </c>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q15" s="105" t="s">
-        <v>287</v>
-      </c>
-      <c r="R15" s="105" t="s">
-        <v>288</v>
+      <c r="D15" s="73" t="s">
+        <v>374</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>361</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>376</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="I15" s="73" t="s">
+        <v>378</v>
+      </c>
+      <c r="J15" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73" t="s">
+        <v>380</v>
+      </c>
+      <c r="M15" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="N15" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q15" s="73" t="s">
+        <v>383</v>
+      </c>
+      <c r="R15" s="73" t="s">
+        <v>384</v>
       </c>
       <c r="S15" s="74"/>
       <c r="V15" s="92"/>
@@ -4423,45 +4523,45 @@
     <row r="16" spans="2:22" s="2" customFormat="1">
       <c r="B16" s="83"/>
       <c r="C16" s="67"/>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="68" t="s">
         <v>317</v>
       </c>
-      <c r="E16" s="102" t="s">
+      <c r="E16" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="F16" s="102" t="s">
+      <c r="F16" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="G16" s="102" t="s">
+      <c r="G16" s="68" t="s">
         <v>321</v>
       </c>
-      <c r="H16" s="102" t="s">
+      <c r="H16" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="I16" s="102" t="s">
+      <c r="I16" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="J16" s="102" t="s">
+      <c r="J16" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102" t="s">
+      <c r="K16" s="68"/>
+      <c r="L16" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="M16" s="102" t="s">
+      <c r="M16" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="N16" s="102" t="s">
+      <c r="N16" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102" t="s">
+      <c r="O16" s="68"/>
+      <c r="P16" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="Q16" s="102" t="s">
+      <c r="Q16" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="R16" s="102" t="s">
+      <c r="R16" s="68" t="s">
         <v>337</v>
       </c>
       <c r="S16" s="69"/>
@@ -4473,49 +4573,49 @@
         <v>4</v>
       </c>
       <c r="C17" s="67"/>
-      <c r="D17" s="103" t="s">
+      <c r="D17" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="103" t="s">
+      <c r="F17" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G17" s="103" t="s">
+      <c r="G17" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H17" s="103" t="s">
+      <c r="H17" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="I17" s="103" t="s">
+      <c r="I17" s="4" t="s">
         <v>244</v>
       </c>
       <c r="J17" s="89" t="s">
         <v>245</v>
       </c>
-      <c r="K17" s="103" t="s">
+      <c r="K17" s="4" t="s">
         <v>222</v>
       </c>
       <c r="L17" s="89" t="s">
         <v>246</v>
       </c>
-      <c r="M17" s="103" t="s">
+      <c r="M17" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="N17" s="103" t="s">
+      <c r="N17" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="O17" s="103" t="s">
+      <c r="O17" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="P17" s="103" t="s">
+      <c r="P17" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="Q17" s="103" t="s">
+      <c r="Q17" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="R17" s="103" t="s">
+      <c r="R17" s="4" t="s">
         <v>251</v>
       </c>
       <c r="S17" s="70"/>
@@ -4524,45 +4624,45 @@
     <row r="18" spans="2:22" s="2" customFormat="1">
       <c r="B18" s="85"/>
       <c r="C18" s="67"/>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="86" t="s">
         <v>318</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="104" t="s">
+      <c r="F18" s="86" t="s">
         <v>320</v>
       </c>
-      <c r="G18" s="104" t="s">
+      <c r="G18" s="86" t="s">
         <v>322</v>
       </c>
-      <c r="H18" s="104" t="s">
+      <c r="H18" s="86" t="s">
         <v>324</v>
       </c>
-      <c r="I18" s="104" t="s">
+      <c r="I18" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="J18" s="104" t="s">
+      <c r="J18" s="86" t="s">
         <v>328</v>
       </c>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104" t="s">
+      <c r="K18" s="86"/>
+      <c r="L18" s="86" t="s">
         <v>330</v>
       </c>
-      <c r="M18" s="104" t="s">
+      <c r="M18" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="N18" s="104" t="s">
+      <c r="N18" s="86" t="s">
         <v>332</v>
       </c>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104" t="s">
+      <c r="O18" s="86"/>
+      <c r="P18" s="86" t="s">
         <v>334</v>
       </c>
-      <c r="Q18" s="104" t="s">
+      <c r="Q18" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="R18" s="104" t="s">
+      <c r="R18" s="86" t="s">
         <v>338</v>
       </c>
       <c r="S18" s="75"/>
@@ -4571,42 +4671,42 @@
     <row r="19" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B19" s="82"/>
       <c r="C19" s="72"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
       <c r="S19" s="74"/>
       <c r="V19" s="92"/>
     </row>
     <row r="20" spans="2:22" s="2" customFormat="1">
       <c r="B20" s="83"/>
       <c r="C20" s="67"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
       <c r="S20" s="69"/>
       <c r="V20" s="91"/>
     </row>
@@ -4616,90 +4716,90 @@
         <v>5</v>
       </c>
       <c r="C21" s="67"/>
-      <c r="D21" s="103" t="s">
+      <c r="D21" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="70"/>
       <c r="V21" s="91"/>
     </row>
     <row r="22" spans="2:22" s="2" customFormat="1">
       <c r="B22" s="85"/>
       <c r="C22" s="67"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
       <c r="S22" s="75"/>
       <c r="V22" s="91"/>
     </row>
     <row r="23" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B23" s="82"/>
       <c r="C23" s="72"/>
-      <c r="D23" s="105" t="s">
-        <v>289</v>
-      </c>
-      <c r="E23" s="105" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" s="105" t="s">
-        <v>291</v>
-      </c>
-      <c r="G23" s="105" t="s">
-        <v>292</v>
-      </c>
-      <c r="H23" s="105" t="s">
-        <v>293</v>
-      </c>
-      <c r="I23" s="105" t="s">
-        <v>294</v>
-      </c>
-      <c r="J23" s="105" t="s">
-        <v>295</v>
-      </c>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105" t="s">
-        <v>296</v>
-      </c>
-      <c r="M23" s="105" t="s">
-        <v>297</v>
-      </c>
-      <c r="N23" s="105" t="s">
-        <v>298</v>
-      </c>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q23" s="105" t="s">
-        <v>300</v>
-      </c>
-      <c r="R23" s="105" t="s">
-        <v>274</v>
+      <c r="D23" s="73" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>386</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="G23" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="H23" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="I23" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="J23" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="M23" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="N23" s="73" t="s">
+        <v>394</v>
+      </c>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q23" s="73" t="s">
+        <v>362</v>
+      </c>
+      <c r="R23" s="73" t="s">
+        <v>366</v>
       </c>
       <c r="S23" s="74"/>
       <c r="V23" s="92"/>
@@ -4707,45 +4807,45 @@
     <row r="24" spans="2:22" s="2" customFormat="1">
       <c r="B24" s="83"/>
       <c r="C24" s="67"/>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="E24" s="102" t="s">
+      <c r="E24" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="F24" s="102" t="s">
+      <c r="F24" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="G24" s="102" t="s">
+      <c r="G24" s="68" t="s">
         <v>345</v>
       </c>
-      <c r="H24" s="102" t="s">
+      <c r="H24" s="68" t="s">
         <v>347</v>
       </c>
-      <c r="I24" s="102" t="s">
+      <c r="I24" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="J24" s="102" t="s">
+      <c r="J24" s="68" t="s">
         <v>351</v>
       </c>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102" t="s">
+      <c r="K24" s="68"/>
+      <c r="L24" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="M24" s="102" t="s">
+      <c r="M24" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="N24" s="102" t="s">
+      <c r="N24" s="68" t="s">
         <v>357</v>
       </c>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102" t="s">
+      <c r="O24" s="68"/>
+      <c r="P24" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="Q24" s="102" t="s">
+      <c r="Q24" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="R24" s="102" t="s">
+      <c r="R24" s="68" t="s">
         <v>301</v>
       </c>
       <c r="S24" s="69"/>
@@ -4757,49 +4857,49 @@
         <v>6</v>
       </c>
       <c r="C25" s="67"/>
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G25" s="103" t="s">
+      <c r="G25" s="4" t="s">
         <v>255</v>
       </c>
       <c r="H25" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="I25" s="103" t="s">
+      <c r="I25" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="J25" s="103" t="s">
+      <c r="J25" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="K25" s="106" t="s">
+      <c r="K25" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="L25" s="103" t="s">
+      <c r="L25" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="M25" s="103" t="s">
+      <c r="M25" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="N25" s="103" t="s">
+      <c r="N25" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="O25" s="103" t="s">
+      <c r="O25" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="P25" s="103" t="s">
+      <c r="P25" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="Q25" s="103" t="s">
+      <c r="Q25" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="R25" s="103" t="s">
+      <c r="R25" s="4" t="s">
         <v>229</v>
       </c>
       <c r="S25" s="70"/>
@@ -4810,45 +4910,45 @@
     <row r="26" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B26" s="85"/>
       <c r="C26" s="67"/>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="E26" s="104" t="s">
+      <c r="E26" s="86" t="s">
         <v>342</v>
       </c>
-      <c r="F26" s="104" t="s">
+      <c r="F26" s="86" t="s">
         <v>344</v>
       </c>
-      <c r="G26" s="104" t="s">
+      <c r="G26" s="86" t="s">
         <v>346</v>
       </c>
-      <c r="H26" s="104" t="s">
+      <c r="H26" s="86" t="s">
         <v>348</v>
       </c>
-      <c r="I26" s="104" t="s">
+      <c r="I26" s="86" t="s">
         <v>350</v>
       </c>
-      <c r="J26" s="104" t="s">
+      <c r="J26" s="86" t="s">
         <v>352</v>
       </c>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104" t="s">
+      <c r="K26" s="86"/>
+      <c r="L26" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="M26" s="104" t="s">
+      <c r="M26" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="N26" s="104" t="s">
+      <c r="N26" s="86" t="s">
         <v>358</v>
       </c>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104" t="s">
+      <c r="O26" s="86"/>
+      <c r="P26" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="Q26" s="104" t="s">
+      <c r="Q26" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="R26" s="104" t="s">
+      <c r="R26" s="86" t="s">
         <v>302</v>
       </c>
       <c r="S26" s="75"/>
@@ -4857,21 +4957,21 @@
     <row r="27" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B27" s="87"/>
       <c r="C27" s="61"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="105"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
       <c r="S27" s="74"/>
       <c r="T27" s="56"/>
       <c r="U27" s="56"/>
@@ -4880,21 +4980,21 @@
     <row r="28" spans="2:22">
       <c r="B28" s="83"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
       <c r="S28" s="69"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -4904,23 +5004,23 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="103" t="s">
+      <c r="D29" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
       <c r="S29" s="70"/>
       <c r="T29" s="56"/>
       <c r="U29" s="56"/>
@@ -4929,42 +5029,42 @@
     <row r="30" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B30" s="88"/>
       <c r="C30" s="60"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
       <c r="S30" s="71"/>
       <c r="V30" s="91"/>
     </row>
     <row r="31" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B31" s="87"/>
       <c r="C31" s="61"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
-      <c r="O31" s="105"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="105"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
       <c r="S31" s="74"/>
       <c r="T31" s="56"/>
       <c r="U31" s="56"/>
@@ -4973,21 +5073,21 @@
     <row r="32" spans="2:22">
       <c r="B32" s="83"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
-      <c r="O32" s="102"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="102"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
       <c r="S32" s="69"/>
       <c r="T32" s="2"/>
     </row>
@@ -4997,84 +5097,84 @@
         <v>8</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
       <c r="S33" s="70"/>
       <c r="T33" s="2"/>
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="88"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
       <c r="S34" s="75"/>
       <c r="T34" s="2"/>
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="87"/>
       <c r="C35" s="72"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
       <c r="S35" s="74"/>
       <c r="T35" s="56"/>
     </row>
     <row r="36" spans="2:20">
       <c r="B36" s="83"/>
       <c r="C36" s="67"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="102"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="102"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
       <c r="S36" s="69"/>
       <c r="T36" s="2"/>
     </row>
@@ -5084,84 +5184,84 @@
         <v>9</v>
       </c>
       <c r="C37" s="67"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="103"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="103"/>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="103"/>
-      <c r="R37" s="103"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
       <c r="S37" s="70"/>
       <c r="T37" s="2"/>
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="88"/>
       <c r="C38" s="67"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
       <c r="S38" s="75"/>
       <c r="T38" s="2"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="87"/>
       <c r="C39" s="72"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
       <c r="S39" s="74"/>
       <c r="T39" s="56"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="83"/>
       <c r="C40" s="67"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
       <c r="S40" s="69"/>
       <c r="T40" s="2"/>
     </row>
@@ -5171,84 +5271,84 @@
         <v>10</v>
       </c>
       <c r="C41" s="67"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="103"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="103"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
       <c r="S41" s="70"/>
       <c r="T41" s="2"/>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="88"/>
       <c r="C42" s="67"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="104"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="104"/>
-      <c r="P42" s="104"/>
-      <c r="Q42" s="104"/>
-      <c r="R42" s="104"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+      <c r="P42" s="86"/>
+      <c r="Q42" s="86"/>
+      <c r="R42" s="86"/>
       <c r="S42" s="75"/>
       <c r="T42" s="2"/>
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="87"/>
       <c r="C43" s="72"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
-      <c r="O43" s="105"/>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="105"/>
-      <c r="R43" s="105"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
       <c r="S43" s="74"/>
       <c r="T43" s="56"/>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="83"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="102"/>
-      <c r="O44" s="102"/>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="102"/>
-      <c r="R44" s="102"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
       <c r="S44" s="69"/>
       <c r="T44" s="2"/>
     </row>
@@ -5258,21 +5358,21 @@
         <v>11</v>
       </c>
       <c r="C45" s="67"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="103"/>
-      <c r="O45" s="103"/>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="103"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
       <c r="S45" s="70"/>
       <c r="T45" s="2"/>
     </row>
@@ -5353,34 +5453,13 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="4" t="e" cm="1">
-        <f t="array" ref="L49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M49" s="4" t="e" cm="1">
-        <f t="array" ref="M49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N49" s="4" t="e" cm="1">
-        <f t="array" ref="N49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O49" s="4" t="e" cm="1">
-        <f t="array" ref="O49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P49" s="4" t="e" cm="1">
-        <f t="array" ref="P49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q49" s="4" t="e" cm="1">
-        <f t="array" ref="Q49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R49" s="4" t="e" cm="1">
-        <f t="array" ref="R49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
       <c r="S49" s="69"/>
       <c r="T49" s="2"/>
     </row>
@@ -6818,8 +6897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AAAF4C-D97F-43F7-9C51-82DE64196BD9}">
   <dimension ref="B2:V58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="R29" sqref="D3:R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -6904,208 +6983,208 @@
     <row r="3" spans="2:22" s="58" customFormat="1" ht="26.1" customHeight="1">
       <c r="B3" s="82"/>
       <c r="C3" s="81"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101" t="s">
+      <c r="H3" s="95"/>
+      <c r="I3" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="95" t="s">
         <v>269</v>
       </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
       <c r="S3" s="66"/>
       <c r="T3" s="94"/>
-      <c r="V3" s="95" t="s">
+      <c r="V3" s="97" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="B4" s="83"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="69"/>
-      <c r="V4" s="96"/>
+      <c r="V4" s="98"/>
     </row>
     <row r="5" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B5" s="84">
         <v>1</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="K5" s="103" t="s">
+      <c r="K5" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="L5" s="103" t="s">
+      <c r="L5" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
       <c r="S5" s="70"/>
-      <c r="V5" s="96"/>
+      <c r="V5" s="98"/>
     </row>
     <row r="6" spans="2:22" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="B6" s="85"/>
       <c r="C6" s="60"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104" t="str">
+      <c r="D6" s="86"/>
+      <c r="E6" s="86" t="str">
         <f>E5</f>
         <v>天</v>
       </c>
-      <c r="F6" s="104" t="str">
+      <c r="F6" s="86" t="str">
         <f t="shared" ref="F6:K6" si="0">F5</f>
         <v>易</v>
       </c>
-      <c r="G6" s="104" t="str">
+      <c r="G6" s="86" t="str">
         <f t="shared" si="0"/>
         <v>見</v>
       </c>
-      <c r="H6" s="104" t="str">
+      <c r="H6" s="86" t="str">
         <f t="shared" si="0"/>
         <v>，</v>
       </c>
-      <c r="I6" s="104" t="str">
+      <c r="I6" s="86" t="str">
         <f t="shared" si="0"/>
         <v>見</v>
       </c>
-      <c r="J6" s="104" t="str">
+      <c r="J6" s="86" t="str">
         <f t="shared" si="0"/>
         <v>君</v>
       </c>
-      <c r="K6" s="104" t="str">
+      <c r="K6" s="86" t="str">
         <f t="shared" si="0"/>
         <v>難</v>
       </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
       <c r="S6" s="71"/>
-      <c r="V6" s="96"/>
+      <c r="V6" s="98"/>
     </row>
     <row r="7" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="82"/>
       <c r="C7" s="72"/>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="73" t="s">
         <v>271</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="105" t="s">
+      <c r="H7" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="I7" s="105" t="s">
+      <c r="I7" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="J7" s="105" t="s">
+      <c r="J7" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105" t="s">
+      <c r="K7" s="73"/>
+      <c r="L7" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="M7" s="105" t="s">
+      <c r="M7" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105" t="s">
+      <c r="O7" s="73"/>
+      <c r="P7" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="Q7" s="105" t="s">
+      <c r="Q7" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="R7" s="105" t="s">
+      <c r="R7" s="73" t="s">
         <v>269</v>
       </c>
       <c r="S7" s="74"/>
-      <c r="V7" s="96"/>
+      <c r="V7" s="98"/>
     </row>
     <row r="8" spans="2:22" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="B8" s="83"/>
       <c r="C8" s="67"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
       <c r="S8" s="69"/>
-      <c r="V8" s="96"/>
+      <c r="V8" s="98"/>
     </row>
     <row r="9" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B9" s="84">
@@ -7113,162 +7192,162 @@
         <v>2</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F9" s="103" t="s">
+      <c r="F9" s="4" t="s">
         <v>236</v>
       </c>
       <c r="G9" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="4" t="s">
         <v>229</v>
       </c>
       <c r="I9" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="J9" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K9" s="103" t="s">
+      <c r="K9" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="L9" s="103" t="s">
+      <c r="L9" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="M9" s="103" t="s">
+      <c r="M9" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="N9" s="103" t="s">
+      <c r="N9" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="O9" s="103" t="s">
+      <c r="O9" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="P9" s="103" t="s">
+      <c r="P9" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="Q9" s="103" t="s">
+      <c r="Q9" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="R9" s="103" t="s">
+      <c r="R9" s="4" t="s">
         <v>232</v>
       </c>
       <c r="S9" s="70"/>
       <c r="T9" s="94"/>
-      <c r="V9" s="96"/>
+      <c r="V9" s="98"/>
     </row>
     <row r="10" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B10" s="85"/>
       <c r="C10" s="67"/>
-      <c r="D10" s="104" t="str">
+      <c r="D10" s="86" t="str">
         <f>D9</f>
         <v>漫</v>
       </c>
-      <c r="E10" s="104" t="str">
+      <c r="E10" s="86" t="str">
         <f t="shared" ref="E10:R10" si="1">E9</f>
         <v>道</v>
       </c>
-      <c r="F10" s="104" t="str">
+      <c r="F10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>帝</v>
       </c>
-      <c r="G10" s="104" t="str">
+      <c r="G10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>城</v>
       </c>
-      <c r="H10" s="104" t="str">
+      <c r="H10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>天</v>
       </c>
-      <c r="I10" s="104" t="str">
+      <c r="I10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>樣</v>
       </c>
-      <c r="J10" s="104" t="str">
+      <c r="J10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>遠</v>
       </c>
-      <c r="K10" s="104" t="str">
+      <c r="K10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>，</v>
       </c>
-      <c r="L10" s="104" t="str">
+      <c r="L10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>天</v>
       </c>
-      <c r="M10" s="104" t="str">
+      <c r="M10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>易</v>
       </c>
-      <c r="N10" s="104" t="str">
+      <c r="N10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>見</v>
       </c>
-      <c r="O10" s="104" t="str">
+      <c r="O10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>，</v>
       </c>
-      <c r="P10" s="104" t="str">
+      <c r="P10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>見</v>
       </c>
-      <c r="Q10" s="104" t="str">
+      <c r="Q10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>君</v>
       </c>
-      <c r="R10" s="104" t="str">
+      <c r="R10" s="86" t="str">
         <f t="shared" si="1"/>
         <v>難</v>
       </c>
       <c r="S10" s="75"/>
-      <c r="V10" s="96"/>
+      <c r="V10" s="98"/>
     </row>
     <row r="11" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B11" s="82"/>
       <c r="C11" s="72"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
       <c r="S11" s="74"/>
-      <c r="V11" s="96"/>
+      <c r="V11" s="98"/>
     </row>
     <row r="12" spans="2:22" s="2" customFormat="1" ht="25.5">
       <c r="B12" s="83"/>
       <c r="C12" s="67"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
       <c r="S12" s="69"/>
-      <c r="V12" s="96"/>
+      <c r="V12" s="98"/>
     </row>
     <row r="13" spans="2:22" s="2" customFormat="1" ht="63.75" customHeight="1">
       <c r="B13" s="84">
@@ -7276,89 +7355,89 @@
         <v>3</v>
       </c>
       <c r="C13" s="67"/>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="70"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="99"/>
     </row>
     <row r="14" spans="2:22" s="2" customFormat="1">
       <c r="B14" s="85"/>
       <c r="C14" s="67"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
       <c r="S14" s="75"/>
       <c r="V14" s="91"/>
     </row>
     <row r="15" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B15" s="82"/>
       <c r="C15" s="72"/>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="F15" s="105" t="s">
+      <c r="F15" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="G15" s="105" t="s">
+      <c r="G15" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="H15" s="105" t="s">
+      <c r="H15" s="73" t="s">
         <v>281</v>
       </c>
-      <c r="I15" s="105" t="s">
+      <c r="I15" s="73" t="s">
         <v>282</v>
       </c>
-      <c r="J15" s="105" t="s">
+      <c r="J15" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105" t="s">
+      <c r="K15" s="73"/>
+      <c r="L15" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="M15" s="105" t="s">
+      <c r="M15" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="N15" s="105" t="s">
+      <c r="N15" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105" t="s">
+      <c r="O15" s="73"/>
+      <c r="P15" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="Q15" s="105" t="s">
+      <c r="Q15" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="R15" s="105" t="s">
+      <c r="R15" s="73" t="s">
         <v>288</v>
       </c>
       <c r="S15" s="74"/>
@@ -7367,21 +7446,21 @@
     <row r="16" spans="2:22" s="2" customFormat="1">
       <c r="B16" s="83"/>
       <c r="C16" s="67"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
       <c r="S16" s="69"/>
       <c r="V16" s="91"/>
     </row>
@@ -7391,49 +7470,49 @@
         <v>4</v>
       </c>
       <c r="C17" s="67"/>
-      <c r="D17" s="103" t="s">
+      <c r="D17" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="103" t="s">
+      <c r="F17" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G17" s="103" t="s">
+      <c r="G17" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H17" s="103" t="s">
+      <c r="H17" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="I17" s="103" t="s">
+      <c r="I17" s="4" t="s">
         <v>244</v>
       </c>
       <c r="J17" s="89" t="s">
         <v>245</v>
       </c>
-      <c r="K17" s="103" t="s">
+      <c r="K17" s="4" t="s">
         <v>222</v>
       </c>
       <c r="L17" s="89" t="s">
         <v>246</v>
       </c>
-      <c r="M17" s="103" t="s">
+      <c r="M17" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="N17" s="103" t="s">
+      <c r="N17" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="O17" s="103" t="s">
+      <c r="O17" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="P17" s="103" t="s">
+      <c r="P17" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="Q17" s="103" t="s">
+      <c r="Q17" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="R17" s="103" t="s">
+      <c r="R17" s="4" t="s">
         <v>251</v>
       </c>
       <c r="S17" s="70"/>
@@ -7442,63 +7521,63 @@
     <row r="18" spans="2:22" s="2" customFormat="1">
       <c r="B18" s="85"/>
       <c r="C18" s="67"/>
-      <c r="D18" s="104" t="str">
+      <c r="D18" s="86" t="str">
         <f>D17</f>
         <v>畫</v>
       </c>
-      <c r="E18" s="104" t="str">
+      <c r="E18" s="86" t="str">
         <f t="shared" ref="E18:R18" si="2">E17</f>
         <v>堂</v>
       </c>
-      <c r="F18" s="104" t="str">
+      <c r="F18" s="86" t="str">
         <f t="shared" si="2"/>
         <v>新</v>
       </c>
-      <c r="G18" s="104" t="str">
+      <c r="G18" s="86" t="str">
         <f t="shared" si="2"/>
         <v>構</v>
       </c>
-      <c r="H18" s="104" t="str">
+      <c r="H18" s="86" t="str">
         <f t="shared" si="2"/>
         <v>近</v>
       </c>
-      <c r="I18" s="104" t="str">
+      <c r="I18" s="86" t="str">
         <f t="shared" si="2"/>
         <v>孤</v>
       </c>
-      <c r="J18" s="104" t="str">
+      <c r="J18" s="86" t="str">
         <f t="shared" si="2"/>
         <v>山</v>
       </c>
-      <c r="K18" s="104" t="str">
+      <c r="K18" s="86" t="str">
         <f t="shared" si="2"/>
         <v>，</v>
       </c>
-      <c r="L18" s="104" t="str">
+      <c r="L18" s="86" t="str">
         <f t="shared" si="2"/>
         <v>曲</v>
       </c>
-      <c r="M18" s="104" t="str">
+      <c r="M18" s="86" t="str">
         <f t="shared" si="2"/>
         <v>闌</v>
       </c>
-      <c r="N18" s="104" t="str">
+      <c r="N18" s="86" t="str">
         <f t="shared" si="2"/>
         <v>干</v>
       </c>
-      <c r="O18" s="104" t="str">
+      <c r="O18" s="86" t="str">
         <f t="shared" si="2"/>
         <v>，</v>
       </c>
-      <c r="P18" s="104" t="str">
+      <c r="P18" s="86" t="str">
         <f t="shared" si="2"/>
         <v>為</v>
       </c>
-      <c r="Q18" s="104" t="str">
+      <c r="Q18" s="86" t="str">
         <f t="shared" si="2"/>
         <v>誰</v>
       </c>
-      <c r="R18" s="104" t="str">
+      <c r="R18" s="86" t="str">
         <f t="shared" si="2"/>
         <v>安</v>
       </c>
@@ -7508,42 +7587,42 @@
     <row r="19" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B19" s="82"/>
       <c r="C19" s="72"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
       <c r="S19" s="74"/>
       <c r="V19" s="92"/>
     </row>
     <row r="20" spans="2:22" s="2" customFormat="1">
       <c r="B20" s="83"/>
       <c r="C20" s="67"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
       <c r="S20" s="69"/>
       <c r="V20" s="91"/>
     </row>
@@ -7553,89 +7632,89 @@
         <v>5</v>
       </c>
       <c r="C21" s="67"/>
-      <c r="D21" s="103" t="s">
+      <c r="D21" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="70"/>
       <c r="V21" s="91"/>
     </row>
     <row r="22" spans="2:22" s="2" customFormat="1">
       <c r="B22" s="85"/>
       <c r="C22" s="67"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
       <c r="S22" s="75"/>
       <c r="V22" s="91"/>
     </row>
     <row r="23" spans="2:22" s="56" customFormat="1" ht="26.1" customHeight="1">
       <c r="B23" s="82"/>
       <c r="C23" s="72"/>
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="E23" s="105" t="s">
+      <c r="E23" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="F23" s="105" t="s">
+      <c r="F23" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="G23" s="105" t="s">
+      <c r="G23" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="H23" s="105" t="s">
+      <c r="H23" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="I23" s="105" t="s">
+      <c r="I23" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="J23" s="105" t="s">
+      <c r="J23" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105" t="s">
+      <c r="K23" s="73"/>
+      <c r="L23" s="73" t="s">
         <v>296</v>
       </c>
-      <c r="M23" s="105" t="s">
+      <c r="M23" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="N23" s="105" t="s">
+      <c r="N23" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105" t="s">
+      <c r="O23" s="73"/>
+      <c r="P23" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="Q23" s="105" t="s">
+      <c r="Q23" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="R23" s="105" t="s">
+      <c r="R23" s="73" t="s">
         <v>274</v>
       </c>
       <c r="S23" s="74"/>
@@ -7644,21 +7723,21 @@
     <row r="24" spans="2:22" s="2" customFormat="1">
       <c r="B24" s="83"/>
       <c r="C24" s="67"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
       <c r="S24" s="69"/>
       <c r="V24" s="91"/>
     </row>
@@ -7668,49 +7747,49 @@
         <v>6</v>
       </c>
       <c r="C25" s="67"/>
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G25" s="103" t="s">
+      <c r="G25" s="4" t="s">
         <v>255</v>
       </c>
       <c r="H25" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="I25" s="103" t="s">
+      <c r="I25" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="J25" s="103" t="s">
+      <c r="J25" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="K25" s="106" t="s">
+      <c r="K25" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="L25" s="103" t="s">
+      <c r="L25" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="M25" s="103" t="s">
+      <c r="M25" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="N25" s="103" t="s">
+      <c r="N25" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="O25" s="103" t="s">
+      <c r="O25" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="P25" s="103" t="s">
+      <c r="P25" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="Q25" s="103" t="s">
+      <c r="Q25" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="R25" s="103" t="s">
+      <c r="R25" s="4" t="s">
         <v>229</v>
       </c>
       <c r="S25" s="70"/>
@@ -7721,63 +7800,63 @@
     <row r="26" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B26" s="85"/>
       <c r="C26" s="67"/>
-      <c r="D26" s="104" t="str">
+      <c r="D26" s="86" t="str">
         <f>D25</f>
         <v>欲</v>
       </c>
-      <c r="E26" s="104" t="str">
+      <c r="E26" s="86" t="str">
         <f t="shared" ref="E26:R26" si="3">E25</f>
         <v>掉</v>
       </c>
-      <c r="F26" s="104" t="str">
+      <c r="F26" s="86" t="str">
         <f t="shared" si="3"/>
         <v>小</v>
       </c>
-      <c r="G26" s="104" t="str">
+      <c r="G26" s="86" t="str">
         <f t="shared" si="3"/>
         <v>舟</v>
       </c>
-      <c r="H26" s="104" t="str">
+      <c r="H26" s="86" t="str">
         <f t="shared" si="3"/>
         <v>尋</v>
       </c>
-      <c r="I26" s="104" t="str">
+      <c r="I26" s="86" t="str">
         <f t="shared" si="3"/>
         <v>舊</v>
       </c>
-      <c r="J26" s="104" t="str">
+      <c r="J26" s="86" t="str">
         <f t="shared" si="3"/>
         <v>事</v>
       </c>
-      <c r="K26" s="104" t="str">
+      <c r="K26" s="86" t="str">
         <f t="shared" si="3"/>
         <v>，</v>
       </c>
-      <c r="L26" s="104" t="str">
+      <c r="L26" s="86" t="str">
         <f t="shared" si="3"/>
         <v>無</v>
       </c>
-      <c r="M26" s="104" t="str">
+      <c r="M26" s="86" t="str">
         <f t="shared" si="3"/>
         <v>處</v>
       </c>
-      <c r="N26" s="104" t="str">
+      <c r="N26" s="86" t="str">
         <f t="shared" si="3"/>
         <v>問</v>
       </c>
-      <c r="O26" s="104" t="str">
+      <c r="O26" s="86" t="str">
         <f t="shared" si="3"/>
         <v>，</v>
       </c>
-      <c r="P26" s="104" t="str">
+      <c r="P26" s="86" t="str">
         <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="Q26" s="104" t="str">
+      <c r="Q26" s="86" t="str">
         <f t="shared" si="3"/>
         <v>連</v>
       </c>
-      <c r="R26" s="104" t="str">
+      <c r="R26" s="86" t="str">
         <f t="shared" si="3"/>
         <v>天</v>
       </c>
@@ -7787,21 +7866,21 @@
     <row r="27" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B27" s="87"/>
       <c r="C27" s="61"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="105"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
       <c r="S27" s="74"/>
       <c r="T27" s="56"/>
       <c r="U27" s="56"/>
@@ -7810,21 +7889,21 @@
     <row r="28" spans="2:22">
       <c r="B28" s="83"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
       <c r="S28" s="69"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -7834,23 +7913,23 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="103" t="s">
+      <c r="D29" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
       <c r="S29" s="70"/>
       <c r="T29" s="56"/>
       <c r="U29" s="56"/>
@@ -7859,42 +7938,42 @@
     <row r="30" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B30" s="88"/>
       <c r="C30" s="60"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
       <c r="S30" s="71"/>
       <c r="V30" s="91"/>
     </row>
     <row r="31" spans="2:22" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="B31" s="87"/>
       <c r="C31" s="61"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
-      <c r="O31" s="105"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="105"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
       <c r="S31" s="74"/>
       <c r="T31" s="56"/>
       <c r="U31" s="56"/>
@@ -7903,21 +7982,21 @@
     <row r="32" spans="2:22">
       <c r="B32" s="83"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
-      <c r="O32" s="102"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="102"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
       <c r="S32" s="69"/>
       <c r="T32" s="2"/>
     </row>
@@ -7927,84 +8006,84 @@
         <v>8</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
       <c r="S33" s="70"/>
       <c r="T33" s="2"/>
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="88"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
       <c r="S34" s="75"/>
       <c r="T34" s="2"/>
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="87"/>
       <c r="C35" s="72"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
       <c r="S35" s="74"/>
       <c r="T35" s="56"/>
     </row>
     <row r="36" spans="2:20">
       <c r="B36" s="83"/>
       <c r="C36" s="67"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="102"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="102"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
       <c r="S36" s="69"/>
       <c r="T36" s="2"/>
     </row>
@@ -8014,84 +8093,84 @@
         <v>9</v>
       </c>
       <c r="C37" s="67"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="103"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="103"/>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="103"/>
-      <c r="R37" s="103"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
       <c r="S37" s="70"/>
       <c r="T37" s="2"/>
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="88"/>
       <c r="C38" s="67"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
       <c r="S38" s="75"/>
       <c r="T38" s="2"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="87"/>
       <c r="C39" s="72"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
       <c r="S39" s="74"/>
       <c r="T39" s="56"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="83"/>
       <c r="C40" s="67"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
       <c r="S40" s="69"/>
       <c r="T40" s="2"/>
     </row>
@@ -8101,84 +8180,84 @@
         <v>10</v>
       </c>
       <c r="C41" s="67"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="103"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="103"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
       <c r="S41" s="70"/>
       <c r="T41" s="2"/>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="88"/>
       <c r="C42" s="67"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="104"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="104"/>
-      <c r="P42" s="104"/>
-      <c r="Q42" s="104"/>
-      <c r="R42" s="104"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+      <c r="P42" s="86"/>
+      <c r="Q42" s="86"/>
+      <c r="R42" s="86"/>
       <c r="S42" s="75"/>
       <c r="T42" s="2"/>
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="87"/>
       <c r="C43" s="72"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
-      <c r="O43" s="105"/>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="105"/>
-      <c r="R43" s="105"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
       <c r="S43" s="74"/>
       <c r="T43" s="56"/>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="83"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="102"/>
-      <c r="O44" s="102"/>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="102"/>
-      <c r="R44" s="102"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
       <c r="S44" s="69"/>
       <c r="T44" s="2"/>
     </row>
@@ -8188,21 +8267,21 @@
         <v>11</v>
       </c>
       <c r="C45" s="67"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="103"/>
-      <c r="O45" s="103"/>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="103"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
       <c r="S45" s="70"/>
       <c r="T45" s="2"/>
     </row>
@@ -8283,34 +8362,13 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="4" t="e" cm="1">
-        <f t="array" ref="L49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M49" s="4" t="e" cm="1">
-        <f t="array" ref="M49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N49" s="4" t="e" cm="1">
-        <f t="array" ref="N49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O49" s="4" t="e" cm="1">
-        <f t="array" ref="O49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P49" s="4" t="e" cm="1">
-        <f t="array" ref="P49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q49" s="4" t="e" cm="1">
-        <f t="array" ref="Q49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R49" s="4" t="e" cm="1">
-        <f t="array" ref="R49" xml:space="preserve"> MID(#REF!, (($B49 - 1)*15  + (COLUMN() - COLUMN($C:$C))), 1)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
       <c r="S49" s="69"/>
       <c r="T49" s="2"/>
     </row>
@@ -8498,7 +8556,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="100" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -8516,7 +8574,7 @@
       <c r="G5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="100" t="s">
         <v>46</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -8541,7 +8599,7 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="99"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="15" t="s">
         <v>56</v>
       </c>
@@ -8561,7 +8619,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="99"/>
+      <c r="I6" s="101"/>
       <c r="J6" s="15" t="s">
         <v>57</v>
       </c>
@@ -8583,7 +8641,7 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="99"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="19" t="s">
         <v>62</v>
       </c>
@@ -8599,7 +8657,7 @@
       <c r="G7" s="20">
         <v>30</v>
       </c>
-      <c r="I7" s="99"/>
+      <c r="I7" s="101"/>
       <c r="J7" s="19" t="s">
         <v>62</v>
       </c>
@@ -8621,7 +8679,7 @@
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="99"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="15" t="s">
         <v>64</v>
       </c>
@@ -8637,7 +8695,7 @@
       <c r="G8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="99"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="22" t="s">
         <v>64</v>
       </c>
@@ -8659,7 +8717,7 @@
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="99"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="15" t="s">
         <v>73</v>
       </c>
@@ -8675,7 +8733,7 @@
       <c r="G9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="99"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="15" t="s">
         <v>73</v>
       </c>
@@ -8697,7 +8755,7 @@
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="100"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="15" t="s">
         <v>78</v>
       </c>
@@ -8713,7 +8771,7 @@
       <c r="G10" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="100"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="15" t="s">
         <v>83</v>
       </c>
@@ -8736,7 +8794,7 @@
       <c r="R10" s="32"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="100" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -8754,7 +8812,7 @@
       <c r="G11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="98" t="s">
+      <c r="I11" s="100" t="s">
         <v>88</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -8778,7 +8836,7 @@
       <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="99"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="15" t="s">
         <v>56</v>
       </c>
@@ -8798,7 +8856,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="99"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="15" t="s">
         <v>57</v>
       </c>
@@ -8818,7 +8876,7 @@
       <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="99"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="19" t="s">
         <v>62</v>
       </c>
@@ -8832,7 +8890,7 @@
       <c r="G13" s="20">
         <v>50</v>
       </c>
-      <c r="I13" s="99"/>
+      <c r="I13" s="101"/>
       <c r="J13" s="19" t="s">
         <v>62</v>
       </c>
@@ -8852,7 +8910,7 @@
       <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="99"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="15" t="s">
         <v>64</v>
       </c>
@@ -8866,7 +8924,7 @@
       <c r="G14" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="99"/>
+      <c r="I14" s="101"/>
       <c r="J14" s="15" t="s">
         <v>64</v>
       </c>
@@ -8886,7 +8944,7 @@
       <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="99"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="15" t="s">
         <v>73</v>
       </c>
@@ -8900,7 +8958,7 @@
       <c r="G15" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="99"/>
+      <c r="I15" s="101"/>
       <c r="J15" s="15" t="s">
         <v>73</v>
       </c>
@@ -8920,7 +8978,7 @@
       <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="100"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="15" t="s">
         <v>78</v>
       </c>
@@ -8934,7 +8992,7 @@
       <c r="G16" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="100"/>
+      <c r="I16" s="102"/>
       <c r="J16" s="15" t="s">
         <v>83</v>
       </c>

--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B78C76B-4450-4B0E-B515-B74156EA6C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B24529-526E-4BA2-BD59-A88B80EE318E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="540">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1000,11 +1000,11 @@
   </si>
   <si>
     <t>Key</t>
-    <phoneticPr fontId="59" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="59" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>INPUT_FILE_PATH</t>
@@ -1097,25 +1097,6 @@
     <t>》</t>
   </si>
   <si>
-    <t>城</t>
-  </si>
-  <si>
-    <t>孤</t>
-  </si>
-  <si>
-    <t>處</t>
-  </si>
-  <si>
-    <t>《金剛般若波羅蜜經》
-法會因由分第一
-如是我聞：一時，佛在舍衛國祈樹給孤獨園，與大比丘眾千二百五十人俱。爾時，世尊食時，著衣持缽，入舍衛大城乞食。於其城中次第乞已，還至本處。飯食訖，收衣缽。洗足已，敷座而坐。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《金剛般若波羅蜜經》法會因由分第一</t>
-    <phoneticPr fontId="59" type="noConversion"/>
-  </si>
-  <si>
     <t>https://shoplineimg.com/5db585d59db3cb0012a18bce/5f2a9d3f30cc6200455c1c25/1296x.webp?source_format=jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1144,36 +1125,18 @@
     <t>經</t>
   </si>
   <si>
-    <t>法</t>
-  </si>
-  <si>
-    <t>會</t>
-  </si>
-  <si>
-    <t>因</t>
-  </si>
-  <si>
-    <t>由</t>
-  </si>
-  <si>
     <t>分</t>
   </si>
   <si>
     <t>第</t>
   </si>
   <si>
-    <t>一</t>
-  </si>
-  <si>
     <t>如</t>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
-    <t>我</t>
-  </si>
-  <si>
     <t>聞</t>
   </si>
   <si>
@@ -1189,148 +1152,40 @@
     <t>在</t>
   </si>
   <si>
-    <t>舍</t>
-  </si>
-  <si>
-    <t>衛</t>
-  </si>
-  <si>
-    <t>國</t>
-  </si>
-  <si>
-    <t>祈</t>
-  </si>
-  <si>
-    <t>樹</t>
-  </si>
-  <si>
-    <t>給</t>
-  </si>
-  <si>
-    <t>獨</t>
-  </si>
-  <si>
-    <t>園</t>
-  </si>
-  <si>
-    <t>與</t>
-  </si>
-  <si>
     <t>大</t>
   </si>
   <si>
-    <t>比</t>
-  </si>
-  <si>
-    <t>丘</t>
-  </si>
-  <si>
     <t>眾</t>
   </si>
   <si>
-    <t>千</t>
-  </si>
-  <si>
     <t>二</t>
   </si>
   <si>
-    <t>百</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>十</t>
-  </si>
-  <si>
     <t>人</t>
   </si>
   <si>
-    <t>俱</t>
-  </si>
-  <si>
     <t>。</t>
   </si>
   <si>
-    <t>爾</t>
-  </si>
-  <si>
     <t>世</t>
   </si>
   <si>
     <t>尊</t>
   </si>
   <si>
-    <t>食</t>
-  </si>
-  <si>
     <t>著</t>
   </si>
   <si>
-    <t>衣</t>
-  </si>
-  <si>
-    <t>持</t>
-  </si>
-  <si>
-    <t>缽</t>
-  </si>
-  <si>
-    <t>入</t>
-  </si>
-  <si>
-    <t>乞</t>
-  </si>
-  <si>
-    <t>於</t>
-  </si>
-  <si>
     <t>其</t>
   </si>
   <si>
     <t>中</t>
   </si>
   <si>
-    <t>次</t>
-  </si>
-  <si>
-    <t>已</t>
-  </si>
-  <si>
-    <t>還</t>
-  </si>
-  <si>
-    <t>至</t>
-  </si>
-  <si>
-    <t>本</t>
-  </si>
-  <si>
-    <t>飯</t>
-  </si>
-  <si>
-    <t>訖</t>
-  </si>
-  <si>
-    <t>收</t>
-  </si>
-  <si>
-    <t>洗</t>
-  </si>
-  <si>
-    <t>足</t>
-  </si>
-  <si>
-    <t>敷</t>
-  </si>
-  <si>
     <t>座</t>
   </si>
   <si>
     <t>而</t>
-  </si>
-  <si>
-    <t>坐</t>
   </si>
   <si>
     <t>〔kim¹〕
@@ -1338,818 +1193,1229 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>〔lo⁵〕
+【ㄌㄜˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔king¹〕
+【ㄍㄧㄥˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hun¹〕
+【ㄏㄨㄣˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔te⁷〕
+【ㄉㆤ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ju⁵〕
+【ㆡㄨˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔si⁷〕
+【ㄒㄧ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔bun⁵〕
+【ㆠㄨㄣˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔si⁵〕
+【ㄒㄧˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔put⁸〕
+【ㄅㄨㆵ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zai⁷〕
+【ㄗㄞ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ki⁵〕
+【ㄍㄧˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tua⁷〕
+【ㄉㄨㄚ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ziong³〕
+【ㄐㄧㆲ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ji⁷〕
+【ㆢㄧ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lang⁵〕
+【ㄌㄤˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔se³〕
+【ㄙㆤ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zun¹〕
+【ㄗㄨㄣˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tio⁰〕
+【ㄉㄧㄜ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tiong¹〕
+【ㄉㄧㆲˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ziok⁴〕
+【ㄐㄧㆦ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zo⁷〕
+【ㄗㄜ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔li⁵〕
+【ㄌㄧˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim¹</t>
+  </si>
+  <si>
+    <t>ㄍㄧㆬˉ</t>
+  </si>
+  <si>
+    <t>kong¹</t>
+  </si>
+  <si>
+    <t>ㄍㆲˉ</t>
+  </si>
+  <si>
+    <t>pⁿua¹</t>
+  </si>
+  <si>
+    <t>ㄅㄨㆩˉ</t>
+  </si>
+  <si>
+    <t>na²</t>
+  </si>
+  <si>
+    <t>ㄋㄚˋ</t>
+  </si>
+  <si>
+    <t>pho¹</t>
+  </si>
+  <si>
+    <t>ㄆㄜˉ</t>
+  </si>
+  <si>
+    <t>lo⁵</t>
+  </si>
+  <si>
+    <t>ㄌㄜˊ</t>
+  </si>
+  <si>
+    <t>bit⁸</t>
+  </si>
+  <si>
+    <t>ㆠㄧㆵ˙</t>
+  </si>
+  <si>
+    <t>king¹</t>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˉ</t>
+  </si>
+  <si>
+    <t>hun¹</t>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+  </si>
+  <si>
+    <t>te⁷</t>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+  </si>
+  <si>
+    <t>ju⁵</t>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+  </si>
+  <si>
+    <t>si⁷</t>
+  </si>
+  <si>
+    <t>ㄒㄧ˫</t>
+  </si>
+  <si>
+    <t>bun⁵</t>
+  </si>
+  <si>
+    <t>ㆠㄨㄣˊ</t>
+  </si>
+  <si>
+    <t>si⁵</t>
+  </si>
+  <si>
+    <t>ㄒㄧˊ</t>
+  </si>
+  <si>
+    <t>put⁸</t>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ˙</t>
+  </si>
+  <si>
+    <t>zai⁷</t>
+  </si>
+  <si>
+    <t>ㄗㄞ˫</t>
+  </si>
+  <si>
+    <t>ki⁵</t>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+  </si>
+  <si>
+    <t>tua⁷</t>
+  </si>
+  <si>
+    <t>ㄉㄨㄚ˫</t>
+  </si>
+  <si>
+    <t>ziong³</t>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˪</t>
+  </si>
+  <si>
+    <t>ji⁷</t>
+  </si>
+  <si>
+    <t>ㆢㄧ˫</t>
+  </si>
+  <si>
+    <t>lang⁵</t>
+  </si>
+  <si>
+    <t>ㄌㄤˊ</t>
+  </si>
+  <si>
+    <t>se³</t>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+  </si>
+  <si>
+    <t>zun¹</t>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+  </si>
+  <si>
+    <t>tio⁰</t>
+  </si>
+  <si>
+    <t>ㄉㄧㄜ˙</t>
+  </si>
+  <si>
+    <t>tiong¹</t>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˉ</t>
+  </si>
+  <si>
+    <t>ziok⁴</t>
+  </si>
+  <si>
+    <t>ㄐㄧㆦ</t>
+  </si>
+  <si>
+    <t>zo⁷</t>
+  </si>
+  <si>
+    <t>ㄗㄜ˫</t>
+  </si>
+  <si>
+    <t>li⁵</t>
+  </si>
+  <si>
+    <t>ㄌㄧˊ</t>
+  </si>
+  <si>
+    <t>ㄚˋ</t>
+  </si>
+  <si>
+    <t>ㄚ</t>
+  </si>
+  <si>
+    <t>ㄚˇ</t>
+  </si>
+  <si>
+    <t>ㄚ+</t>
+  </si>
+  <si>
+    <t>ㄚ_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄚ" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄚ' </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚㄏ</t>
+  </si>
+  <si>
+    <t>ㄚㄏˊ</t>
+  </si>
+  <si>
+    <t>《金剛般若波羅蜜經》
+善現啟請分第二
+時長老須菩提在大眾中，即從座起，偏袒右肩，右膝著地，合掌恭敬。而白佛言：「希有！世尊。如來善護念諸菩薩，善付囑諸菩薩。世尊！善男子、善女人，發阿耨多羅三藐三菩提心，云何應住？云何降伏其心？」佛言：「善哉！善哉！須菩提！如汝所說，如來善護念諸菩薩，善付囑諸菩薩。汝今諦聽，當為汝說。善男子、善女人，發阿耨多羅三藐三菩提心，應如是住，如是降伏其心。」「唯然！世尊！願樂欲聞。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善</t>
+  </si>
+  <si>
+    <t>現</t>
+  </si>
+  <si>
+    <t>啟</t>
+  </si>
+  <si>
+    <t>請</t>
+  </si>
+  <si>
+    <t>長</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>須</t>
+  </si>
+  <si>
+    <t>菩</t>
+  </si>
+  <si>
+    <t>提</t>
+  </si>
+  <si>
+    <t>即</t>
+  </si>
+  <si>
+    <t>從</t>
+  </si>
+  <si>
+    <t>起</t>
+  </si>
+  <si>
+    <t>偏</t>
+  </si>
+  <si>
+    <t>袒</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>肩</t>
+  </si>
+  <si>
+    <t>膝</t>
+  </si>
+  <si>
+    <t>地</t>
+  </si>
+  <si>
+    <t>合</t>
+  </si>
+  <si>
+    <t>掌</t>
+  </si>
+  <si>
+    <t>恭</t>
+  </si>
+  <si>
+    <t>敬</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>「</t>
+  </si>
+  <si>
+    <t>希</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>護</t>
+  </si>
+  <si>
+    <t>念</t>
+  </si>
+  <si>
+    <t>諸</t>
+  </si>
+  <si>
+    <t>薩</t>
+  </si>
+  <si>
+    <t>付</t>
+  </si>
+  <si>
+    <t>囑</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t>、</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>發</t>
+  </si>
+  <si>
+    <t>阿</t>
+  </si>
+  <si>
+    <t>耨</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>藐</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>應</t>
+  </si>
+  <si>
+    <t>住</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>降</t>
+  </si>
+  <si>
+    <t>伏</t>
+  </si>
+  <si>
+    <t>」</t>
+  </si>
+  <si>
+    <t>哉</t>
+  </si>
+  <si>
+    <t>汝</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>說</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t>諦</t>
+  </si>
+  <si>
+    <t>聽</t>
+  </si>
+  <si>
+    <t>當</t>
+  </si>
+  <si>
+    <t>為</t>
+  </si>
+  <si>
+    <t>唯</t>
+  </si>
+  <si>
+    <t>然</t>
+  </si>
+  <si>
+    <t>願</t>
+  </si>
+  <si>
+    <t>樂</t>
+  </si>
+  <si>
+    <t>欲</t>
+  </si>
+  <si>
+    <r>
+      <t>〔sian⁷〕
+【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>ㄒㄧㄢ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>˫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hian⁷〕
+【ㄏㄧㄢ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔khe²〕
+【ㄎㆤˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔cⁿia²〕
+【ㄑㄧㆩˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tng⁵〕
+【ㄉㆭˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lau⁷〕
+【ㄌㄠ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔su¹〕
+【ㄙㄨˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔phoo⁵〕
+【ㄆㆦˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔theh⁸〕
+【ㄊㆤㆷ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ziah⁴〕
+【ㄐㄧㄚㆷ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ziong⁵〕
+【ㄐㄧㆲˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔khi²〕
+【ㄎㄧˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔phian¹〕
+【ㄆㄧㄢˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔than²〕
+【ㄊㄢˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔iu⁷〕
+【ㄧㄨ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔king¹〕
+【ㄍㄧㄥˉ】</t>
+  </si>
+  <si>
+    <t>〔ciek⁴〕
+【ㄑㄧㆤ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hap⁸〕
+【ㄏㄚㆴ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ziong²〕
+【ㄐㄧㆲˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kiong¹〕
+【ㄍㄧㆲˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔king³〕
+【ㄍㄧㄥ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔peh⁸〕
+【ㄅㆤㆷ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔gian⁵〕
+【ㆣㄧㄢˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hi¹〕
+【ㄏㄧˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔u⁷〕
+【ㄨ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lai⁰〕
+【ㄌㄞ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sian⁷〕
+【ㄒㄧㄢ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hoo⁷〕
+【ㄏㆦ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔liam⁷〕
+【ㄌㄧㆰ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zu¹〕
+【ㄗㄨˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sat⁴〕
+【ㄙㄚㆵ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lam⁵〕
+【ㄌㆰˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zu²〕
+【ㄗㄨˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lu²〕
+【ㄌㄨˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔huat⁸〕
+【ㄏㄨㄚㆵ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔a¹〕
+【ㄚˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔loo⁷〕
+【ㄌㆦ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔to¹〕
+【ㄉㄜˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lo⁵〕
+【ㄌㄜˊ】</t>
+  </si>
+  <si>
+    <t>〔sⁿa¹〕
+【ㄙㆩˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔biau²〕
+【ㆠㄧㄠˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sim¹〕
+【ㄒㄧㆬˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔un⁵〕
+【ㄨㄣˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ho⁵〕
+【ㄏㄜˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ing¹〕
+【ㄧㄥˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zu⁷〕
+【ㄗㄨ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kang³〕
+【ㄍㄤ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hok⁸〕
+【ㄏㆦ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zai¹〕
+【ㄗㄞˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔li²〕
+【ㄌㄧˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔soo²〕
+【ㄙㆦˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔suat⁴〕
+【ㄙㄨㄚㆵ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kim¹〕
+【ㄍㄧㆬˉ】</t>
+  </si>
+  <si>
+    <t>〔te³〕
+【ㄉㆤ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔thⁿia¹〕
+【ㄊㄧㆩˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tong¹〕
+【ㄉㆲˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ui⁵〕
+【ㄨㄧˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lian⁵〕
+【ㄌㄧㄢˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔guan⁷〕
+【ㆣㄨㄢ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lok⁸〕
+【ㄌㆦ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔beh⁴〕
+【ㆠㆤㆷ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>〔kong¹〕
 【ㄍㆲˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔pⁿua¹〕
+【ㄅㄨㆩˉ】</t>
   </si>
   <si>
     <t>〔na²〕
 【ㄋㄚˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>〔pho¹〕
 【ㄆㄜˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔pⁿua¹〕
-【ㄅㄨㆩˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔lo⁵〕
-【ㄌㄜˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>〔bit⁸〕
 【ㆠㄧㆵ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔king¹〕
-【ㄍㄧㄥˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔huat⁴〕
-【ㄏㄨㄚㆵ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔hue⁷〕
-【ㄏㄨㆤ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔in¹〕
-【ㄧㄣˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔iu⁵〕
-【ㄧㄨˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔hun¹〕
-【ㄏㄨㄣˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔te⁷〕
-【ㄉㆤ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔zit⁸〕
-【ㄐㄧㆵ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ju⁵〕
-【ㆡㄨˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔si⁷〕
-【ㄒㄧ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔gua²〕
-【ㆣㄨㄚˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔bun⁵〕
-【ㆠㄨㄣˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔si⁵〕
-【ㄒㄧˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔put⁸〕
-【ㄅㄨㆵ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔zai⁷〕
-【ㄗㄞ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔sia³〕
-【ㄒㄧㄚ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ue⁷〕
-【ㄨㆤ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔kok⁴〕
-【ㄍㆦ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ki⁵〕
-【ㄍㄧˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ciu⁷〕
-【ㄑㄧㄨ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔kip⁴〕
-【ㄍㄧㆴ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔koo¹〕
-【ㄍㆦˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔tok⁸〕
-【ㄉㆦ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔hng⁵〕
-【ㄏㆭˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔u²〕
-【ㄨˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔tua⁷〕
-【ㄉㄨㄚ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔pi²〕
-【ㄅㄧˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔khu¹〕
-【ㄎㄨˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ziong³〕
-【ㄐㄧㆲ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔cing¹〕
-【ㄑㄧㄥˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ji⁷〕
-【ㆢㄧ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔pah⁴〕
-【ㄅㄚㆷ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔goo⁷〕
-【ㆣㆦ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔zap⁸〕
-【ㄗㄚㆴ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔lang⁵〕
-【ㄌㄤˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ku¹〕
-【ㄍㄨˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ni²〕
-【ㄋㄧˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔se³〕
-【ㄙㆤ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔zun¹〕
-【ㄗㄨㄣˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ziah⁸〕
-【ㄐㄧㄚㆷ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔tio⁰〕
-【ㄉㄧㄜ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔i¹〕
-【ㄧˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ci⁵〕
-【ㄑㄧˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔puah⁴〕
-【ㄅㄨㄚㆷ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔jip⁸〕
-【ㆢㄧㆴ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔sⁿia⁵〕
-【ㄒㄧㆩˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔khit⁴〕
-【ㄎㄧㆵ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔u⁵〕
-【ㄨˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔tiong¹〕
-【ㄉㄧㆲˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔cu³〕
-【ㄘㄨ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔i²〕
-【ㄧˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔huan⁵〕
-【ㄏㄨㄢˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔zi³〕
-【ㄐㄧ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔pun²〕
-【ㄅㄨㄣˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔cu²〕
-【ㄘㄨˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔png⁷〕
-【ㄅㆭ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔git⁴〕
-【ㆣㄧㆵ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔siu¹〕
-【ㄒㄧㄨˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔se²〕
-【ㄙㆤˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ziok⁴〕
-【ㄐㄧㆦ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔hu¹〕
-【ㄏㄨˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔zo⁷〕
-【ㄗㄜ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔li⁵〕
-【ㄌㄧˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ze⁷〕
-【ㄗㆤ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kim¹</t>
-  </si>
-  <si>
-    <t>ㄍㄧㆬˉ</t>
-  </si>
-  <si>
-    <t>kong¹</t>
-  </si>
-  <si>
-    <t>ㄍㆲˉ</t>
-  </si>
-  <si>
-    <t>pⁿua¹</t>
-  </si>
-  <si>
-    <t>ㄅㄨㆩˉ</t>
-  </si>
-  <si>
-    <t>na²</t>
-  </si>
-  <si>
-    <t>ㄋㄚˋ</t>
-  </si>
-  <si>
-    <t>pho¹</t>
-  </si>
-  <si>
-    <t>ㄆㄜˉ</t>
-  </si>
-  <si>
-    <t>lo⁵</t>
-  </si>
-  <si>
-    <t>ㄌㄜˊ</t>
-  </si>
-  <si>
-    <t>bit⁸</t>
-  </si>
-  <si>
-    <t>ㆠㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>king¹</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>huat⁴</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-  </si>
-  <si>
-    <t>hue⁷</t>
-  </si>
-  <si>
-    <t>ㄏㄨㆤ˫</t>
-  </si>
-  <si>
-    <t>in¹</t>
-  </si>
-  <si>
-    <t>ㄧㄣˉ</t>
-  </si>
-  <si>
-    <t>iu⁵</t>
-  </si>
-  <si>
-    <t>ㄧㄨˊ</t>
-  </si>
-  <si>
-    <t>hun¹</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>te⁷</t>
-  </si>
-  <si>
-    <t>ㄉㆤ˫</t>
-  </si>
-  <si>
-    <t>zit⁸</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>ju⁵</t>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-  </si>
-  <si>
-    <t>si⁷</t>
-  </si>
-  <si>
-    <t>ㄒㄧ˫</t>
-  </si>
-  <si>
-    <t>gua²</t>
-  </si>
-  <si>
-    <t>ㆣㄨㄚˋ</t>
-  </si>
-  <si>
-    <t>bun⁵</t>
-  </si>
-  <si>
-    <t>ㆠㄨㄣˊ</t>
-  </si>
-  <si>
-    <t>si⁵</t>
-  </si>
-  <si>
-    <t>ㄒㄧˊ</t>
-  </si>
-  <si>
-    <t>put⁸</t>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
-  </si>
-  <si>
-    <t>zai⁷</t>
-  </si>
-  <si>
-    <t>ㄗㄞ˫</t>
-  </si>
-  <si>
-    <t>sia³</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄚ˪</t>
-  </si>
-  <si>
-    <t>ue⁷</t>
-  </si>
-  <si>
-    <t>ㄨㆤ˫</t>
-  </si>
-  <si>
-    <t>kok⁴</t>
-  </si>
-  <si>
-    <t>ㄍㆦ</t>
-  </si>
-  <si>
-    <t>ki⁵</t>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-  </si>
-  <si>
-    <t>ciu⁷</t>
-  </si>
-  <si>
-    <t>ㄑㄧㄨ˫</t>
-  </si>
-  <si>
-    <t>kip⁴</t>
-  </si>
-  <si>
-    <t>ㄍㄧㆴ</t>
-  </si>
-  <si>
-    <t>koo¹</t>
-  </si>
-  <si>
-    <t>ㄍㆦˉ</t>
-  </si>
-  <si>
-    <t>tok⁸</t>
-  </si>
-  <si>
-    <t>ㄉㆦ˙</t>
-  </si>
-  <si>
-    <t>hng⁵</t>
-  </si>
-  <si>
-    <t>ㄏㆭˊ</t>
-  </si>
-  <si>
-    <t>u²</t>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-  </si>
-  <si>
-    <t>tua⁷</t>
-  </si>
-  <si>
-    <t>ㄉㄨㄚ˫</t>
-  </si>
-  <si>
-    <t>pi²</t>
-  </si>
-  <si>
-    <t>ㄅㄧˋ</t>
-  </si>
-  <si>
-    <t>khu¹</t>
-  </si>
-  <si>
-    <t>ㄎㄨˉ</t>
-  </si>
-  <si>
-    <t>ziong³</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆲ˪</t>
-  </si>
-  <si>
-    <t>cing¹</t>
-  </si>
-  <si>
-    <t>ㄑㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>ji⁷</t>
-  </si>
-  <si>
-    <t>ㆢㄧ˫</t>
-  </si>
-  <si>
-    <t>pah⁴</t>
-  </si>
-  <si>
-    <t>ㄅㄚㆷ</t>
-  </si>
-  <si>
-    <t>goo⁷</t>
-  </si>
-  <si>
-    <t>ㆣㆦ˫</t>
-  </si>
-  <si>
-    <t>zap⁸</t>
-  </si>
-  <si>
-    <t>ㄗㄚㆴ˙</t>
-  </si>
-  <si>
-    <t>lang⁵</t>
-  </si>
-  <si>
-    <t>ㄌㄤˊ</t>
-  </si>
-  <si>
-    <t>ku¹</t>
-  </si>
-  <si>
-    <t>ㄍㄨˉ</t>
-  </si>
-  <si>
-    <t>ni²</t>
-  </si>
-  <si>
-    <t>ㄋㄧˋ</t>
-  </si>
-  <si>
-    <t>se³</t>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-  </si>
-  <si>
-    <t>zun¹</t>
-  </si>
-  <si>
-    <t>ㄗㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>ziah⁸</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄚㆷ˙</t>
-  </si>
-  <si>
-    <t>tio⁰</t>
-  </si>
-  <si>
-    <t>ㄉㄧㄜ˙</t>
-  </si>
-  <si>
-    <t>i¹</t>
-  </si>
-  <si>
-    <t>ㄧˉ</t>
-  </si>
-  <si>
-    <t>ci⁵</t>
-  </si>
-  <si>
-    <t>ㄑㄧˊ</t>
-  </si>
-  <si>
-    <t>puah⁴</t>
-  </si>
-  <si>
-    <t>ㄅㄨㄚㆷ</t>
-  </si>
-  <si>
-    <t>jip⁸</t>
-  </si>
-  <si>
-    <t>ㆢㄧㆴ˙</t>
-  </si>
-  <si>
-    <t>sⁿia⁵</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆩˊ</t>
-  </si>
-  <si>
-    <t>khit⁴</t>
-  </si>
-  <si>
-    <t>ㄎㄧㆵ</t>
-  </si>
-  <si>
-    <t>u⁵</t>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-  </si>
-  <si>
-    <t>tiong¹</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆲˉ</t>
-  </si>
-  <si>
-    <t>cu³</t>
-  </si>
-  <si>
-    <t>ㄘㄨ˪</t>
-  </si>
-  <si>
-    <t>i²</t>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-  </si>
-  <si>
-    <t>huan⁵</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄢˊ</t>
-  </si>
-  <si>
-    <t>zi³</t>
-  </si>
-  <si>
-    <t>ㄐㄧ˪</t>
-  </si>
-  <si>
-    <t>pun²</t>
-  </si>
-  <si>
-    <t>ㄅㄨㄣˋ</t>
-  </si>
-  <si>
-    <t>cu²</t>
-  </si>
-  <si>
-    <t>ㄘㄨˋ</t>
-  </si>
-  <si>
-    <t>png⁷</t>
-  </si>
-  <si>
-    <t>ㄅㆭ˫</t>
-  </si>
-  <si>
-    <t>git⁴</t>
-  </si>
-  <si>
-    <t>ㆣㄧㆵ</t>
-  </si>
-  <si>
-    <t>siu¹</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄨˉ</t>
-  </si>
-  <si>
-    <t>se²</t>
-  </si>
-  <si>
-    <t>ㄙㆤˋ</t>
-  </si>
-  <si>
-    <t>ziok⁴</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆦ</t>
-  </si>
-  <si>
-    <t>hu¹</t>
-  </si>
-  <si>
-    <t>ㄏㄨˉ</t>
-  </si>
-  <si>
-    <t>zo⁷</t>
-  </si>
-  <si>
-    <t>ㄗㄜ˫</t>
-  </si>
-  <si>
-    <t>li⁵</t>
-  </si>
-  <si>
-    <t>ㄌㄧˊ</t>
-  </si>
-  <si>
-    <t>ze⁷</t>
-  </si>
-  <si>
-    <t>ㄗㆤ˫</t>
-  </si>
-  <si>
-    <t>ㄚˋ</t>
-  </si>
-  <si>
-    <t>ㄚ</t>
-  </si>
-  <si>
-    <t>ㄚˇ</t>
-  </si>
-  <si>
-    <t>ㄚ+</t>
-  </si>
-  <si>
-    <t>ㄚ_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ㄚ" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ㄚ' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄚㄏ</t>
-  </si>
-  <si>
-    <t>ㄚㄏˊ</t>
+  </si>
+  <si>
+    <t>sian⁷</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄢ˫</t>
+  </si>
+  <si>
+    <t>hian⁷</t>
+  </si>
+  <si>
+    <t>ㄏㄧㄢ˫</t>
+  </si>
+  <si>
+    <t>khe²</t>
+  </si>
+  <si>
+    <t>ㄎㆤˋ</t>
+  </si>
+  <si>
+    <t>cⁿia²</t>
+  </si>
+  <si>
+    <t>ㄑㄧㆩˋ</t>
+  </si>
+  <si>
+    <t>tng⁵</t>
+  </si>
+  <si>
+    <t>ㄉㆭˊ</t>
+  </si>
+  <si>
+    <t>lau⁷</t>
+  </si>
+  <si>
+    <t>ㄌㄠ˫</t>
+  </si>
+  <si>
+    <t>su¹</t>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+  </si>
+  <si>
+    <t>phoo⁵</t>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+  </si>
+  <si>
+    <t>theh⁸</t>
+  </si>
+  <si>
+    <t>ㄊㆤㆷ˙</t>
+  </si>
+  <si>
+    <t>ziah⁴</t>
+  </si>
+  <si>
+    <t>ㄐㄧㄚㆷ</t>
+  </si>
+  <si>
+    <t>ziong⁵</t>
+  </si>
+  <si>
+    <t>ㄐㄧㆲˊ</t>
+  </si>
+  <si>
+    <t>khi²</t>
+  </si>
+  <si>
+    <t>ㄎㄧˋ</t>
+  </si>
+  <si>
+    <t>phian¹</t>
+  </si>
+  <si>
+    <t>ㄆㄧㄢˉ</t>
+  </si>
+  <si>
+    <t>than²</t>
+  </si>
+  <si>
+    <t>ㄊㄢˋ</t>
+  </si>
+  <si>
+    <t>iu⁷</t>
+  </si>
+  <si>
+    <t>ㄧㄨ˫</t>
+  </si>
+  <si>
+    <t>ciek⁴</t>
+  </si>
+  <si>
+    <t>ㄑㄧㆤ</t>
+  </si>
+  <si>
+    <t>hap⁸</t>
+  </si>
+  <si>
+    <t>ㄏㄚㆴ˙</t>
+  </si>
+  <si>
+    <t>ziong²</t>
+  </si>
+  <si>
+    <t>ㄐㄧㆲˋ</t>
+  </si>
+  <si>
+    <t>kiong¹</t>
+  </si>
+  <si>
+    <t>ㄍㄧㆲˉ</t>
+  </si>
+  <si>
+    <t>king³</t>
+  </si>
+  <si>
+    <t>ㄍㄧㄥ˪</t>
+  </si>
+  <si>
+    <t>peh⁸</t>
+  </si>
+  <si>
+    <t>ㄅㆤㆷ˙</t>
+  </si>
+  <si>
+    <t>gian⁵</t>
+  </si>
+  <si>
+    <t>ㆣㄧㄢˊ</t>
+  </si>
+  <si>
+    <t>hi¹</t>
+  </si>
+  <si>
+    <t>ㄏㄧˉ</t>
+  </si>
+  <si>
+    <t>u⁷</t>
+  </si>
+  <si>
+    <t>ㄨ˫</t>
+  </si>
+  <si>
+    <t>lai⁰</t>
+  </si>
+  <si>
+    <t>ㄌㄞ˙</t>
+  </si>
+  <si>
+    <t>hoo⁷</t>
+  </si>
+  <si>
+    <t>ㄏㆦ˫</t>
+  </si>
+  <si>
+    <t>liam⁷</t>
+  </si>
+  <si>
+    <t>ㄌㄧㆰ˫</t>
+  </si>
+  <si>
+    <t>zu¹</t>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+  </si>
+  <si>
+    <t>sat⁴</t>
+  </si>
+  <si>
+    <t>ㄙㄚㆵ</t>
+  </si>
+  <si>
+    <t>lam⁵</t>
+  </si>
+  <si>
+    <t>ㄌㆰˊ</t>
+  </si>
+  <si>
+    <t>zu²</t>
+  </si>
+  <si>
+    <t>ㄗㄨˋ</t>
+  </si>
+  <si>
+    <t>lu²</t>
+  </si>
+  <si>
+    <t>ㄌㄨˋ</t>
+  </si>
+  <si>
+    <t>huat⁸</t>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ˙</t>
+  </si>
+  <si>
+    <t>a¹</t>
+  </si>
+  <si>
+    <t>ㄚˉ</t>
+  </si>
+  <si>
+    <t>loo⁷</t>
+  </si>
+  <si>
+    <t>ㄌㆦ˫</t>
+  </si>
+  <si>
+    <t>to¹</t>
+  </si>
+  <si>
+    <t>ㄉㄜˉ</t>
+  </si>
+  <si>
+    <t>sⁿa¹</t>
+  </si>
+  <si>
+    <t>ㄙㆩˉ</t>
+  </si>
+  <si>
+    <t>biau²</t>
+  </si>
+  <si>
+    <t>ㆠㄧㄠˋ</t>
+  </si>
+  <si>
+    <t>sim¹</t>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˉ</t>
+  </si>
+  <si>
+    <t>un⁵</t>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+  </si>
+  <si>
+    <t>ho⁵</t>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+  </si>
+  <si>
+    <t>ing¹</t>
+  </si>
+  <si>
+    <t>ㄧㄥˉ</t>
+  </si>
+  <si>
+    <t>zu⁷</t>
+  </si>
+  <si>
+    <t>ㄗㄨ˫</t>
+  </si>
+  <si>
+    <t>kang³</t>
+  </si>
+  <si>
+    <t>ㄍㄤ˪</t>
+  </si>
+  <si>
+    <t>hok⁸</t>
+  </si>
+  <si>
+    <t>ㄏㆦ˙</t>
+  </si>
+  <si>
+    <t>zai¹</t>
+  </si>
+  <si>
+    <t>ㄗㄞˉ</t>
+  </si>
+  <si>
+    <t>li²</t>
+  </si>
+  <si>
+    <t>ㄌㄧˋ</t>
+  </si>
+  <si>
+    <t>soo²</t>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+  </si>
+  <si>
+    <t>suat⁴</t>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+  </si>
+  <si>
+    <t>te³</t>
+  </si>
+  <si>
+    <t>ㄉㆤ˪</t>
+  </si>
+  <si>
+    <t>thⁿia¹</t>
+  </si>
+  <si>
+    <t>ㄊㄧㆩˉ</t>
+  </si>
+  <si>
+    <t>tong¹</t>
+  </si>
+  <si>
+    <t>ㄉㆲˉ</t>
+  </si>
+  <si>
+    <t>ui⁵</t>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+  </si>
+  <si>
+    <t>lian⁵</t>
+  </si>
+  <si>
+    <t>ㄌㄧㄢˊ</t>
+  </si>
+  <si>
+    <t>guan⁷</t>
+  </si>
+  <si>
+    <t>ㆣㄨㄢ˫</t>
+  </si>
+  <si>
+    <t>lok⁸</t>
+  </si>
+  <si>
+    <t>ㄌㆦ˙</t>
+  </si>
+  <si>
+    <t>beh⁴</t>
+  </si>
+  <si>
+    <t>ㆠㆤㆷ</t>
+  </si>
+  <si>
+    <t>《金剛般若波羅蜜經》善現啟請分第二</t>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="76">
+  <fonts count="78">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2527,11 +2793,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Sitka Text Semibold"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Iansui 094"/>
       <family val="3"/>
@@ -2679,6 +2940,26 @@
       <name val="LXGW WenKai"/>
       <family val="1"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2872,22 +3153,19 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3025,32 +3303,23 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
@@ -3064,16 +3333,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3091,69 +3360,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3162,7 +3431,7 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3171,32 +3440,44 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3208,17 +3489,18 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3227,7 +3509,79 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4047,63 +4401,63 @@
   <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="66" customWidth="1"/>
-    <col min="2" max="2" width="21.19921875" style="66" customWidth="1"/>
-    <col min="3" max="3" width="93.796875" style="66" customWidth="1"/>
-    <col min="4" max="16384" width="12" style="66"/>
+    <col min="1" max="1" width="3.69921875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="93.796875" style="62" customWidth="1"/>
+    <col min="4" max="16384" width="12" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="61" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="62" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="62" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>175</v>
+      <c r="C4" s="63" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="77" t="s">
-        <v>176</v>
+      <c r="C5" s="73" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="104" t="b">
-        <v>1</v>
+      <c r="C7" s="100" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4122,10 +4476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
-  <dimension ref="A2:V58"/>
+  <dimension ref="A2:V62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -4137,1856 +4491,2761 @@
     <col min="19" max="19" width="3.69921875" style="1" customWidth="1"/>
     <col min="20" max="20" width="2.796875" customWidth="1"/>
     <col min="21" max="21" width="6.19921875" customWidth="1"/>
-    <col min="22" max="22" width="71.69921875" style="75" customWidth="1"/>
+    <col min="22" max="22" width="71.69921875" style="71" customWidth="1"/>
     <col min="23" max="23" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" s="63" customFormat="1" ht="36" customHeight="1">
-      <c r="D2" s="64" cm="1">
+    <row r="2" spans="2:22" s="59" customFormat="1" ht="36" customHeight="1">
+      <c r="D2" s="60" cm="1">
         <f t="array" ref="D2">COLUMN() - COLUMN($C:$C)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="64" cm="1">
+      <c r="E2" s="60" cm="1">
         <f t="array" ref="E2">COLUMN() - COLUMN($C:$C)</f>
         <v>2</v>
       </c>
-      <c r="F2" s="64" cm="1">
+      <c r="F2" s="60" cm="1">
         <f t="array" ref="F2">COLUMN() - COLUMN($C:$C)</f>
         <v>3</v>
       </c>
-      <c r="G2" s="64" cm="1">
+      <c r="G2" s="60" cm="1">
         <f t="array" ref="G2">COLUMN() - COLUMN($C:$C)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="64" cm="1">
+      <c r="H2" s="60" cm="1">
         <f t="array" ref="H2">COLUMN() - COLUMN($C:$C)</f>
         <v>5</v>
       </c>
-      <c r="I2" s="64" cm="1">
+      <c r="I2" s="60" cm="1">
         <f t="array" ref="I2">COLUMN() - COLUMN($C:$C)</f>
         <v>6</v>
       </c>
-      <c r="J2" s="64" cm="1">
+      <c r="J2" s="60" cm="1">
         <f t="array" ref="J2">COLUMN() - COLUMN($C:$C)</f>
         <v>7</v>
       </c>
-      <c r="K2" s="64" cm="1">
+      <c r="K2" s="60" cm="1">
         <f t="array" ref="K2">COLUMN() - COLUMN($C:$C)</f>
         <v>8</v>
       </c>
-      <c r="L2" s="64" cm="1">
+      <c r="L2" s="60" cm="1">
         <f t="array" ref="L2">COLUMN() - COLUMN($C:$C)</f>
         <v>9</v>
       </c>
-      <c r="M2" s="64" cm="1">
+      <c r="M2" s="60" cm="1">
         <f t="array" ref="M2">COLUMN() - COLUMN($C:$C)</f>
         <v>10</v>
       </c>
-      <c r="N2" s="64" cm="1">
+      <c r="N2" s="60" cm="1">
         <f t="array" ref="N2">COLUMN() - COLUMN($C:$C)</f>
         <v>11</v>
       </c>
-      <c r="O2" s="64" cm="1">
+      <c r="O2" s="60" cm="1">
         <f t="array" ref="O2">COLUMN() - COLUMN($C:$C)</f>
         <v>12</v>
       </c>
-      <c r="P2" s="64" cm="1">
+      <c r="P2" s="60" cm="1">
         <f t="array" ref="P2">COLUMN() - COLUMN($C:$C)</f>
         <v>13</v>
       </c>
-      <c r="Q2" s="64" cm="1">
+      <c r="Q2" s="60" cm="1">
         <f t="array" ref="Q2">COLUMN() - COLUMN($C:$C)</f>
         <v>14</v>
       </c>
-      <c r="R2" s="64" cm="1">
+      <c r="R2" s="60" cm="1">
         <f t="array" ref="R2">COLUMN() - COLUMN($C:$C)</f>
         <v>15</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="V2" s="74">
+      <c r="S2" s="60"/>
+      <c r="V2" s="70">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="H3" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="I3" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="J3" s="85" t="s">
-        <v>253</v>
-      </c>
-      <c r="K3" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="L3" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="78"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>420</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>421</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>422</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>397</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>374</v>
+      </c>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="74"/>
       <c r="V3" s="105" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B4" s="65"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="98" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="53"/>
+      <c r="V4" s="106"/>
+    </row>
+    <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B5" s="66">
+        <v>1</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="75" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B4" s="69"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" s="102" t="s">
-        <v>321</v>
-      </c>
-      <c r="G4" s="102" t="s">
-        <v>323</v>
-      </c>
-      <c r="H4" s="102" t="s">
-        <v>325</v>
-      </c>
-      <c r="I4" s="102" t="s">
-        <v>327</v>
-      </c>
-      <c r="J4" s="102" t="s">
-        <v>329</v>
-      </c>
-      <c r="K4" s="102" t="s">
-        <v>331</v>
-      </c>
-      <c r="L4" s="102" t="s">
-        <v>333</v>
-      </c>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="56"/>
-      <c r="V4" s="106"/>
-    </row>
-    <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B5" s="70">
-        <v>1</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="79" t="s">
+      <c r="H5" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="K5" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="L5" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="K5" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="L5" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="M5" s="79" t="s">
+      <c r="M5" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="57"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="54"/>
       <c r="V5" s="106"/>
     </row>
-    <row r="6" spans="2:22" s="51" customFormat="1" ht="36" customHeight="1">
-      <c r="B6" s="71"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103" t="s">
-        <v>320</v>
-      </c>
-      <c r="F6" s="103" t="s">
-        <v>322</v>
-      </c>
-      <c r="G6" s="103" t="s">
-        <v>324</v>
-      </c>
-      <c r="H6" s="103" t="s">
-        <v>326</v>
-      </c>
-      <c r="I6" s="103" t="s">
-        <v>328</v>
-      </c>
-      <c r="J6" s="103" t="s">
-        <v>330</v>
-      </c>
-      <c r="K6" s="103" t="s">
-        <v>332</v>
-      </c>
-      <c r="L6" s="103" t="s">
-        <v>334</v>
-      </c>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="58"/>
+    <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
+      <c r="B6" s="67"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="99" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="99" t="s">
+        <v>237</v>
+      </c>
+      <c r="L6" s="99" t="s">
+        <v>239</v>
+      </c>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="55"/>
       <c r="V6" s="106"/>
     </row>
-    <row r="7" spans="2:22" s="50" customFormat="1" ht="60" customHeight="1">
-      <c r="B7" s="68"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="87" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" s="87" t="s">
-        <v>258</v>
-      </c>
-      <c r="G7" s="87" t="s">
-        <v>259</v>
-      </c>
-      <c r="H7" s="87" t="s">
-        <v>260</v>
-      </c>
-      <c r="I7" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="J7" s="87" t="s">
+    <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
+      <c r="B7" s="64"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="83" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>362</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="57"/>
+      <c r="V7" s="106"/>
+    </row>
+    <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B8" s="65"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" s="98" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" s="98" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="J8" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="61"/>
-      <c r="V7" s="106"/>
-    </row>
-    <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B8" s="69"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="102" t="s">
-        <v>335</v>
-      </c>
-      <c r="E8" s="102" t="s">
-        <v>337</v>
-      </c>
-      <c r="F8" s="102" t="s">
-        <v>339</v>
-      </c>
-      <c r="G8" s="102" t="s">
-        <v>341</v>
-      </c>
-      <c r="H8" s="102" t="s">
-        <v>343</v>
-      </c>
-      <c r="I8" s="102" t="s">
-        <v>345</v>
-      </c>
-      <c r="J8" s="102" t="s">
-        <v>347</v>
-      </c>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="56"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="53"/>
       <c r="V8" s="106"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B9" s="70">
+      <c r="B9" s="66">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="J9" s="79" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="78"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="74"/>
       <c r="V9" s="106"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B10" s="71"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="103" t="s">
-        <v>336</v>
-      </c>
-      <c r="E10" s="103" t="s">
-        <v>338</v>
-      </c>
-      <c r="F10" s="103" t="s">
-        <v>340</v>
-      </c>
-      <c r="G10" s="103" t="s">
-        <v>342</v>
-      </c>
-      <c r="H10" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="I10" s="103" t="s">
-        <v>346</v>
-      </c>
-      <c r="J10" s="103" t="s">
-        <v>348</v>
-      </c>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="62"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>428</v>
+      </c>
+      <c r="F10" s="99" t="s">
+        <v>430</v>
+      </c>
+      <c r="G10" s="99" t="s">
+        <v>432</v>
+      </c>
+      <c r="H10" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="I10" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="58"/>
       <c r="V10" s="106"/>
     </row>
-    <row r="11" spans="2:22" s="92" customFormat="1" ht="60" customHeight="1">
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>264</v>
-      </c>
-      <c r="F11" s="87" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="J11" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87" t="s">
-        <v>268</v>
-      </c>
-      <c r="M11" s="87" t="s">
-        <v>269</v>
-      </c>
-      <c r="N11" s="91" t="s">
-        <v>270</v>
-      </c>
-      <c r="O11" s="91" t="s">
-        <v>271</v>
-      </c>
-      <c r="P11" s="91" t="s">
+    <row r="11" spans="2:22" s="88" customFormat="1" ht="60" customHeight="1">
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>363</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="H11" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="I11" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="J11" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="L11" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="M11" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87" t="s">
+        <v>368</v>
+      </c>
+      <c r="P11" s="87" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q11" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="R11" s="87" t="s">
+        <v>370</v>
+      </c>
+      <c r="S11" s="57"/>
+      <c r="V11" s="106"/>
+    </row>
+    <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B12" s="65"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>433</v>
+      </c>
+      <c r="F12" s="98" t="s">
+        <v>435</v>
+      </c>
+      <c r="G12" s="98" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" s="98" t="s">
+        <v>439</v>
+      </c>
+      <c r="I12" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="J12" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="K12" s="98" t="s">
+        <v>258</v>
+      </c>
+      <c r="L12" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="M12" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="Q11" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="R11" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="S11" s="61"/>
-      <c r="V11" s="106"/>
-    </row>
-    <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B12" s="69"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="102" t="s">
-        <v>349</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" s="102" t="s">
-        <v>353</v>
-      </c>
-      <c r="G12" s="102" t="s">
-        <v>355</v>
-      </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102" t="s">
-        <v>347</v>
-      </c>
-      <c r="J12" s="102" t="s">
-        <v>357</v>
-      </c>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102" t="s">
-        <v>359</v>
-      </c>
-      <c r="M12" s="102" t="s">
-        <v>361</v>
-      </c>
-      <c r="N12" s="102" t="s">
-        <v>363</v>
-      </c>
-      <c r="O12" s="102" t="s">
-        <v>365</v>
-      </c>
-      <c r="P12" s="102" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q12" s="102" t="s">
-        <v>369</v>
-      </c>
-      <c r="R12" s="102" t="s">
-        <v>371</v>
-      </c>
-      <c r="S12" s="56"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98" t="s">
+        <v>443</v>
+      </c>
+      <c r="P12" s="98" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q12" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="R12" s="98" t="s">
+        <v>447</v>
+      </c>
+      <c r="S12" s="53"/>
       <c r="V12" s="106"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B13" s="70">
+      <c r="B13" s="66">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="I13" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="J13" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="K13" s="79" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="J13" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="M13" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="N13" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="79" t="s">
-        <v>198</v>
-      </c>
-      <c r="M13" s="79" t="s">
+      <c r="O13" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="P13" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q13" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="N13" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="O13" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="P13" s="79" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q13" s="79" t="s">
+      <c r="R13" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="S13" s="54"/>
+      <c r="V13" s="107"/>
+    </row>
+    <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B14" s="67"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="99" t="s">
+        <v>434</v>
+      </c>
+      <c r="F14" s="99" t="s">
+        <v>436</v>
+      </c>
+      <c r="G14" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="H14" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="I14" s="99" t="s">
+        <v>442</v>
+      </c>
+      <c r="J14" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="K14" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="L14" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="M14" s="99" t="s">
+        <v>273</v>
+      </c>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99" t="s">
+        <v>444</v>
+      </c>
+      <c r="P14" s="99" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q14" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="R14" s="99" t="s">
+        <v>448</v>
+      </c>
+      <c r="S14" s="58"/>
+      <c r="V14" s="71"/>
+    </row>
+    <row r="15" spans="2:22" s="91" customFormat="1" ht="60" customHeight="1">
+      <c r="B15" s="79"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83" t="s">
+        <v>371</v>
+      </c>
+      <c r="F15" s="83" t="s">
+        <v>372</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>373</v>
+      </c>
+      <c r="H15" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="R13" s="79" t="s">
-        <v>204</v>
-      </c>
-      <c r="S13" s="57"/>
-      <c r="V13" s="107"/>
-    </row>
-    <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B14" s="71"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="103" t="s">
-        <v>350</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>352</v>
-      </c>
-      <c r="F14" s="103" t="s">
-        <v>354</v>
-      </c>
-      <c r="G14" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103" t="s">
-        <v>348</v>
-      </c>
-      <c r="J14" s="103" t="s">
-        <v>358</v>
-      </c>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103" t="s">
-        <v>360</v>
-      </c>
-      <c r="M14" s="103" t="s">
-        <v>362</v>
-      </c>
-      <c r="N14" s="103" t="s">
-        <v>364</v>
-      </c>
-      <c r="O14" s="103" t="s">
-        <v>366</v>
-      </c>
-      <c r="P14" s="103" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q14" s="103" t="s">
-        <v>370</v>
-      </c>
-      <c r="R14" s="103" t="s">
-        <v>372</v>
-      </c>
-      <c r="S14" s="62"/>
-      <c r="V14" s="75"/>
-    </row>
-    <row r="15" spans="2:22" s="95" customFormat="1" ht="60" customHeight="1">
-      <c r="B15" s="83"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="87" t="s">
-        <v>275</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>276</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>277</v>
-      </c>
-      <c r="G15" s="87" t="s">
-        <v>278</v>
-      </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87" t="s">
-        <v>279</v>
-      </c>
-      <c r="J15" s="87" t="s">
-        <v>280</v>
-      </c>
-      <c r="K15" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="L15" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="M15" s="87" t="s">
-        <v>283</v>
-      </c>
-      <c r="N15" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="O15" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="P15" s="87" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q15" s="87" t="s">
-        <v>287</v>
-      </c>
-      <c r="R15" s="87" t="s">
-        <v>288</v>
-      </c>
-      <c r="S15" s="94"/>
-      <c r="V15" s="96"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83" t="s">
+        <v>373</v>
+      </c>
+      <c r="K15" s="83" t="s">
+        <v>375</v>
+      </c>
+      <c r="L15" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="M15" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="P15" s="83" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q15" s="83" t="s">
+        <v>378</v>
+      </c>
+      <c r="R15" s="83" t="s">
+        <v>379</v>
+      </c>
+      <c r="S15" s="90"/>
+      <c r="V15" s="92"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B16" s="69"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="102" t="s">
-        <v>373</v>
-      </c>
-      <c r="E16" s="102" t="s">
-        <v>375</v>
-      </c>
-      <c r="F16" s="102" t="s">
-        <v>377</v>
-      </c>
-      <c r="G16" s="102" t="s">
-        <v>379</v>
-      </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102" t="s">
-        <v>381</v>
-      </c>
-      <c r="J16" s="102" t="s">
-        <v>383</v>
-      </c>
-      <c r="K16" s="102" t="s">
-        <v>385</v>
-      </c>
-      <c r="L16" s="102" t="s">
-        <v>387</v>
-      </c>
-      <c r="M16" s="102" t="s">
-        <v>389</v>
-      </c>
-      <c r="N16" s="102" t="s">
-        <v>391</v>
-      </c>
-      <c r="O16" s="102" t="s">
-        <v>393</v>
-      </c>
-      <c r="P16" s="102" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q16" s="102" t="s">
-        <v>397</v>
-      </c>
-      <c r="R16" s="102" t="s">
-        <v>399</v>
-      </c>
-      <c r="S16" s="56"/>
-      <c r="V16" s="75"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98" t="s">
+        <v>449</v>
+      </c>
+      <c r="F16" s="98" t="s">
+        <v>451</v>
+      </c>
+      <c r="G16" s="98" t="s">
+        <v>453</v>
+      </c>
+      <c r="H16" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98" t="s">
+        <v>453</v>
+      </c>
+      <c r="K16" s="98" t="s">
+        <v>455</v>
+      </c>
+      <c r="L16" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="M16" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98" t="s">
+        <v>457</v>
+      </c>
+      <c r="P16" s="98" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q16" s="98" t="s">
+        <v>461</v>
+      </c>
+      <c r="R16" s="98" t="s">
+        <v>463</v>
+      </c>
+      <c r="S16" s="53"/>
+      <c r="V16" s="71"/>
     </row>
     <row r="17" spans="1:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B17" s="70">
+      <c r="B17" s="66">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="E17" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="79" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="I17" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="K17" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="L17" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="M17" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="N17" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="P17" s="75" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q17" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="R17" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="S17" s="54"/>
+      <c r="V17" s="71"/>
+    </row>
+    <row r="18" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B18" s="67"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99" t="s">
+        <v>450</v>
+      </c>
+      <c r="F18" s="99" t="s">
+        <v>452</v>
+      </c>
+      <c r="G18" s="99" t="s">
+        <v>454</v>
+      </c>
+      <c r="H18" s="99" t="s">
+        <v>239</v>
+      </c>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99" t="s">
+        <v>454</v>
+      </c>
+      <c r="K18" s="99" t="s">
+        <v>456</v>
+      </c>
+      <c r="L18" s="99" t="s">
+        <v>271</v>
+      </c>
+      <c r="M18" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99" t="s">
+        <v>458</v>
+      </c>
+      <c r="P18" s="99" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q18" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="R18" s="99" t="s">
+        <v>464</v>
+      </c>
+      <c r="S18" s="58"/>
+      <c r="V18" s="71"/>
+    </row>
+    <row r="19" spans="1:22" s="49" customFormat="1" ht="60" customHeight="1">
+      <c r="B19" s="64"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="83" t="s">
+        <v>380</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="H19" s="83" t="s">
+        <v>381</v>
+      </c>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="L19" s="83" t="s">
+        <v>383</v>
+      </c>
+      <c r="M19" s="83"/>
+      <c r="N19" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="O19" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="G17" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="I17" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="J17" s="79" t="s">
-        <v>209</v>
-      </c>
-      <c r="K17" s="79" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="M17" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="N17" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="O17" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="P17" s="79" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="R17" s="79" t="s">
-        <v>217</v>
-      </c>
-      <c r="S17" s="57"/>
-      <c r="V17" s="75"/>
-    </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B18" s="71"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="103" t="s">
-        <v>374</v>
-      </c>
-      <c r="E18" s="103" t="s">
-        <v>376</v>
-      </c>
-      <c r="F18" s="103" t="s">
-        <v>378</v>
-      </c>
-      <c r="G18" s="103" t="s">
-        <v>380</v>
-      </c>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103" t="s">
-        <v>382</v>
-      </c>
-      <c r="J18" s="103" t="s">
+      <c r="R19" s="84" t="s">
         <v>384</v>
       </c>
-      <c r="K18" s="103" t="s">
-        <v>386</v>
-      </c>
-      <c r="L18" s="103" t="s">
-        <v>388</v>
-      </c>
-      <c r="M18" s="103" t="s">
-        <v>390</v>
-      </c>
-      <c r="N18" s="103" t="s">
-        <v>392</v>
-      </c>
-      <c r="O18" s="103" t="s">
-        <v>394</v>
-      </c>
-      <c r="P18" s="103" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q18" s="103" t="s">
-        <v>398</v>
-      </c>
-      <c r="R18" s="103" t="s">
-        <v>400</v>
-      </c>
-      <c r="S18" s="62"/>
-      <c r="V18" s="75"/>
-    </row>
-    <row r="19" spans="1:22" s="50" customFormat="1" ht="60" customHeight="1">
-      <c r="B19" s="68"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="87" t="s">
-        <v>289</v>
-      </c>
-      <c r="E19" s="87" t="s">
-        <v>290</v>
-      </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87" t="s">
-        <v>291</v>
-      </c>
-      <c r="H19" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="K19" s="87" t="s">
-        <v>293</v>
-      </c>
-      <c r="L19" s="87" t="s">
-        <v>294</v>
-      </c>
-      <c r="M19" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="N19" s="81"/>
-      <c r="O19" s="88" t="s">
-        <v>295</v>
-      </c>
-      <c r="P19" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q19" s="88" t="s">
-        <v>297</v>
-      </c>
-      <c r="R19" s="88" t="s">
-        <v>298</v>
-      </c>
-      <c r="S19" s="61"/>
-      <c r="V19" s="76"/>
+      <c r="S19" s="57"/>
+      <c r="V19" s="72"/>
     </row>
     <row r="20" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B20" s="69"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="102" t="s">
-        <v>401</v>
-      </c>
-      <c r="E20" s="102" t="s">
-        <v>403</v>
-      </c>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102" t="s">
-        <v>405</v>
-      </c>
-      <c r="H20" s="102" t="s">
-        <v>357</v>
-      </c>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102" t="s">
-        <v>407</v>
-      </c>
-      <c r="K20" s="102" t="s">
-        <v>409</v>
-      </c>
-      <c r="L20" s="102" t="s">
-        <v>411</v>
-      </c>
-      <c r="M20" s="102" t="s">
-        <v>357</v>
-      </c>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102" t="s">
-        <v>413</v>
-      </c>
-      <c r="P20" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q20" s="102" t="s">
-        <v>417</v>
-      </c>
-      <c r="R20" s="102" t="s">
-        <v>419</v>
-      </c>
-      <c r="S20" s="56"/>
-      <c r="V20" s="75"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" s="98" t="s">
+        <v>465</v>
+      </c>
+      <c r="G20" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" s="98" t="s">
+        <v>467</v>
+      </c>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98" t="s">
+        <v>469</v>
+      </c>
+      <c r="L20" s="98" t="s">
+        <v>471</v>
+      </c>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="O20" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="R20" s="98" t="s">
+        <v>473</v>
+      </c>
+      <c r="S20" s="53"/>
+      <c r="V20" s="71"/>
     </row>
     <row r="21" spans="1:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B21" s="70">
+      <c r="B21" s="66">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="F21" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="79" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="I21" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="K21" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="L21" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="M21" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="N21" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="P21" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q21" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="R21" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="S21" s="54"/>
+      <c r="V21" s="71"/>
+    </row>
+    <row r="22" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B22" s="67"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="F22" s="99" t="s">
+        <v>466</v>
+      </c>
+      <c r="G22" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="H22" s="99" t="s">
+        <v>468</v>
+      </c>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99" t="s">
+        <v>470</v>
+      </c>
+      <c r="L22" s="99" t="s">
+        <v>472</v>
+      </c>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="O22" s="99" t="s">
+        <v>269</v>
+      </c>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="R22" s="99" t="s">
+        <v>474</v>
+      </c>
+      <c r="S22" s="58"/>
+      <c r="V22" s="71"/>
+    </row>
+    <row r="23" spans="1:22" s="91" customFormat="1" ht="60" customHeight="1">
+      <c r="B23" s="79"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="F23" s="83" t="s">
+        <v>387</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>388</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="I23" s="83" t="s">
+        <v>389</v>
+      </c>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="L23" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="M23" s="83" t="s">
         <v>221</v>
       </c>
-      <c r="H21" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="I21" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="J21" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="K21" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="L21" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="M21" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="N21" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="O21" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="P21" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q21" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="R21" s="79" t="s">
-        <v>228</v>
-      </c>
-      <c r="S21" s="57"/>
-      <c r="V21" s="75"/>
-    </row>
-    <row r="22" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B22" s="71"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="103" t="s">
-        <v>402</v>
-      </c>
-      <c r="E22" s="103" t="s">
-        <v>404</v>
-      </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103" t="s">
-        <v>406</v>
-      </c>
-      <c r="H22" s="103" t="s">
-        <v>358</v>
-      </c>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103" t="s">
-        <v>408</v>
-      </c>
-      <c r="K22" s="103" t="s">
-        <v>410</v>
-      </c>
-      <c r="L22" s="103" t="s">
-        <v>412</v>
-      </c>
-      <c r="M22" s="103" t="s">
-        <v>358</v>
-      </c>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103" t="s">
-        <v>414</v>
-      </c>
-      <c r="P22" s="103" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q22" s="103" t="s">
-        <v>418</v>
-      </c>
-      <c r="R22" s="103" t="s">
-        <v>420</v>
-      </c>
-      <c r="S22" s="62"/>
-      <c r="V22" s="75"/>
-    </row>
-    <row r="23" spans="1:22" s="95" customFormat="1" ht="60" customHeight="1">
-      <c r="B23" s="83"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87" t="s">
-        <v>299</v>
-      </c>
-      <c r="F23" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="G23" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="H23" s="87" t="s">
-        <v>280</v>
-      </c>
-      <c r="I23" s="87" t="s">
-        <v>300</v>
-      </c>
-      <c r="J23" s="87" t="s">
-        <v>301</v>
-      </c>
-      <c r="K23" s="87" t="s">
-        <v>294</v>
-      </c>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87" t="s">
-        <v>302</v>
-      </c>
-      <c r="N23" s="87" t="s">
-        <v>273</v>
-      </c>
-      <c r="O23" s="87" t="s">
-        <v>300</v>
-      </c>
-      <c r="P23" s="87" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q23" s="87" t="s">
-        <v>304</v>
-      </c>
-      <c r="R23" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="S23" s="94"/>
-      <c r="V23" s="96"/>
+      <c r="N23" s="83" t="s">
+        <v>388</v>
+      </c>
+      <c r="O23" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="P23" s="83" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="S23" s="90"/>
+      <c r="V23" s="92"/>
     </row>
     <row r="24" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B24" s="69"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102" t="s">
-        <v>421</v>
-      </c>
-      <c r="F24" s="102" t="s">
-        <v>363</v>
-      </c>
-      <c r="G24" s="102" t="s">
-        <v>365</v>
-      </c>
-      <c r="H24" s="102" t="s">
-        <v>383</v>
-      </c>
-      <c r="I24" s="102" t="s">
-        <v>423</v>
-      </c>
-      <c r="J24" s="102" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="98" t="s">
         <v>425</v>
       </c>
-      <c r="K24" s="102" t="s">
-        <v>411</v>
-      </c>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102" t="s">
-        <v>427</v>
-      </c>
-      <c r="N24" s="102" t="s">
-        <v>369</v>
-      </c>
-      <c r="O24" s="102" t="s">
-        <v>423</v>
-      </c>
-      <c r="P24" s="102" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q24" s="102" t="s">
-        <v>431</v>
-      </c>
-      <c r="R24" s="102" t="s">
-        <v>345</v>
-      </c>
-      <c r="S24" s="56"/>
-      <c r="V24" s="75"/>
+      <c r="E24" s="98" t="s">
+        <v>475</v>
+      </c>
+      <c r="F24" s="98" t="s">
+        <v>477</v>
+      </c>
+      <c r="G24" s="98" t="s">
+        <v>479</v>
+      </c>
+      <c r="H24" s="98" t="s">
+        <v>439</v>
+      </c>
+      <c r="I24" s="98" t="s">
+        <v>481</v>
+      </c>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="L24" s="98" t="s">
+        <v>475</v>
+      </c>
+      <c r="M24" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="N24" s="98" t="s">
+        <v>479</v>
+      </c>
+      <c r="O24" s="98" t="s">
+        <v>439</v>
+      </c>
+      <c r="P24" s="98" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="S24" s="53"/>
+      <c r="V24" s="71"/>
     </row>
     <row r="25" spans="1:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B25" s="70">
+      <c r="B25" s="66">
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="79" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="G25" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="H25" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="J25" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="E25" s="79" t="s">
-        <v>229</v>
-      </c>
-      <c r="F25" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>209</v>
-      </c>
-      <c r="I25" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="J25" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="K25" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="L25" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="M25" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="N25" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="O25" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="P25" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q25" s="79" t="s">
+      <c r="K25" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="M25" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="N25" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="O25" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="P25" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q25" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="R25" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="S25" s="54"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="71"/>
+    </row>
+    <row r="26" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B26" s="67"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="E26" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="F26" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="G26" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="H26" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="I26" s="99" t="s">
+        <v>482</v>
+      </c>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="L26" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="M26" s="99" t="s">
+        <v>275</v>
+      </c>
+      <c r="N26" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="O26" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="P26" s="99" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="S26" s="58"/>
+      <c r="V26" s="71"/>
+    </row>
+    <row r="27" spans="1:22" s="93" customFormat="1" ht="60" customHeight="1">
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="G27" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="H27" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="K27" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="L27" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="O27" s="83" t="s">
+        <v>394</v>
+      </c>
+      <c r="P27" s="83" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q27" s="83" t="s">
+        <v>396</v>
+      </c>
+      <c r="R27" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="S27" s="90"/>
+      <c r="T27" s="91"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="97"/>
+    </row>
+    <row r="28" spans="1:22" ht="36" customHeight="1">
+      <c r="B28" s="65"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="G28" s="98" t="s">
+        <v>483</v>
+      </c>
+      <c r="H28" s="98" t="s">
+        <v>485</v>
+      </c>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="K28" s="98" t="s">
+        <v>487</v>
+      </c>
+      <c r="L28" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="O28" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="P28" s="98" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q28" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="R28" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="R25" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="S25" s="57"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="75"/>
-    </row>
-    <row r="26" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B26" s="71"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103" t="s">
-        <v>422</v>
-      </c>
-      <c r="F26" s="103" t="s">
-        <v>364</v>
-      </c>
-      <c r="G26" s="103" t="s">
-        <v>366</v>
-      </c>
-      <c r="H26" s="103" t="s">
-        <v>384</v>
-      </c>
-      <c r="I26" s="103" t="s">
-        <v>424</v>
-      </c>
-      <c r="J26" s="103" t="s">
-        <v>426</v>
-      </c>
-      <c r="K26" s="103" t="s">
-        <v>412</v>
-      </c>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103" t="s">
-        <v>428</v>
-      </c>
-      <c r="N26" s="103" t="s">
-        <v>370</v>
-      </c>
-      <c r="O26" s="103" t="s">
-        <v>424</v>
-      </c>
-      <c r="P26" s="103" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q26" s="103" t="s">
-        <v>432</v>
-      </c>
-      <c r="R26" s="103" t="s">
-        <v>346</v>
-      </c>
-      <c r="S26" s="62"/>
-      <c r="V26" s="75"/>
-    </row>
-    <row r="27" spans="1:22" s="97" customFormat="1" ht="60" customHeight="1">
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="87" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87" t="s">
-        <v>306</v>
-      </c>
-      <c r="H27" s="87" t="s">
-        <v>307</v>
-      </c>
-      <c r="I27" s="87" t="s">
-        <v>308</v>
-      </c>
-      <c r="J27" s="87" t="s">
-        <v>309</v>
-      </c>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="M27" s="87" t="s">
-        <v>294</v>
-      </c>
-      <c r="N27" s="87" t="s">
-        <v>311</v>
-      </c>
-      <c r="O27" s="100"/>
-      <c r="P27" s="87" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q27" s="87" t="s">
-        <v>296</v>
-      </c>
-      <c r="R27" s="87" t="s">
-        <v>298</v>
-      </c>
-      <c r="S27" s="94"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="101"/>
-    </row>
-    <row r="28" spans="1:22" ht="36" customHeight="1">
-      <c r="B28" s="69"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="102" t="s">
-        <v>425</v>
-      </c>
-      <c r="E28" s="102" t="s">
-        <v>433</v>
-      </c>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102" t="s">
-        <v>435</v>
-      </c>
-      <c r="H28" s="102" t="s">
-        <v>437</v>
-      </c>
-      <c r="I28" s="102" t="s">
-        <v>439</v>
-      </c>
-      <c r="J28" s="102" t="s">
-        <v>441</v>
-      </c>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102" t="s">
-        <v>443</v>
-      </c>
-      <c r="M28" s="102" t="s">
-        <v>411</v>
-      </c>
-      <c r="N28" s="102" t="s">
-        <v>445</v>
-      </c>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q28" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="R28" s="102" t="s">
-        <v>419</v>
-      </c>
-      <c r="S28" s="56"/>
+      <c r="S28" s="53"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B29" s="70">
+      <c r="B29" s="66">
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="E29" s="79" t="s">
+      <c r="D29" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="F29" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="I29" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="J29" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="K29" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="L29" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="M29" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="N29" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="O29" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="P29" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q29" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="R29" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="S29" s="54"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="71"/>
+    </row>
+    <row r="30" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B30" s="69"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="99" t="s">
+        <v>269</v>
+      </c>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="G30" s="99" t="s">
+        <v>484</v>
+      </c>
+      <c r="H30" s="99" t="s">
+        <v>486</v>
+      </c>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="K30" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="L30" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99" t="s">
+        <v>490</v>
+      </c>
+      <c r="O30" s="99" t="s">
+        <v>492</v>
+      </c>
+      <c r="P30" s="99" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q30" s="99" t="s">
+        <v>496</v>
+      </c>
+      <c r="R30" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="F29" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" s="79" t="s">
-        <v>236</v>
-      </c>
-      <c r="H29" s="79" t="s">
-        <v>237</v>
-      </c>
-      <c r="I29" s="79" t="s">
-        <v>238</v>
-      </c>
-      <c r="J29" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="L29" s="79" t="s">
-        <v>239</v>
-      </c>
-      <c r="M29" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="N29" s="79" t="s">
-        <v>240</v>
-      </c>
-      <c r="O29" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="P29" s="79" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q29" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="R29" s="79" t="s">
-        <v>228</v>
-      </c>
-      <c r="S29" s="57"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="75"/>
-    </row>
-    <row r="30" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B30" s="73"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="103" t="s">
-        <v>426</v>
-      </c>
-      <c r="E30" s="103" t="s">
-        <v>434</v>
-      </c>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103" t="s">
-        <v>436</v>
-      </c>
-      <c r="H30" s="103" t="s">
-        <v>438</v>
-      </c>
-      <c r="I30" s="103" t="s">
-        <v>440</v>
-      </c>
-      <c r="J30" s="103" t="s">
-        <v>442</v>
-      </c>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103" t="s">
-        <v>444</v>
-      </c>
-      <c r="M30" s="103" t="s">
-        <v>412</v>
-      </c>
-      <c r="N30" s="103" t="s">
-        <v>446</v>
-      </c>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q30" s="103" t="s">
-        <v>416</v>
-      </c>
-      <c r="R30" s="103" t="s">
-        <v>420</v>
-      </c>
-      <c r="S30" s="58"/>
-      <c r="V30" s="75"/>
+      <c r="S30" s="55"/>
+      <c r="V30" s="71"/>
     </row>
     <row r="31" spans="1:22" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A31" s="97"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87" t="s">
-        <v>313</v>
-      </c>
-      <c r="F31" s="87" t="s">
-        <v>314</v>
-      </c>
-      <c r="G31" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87" t="s">
-        <v>315</v>
-      </c>
-      <c r="J31" s="87" t="s">
-        <v>316</v>
-      </c>
-      <c r="K31" s="87" t="s">
-        <v>317</v>
-      </c>
-      <c r="L31" s="87" t="s">
-        <v>318</v>
-      </c>
-      <c r="M31" s="87"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="75"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="83" t="s">
+        <v>398</v>
+      </c>
+      <c r="E31" s="83" t="s">
+        <v>399</v>
+      </c>
+      <c r="F31" s="83" t="s">
+        <v>398</v>
+      </c>
+      <c r="G31" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="H31" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="I31" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83" t="s">
+        <v>401</v>
+      </c>
+      <c r="L31" s="83" t="s">
+        <v>402</v>
+      </c>
+      <c r="M31" s="83" t="s">
+        <v>403</v>
+      </c>
+      <c r="N31" s="87" t="s">
+        <v>404</v>
+      </c>
+      <c r="O31" s="113"/>
+      <c r="P31" s="87" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q31" s="87" t="s">
+        <v>402</v>
+      </c>
+      <c r="R31" s="87" t="s">
+        <v>405</v>
+      </c>
+      <c r="S31" s="57"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="114"/>
     </row>
     <row r="32" spans="1:22" ht="36" customHeight="1">
-      <c r="B32" s="69"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102" t="s">
-        <v>449</v>
-      </c>
-      <c r="F32" s="102" t="s">
-        <v>451</v>
-      </c>
-      <c r="G32" s="102" t="s">
-        <v>433</v>
-      </c>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102" t="s">
-        <v>453</v>
-      </c>
-      <c r="J32" s="102" t="s">
-        <v>455</v>
-      </c>
-      <c r="K32" s="102" t="s">
-        <v>457</v>
-      </c>
-      <c r="L32" s="102" t="s">
-        <v>459</v>
-      </c>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
-      <c r="O32" s="102"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="56"/>
+      <c r="D32" s="98" t="s">
+        <v>497</v>
+      </c>
+      <c r="E32" s="98" t="s">
+        <v>499</v>
+      </c>
+      <c r="F32" s="98" t="s">
+        <v>497</v>
+      </c>
+      <c r="G32" s="98" t="s">
+        <v>439</v>
+      </c>
+      <c r="H32" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="I32" s="98" t="s">
+        <v>501</v>
+      </c>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98" t="s">
+        <v>503</v>
+      </c>
+      <c r="L32" s="98" t="s">
+        <v>505</v>
+      </c>
+      <c r="M32" s="98" t="s">
+        <v>507</v>
+      </c>
+      <c r="N32" s="98" t="s">
+        <v>509</v>
+      </c>
+      <c r="O32" s="98"/>
+      <c r="P32" s="98" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q32" s="98" t="s">
+        <v>505</v>
+      </c>
+      <c r="R32" s="98" t="s">
+        <v>511</v>
+      </c>
+      <c r="S32" s="53"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="2:20" ht="80.099999999999994" customHeight="1">
-      <c r="B33" s="70">
+    <row r="33" spans="2:22" ht="80.099999999999994" customHeight="1">
+      <c r="B33" s="66">
         <f>B29+1</f>
         <v>8</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="E33" s="79" t="s">
-        <v>242</v>
-      </c>
-      <c r="F33" s="79" t="s">
-        <v>243</v>
-      </c>
-      <c r="G33" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="H33" s="79" t="s">
+      <c r="D33" s="75" t="s">
+        <v>334</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" s="75" t="s">
+        <v>334</v>
+      </c>
+      <c r="G33" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="H33" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="I33" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="J33" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="I33" s="79" t="s">
-        <v>244</v>
-      </c>
-      <c r="J33" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="K33" s="79" t="s">
-        <v>246</v>
-      </c>
-      <c r="L33" s="79" t="s">
-        <v>247</v>
-      </c>
-      <c r="M33" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="57"/>
+      <c r="K33" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="L33" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="M33" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="N33" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="O33" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="P33" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q33" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="R33" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="S33" s="54"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="2:20" ht="36" customHeight="1">
-      <c r="B34" s="73"/>
+    <row r="34" spans="2:22" ht="36" customHeight="1">
+      <c r="B34" s="69"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103" t="s">
-        <v>450</v>
-      </c>
-      <c r="F34" s="103" t="s">
-        <v>452</v>
-      </c>
-      <c r="G34" s="103" t="s">
-        <v>434</v>
-      </c>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103" t="s">
-        <v>454</v>
-      </c>
-      <c r="J34" s="103" t="s">
-        <v>456</v>
-      </c>
-      <c r="K34" s="103" t="s">
-        <v>458</v>
-      </c>
-      <c r="L34" s="103" t="s">
-        <v>460</v>
-      </c>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="62"/>
+      <c r="D34" s="99" t="s">
+        <v>498</v>
+      </c>
+      <c r="E34" s="99" t="s">
+        <v>500</v>
+      </c>
+      <c r="F34" s="99" t="s">
+        <v>498</v>
+      </c>
+      <c r="G34" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="H34" s="99" t="s">
+        <v>442</v>
+      </c>
+      <c r="I34" s="99" t="s">
+        <v>502</v>
+      </c>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99" t="s">
+        <v>504</v>
+      </c>
+      <c r="L34" s="99" t="s">
+        <v>506</v>
+      </c>
+      <c r="M34" s="99" t="s">
+        <v>508</v>
+      </c>
+      <c r="N34" s="99" t="s">
+        <v>510</v>
+      </c>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q34" s="99" t="s">
+        <v>506</v>
+      </c>
+      <c r="R34" s="99" t="s">
+        <v>512</v>
+      </c>
+      <c r="S34" s="58"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="2:20" ht="60" customHeight="1">
-      <c r="B35" s="72"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="50"/>
-    </row>
-    <row r="36" spans="2:20" ht="36" customHeight="1">
-      <c r="B36" s="69"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="102"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="102"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
-      <c r="S36" s="56"/>
+    <row r="35" spans="2:22" ht="60" customHeight="1">
+      <c r="B35" s="68"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="E35" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" s="83" t="s">
+        <v>381</v>
+      </c>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="N35" s="87" t="s">
+        <v>407</v>
+      </c>
+      <c r="O35" s="77"/>
+      <c r="P35" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q35" s="87" t="s">
+        <v>407</v>
+      </c>
+      <c r="R35" s="77"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="49"/>
+    </row>
+    <row r="36" spans="2:22" ht="36" customHeight="1">
+      <c r="B36" s="65"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="98" t="s">
+        <v>513</v>
+      </c>
+      <c r="E36" s="98" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="98" t="s">
+        <v>501</v>
+      </c>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" s="98" t="s">
+        <v>467</v>
+      </c>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="N36" s="98" t="s">
+        <v>515</v>
+      </c>
+      <c r="O36" s="98"/>
+      <c r="P36" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q36" s="98" t="s">
+        <v>515</v>
+      </c>
+      <c r="R36" s="98"/>
+      <c r="S36" s="53"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="2:20" ht="80.099999999999994" customHeight="1">
-      <c r="B37" s="70">
+    <row r="37" spans="2:22" ht="80.099999999999994" customHeight="1">
+      <c r="B37" s="66">
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="57"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="E37" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="G37" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="H37" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="I37" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="L37" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="M37" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="N37" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="O37" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="P37" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q37" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="R37" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="S37" s="54"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="2:20" ht="36" customHeight="1">
-      <c r="B38" s="73"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="103"/>
-      <c r="O38" s="103"/>
-      <c r="P38" s="103"/>
-      <c r="Q38" s="103"/>
-      <c r="R38" s="103"/>
-      <c r="S38" s="62"/>
+    <row r="38" spans="2:22" ht="36" customHeight="1">
+      <c r="B38" s="69"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="99" t="s">
+        <v>514</v>
+      </c>
+      <c r="E38" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="99" t="s">
+        <v>502</v>
+      </c>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" s="99" t="s">
+        <v>468</v>
+      </c>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="N38" s="99" t="s">
+        <v>516</v>
+      </c>
+      <c r="O38" s="99"/>
+      <c r="P38" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q38" s="99" t="s">
+        <v>516</v>
+      </c>
+      <c r="R38" s="99"/>
+      <c r="S38" s="58"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="2:20" ht="60" customHeight="1">
-      <c r="B39" s="72"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="50"/>
-    </row>
-    <row r="40" spans="2:20" ht="36" customHeight="1">
-      <c r="B40" s="69"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
-      <c r="S40" s="56"/>
+    <row r="39" spans="2:22" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="B39" s="111"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="F39" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" s="83" t="s">
+        <v>408</v>
+      </c>
+      <c r="J39" s="83" t="s">
+        <v>409</v>
+      </c>
+      <c r="K39" s="83" t="s">
+        <v>410</v>
+      </c>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="N39" s="87" t="s">
+        <v>384</v>
+      </c>
+      <c r="O39" s="87" t="s">
+        <v>385</v>
+      </c>
+      <c r="P39" s="87" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q39" s="87" t="s">
+        <v>387</v>
+      </c>
+      <c r="R39" s="87" t="s">
+        <v>388</v>
+      </c>
+      <c r="S39" s="57"/>
+      <c r="T39" s="88"/>
+      <c r="V39" s="114"/>
+    </row>
+    <row r="40" spans="2:22" ht="36" customHeight="1">
+      <c r="B40" s="65"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="98" t="s">
+        <v>437</v>
+      </c>
+      <c r="E40" s="98" t="s">
+        <v>439</v>
+      </c>
+      <c r="F40" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="I40" s="98" t="s">
+        <v>517</v>
+      </c>
+      <c r="J40" s="98" t="s">
+        <v>519</v>
+      </c>
+      <c r="K40" s="98" t="s">
+        <v>521</v>
+      </c>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="N40" s="98" t="s">
+        <v>473</v>
+      </c>
+      <c r="O40" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="P40" s="98" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q40" s="98" t="s">
+        <v>477</v>
+      </c>
+      <c r="R40" s="98" t="s">
+        <v>479</v>
+      </c>
+      <c r="S40" s="53"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="2:20" ht="80.099999999999994" customHeight="1">
-      <c r="B41" s="70">
+    <row r="41" spans="2:22" ht="80.099999999999994" customHeight="1">
+      <c r="B41" s="66">
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="57"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="G41" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="H41" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="I41" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="J41" s="75" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="L41" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="M41" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="N41" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="O41" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="P41" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q41" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="R41" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="S41" s="54"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="2:20" ht="36" customHeight="1">
-      <c r="B42" s="73"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="103"/>
-      <c r="N42" s="103"/>
-      <c r="O42" s="103"/>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="103"/>
-      <c r="R42" s="103"/>
-      <c r="S42" s="62"/>
+    <row r="42" spans="2:22" ht="36" customHeight="1">
+      <c r="B42" s="69"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="E42" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="F42" s="99" t="s">
+        <v>442</v>
+      </c>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="I42" s="99" t="s">
+        <v>518</v>
+      </c>
+      <c r="J42" s="99" t="s">
+        <v>520</v>
+      </c>
+      <c r="K42" s="99" t="s">
+        <v>522</v>
+      </c>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="N42" s="99" t="s">
+        <v>474</v>
+      </c>
+      <c r="O42" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="P42" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q42" s="99" t="s">
+        <v>478</v>
+      </c>
+      <c r="R42" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="S42" s="58"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="2:20" ht="60" customHeight="1">
-      <c r="B43" s="72"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="61"/>
-      <c r="T43" s="50"/>
-    </row>
-    <row r="44" spans="2:20" ht="36" customHeight="1">
-      <c r="B44" s="69"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="102"/>
-      <c r="O44" s="102"/>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="102"/>
-      <c r="R44" s="102"/>
-      <c r="S44" s="56"/>
+    <row r="43" spans="2:22" s="93" customFormat="1" ht="60" customHeight="1">
+      <c r="B43" s="94"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="E43" s="83" t="s">
+        <v>389</v>
+      </c>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="H43" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="I43" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="J43" s="83" t="s">
+        <v>388</v>
+      </c>
+      <c r="K43" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" s="83" t="s">
+        <v>389</v>
+      </c>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83" t="s">
+        <v>408</v>
+      </c>
+      <c r="O43" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="P43" s="83" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q43" s="83" t="s">
+        <v>413</v>
+      </c>
+      <c r="R43" s="96"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="91"/>
+      <c r="V43" s="97"/>
+    </row>
+    <row r="44" spans="2:22" ht="36" customHeight="1">
+      <c r="B44" s="65"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="98" t="s">
+        <v>439</v>
+      </c>
+      <c r="E44" s="98" t="s">
+        <v>481</v>
+      </c>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="H44" s="98" t="s">
+        <v>475</v>
+      </c>
+      <c r="I44" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="J44" s="98" t="s">
+        <v>479</v>
+      </c>
+      <c r="K44" s="98" t="s">
+        <v>439</v>
+      </c>
+      <c r="L44" s="98" t="s">
+        <v>481</v>
+      </c>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98" t="s">
+        <v>517</v>
+      </c>
+      <c r="O44" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="P44" s="98" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q44" s="98" t="s">
+        <v>525</v>
+      </c>
+      <c r="R44" s="98"/>
+      <c r="S44" s="53"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="2:20" ht="80.099999999999994" customHeight="1">
-      <c r="B45" s="70">
+    <row r="45" spans="2:22" ht="80.099999999999994" customHeight="1">
+      <c r="B45" s="66">
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="79"/>
-      <c r="S45" s="57"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="F45" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="H45" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="I45" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="J45" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="K45" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="L45" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="N45" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="O45" s="75" t="s">
+        <v>349</v>
+      </c>
+      <c r="P45" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q45" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="R45" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="S45" s="54"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="2:20" ht="36" customHeight="1">
-      <c r="B46" s="73"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
-      <c r="L46" s="103"/>
-      <c r="M46" s="103"/>
-      <c r="N46" s="103"/>
-      <c r="O46" s="103"/>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="103"/>
-      <c r="S46" s="56"/>
+    <row r="46" spans="2:22" ht="36" customHeight="1">
+      <c r="B46" s="69"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="E46" s="99" t="s">
+        <v>482</v>
+      </c>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="H46" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="I46" s="99" t="s">
+        <v>275</v>
+      </c>
+      <c r="J46" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="K46" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="L46" s="99" t="s">
+        <v>482</v>
+      </c>
+      <c r="M46" s="99"/>
+      <c r="N46" s="99" t="s">
+        <v>518</v>
+      </c>
+      <c r="O46" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="P46" s="99" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q46" s="99" t="s">
+        <v>526</v>
+      </c>
+      <c r="R46" s="99"/>
+      <c r="S46" s="53"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="2:20" ht="60" customHeight="1">
-      <c r="B47" s="72"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="61"/>
-      <c r="T47" s="50"/>
-    </row>
-    <row r="48" spans="2:20" ht="36" customHeight="1">
-      <c r="B48" s="69"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="102"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="102"/>
-      <c r="O48" s="102"/>
-      <c r="P48" s="102"/>
-      <c r="Q48" s="102"/>
-      <c r="R48" s="102"/>
-      <c r="S48" s="62"/>
+    <row r="47" spans="2:22" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="B47" s="111"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="83" t="s">
+        <v>414</v>
+      </c>
+      <c r="E47" s="83" t="s">
+        <v>415</v>
+      </c>
+      <c r="F47" s="83" t="s">
+        <v>408</v>
+      </c>
+      <c r="G47" s="83" t="s">
+        <v>410</v>
+      </c>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="J47" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="K47" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="N47" s="87" t="s">
+        <v>392</v>
+      </c>
+      <c r="O47" s="87" t="s">
+        <v>216</v>
+      </c>
+      <c r="P47" s="113"/>
+      <c r="Q47" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="R47" s="87" t="s">
+        <v>394</v>
+      </c>
+      <c r="S47" s="57"/>
+      <c r="T47" s="88"/>
+      <c r="V47" s="114"/>
+    </row>
+    <row r="48" spans="2:22" ht="36" customHeight="1">
+      <c r="B48" s="65"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="98" t="s">
+        <v>527</v>
+      </c>
+      <c r="E48" s="98" t="s">
+        <v>529</v>
+      </c>
+      <c r="F48" s="98" t="s">
+        <v>517</v>
+      </c>
+      <c r="G48" s="98" t="s">
+        <v>521</v>
+      </c>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="J48" s="98" t="s">
+        <v>483</v>
+      </c>
+      <c r="K48" s="98" t="s">
+        <v>485</v>
+      </c>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="N48" s="98" t="s">
+        <v>487</v>
+      </c>
+      <c r="O48" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="P48" s="98"/>
+      <c r="Q48" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="R48" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="S48" s="58"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="2:20" ht="80.099999999999994" customHeight="1">
-      <c r="B49" s="70">
+    <row r="49" spans="2:22" ht="80.099999999999994" customHeight="1">
+      <c r="B49" s="66">
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="79"/>
-      <c r="R49" s="79"/>
-      <c r="S49" s="56"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="E49" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="F49" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="G49" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="H49" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="I49" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="J49" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="K49" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="L49" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="M49" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="N49" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="O49" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="P49" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q49" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="R49" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="S49" s="53"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="2:20" ht="36" customHeight="1">
-      <c r="B50" s="73"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="103"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="103"/>
-      <c r="O50" s="103"/>
-      <c r="P50" s="103"/>
-      <c r="Q50" s="103"/>
-      <c r="R50" s="103"/>
-    </row>
-    <row r="56" spans="2:20">
-      <c r="R56" s="60"/>
-    </row>
-    <row r="57" spans="2:20">
-      <c r="R57" s="55"/>
-    </row>
-    <row r="58" spans="2:20" ht="67.5">
-      <c r="R58" s="2"/>
+    <row r="50" spans="2:22" ht="36" customHeight="1">
+      <c r="B50" s="69"/>
+      <c r="D50" s="99" t="s">
+        <v>528</v>
+      </c>
+      <c r="E50" s="99" t="s">
+        <v>530</v>
+      </c>
+      <c r="F50" s="99" t="s">
+        <v>518</v>
+      </c>
+      <c r="G50" s="99" t="s">
+        <v>522</v>
+      </c>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="J50" s="99" t="s">
+        <v>484</v>
+      </c>
+      <c r="K50" s="99" t="s">
+        <v>486</v>
+      </c>
+      <c r="L50" s="99"/>
+      <c r="M50" s="99" t="s">
+        <v>426</v>
+      </c>
+      <c r="N50" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="O50" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="99" t="s">
+        <v>490</v>
+      </c>
+      <c r="R50" s="99" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="B51" s="111"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="83" t="s">
+        <v>395</v>
+      </c>
+      <c r="E51" s="83" t="s">
+        <v>396</v>
+      </c>
+      <c r="F51" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="83" t="s">
+        <v>398</v>
+      </c>
+      <c r="H51" s="83" t="s">
+        <v>399</v>
+      </c>
+      <c r="I51" s="83" t="s">
+        <v>398</v>
+      </c>
+      <c r="J51" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="K51" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="L51" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="M51" s="83"/>
+      <c r="N51" s="87" t="s">
+        <v>403</v>
+      </c>
+      <c r="O51" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="P51" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q51" s="87" t="s">
+        <v>404</v>
+      </c>
+      <c r="R51" s="113"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="88"/>
+      <c r="V51" s="114"/>
+    </row>
+    <row r="52" spans="2:22" ht="36" customHeight="1">
+      <c r="B52" s="65"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="98" t="s">
+        <v>493</v>
+      </c>
+      <c r="E52" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="F52" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="G52" s="98" t="s">
+        <v>497</v>
+      </c>
+      <c r="H52" s="98" t="s">
+        <v>499</v>
+      </c>
+      <c r="I52" s="98" t="s">
+        <v>497</v>
+      </c>
+      <c r="J52" s="98" t="s">
+        <v>439</v>
+      </c>
+      <c r="K52" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="L52" s="98" t="s">
+        <v>501</v>
+      </c>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98" t="s">
+        <v>507</v>
+      </c>
+      <c r="O52" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="P52" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q52" s="98" t="s">
+        <v>509</v>
+      </c>
+      <c r="R52" s="98"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="2:22" ht="80.099999999999994" customHeight="1">
+      <c r="B53" s="66">
+        <f>B49+1</f>
+        <v>13</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="E53" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="F53" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="G53" s="75" t="s">
+        <v>334</v>
+      </c>
+      <c r="H53" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="I53" s="75" t="s">
+        <v>334</v>
+      </c>
+      <c r="J53" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="K53" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="L53" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="M53" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="N53" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="O53" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="P53" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q53" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="R53" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="S53" s="53"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="2:22" ht="36" customHeight="1">
+      <c r="B54" s="69"/>
+      <c r="D54" s="99" t="s">
+        <v>494</v>
+      </c>
+      <c r="E54" s="99" t="s">
+        <v>496</v>
+      </c>
+      <c r="F54" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="G54" s="99" t="s">
+        <v>498</v>
+      </c>
+      <c r="H54" s="99" t="s">
+        <v>500</v>
+      </c>
+      <c r="I54" s="99" t="s">
+        <v>498</v>
+      </c>
+      <c r="J54" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="K54" s="99" t="s">
+        <v>442</v>
+      </c>
+      <c r="L54" s="99" t="s">
+        <v>502</v>
+      </c>
+      <c r="M54" s="99"/>
+      <c r="N54" s="99" t="s">
+        <v>508</v>
+      </c>
+      <c r="O54" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="P54" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q54" s="99" t="s">
+        <v>510</v>
+      </c>
+      <c r="R54" s="99"/>
+    </row>
+    <row r="55" spans="2:22" ht="60" customHeight="1">
+      <c r="B55" s="68"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="83" t="s">
+        <v>405</v>
+      </c>
+      <c r="G55" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="H55" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="I55" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83" t="s">
+        <v>415</v>
+      </c>
+      <c r="N55" s="84" t="s">
+        <v>416</v>
+      </c>
+      <c r="O55" s="77"/>
+      <c r="P55" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q55" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="R55" s="77"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="49"/>
+    </row>
+    <row r="56" spans="2:22" ht="36" customHeight="1">
+      <c r="B56" s="65"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="F56" s="98" t="s">
+        <v>511</v>
+      </c>
+      <c r="G56" s="98" t="s">
+        <v>513</v>
+      </c>
+      <c r="H56" s="98" t="s">
+        <v>256</v>
+      </c>
+      <c r="I56" s="98" t="s">
+        <v>501</v>
+      </c>
+      <c r="J56" s="98"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="98"/>
+      <c r="M56" s="98" t="s">
+        <v>529</v>
+      </c>
+      <c r="N56" s="98" t="s">
+        <v>531</v>
+      </c>
+      <c r="O56" s="98"/>
+      <c r="P56" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q56" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="R56" s="98"/>
+      <c r="S56" s="58"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="2:22" ht="80.099999999999994" customHeight="1">
+      <c r="B57" s="66">
+        <f>B53+1</f>
+        <v>14</v>
+      </c>
+      <c r="C57" s="52"/>
+      <c r="D57" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="G57" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="H57" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="I57" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="J57" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="K57" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="L57" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="M57" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="N57" s="75" t="s">
+        <v>355</v>
+      </c>
+      <c r="O57" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="P57" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q57" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="R57" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="S57" s="53"/>
+      <c r="T57" s="1"/>
+    </row>
+    <row r="58" spans="2:22" ht="36" customHeight="1">
+      <c r="B58" s="69"/>
+      <c r="D58" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="E58" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="F58" s="99" t="s">
+        <v>512</v>
+      </c>
+      <c r="G58" s="99" t="s">
+        <v>514</v>
+      </c>
+      <c r="H58" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="I58" s="99" t="s">
+        <v>502</v>
+      </c>
+      <c r="J58" s="99"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="99" t="s">
+        <v>530</v>
+      </c>
+      <c r="N58" s="99" t="s">
+        <v>532</v>
+      </c>
+      <c r="O58" s="99"/>
+      <c r="P58" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q58" s="99" t="s">
+        <v>269</v>
+      </c>
+      <c r="R58" s="99"/>
+    </row>
+    <row r="59" spans="2:22" ht="60" customHeight="1">
+      <c r="B59" s="68"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="83" t="s">
+        <v>417</v>
+      </c>
+      <c r="E59" s="83" t="s">
+        <v>418</v>
+      </c>
+      <c r="F59" s="83" t="s">
+        <v>419</v>
+      </c>
+      <c r="G59" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="77"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="57"/>
+      <c r="T59" s="49"/>
+    </row>
+    <row r="60" spans="2:22" ht="36" customHeight="1">
+      <c r="B60" s="65"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="98" t="s">
+        <v>533</v>
+      </c>
+      <c r="E60" s="98" t="s">
+        <v>535</v>
+      </c>
+      <c r="F60" s="98" t="s">
+        <v>537</v>
+      </c>
+      <c r="G60" s="98" t="s">
+        <v>248</v>
+      </c>
+      <c r="H60" s="98"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="98"/>
+      <c r="K60" s="98"/>
+      <c r="L60" s="98"/>
+      <c r="M60" s="98"/>
+      <c r="N60" s="98"/>
+      <c r="O60" s="98"/>
+      <c r="P60" s="98"/>
+      <c r="Q60" s="98"/>
+      <c r="R60" s="98"/>
+      <c r="S60" s="58"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="2:22" ht="80.099999999999994" customHeight="1">
+      <c r="B61" s="66">
+        <f>B57+1</f>
+        <v>15</v>
+      </c>
+      <c r="C61" s="52"/>
+      <c r="D61" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="E61" s="75" t="s">
+        <v>357</v>
+      </c>
+      <c r="F61" s="75" t="s">
+        <v>358</v>
+      </c>
+      <c r="G61" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="H61" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="I61" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="75"/>
+      <c r="O61" s="75"/>
+      <c r="P61" s="75"/>
+      <c r="Q61" s="75"/>
+      <c r="R61" s="75"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="2:22" ht="36" customHeight="1">
+      <c r="B62" s="69"/>
+      <c r="D62" s="99" t="s">
+        <v>534</v>
+      </c>
+      <c r="E62" s="99" t="s">
+        <v>536</v>
+      </c>
+      <c r="F62" s="99" t="s">
+        <v>538</v>
+      </c>
+      <c r="G62" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
+      <c r="K62" s="99"/>
+      <c r="L62" s="99"/>
+      <c r="M62" s="99"/>
+      <c r="N62" s="99"/>
+      <c r="O62" s="99"/>
+      <c r="P62" s="99"/>
+      <c r="Q62" s="99"/>
+      <c r="R62" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5994,14 +7253,38 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="25" priority="169">
+    <cfRule type="expression" dxfId="31" priority="175">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="170">
+    <cfRule type="expression" dxfId="30" priority="176">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="32">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:R11">
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:R15">
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:R19">
     <cfRule type="expression" dxfId="23" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -6009,15 +7292,15 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="21" priority="23">
+  <conditionalFormatting sqref="D23:R23">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:R15">
+  <conditionalFormatting sqref="D27:R27">
     <cfRule type="expression" dxfId="19" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -6025,7 +7308,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:R19">
+  <conditionalFormatting sqref="D31:R31">
     <cfRule type="expression" dxfId="17" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -6033,15 +7316,15 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="15" priority="1">
+  <conditionalFormatting sqref="D35:R35">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:R27">
+  <conditionalFormatting sqref="D39:R39">
     <cfRule type="expression" dxfId="13" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -6049,7 +7332,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:R31">
+  <conditionalFormatting sqref="F43:J43 M43:R43">
     <cfRule type="expression" dxfId="11" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -6057,7 +7340,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:R35">
+  <conditionalFormatting sqref="D47:R47">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -6065,35 +7348,27 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="7" priority="9">
+  <conditionalFormatting sqref="D51:R51 D55:R55 D59:R59">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="5" priority="7">
+  <conditionalFormatting sqref="D43:E43">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="K43:L43">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R56">
-    <cfRule type="expression" dxfId="1" priority="117">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="118">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6106,8 +7381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C038C983-B125-4E67-81BB-FB3249D119F4}">
   <dimension ref="B2:R37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -6117,44 +7392,44 @@
     <col min="4" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="8.3984375" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.296875" style="97" customWidth="1"/>
+    <col min="11" max="11" width="13.296875" style="93" customWidth="1"/>
     <col min="12" max="14" width="13.296875" customWidth="1"/>
-    <col min="16" max="16" width="8.796875" style="4"/>
-    <col min="17" max="17" width="8.796875" style="5"/>
+    <col min="16" max="16" width="8.796875" style="3"/>
+    <col min="17" max="17" width="8.796875" style="4"/>
     <col min="18" max="18" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="45.75">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="36.75" customHeight="1">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6162,644 +7437,644 @@
       <c r="B5" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <v>1</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
       <c r="B6" s="109"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="12" t="str">
         <f>$B5 &amp; D$4</f>
         <v>陰平</v>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="12" t="str">
         <f>$B5 &amp; E$4</f>
         <v>陰上</v>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="12" t="str">
         <f>$B5 &amp; F$4</f>
         <v>陰去</v>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="12" t="str">
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
       <c r="I6" s="109"/>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <v>2</v>
       </c>
-      <c r="Q6" s="15"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
       <c r="B7" s="109"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>53</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>31</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>30</v>
       </c>
       <c r="I7" s="109"/>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>53</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>31</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="16">
         <v>30</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <v>3</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
       <c r="B8" s="109"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="109"/>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <v>4</v>
       </c>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
       <c r="B9" s="109"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="109"/>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <v>5</v>
       </c>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
       <c r="B10" s="110"/>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
       <c r="I10" s="110"/>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <v>6</v>
       </c>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="29"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
       <c r="B11" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I11" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="8">
         <v>7</v>
       </c>
-      <c r="Q11" s="15"/>
+      <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
       <c r="B12" s="109"/>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13" t="str">
+      <c r="D12" s="12" t="str">
         <f>$B11 &amp; D$4</f>
         <v>陽平</v>
       </c>
-      <c r="E12" s="13" t="str">
+      <c r="E12" s="12" t="str">
         <f>$B11 &amp; E$4</f>
         <v>陽上</v>
       </c>
-      <c r="F12" s="13" t="str">
+      <c r="F12" s="12" t="str">
         <f>$B11 &amp; F$4</f>
         <v>陽去</v>
       </c>
-      <c r="G12" s="13" t="str">
+      <c r="G12" s="12" t="str">
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
       <c r="I12" s="109"/>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="13" t="s">
+      <c r="L12" s="30"/>
+      <c r="M12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="8">
         <v>8</v>
       </c>
-      <c r="Q12" s="15"/>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
       <c r="B13" s="109"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>24</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>50</v>
       </c>
       <c r="I13" s="109"/>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <v>24</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="17" t="s">
+      <c r="L13" s="30"/>
+      <c r="M13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="16">
         <v>50</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="8">
         <v>9</v>
       </c>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
       <c r="B14" s="109"/>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
       <c r="I14" s="109"/>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="22" t="s">
+      <c r="L14" s="30"/>
+      <c r="M14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="8">
         <v>10</v>
       </c>
-      <c r="Q14" s="15"/>
+      <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
       <c r="B15" s="109"/>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="24" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
       <c r="I15" s="109"/>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="24" t="s">
+      <c r="L15" s="30"/>
+      <c r="M15" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="8">
         <v>11</v>
       </c>
-      <c r="Q15" s="15"/>
+      <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
       <c r="B16" s="110"/>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="18" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
       <c r="I16" s="110"/>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="32"/>
-      <c r="M16" s="33" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="8">
         <v>12</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="18" spans="3:14" ht="39">
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" spans="3:14" ht="42.75" customHeight="1">
-      <c r="C19" s="37"/>
-      <c r="J19" s="111">
+      <c r="C19" s="36"/>
+      <c r="J19" s="101">
         <v>1</v>
       </c>
-      <c r="K19" s="112" t="s">
-        <v>462</v>
-      </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
+      <c r="K19" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="3:14" ht="42.75" customHeight="1">
-      <c r="C20" s="37"/>
-      <c r="J20" s="111">
+      <c r="C20" s="36"/>
+      <c r="J20" s="101">
         <v>7</v>
       </c>
-      <c r="K20" s="112" t="s">
-        <v>466</v>
-      </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
+      <c r="K20" s="102" t="s">
+        <v>285</v>
+      </c>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" spans="3:14" ht="42.75" customHeight="1">
-      <c r="C21" s="37"/>
-      <c r="J21" s="111">
+      <c r="C21" s="36"/>
+      <c r="J21" s="101">
         <v>3</v>
       </c>
-      <c r="K21" s="112" t="s">
-        <v>467</v>
-      </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
+      <c r="K21" s="102" t="s">
+        <v>286</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
     </row>
     <row r="22" spans="3:14" ht="42.75" customHeight="1">
-      <c r="C22" s="37"/>
-      <c r="J22" s="111">
+      <c r="C22" s="36"/>
+      <c r="J22" s="101">
         <v>2</v>
       </c>
-      <c r="K22" s="113" t="s">
-        <v>461</v>
-      </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
+      <c r="K22" s="103" t="s">
+        <v>280</v>
+      </c>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
     </row>
     <row r="23" spans="3:14" ht="42.75" customHeight="1">
-      <c r="C23" s="37"/>
-      <c r="J23" s="111">
+      <c r="C23" s="36"/>
+      <c r="J23" s="101">
         <v>5</v>
       </c>
-      <c r="K23" s="113" t="s">
-        <v>463</v>
-      </c>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
+      <c r="K23" s="103" t="s">
+        <v>282</v>
+      </c>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
     </row>
     <row r="24" spans="3:14" ht="42.75" customHeight="1">
-      <c r="C24" s="37"/>
-      <c r="J24" s="111" t="s">
-        <v>468</v>
-      </c>
-      <c r="K24" s="114" t="s">
-        <v>468</v>
-      </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
+      <c r="C24" s="36"/>
+      <c r="J24" s="101" t="s">
+        <v>287</v>
+      </c>
+      <c r="K24" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
     </row>
     <row r="25" spans="3:14" ht="42.75" customHeight="1">
-      <c r="C25" s="37"/>
-      <c r="J25" s="111">
+      <c r="C25" s="36"/>
+      <c r="J25" s="101">
         <v>4</v>
       </c>
-      <c r="K25" s="112" t="s">
-        <v>469</v>
-      </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
+      <c r="K25" s="102" t="s">
+        <v>288</v>
+      </c>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
     </row>
     <row r="26" spans="3:14" ht="42.75" customHeight="1">
-      <c r="C26" s="37"/>
-      <c r="J26" s="111">
+      <c r="C26" s="36"/>
+      <c r="J26" s="101">
         <v>8</v>
       </c>
-      <c r="K26" s="112" t="s">
-        <v>470</v>
-      </c>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="K26" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
     </row>
     <row r="27" spans="3:14">
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
     </row>
     <row r="28" spans="3:14" ht="29.25" customHeight="1">
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
     </row>
     <row r="29" spans="3:14">
-      <c r="J29" s="37"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
     </row>
     <row r="30" spans="3:14">
-      <c r="J30" s="37"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
     </row>
     <row r="31" spans="3:14">
-      <c r="J31" s="37"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
     </row>
     <row r="32" spans="3:14">
-      <c r="J32" s="37"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
     </row>
     <row r="33" spans="10:14">
-      <c r="J33" s="37"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
     </row>
     <row r="34" spans="10:14">
-      <c r="J34" s="37"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
     </row>
     <row r="35" spans="10:14">
-      <c r="J35" s="37"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
     </row>
     <row r="36" spans="10:14">
-      <c r="J36" s="37"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
     </row>
     <row r="37" spans="10:14">
-      <c r="J37" s="37"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6827,500 +8102,500 @@
     <col min="1" max="1" width="2.19921875" customWidth="1"/>
     <col min="2" max="2" width="66.59765625" customWidth="1"/>
     <col min="3" max="3" width="2.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" style="39" customWidth="1"/>
-    <col min="5" max="5" width="34.59765625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" style="40" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="39"/>
-    <col min="10" max="10" width="10.5" style="41" customWidth="1"/>
-    <col min="11" max="11" width="14.09765625" style="41" customWidth="1"/>
-    <col min="12" max="12" width="8.796875" style="41"/>
-    <col min="13" max="13" width="17.5" style="42" customWidth="1"/>
-    <col min="14" max="14" width="5.796875" style="42" customWidth="1"/>
-    <col min="15" max="16" width="17.5" style="42" customWidth="1"/>
-    <col min="17" max="17" width="17.5" style="44" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="39"/>
+    <col min="4" max="4" width="5.19921875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="34.59765625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="38"/>
+    <col min="10" max="10" width="10.5" style="40" customWidth="1"/>
+    <col min="11" max="11" width="14.09765625" style="40" customWidth="1"/>
+    <col min="12" max="12" width="8.796875" style="40"/>
+    <col min="13" max="13" width="17.5" style="41" customWidth="1"/>
+    <col min="14" max="14" width="5.796875" style="41" customWidth="1"/>
+    <col min="15" max="16" width="17.5" style="41" customWidth="1"/>
+    <col min="17" max="17" width="17.5" style="43" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="38"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:16">
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="42" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="4:16" ht="31.5" customHeight="1">
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="41" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="4:16" ht="31.5" customHeight="1">
-      <c r="D4" s="39">
+      <c r="D4" s="38">
         <v>1</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>461</v>
-      </c>
-      <c r="G4" s="46" t="s">
+      <c r="F4" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="45" t="s">
-        <v>462</v>
-      </c>
-      <c r="J4" s="41" t="s">
+      <c r="H4" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="41" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="4:16" ht="31.5" customHeight="1">
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>53</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="46">
         <v>2</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="46">
         <v>1</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="4:16" ht="31.5" customHeight="1">
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="4:16" ht="31.5" customHeight="1">
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="P7" s="41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="4:16" ht="31.5" customHeight="1">
-      <c r="D8" s="39">
+      <c r="D8" s="38">
         <v>2</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>463</v>
-      </c>
-      <c r="G8" s="46" t="s">
+      <c r="F8" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="45" t="s">
-        <v>464</v>
-      </c>
-      <c r="J8" s="41" t="s">
+      <c r="H8" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="J8" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="42" t="s">
+      <c r="P8" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="4:16" ht="31.5" customHeight="1">
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <v>13</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="46">
         <v>5</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="46">
         <v>7</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="42" t="s">
+      <c r="P9" s="41" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="4:16" ht="31.5" customHeight="1"/>
     <row r="11" spans="4:16" ht="31.5" customHeight="1">
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="O11" s="42" t="s">
+      <c r="O11" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="P11" s="42" t="s">
+      <c r="P11" s="41" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="4:16" ht="31.5" customHeight="1">
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <v>3</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="45" t="s">
-        <v>462</v>
-      </c>
-      <c r="G12" s="46" t="s">
+      <c r="F12" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="45" t="s">
-        <v>464</v>
-      </c>
-      <c r="J12" s="41" t="s">
+      <c r="H12" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="J12" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="42" t="s">
+      <c r="P12" s="41" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" spans="4:16" ht="31.5" customHeight="1">
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="46">
         <v>1</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="46">
         <v>7</v>
       </c>
-      <c r="M13" s="42" t="s">
+      <c r="M13" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="O13" s="42" t="s">
+      <c r="O13" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="42" t="s">
+      <c r="P13" s="41" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="4:16" ht="31.5" customHeight="1"/>
     <row r="15" spans="4:16" ht="31.5" customHeight="1">
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="O15" s="42" t="s">
+      <c r="O15" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="P15" s="42" t="s">
+      <c r="P15" s="41" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="4:16" ht="31.5" customHeight="1">
-      <c r="D16" s="39">
+      <c r="D16" s="38">
         <v>4</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>464</v>
-      </c>
-      <c r="G16" s="46" t="s">
+      <c r="F16" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="45" t="s">
-        <v>465</v>
-      </c>
-      <c r="J16" s="41" t="s">
+      <c r="H16" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="J16" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="O16" s="42" t="s">
+      <c r="O16" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="P16" s="42" t="s">
+      <c r="P16" s="41" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="4:16" ht="31.5" customHeight="1">
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="46">
         <v>7</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="46">
         <v>3</v>
       </c>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="42" t="s">
+      <c r="O17" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="42" t="s">
+      <c r="P17" s="41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="4:16" ht="31.5" customHeight="1"/>
     <row r="19" spans="4:16" ht="31.5" customHeight="1">
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="O19" s="42" t="s">
+      <c r="O19" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="42" t="s">
+      <c r="P19" s="41" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="4:16" ht="31.5" customHeight="1">
-      <c r="D20" s="39">
+      <c r="D20" s="38">
         <v>5</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>465</v>
-      </c>
-      <c r="G20" s="46" t="s">
+      <c r="F20" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="45" t="s">
-        <v>461</v>
-      </c>
-      <c r="J20" s="41" t="s">
+      <c r="H20" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="J20" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="41" t="s">
+      <c r="K20" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="O20" s="42" t="s">
+      <c r="O20" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="P20" s="42" t="s">
+      <c r="P20" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="4:16" ht="31.5" customHeight="1">
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="39">
         <v>53</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="46">
         <v>3</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="46">
         <v>2</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="O21" s="42" t="s">
+      <c r="O21" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="P21" s="48" t="s">
+      <c r="P21" s="47" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="22" spans="4:16">
-      <c r="P22" s="39"/>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" spans="4:16">
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="O23" s="42" t="s">
+      <c r="O23" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="42" t="s">
+      <c r="P23" s="41" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="4:16" ht="30">
-      <c r="D24" s="39">
+      <c r="D24" s="38">
         <v>6</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="K24" s="42" t="s">
+      <c r="K24" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="O24" s="42" t="s">
+      <c r="O24" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="P24" s="42" t="s">
+      <c r="P24" s="41" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="25" spans="4:16">
-      <c r="F25" s="40">
+      <c r="F25" s="39">
         <v>30</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="39">
         <v>50</v>
       </c>
-      <c r="J25" s="47">
+      <c r="J25" s="46">
         <v>4</v>
       </c>
-      <c r="K25" s="47">
+      <c r="K25" s="46">
         <v>8</v>
       </c>
-      <c r="M25" s="48" t="s">
+      <c r="M25" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="O25" s="42" t="s">
+      <c r="O25" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="P25" s="42" t="s">
+      <c r="P25" s="41" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="28" spans="4:16">
-      <c r="M28" s="42" t="s">
+      <c r="M28" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="O28" s="42" t="s">
+      <c r="O28" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="P28" s="42" t="s">
+      <c r="P28" s="41" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="4:16" ht="30">
-      <c r="D29" s="39">
+      <c r="D29" s="38">
         <v>7</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="J29" s="42" t="s">
+      <c r="J29" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="K29" s="42" t="s">
+      <c r="K29" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="M29" s="42" t="s">
+      <c r="M29" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="O29" s="42" t="s">
+      <c r="O29" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="P29" s="42" t="s">
+      <c r="P29" s="41" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="30" spans="4:16">
-      <c r="F30" s="40">
+      <c r="F30" s="39">
         <v>50</v>
       </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40">
+      <c r="G30" s="38"/>
+      <c r="H30" s="39">
         <v>30</v>
       </c>
-      <c r="J30" s="47">
+      <c r="J30" s="46">
         <v>8</v>
       </c>
-      <c r="K30" s="47">
+      <c r="K30" s="46">
         <v>4</v>
       </c>
-      <c r="M30" s="48" t="s">
+      <c r="M30" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="O30" s="42" t="s">
+      <c r="O30" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="P30" s="42" t="s">
+      <c r="P30" s="41" t="s">
         <v>158</v>
       </c>
     </row>

--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03F5975-85F2-4986-B337-CCC62160BC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E938773-C0B6-4208-AFC7-36CF90B5C20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="75" windowWidth="25020" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <definedName name="IMAGE_URL">env!$C$5</definedName>
     <definedName name="INPUT_FILE_PATH">env!$C$2</definedName>
     <definedName name="TITLE">env!$C$4</definedName>
+    <definedName name="每列總字數">env!$C$9</definedName>
+    <definedName name="每頁總列數">env!$C$8</definedName>
     <definedName name="顯示注音輸入">env!$C$7</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="380">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1118,9 +1120,6 @@
     <t>尊</t>
   </si>
   <si>
-    <t>其</t>
-  </si>
-  <si>
     <t>〔hun¹〕
 【ㄏㄨㄣˉ】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1141,11 +1140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔ki⁵〕
-【ㄍㄧˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔se³〕
 【ㄙㆤ˪】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1156,96 +1150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kim¹</t>
-  </si>
-  <si>
-    <t>ㄍㄧㆬˉ</t>
-  </si>
-  <si>
-    <t>kong¹</t>
-  </si>
-  <si>
-    <t>ㄍㆲˉ</t>
-  </si>
-  <si>
-    <t>pⁿua¹</t>
-  </si>
-  <si>
-    <t>ㄅㄨㆩˉ</t>
-  </si>
-  <si>
-    <t>na²</t>
-  </si>
-  <si>
-    <t>ㄋㄚˋ</t>
-  </si>
-  <si>
-    <t>pho¹</t>
-  </si>
-  <si>
-    <t>ㄆㄜˉ</t>
-  </si>
-  <si>
-    <t>lo⁵</t>
-  </si>
-  <si>
-    <t>ㄌㄜˊ</t>
-  </si>
-  <si>
-    <t>bit⁸</t>
-  </si>
-  <si>
-    <t>ㆠㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>king¹</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>hun¹</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>te⁷</t>
-  </si>
-  <si>
-    <t>ㄉㆤ˫</t>
-  </si>
-  <si>
-    <t>ju⁵</t>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-  </si>
-  <si>
-    <t>si⁷</t>
-  </si>
-  <si>
-    <t>ㄒㄧ˫</t>
-  </si>
-  <si>
-    <t>ki⁵</t>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-  </si>
-  <si>
-    <t>se³</t>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-  </si>
-  <si>
-    <t>zun¹</t>
-  </si>
-  <si>
-    <t>ㄗㄨㄣˉ</t>
-  </si>
-  <si>
     <t>ㄚˋ</t>
   </si>
   <si>
@@ -1292,22 +1196,10 @@
     <t>！</t>
   </si>
   <si>
-    <t>薩</t>
-  </si>
-  <si>
-    <t>、</t>
-  </si>
-  <si>
     <t>云</t>
   </si>
   <si>
     <t>何</t>
-  </si>
-  <si>
-    <t>應</t>
-  </si>
-  <si>
-    <t>住</t>
   </si>
   <si>
     <t>？</t>
@@ -1343,16 +1235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔sat⁴〕
-【ㄙㄚㆵ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔lam⁵〕
-【ㄌㆰˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔lo⁵〕
 【ㄌㄜˊ】</t>
   </si>
@@ -1367,16 +1249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔ing¹〕
-【ㄧㄥˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔zu⁷〕
-【ㄗㄨ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔soo²〕
 【ㄙㆦˋ】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1386,11 +1258,6 @@
 【ㄍㄧㆬˉ】</t>
   </si>
   <si>
-    <t>〔ui⁵〕
-【ㄨㄧˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔kong¹〕
 【ㄍㆲˉ】</t>
   </si>
@@ -1407,188 +1274,12 @@
 【ㆠㄧㆵ˙】</t>
   </si>
   <si>
-    <t>su¹</t>
-  </si>
-  <si>
-    <t>ㄙㄨˉ</t>
-  </si>
-  <si>
-    <t>phoo⁵</t>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-  </si>
-  <si>
-    <t>theh⁸</t>
-  </si>
-  <si>
-    <t>ㄊㆤㆷ˙</t>
-  </si>
-  <si>
-    <t>hi¹</t>
-  </si>
-  <si>
-    <t>ㄏㄧˉ</t>
-  </si>
-  <si>
-    <t>sat⁴</t>
-  </si>
-  <si>
-    <t>ㄙㄚㆵ</t>
-  </si>
-  <si>
-    <t>lam⁵</t>
-  </si>
-  <si>
-    <t>ㄌㆰˊ</t>
-  </si>
-  <si>
-    <t>un⁵</t>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-  </si>
-  <si>
-    <t>ho⁵</t>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-  </si>
-  <si>
-    <t>ing¹</t>
-  </si>
-  <si>
-    <t>ㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>zu⁷</t>
-  </si>
-  <si>
-    <t>ㄗㄨ˫</t>
-  </si>
-  <si>
-    <t>hok⁸</t>
-  </si>
-  <si>
-    <t>soo²</t>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-  </si>
-  <si>
-    <t>ui⁵</t>
-  </si>
-  <si>
-    <t>ㄨㄧˊ</t>
-  </si>
-  <si>
-    <t>南</t>
-  </si>
-  <si>
-    <t>〔hong¹〕
-【ㄏㆲˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔u⁵〕
 【ㄨˊ】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>si¹</t>
-  </si>
-  <si>
-    <t>ㄒㄧˉ</t>
-  </si>
-  <si>
-    <t>hong¹</t>
-  </si>
-  <si>
-    <t>ㄏㆲˉ</t>
-  </si>
-  <si>
-    <t>u⁵</t>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-  </si>
-  <si>
     <t>https://shoplineimg.com/5db585d59db3cb0012a18bce/5f2a9d3f30cc6200455c1c25/1296x.webp?source_format=jpg</t>
-  </si>
-  <si>
-    <r>
-      <t>〔p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="0"/>
-        <rFont val="BatangChe"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ⁿ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="0"/>
-        <rFont val="Iansui 094"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>ua¹〕
-【ㄅㄨㆩˉ】</t>
-    </r>
-  </si>
-  <si>
-    <t>《</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色</t>
-  </si>
-  <si>
-    <t>無</t>
-  </si>
-  <si>
-    <t>量</t>
   </si>
   <si>
     <t>以</t>
@@ -1605,16 +1296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔bo⁵〕
-【ㆠㄜˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔liong⁷〕
-【ㄌㄧㆲ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔i²〕
 【ㄧˋ】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1630,199 +1311,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>siek⁴</t>
-  </si>
-  <si>
-    <t>bo⁵</t>
-  </si>
-  <si>
-    <t>ㆠㄜˊ</t>
-  </si>
-  <si>
-    <t>liong⁷</t>
-  </si>
-  <si>
-    <t>ㄌㄧㆲ˫</t>
-  </si>
-  <si>
-    <t>i²</t>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-  </si>
-  <si>
-    <t>koo³</t>
-  </si>
-  <si>
-    <t>ㄍㆦ˪</t>
-  </si>
-  <si>
-    <t>siong¹</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆲˉ</t>
-  </si>
-  <si>
-    <t>〔hok⁸〕
-【ㄏㆦㆻ˙】</t>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>〔siek⁴〕
-【ㄒㄧㆤㆻ】</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆤㆻ</t>
-  </si>
-  <si>
-    <t>ㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《金剛般若波羅蜜經》
-妙行無住分第四
-復次：「須菩提！菩薩於法，應無所住，行於布施。所謂不住色布施，不住聲、香、味、觸、法布施。須菩提！菩薩應如是布施，不住於相。何以故？若菩薩不住相布施，其福德不可思量。須菩提！於意云何？東方虛空可思量不？」「不也，世尊！」「須菩提！南、西、北方、四維、上、下虛空，可思量不？」「不也。世尊！」「須菩提！菩薩無住相布施，福德亦復如是不可思量。須菩提！菩薩但應如所教住！」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金剛般若波羅蜜經。妙行無住分第四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妙</t>
-  </si>
-  <si>
-    <t>行</t>
-  </si>
-  <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>復</t>
-  </si>
-  <si>
-    <t>次</t>
-  </si>
-  <si>
     <t>於</t>
   </si>
   <si>
-    <t>法</t>
-  </si>
-  <si>
-    <t>布</t>
-  </si>
-  <si>
-    <t>施</t>
-  </si>
-  <si>
-    <t>謂</t>
-  </si>
-  <si>
     <t>不</t>
   </si>
   <si>
-    <t>聲</t>
-  </si>
-  <si>
-    <t>香</t>
-  </si>
-  <si>
-    <t>味</t>
-  </si>
-  <si>
-    <t>觸</t>
-  </si>
-  <si>
-    <t>福</t>
-  </si>
-  <si>
-    <t>德</t>
-  </si>
-  <si>
     <t>可</t>
   </si>
   <si>
-    <t>思</t>
-  </si>
-  <si>
     <t>意</t>
   </si>
   <si>
-    <t>東</t>
-  </si>
-  <si>
-    <t>方</t>
-  </si>
-  <si>
     <t>虛</t>
   </si>
   <si>
-    <t>空</t>
-  </si>
-  <si>
     <t>也</t>
-  </si>
-  <si>
-    <t>西</t>
-  </si>
-  <si>
-    <t>北</t>
-  </si>
-  <si>
-    <t>維</t>
-  </si>
-  <si>
-    <t>上</t>
-  </si>
-  <si>
-    <t>下</t>
-  </si>
-  <si>
-    <t>亦</t>
-  </si>
-  <si>
-    <t>但</t>
-  </si>
-  <si>
-    <t>教</t>
-  </si>
-  <si>
-    <t>〔biau⁷〕
-【ㆠㄧㄠ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔kⁿia⁵〕
-【ㄍㄧㆩˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔si³〕
-【ㄒㄧ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔cu³〕
-【ㄘㄨ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔huat⁴〕
-【ㄏㄨㄚㆵ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔poo³〕
-【ㄅㆦ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔si¹〕
-【ㄒㄧˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>〔put⁴〕
@@ -1830,21 +1334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔sⁿia¹〕
-【ㄒㄧㆩˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔hⁿiu¹〕
-【ㄏㄧㆫˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔bi⁷〕
-【ㆠㄧ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔kho²〕
 【ㄎㄜˋ】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1855,237 +1344,575 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔tang¹〕
-【ㄉㄤˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔khang¹〕
-【ㄎㄤˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔ia⁷〕
 【ㄧㄚ˫】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔se¹〕
-【ㄙㆤˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔siong⁷〕
-【ㄒㄧㆲ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔e¹〕
-【ㆤˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔khoo²〕
-【ㄎㆦˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔iah⁸〕
-【ㄧㄚㆷ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔liong⁵〕
-【ㄌㄧㆲˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔tan⁷〕
-【ㄉㄢ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ka³〕
-【ㄍㄚ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ciok⁴〕
-【ㄑㄧㆦㆻ】</t>
-  </si>
-  <si>
-    <t>〔hok⁴〕
-【ㄏㆦㆻ】</t>
-  </si>
-  <si>
-    <t>〔tiek⁴〕
-【ㄉㄧㆤㆻ】</t>
-  </si>
-  <si>
-    <t>〔pak⁴〕
-【ㄅㄚㆻ】</t>
-  </si>
-  <si>
-    <t>biau⁷</t>
-  </si>
-  <si>
-    <t>ㆠㄧㄠ˫</t>
-  </si>
-  <si>
-    <t>kⁿia⁵</t>
-  </si>
-  <si>
-    <t>ㄍㄧㆩˊ</t>
-  </si>
-  <si>
-    <t>si³</t>
-  </si>
-  <si>
-    <t>ㄒㄧ˪</t>
-  </si>
-  <si>
-    <t>cu³</t>
-  </si>
-  <si>
-    <t>ㄘㄨ˪</t>
-  </si>
-  <si>
-    <t>huat⁴</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-  </si>
-  <si>
-    <t>poo³</t>
-  </si>
-  <si>
-    <t>ㄅㆦ˪</t>
+    <t>每頁總列數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每列總字數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>剛</t>
+  </si>
+  <si>
+    <t>般</t>
+  </si>
+  <si>
+    <t>波</t>
+  </si>
+  <si>
+    <t>羅</t>
+  </si>
+  <si>
+    <t>蜜</t>
+  </si>
+  <si>
+    <t>經</t>
+  </si>
+  <si>
+    <t>》</t>
+  </si>
+  <si>
+    <t>《金剛般若波羅蜜經》
+如理實見分第五
+「須菩提！於意云何？可以身相見如來不？」「不也，世尊！不可以身相得見如來。何以故？如來所說身相，即非身相。」佛告須菩提：「凡所有相，皆是虛妄。若見諸相非相，即見如來。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金剛般若波羅蜜經。如理實見分第五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理</t>
+  </si>
+  <si>
+    <t>實</t>
+  </si>
+  <si>
+    <t>見</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>身</t>
+  </si>
+  <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>得</t>
+  </si>
+  <si>
+    <t>說</t>
+  </si>
+  <si>
+    <t>即</t>
+  </si>
+  <si>
+    <t>非</t>
+  </si>
+  <si>
+    <t>佛</t>
+  </si>
+  <si>
+    <t>告</t>
+  </si>
+  <si>
+    <t>凡</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>皆</t>
+  </si>
+  <si>
+    <t>妄</t>
+  </si>
+  <si>
+    <t>諸</t>
+  </si>
+  <si>
+    <t>〔pⁿua¹〕
+【ㄅㄨㆩˉ】</t>
+  </si>
+  <si>
+    <t>〔li²〕
+【ㄌㄧˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sit⁸〕
+【ㄒㄧㆵ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kⁿi³〕
+【ㄍㆪ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔goo⁷〕
+【ㆣㆦ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sin¹〕
+【ㄒㄧㄣˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lai⁰〕
+【ㄌㄞ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tit⁴〕
+【ㄉㄧㆵ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔la⁰〕
+【ㄌㄚ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔suat⁴〕
+【ㄙㄨㄚㆵ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ziah⁴〕
+【ㄐㄧㄚㆷ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hui¹〕
+【ㄏㄨㄧˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔put⁸〕
+【ㄅㄨㆵ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ko³〕
+【ㄍㄜ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔huan⁵〕
+【ㄏㄨㄢˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔u⁷〕
+【ㄨ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kai¹〕
+【ㄍㄞˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔bong⁷〕
+【ㆠㆲ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zu¹〕
+【ㄗㄨˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kong¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pⁿua¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆩˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>na²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pho¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄜˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit⁸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit⁸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kⁿi³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆪ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te⁷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo⁷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theh⁸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai⁰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>put⁴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄅㄨㆵ</t>
-  </si>
-  <si>
-    <t>sⁿia¹</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆩˉ</t>
-  </si>
-  <si>
-    <t>hⁿiu¹</t>
-  </si>
-  <si>
-    <t>ㄏㄧㆫˉ</t>
-  </si>
-  <si>
-    <t>bi⁷</t>
-  </si>
-  <si>
-    <t>ㆠㄧ˫</t>
-  </si>
-  <si>
-    <t>ciok⁴</t>
-  </si>
-  <si>
-    <t>ㄑㄧㆦㆻ</t>
-  </si>
-  <si>
-    <t>hok⁴</t>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ</t>
-  </si>
-  <si>
-    <t>tiek⁴</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆤㆻ</t>
-  </si>
-  <si>
-    <t>kho²</t>
-  </si>
-  <si>
-    <t>ㄎㄜˋ</t>
-  </si>
-  <si>
-    <t>i³</t>
-  </si>
-  <si>
-    <t>ㄧ˪</t>
-  </si>
-  <si>
-    <t>tang¹</t>
-  </si>
-  <si>
-    <t>ㄉㄤˉ</t>
-  </si>
-  <si>
-    <t>khang¹</t>
-  </si>
-  <si>
-    <t>ㄎㄤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ia⁷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㄚ˫</t>
-  </si>
-  <si>
-    <t>se¹</t>
-  </si>
-  <si>
-    <t>ㄙㆤˉ</t>
-  </si>
-  <si>
-    <t>pak⁴</t>
-  </si>
-  <si>
-    <t>ㄅㄚㆻ</t>
-  </si>
-  <si>
-    <t>siong⁷</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˫</t>
-  </si>
-  <si>
-    <t>e¹</t>
-  </si>
-  <si>
-    <t>ㆤˉ</t>
-  </si>
-  <si>
-    <t>khoo²</t>
-  </si>
-  <si>
-    <t>ㄎㆦˋ</t>
-  </si>
-  <si>
-    <t>iah⁸</t>
-  </si>
-  <si>
-    <t>ㄧㄚㆷ˙</t>
-  </si>
-  <si>
-    <t>liong⁵</t>
-  </si>
-  <si>
-    <t>ㄌㄧㆲˊ</t>
-  </si>
-  <si>
-    <t>tan⁷</t>
-  </si>
-  <si>
-    <t>ㄉㄢ˫</t>
-  </si>
-  <si>
-    <t>ka³</t>
-  </si>
-  <si>
-    <t>ㄍㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit⁴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>la⁰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄚ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat⁴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziah⁴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hui¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put⁸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u⁷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si⁷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bong⁷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2558,13 +2385,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="48"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Serif TC Medium"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="0"/>
       <name val="Iansui 094"/>
@@ -2612,17 +2432,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="BatangChe"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="霞鶩文楷 TC"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FF000000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -2825,7 +2653,7 @@
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3030,13 +2858,10 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -3049,14 +2874,14 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -3066,7 +2891,7 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -3088,23 +2913,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
@@ -3122,65 +2962,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3190,7 +2971,79 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3897,10 +3750,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -3940,7 +3793,7 @@
         <v>166</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3948,15 +3801,31 @@
         <v>167</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="91" t="b">
-        <v>1</v>
+      <c r="C7" s="90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="98">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3972,10 +3841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
-  <dimension ref="B2:V62"/>
+  <dimension ref="B2:V82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -4055,233 +3924,233 @@
       <c r="S2" s="60"/>
       <c r="V2" s="68">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" s="79" customFormat="1" ht="60" customHeight="1">
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="113" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="113" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="113" t="s">
-        <v>257</v>
-      </c>
-      <c r="J3" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="K3" s="113" t="s">
-        <v>258</v>
-      </c>
-      <c r="L3" s="113" t="s">
-        <v>243</v>
-      </c>
-      <c r="M3" s="113"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="75"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" s="78" customFormat="1" ht="60" customHeight="1">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="74"/>
       <c r="T3" s="71"/>
-      <c r="V3" s="96" t="s">
-        <v>333</v>
+      <c r="V3" s="100" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="119" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" s="119" t="s">
-        <v>192</v>
-      </c>
-      <c r="I4" s="119" t="s">
-        <v>194</v>
-      </c>
-      <c r="J4" s="119" t="s">
-        <v>196</v>
-      </c>
-      <c r="K4" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="119" t="s">
-        <v>200</v>
-      </c>
-      <c r="M4" s="119"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="I4" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="J4" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="K4" s="89" t="s">
+        <v>298</v>
+      </c>
+      <c r="L4" s="89" t="s">
+        <v>300</v>
+      </c>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="53"/>
-      <c r="V4" s="97"/>
+      <c r="V4" s="101"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="66">
         <v>1</v>
       </c>
-      <c r="D5" s="111" t="s">
-        <v>295</v>
-      </c>
-      <c r="E5" s="111" t="s">
-        <v>296</v>
-      </c>
-      <c r="F5" s="111" t="s">
-        <v>297</v>
-      </c>
-      <c r="G5" s="111" t="s">
-        <v>298</v>
-      </c>
-      <c r="H5" s="111" t="s">
-        <v>299</v>
-      </c>
-      <c r="I5" s="111" t="s">
-        <v>300</v>
-      </c>
-      <c r="J5" s="111" t="s">
-        <v>301</v>
-      </c>
-      <c r="K5" s="111" t="s">
-        <v>302</v>
-      </c>
-      <c r="L5" s="111" t="s">
-        <v>303</v>
-      </c>
-      <c r="M5" s="111" t="s">
-        <v>304</v>
-      </c>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
+      <c r="D5" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="96" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="96" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="M5" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
       <c r="S5" s="54"/>
-      <c r="V5" s="97"/>
+      <c r="V5" s="101"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="120" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="120" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" s="120" t="s">
-        <v>193</v>
-      </c>
-      <c r="I6" s="120" t="s">
-        <v>195</v>
-      </c>
-      <c r="J6" s="120" t="s">
-        <v>197</v>
-      </c>
-      <c r="K6" s="120" t="s">
-        <v>199</v>
-      </c>
-      <c r="L6" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="95" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="J6" s="95" t="s">
+        <v>297</v>
+      </c>
+      <c r="K6" s="95" t="s">
+        <v>299</v>
+      </c>
+      <c r="L6" s="95" t="s">
+        <v>301</v>
+      </c>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
       <c r="S6" s="55"/>
-      <c r="V6" s="97"/>
+      <c r="V6" s="101"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="64"/>
       <c r="C7" s="56"/>
-      <c r="D7" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="E7" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="F7" s="80" t="s">
-        <v>312</v>
-      </c>
-      <c r="G7" s="80" t="s">
-        <v>251</v>
-      </c>
-      <c r="H7" s="80" t="s">
+      <c r="D7" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="J7" s="80" t="s">
-        <v>370</v>
-      </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
+      <c r="J7" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
       <c r="S7" s="57"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="101"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
-      <c r="D8" s="90" t="s">
-        <v>396</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>398</v>
-      </c>
-      <c r="F8" s="90" t="s">
-        <v>318</v>
-      </c>
-      <c r="G8" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="H8" s="90" t="s">
-        <v>202</v>
-      </c>
-      <c r="I8" s="90" t="s">
-        <v>204</v>
-      </c>
-      <c r="J8" s="90" t="s">
-        <v>400</v>
-      </c>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
+      <c r="D8" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>308</v>
+      </c>
+      <c r="H8" s="89" t="s">
+        <v>310</v>
+      </c>
+      <c r="I8" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="J8" s="89" t="s">
+        <v>314</v>
+      </c>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
       <c r="S8" s="53"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="101"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="66">
@@ -4289,159 +4158,163 @@
         <v>2</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="72" t="s">
-        <v>335</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>336</v>
-      </c>
-      <c r="F9" s="72" t="s">
-        <v>306</v>
-      </c>
-      <c r="G9" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="H9" s="72" t="s">
+      <c r="D9" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="H9" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="I9" s="72" t="s">
+      <c r="I9" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="J9" s="72" t="s">
-        <v>337</v>
-      </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
+      <c r="J9" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
       <c r="S9" s="54"/>
       <c r="T9" s="71"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="101"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
-      <c r="D10" s="120" t="s">
-        <v>397</v>
-      </c>
-      <c r="E10" s="120" t="s">
-        <v>399</v>
-      </c>
-      <c r="F10" s="120" t="s">
-        <v>319</v>
-      </c>
-      <c r="G10" s="120" t="s">
-        <v>278</v>
-      </c>
-      <c r="H10" s="120" t="s">
-        <v>203</v>
-      </c>
-      <c r="I10" s="120" t="s">
+      <c r="D10" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="95" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="95" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="H10" s="95" t="s">
+        <v>311</v>
+      </c>
+      <c r="I10" s="95" t="s">
+        <v>313</v>
+      </c>
+      <c r="J10" s="95" t="s">
+        <v>315</v>
+      </c>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="58"/>
+      <c r="V10" s="101"/>
+    </row>
+    <row r="11" spans="2:22" s="83" customFormat="1" ht="60" customHeight="1">
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="J10" s="120" t="s">
-        <v>401</v>
-      </c>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="58"/>
-      <c r="V10" s="97"/>
-    </row>
-    <row r="11" spans="2:22" s="84" customFormat="1" ht="60" customHeight="1">
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="80" t="s">
-        <v>328</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>371</v>
-      </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="I11" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="J11" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="M11" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="N11" s="83" t="s">
-        <v>286</v>
-      </c>
-      <c r="O11" s="83" t="s">
-        <v>372</v>
-      </c>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83" t="s">
-        <v>250</v>
-      </c>
-      <c r="R11" s="83" t="s">
-        <v>312</v>
+      <c r="G11" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79" t="s">
+        <v>218</v>
+      </c>
+      <c r="J11" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="K11" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="L11" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="M11" s="79"/>
+      <c r="N11" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="O11" s="82" t="s">
+        <v>224</v>
+      </c>
+      <c r="P11" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q11" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="R11" s="82" t="s">
+        <v>270</v>
       </c>
       <c r="S11" s="57"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="101"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
-      <c r="D12" s="90" t="s">
-        <v>279</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>402</v>
-      </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90" t="s">
-        <v>259</v>
-      </c>
-      <c r="I12" s="90" t="s">
-        <v>261</v>
-      </c>
-      <c r="J12" s="90" t="s">
-        <v>263</v>
-      </c>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90" t="s">
-        <v>261</v>
-      </c>
-      <c r="M12" s="90" t="s">
-        <v>267</v>
-      </c>
-      <c r="N12" s="90" t="s">
-        <v>291</v>
-      </c>
-      <c r="O12" s="90" t="s">
-        <v>404</v>
-      </c>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90" t="s">
-        <v>275</v>
-      </c>
-      <c r="R12" s="90" t="s">
+      <c r="D12" s="89"/>
+      <c r="E12" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="F12" s="89" t="s">
         <v>318</v>
       </c>
+      <c r="G12" s="89" t="s">
+        <v>320</v>
+      </c>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89" t="s">
+        <v>322</v>
+      </c>
+      <c r="J12" s="89" t="s">
+        <v>324</v>
+      </c>
+      <c r="K12" s="89" t="s">
+        <v>326</v>
+      </c>
+      <c r="L12" s="89" t="s">
+        <v>328</v>
+      </c>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89" t="s">
+        <v>330</v>
+      </c>
+      <c r="O12" s="89" t="s">
+        <v>332</v>
+      </c>
+      <c r="P12" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q12" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="R12" s="89" t="s">
+        <v>308</v>
+      </c>
       <c r="S12" s="53"/>
-      <c r="V12" s="97"/>
+      <c r="V12" s="101"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="66">
@@ -4449,187 +4322,177 @@
         <v>3</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>339</v>
-      </c>
-      <c r="F13" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="72" t="s">
+      <c r="D13" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="96" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="J13" s="96" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="L13" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="M13" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="N13" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="H13" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>227</v>
-      </c>
-      <c r="J13" s="72" t="s">
-        <v>228</v>
-      </c>
-      <c r="K13" s="72" t="s">
-        <v>230</v>
-      </c>
-      <c r="L13" s="72" t="s">
-        <v>227</v>
-      </c>
-      <c r="M13" s="72" t="s">
-        <v>231</v>
-      </c>
-      <c r="N13" s="72" t="s">
-        <v>340</v>
-      </c>
-      <c r="O13" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="P13" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q13" s="72" t="s">
-        <v>235</v>
-      </c>
-      <c r="R13" s="72" t="s">
-        <v>306</v>
+      <c r="O13" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q13" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="R13" s="96" t="s">
+        <v>252</v>
       </c>
       <c r="S13" s="54"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="102"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="95"/>
+      <c r="E14" s="95" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="95" t="s">
+        <v>321</v>
+      </c>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95" t="s">
+        <v>323</v>
+      </c>
+      <c r="J14" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="K14" s="95" t="s">
+        <v>327</v>
+      </c>
+      <c r="L14" s="95" t="s">
         <v>329</v>
       </c>
-      <c r="E14" s="120" t="s">
-        <v>403</v>
-      </c>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="I14" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="J14" s="120" t="s">
-        <v>264</v>
-      </c>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="M14" s="120" t="s">
-        <v>268</v>
-      </c>
-      <c r="N14" s="120" t="s">
-        <v>292</v>
-      </c>
-      <c r="O14" s="120" t="s">
-        <v>405</v>
-      </c>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120" t="s">
-        <v>276</v>
-      </c>
-      <c r="R14" s="120" t="s">
-        <v>319</v>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="O14" s="95" t="s">
+        <v>333</v>
+      </c>
+      <c r="P14" s="95" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q14" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="R14" s="95" t="s">
+        <v>309</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="69"/>
     </row>
-    <row r="15" spans="2:22" s="87" customFormat="1" ht="60" customHeight="1">
-      <c r="B15" s="76"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="80" t="s">
-        <v>252</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="H15" s="80" t="s">
-        <v>286</v>
-      </c>
-      <c r="I15" s="80" t="s">
-        <v>373</v>
-      </c>
-      <c r="J15" s="80" t="s">
-        <v>374</v>
-      </c>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80" t="s">
-        <v>252</v>
-      </c>
-      <c r="M15" s="80" t="s">
-        <v>254</v>
-      </c>
-      <c r="N15" s="80" t="s">
-        <v>375</v>
-      </c>
-      <c r="O15" s="80" t="s">
-        <v>251</v>
-      </c>
-      <c r="P15" s="80" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q15" s="80" t="s">
-        <v>373</v>
-      </c>
-      <c r="R15" s="80" t="s">
-        <v>374</v>
-      </c>
-      <c r="S15" s="86"/>
-      <c r="V15" s="88"/>
+    <row r="15" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B15" s="75"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="K15" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="N15" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q15" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="R15" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="S15" s="85"/>
+      <c r="V15" s="87"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
-      <c r="D16" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90" t="s">
-        <v>398</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>291</v>
-      </c>
-      <c r="I16" s="90" t="s">
-        <v>406</v>
-      </c>
-      <c r="J16" s="90" t="s">
-        <v>287</v>
-      </c>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="M16" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="N16" s="90" t="s">
-        <v>408</v>
-      </c>
-      <c r="O16" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="P16" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q16" s="90" t="s">
-        <v>406</v>
-      </c>
-      <c r="R16" s="90" t="s">
-        <v>287</v>
+      <c r="D16" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="89" t="s">
+        <v>342</v>
+      </c>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89" t="s">
+        <v>344</v>
+      </c>
+      <c r="N16" s="89" t="s">
+        <v>346</v>
+      </c>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q16" s="89" t="s">
+        <v>330</v>
+      </c>
+      <c r="R16" s="89" t="s">
+        <v>332</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="69"/>
@@ -4640,50 +4503,50 @@
         <v>4</v>
       </c>
       <c r="C17" s="52"/>
-      <c r="D17" s="72" t="s">
-        <v>239</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="F17" s="72" t="s">
+      <c r="D17" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="J17" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="L17" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="72" t="s">
-        <v>336</v>
-      </c>
-      <c r="H17" s="72" t="s">
-        <v>340</v>
-      </c>
-      <c r="I17" s="72" t="s">
-        <v>342</v>
-      </c>
-      <c r="J17" s="72" t="s">
-        <v>343</v>
-      </c>
-      <c r="K17" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="L17" s="72" t="s">
-        <v>239</v>
-      </c>
-      <c r="M17" s="72" t="s">
-        <v>344</v>
-      </c>
-      <c r="N17" s="72" t="s">
-        <v>345</v>
-      </c>
-      <c r="O17" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="P17" s="72" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q17" s="72" t="s">
-        <v>342</v>
-      </c>
-      <c r="R17" s="72" t="s">
-        <v>343</v>
+      <c r="M17" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="N17" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="P17" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="R17" s="96" t="s">
+        <v>220</v>
       </c>
       <c r="S17" s="54"/>
       <c r="V17" s="69"/>
@@ -4691,2050 +4554,1894 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
-      <c r="D18" s="120" t="s">
-        <v>281</v>
-      </c>
-      <c r="E18" s="120" t="s">
-        <v>278</v>
-      </c>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120" t="s">
-        <v>399</v>
-      </c>
-      <c r="H18" s="120" t="s">
-        <v>292</v>
-      </c>
-      <c r="I18" s="120" t="s">
-        <v>407</v>
-      </c>
-      <c r="J18" s="120" t="s">
-        <v>288</v>
-      </c>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120" t="s">
-        <v>281</v>
-      </c>
-      <c r="M18" s="120" t="s">
-        <v>283</v>
-      </c>
-      <c r="N18" s="120" t="s">
-        <v>409</v>
-      </c>
-      <c r="O18" s="120" t="s">
-        <v>278</v>
-      </c>
-      <c r="P18" s="120" t="s">
+      <c r="D18" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="95" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="K18" s="95" t="s">
+        <v>343</v>
+      </c>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95" t="s">
+        <v>345</v>
+      </c>
+      <c r="N18" s="95" t="s">
+        <v>347</v>
+      </c>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q18" s="95" t="s">
         <v>331</v>
       </c>
-      <c r="Q18" s="120" t="s">
-        <v>407</v>
-      </c>
-      <c r="R18" s="120" t="s">
-        <v>288</v>
+      <c r="R18" s="95" t="s">
+        <v>333</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="69"/>
     </row>
-    <row r="19" spans="2:22" s="117" customFormat="1" ht="60" customHeight="1">
-      <c r="B19" s="112"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114" t="s">
-        <v>375</v>
-      </c>
-      <c r="F19" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="G19" s="114" t="s">
-        <v>376</v>
-      </c>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114" t="s">
-        <v>377</v>
-      </c>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114" t="s">
-        <v>378</v>
-      </c>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114" t="s">
-        <v>392</v>
-      </c>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114" t="s">
-        <v>372</v>
-      </c>
-      <c r="P19" s="114" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q19" s="114" t="s">
-        <v>374</v>
-      </c>
-      <c r="R19" s="114"/>
-      <c r="S19" s="116"/>
-      <c r="V19" s="118"/>
-    </row>
-    <row r="20" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B20" s="107"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119" t="s">
-        <v>408</v>
-      </c>
-      <c r="F20" s="119" t="s">
-        <v>277</v>
-      </c>
-      <c r="G20" s="119" t="s">
-        <v>410</v>
-      </c>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119" t="s">
-        <v>412</v>
-      </c>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119" t="s">
-        <v>414</v>
-      </c>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119" t="s">
-        <v>416</v>
-      </c>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119" t="s">
-        <v>404</v>
-      </c>
-      <c r="P20" s="119" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q20" s="119" t="s">
-        <v>287</v>
-      </c>
-      <c r="R20" s="119"/>
-      <c r="S20" s="104"/>
-      <c r="V20" s="110"/>
-    </row>
-    <row r="21" spans="2:22" s="102" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B21" s="108">
+    <row r="19" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B19" s="75"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="H19" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="M19" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="P19" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q19" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="R19" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="S19" s="85"/>
+      <c r="V19" s="87"/>
+    </row>
+    <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B20" s="65"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="G20" s="89" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="I20" s="89" t="s">
+        <v>338</v>
+      </c>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89" t="s">
+        <v>328</v>
+      </c>
+      <c r="L20" s="89" t="s">
+        <v>332</v>
+      </c>
+      <c r="M20" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="P20" s="89" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q20" s="89" t="s">
+        <v>354</v>
+      </c>
+      <c r="R20" s="89" t="s">
+        <v>356</v>
+      </c>
+      <c r="S20" s="53"/>
+      <c r="V20" s="69"/>
+    </row>
+    <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B21" s="66">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="F21" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="G21" s="111" t="s">
-        <v>346</v>
-      </c>
-      <c r="H21" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="I21" s="111" t="s">
-        <v>347</v>
-      </c>
-      <c r="J21" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="K21" s="111" t="s">
-        <v>348</v>
-      </c>
-      <c r="L21" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="M21" s="111" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="H21" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="J21" s="96" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="M21" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="N21" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="P21" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q21" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="R21" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="S21" s="54"/>
+      <c r="V21" s="69"/>
+    </row>
+    <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B22" s="67"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="95" t="s">
+        <v>335</v>
+      </c>
+      <c r="E22" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="F22" s="95" t="s">
         <v>349</v>
       </c>
-      <c r="N21" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="O21" s="111" t="s">
-        <v>341</v>
-      </c>
-      <c r="P21" s="111" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q21" s="111" t="s">
-        <v>343</v>
-      </c>
-      <c r="R21" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="S21" s="105"/>
-      <c r="V21" s="110"/>
-    </row>
-    <row r="22" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B22" s="109"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120" t="s">
-        <v>409</v>
-      </c>
-      <c r="F22" s="120" t="s">
+      <c r="G22" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="H22" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="I22" s="95" t="s">
+        <v>339</v>
+      </c>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="L22" s="95" t="s">
+        <v>333</v>
+      </c>
+      <c r="M22" s="95" t="s">
+        <v>351</v>
+      </c>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="P22" s="95" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q22" s="95" t="s">
+        <v>355</v>
+      </c>
+      <c r="R22" s="95" t="s">
+        <v>357</v>
+      </c>
+      <c r="S22" s="58"/>
+      <c r="V22" s="69"/>
+    </row>
+    <row r="23" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B23" s="75"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="H23" s="79" t="s">
         <v>278</v>
       </c>
-      <c r="G22" s="120" t="s">
-        <v>411</v>
-      </c>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120" t="s">
-        <v>413</v>
-      </c>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120" t="s">
-        <v>415</v>
-      </c>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120" t="s">
-        <v>417</v>
-      </c>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120" t="s">
-        <v>405</v>
-      </c>
-      <c r="P22" s="120" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q22" s="120" t="s">
-        <v>288</v>
-      </c>
-      <c r="R22" s="120"/>
-      <c r="S22" s="106"/>
-      <c r="V22" s="110"/>
-    </row>
-    <row r="23" spans="2:22" s="117" customFormat="1" ht="60" customHeight="1">
-      <c r="B23" s="112"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="E23" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="F23" s="114" t="s">
-        <v>242</v>
-      </c>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="I23" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="J23" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="K23" s="114" t="s">
-        <v>181</v>
-      </c>
-      <c r="L23" s="114" t="s">
-        <v>182</v>
-      </c>
-      <c r="M23" s="114" t="s">
-        <v>373</v>
-      </c>
-      <c r="N23" s="114" t="s">
-        <v>374</v>
-      </c>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q23" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="R23" s="114" t="s">
-        <v>286</v>
-      </c>
-      <c r="S23" s="116"/>
-      <c r="V23" s="118"/>
-    </row>
-    <row r="24" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B24" s="107"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="E24" s="119" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119" t="s">
-        <v>261</v>
-      </c>
-      <c r="I24" s="119" t="s">
-        <v>267</v>
-      </c>
-      <c r="J24" s="119" t="s">
-        <v>275</v>
-      </c>
-      <c r="K24" s="119" t="s">
+      <c r="I23" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="J23" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79" t="s">
+        <v>279</v>
+      </c>
+      <c r="N23" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="O23" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="P23" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q23" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="L24" s="119" t="s">
-        <v>208</v>
-      </c>
-      <c r="M24" s="119" t="s">
-        <v>406</v>
-      </c>
-      <c r="N24" s="119" t="s">
-        <v>287</v>
-      </c>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q24" s="119" t="s">
-        <v>277</v>
-      </c>
-      <c r="R24" s="119" t="s">
-        <v>291</v>
-      </c>
-      <c r="S24" s="104"/>
-      <c r="V24" s="110"/>
-    </row>
-    <row r="25" spans="2:22" s="102" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B25" s="108">
+      <c r="R23" s="79"/>
+      <c r="S23" s="85"/>
+      <c r="V23" s="87"/>
+    </row>
+    <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B24" s="65"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89" t="s">
+        <v>358</v>
+      </c>
+      <c r="H24" s="89" t="s">
+        <v>360</v>
+      </c>
+      <c r="I24" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="J24" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="N24" s="89" t="s">
+        <v>364</v>
+      </c>
+      <c r="O24" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="P24" s="89" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q24" s="89" t="s">
+        <v>320</v>
+      </c>
+      <c r="R24" s="89"/>
+      <c r="S24" s="53"/>
+      <c r="V24" s="69"/>
+    </row>
+    <row r="25" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B25" s="66">
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="111" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="I25" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="J25" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="96" t="s">
+        <v>175</v>
+      </c>
+      <c r="L25" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="N25" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="O25" s="96" t="s">
+        <v>194</v>
+      </c>
+      <c r="P25" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q25" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="R25" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="S25" s="54"/>
+      <c r="V25" s="69"/>
+    </row>
+    <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B26" s="67"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="95" t="s">
+        <v>335</v>
+      </c>
+      <c r="E26" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95" t="s">
+        <v>359</v>
+      </c>
+      <c r="H26" s="95" t="s">
+        <v>361</v>
+      </c>
+      <c r="I26" s="95" t="s">
+        <v>335</v>
+      </c>
+      <c r="J26" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95" t="s">
+        <v>363</v>
+      </c>
+      <c r="N26" s="95" t="s">
+        <v>365</v>
+      </c>
+      <c r="O26" s="95" t="s">
+        <v>317</v>
+      </c>
+      <c r="P26" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q26" s="95" t="s">
+        <v>321</v>
+      </c>
+      <c r="R26" s="95"/>
+      <c r="S26" s="58"/>
+      <c r="U26" s="1" t="str">
+        <f xml:space="preserve"> MID($N$26,3,1)</f>
+        <v>˪</v>
+      </c>
+      <c r="V26" s="69"/>
+    </row>
+    <row r="27" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B27" s="75"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="F27" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="H27" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="E25" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="F25" s="111" t="s">
-        <v>228</v>
-      </c>
-      <c r="G25" s="111" t="s">
-        <v>230</v>
-      </c>
-      <c r="H25" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="I25" s="111" t="s">
-        <v>231</v>
-      </c>
-      <c r="J25" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="K25" s="111" t="s">
-        <v>172</v>
-      </c>
-      <c r="L25" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="M25" s="111" t="s">
-        <v>342</v>
-      </c>
-      <c r="N25" s="111" t="s">
-        <v>343</v>
-      </c>
-      <c r="O25" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="P25" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q25" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="R25" s="111" t="s">
-        <v>340</v>
-      </c>
-      <c r="S25" s="105"/>
-      <c r="V25" s="110"/>
-    </row>
-    <row r="26" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B26" s="109"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="E26" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="F26" s="120" t="s">
-        <v>264</v>
-      </c>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="I26" s="120" t="s">
-        <v>268</v>
-      </c>
-      <c r="J26" s="120" t="s">
-        <v>276</v>
-      </c>
-      <c r="K26" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="L26" s="120" t="s">
-        <v>209</v>
-      </c>
-      <c r="M26" s="120" t="s">
-        <v>407</v>
-      </c>
-      <c r="N26" s="120" t="s">
-        <v>288</v>
-      </c>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q26" s="120" t="s">
-        <v>278</v>
-      </c>
-      <c r="R26" s="120" t="s">
-        <v>292</v>
-      </c>
-      <c r="S26" s="106"/>
-      <c r="U26" s="102" t="str">
-        <f xml:space="preserve"> MID($N$26,3,1)</f>
-        <v>ˉ</v>
-      </c>
-      <c r="V26" s="110"/>
-    </row>
-    <row r="27" spans="2:22" s="117" customFormat="1" ht="60" customHeight="1">
-      <c r="B27" s="112"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="114" t="s">
-        <v>316</v>
-      </c>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114" t="s">
-        <v>249</v>
-      </c>
-      <c r="G27" s="114" t="s">
-        <v>314</v>
-      </c>
-      <c r="H27" s="114" t="s">
-        <v>315</v>
-      </c>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114" t="s">
-        <v>311</v>
-      </c>
-      <c r="K27" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="L27" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="M27" s="114" t="s">
-        <v>375</v>
-      </c>
-      <c r="N27" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="O27" s="114" t="s">
-        <v>316</v>
-      </c>
-      <c r="P27" s="114" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q27" s="114" t="s">
-        <v>374</v>
-      </c>
-      <c r="R27" s="114"/>
-      <c r="S27" s="116"/>
-      <c r="U27" s="117" t="str">
+      <c r="I27" s="79"/>
+      <c r="J27" s="79" t="s">
+        <v>283</v>
+      </c>
+      <c r="K27" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="P27" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q27" s="79" t="s">
+        <v>285</v>
+      </c>
+      <c r="R27" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="S27" s="85"/>
+      <c r="U27" s="86" t="str">
         <f xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
       </c>
-      <c r="V27" s="118"/>
-    </row>
-    <row r="28" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B28" s="107"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="119" t="s">
-        <v>326</v>
-      </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="G28" s="119" t="s">
-        <v>322</v>
-      </c>
-      <c r="H28" s="119" t="s">
-        <v>324</v>
-      </c>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119" t="s">
-        <v>192</v>
-      </c>
-      <c r="K28" s="119" t="s">
-        <v>261</v>
-      </c>
-      <c r="L28" s="119" t="s">
-        <v>267</v>
-      </c>
-      <c r="M28" s="119" t="s">
-        <v>408</v>
-      </c>
-      <c r="N28" s="119" t="s">
-        <v>277</v>
-      </c>
-      <c r="O28" s="119" t="s">
-        <v>326</v>
-      </c>
-      <c r="P28" s="119" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q28" s="119" t="s">
-        <v>287</v>
-      </c>
-      <c r="R28" s="119"/>
-      <c r="S28" s="104"/>
-      <c r="U28" s="102" t="e">
-        <f xml:space="preserve"> _xlfn.UNICODE(U27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V28" s="110"/>
-    </row>
-    <row r="29" spans="2:22" s="102" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B29" s="108">
+      <c r="V27" s="87"/>
+    </row>
+    <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B28" s="65"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89" t="s">
+        <v>366</v>
+      </c>
+      <c r="F28" s="89" t="s">
+        <v>354</v>
+      </c>
+      <c r="G28" s="89" t="s">
+        <v>368</v>
+      </c>
+      <c r="H28" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89" t="s">
+        <v>370</v>
+      </c>
+      <c r="K28" s="89" t="s">
+        <v>372</v>
+      </c>
+      <c r="L28" s="89" t="s">
+        <v>374</v>
+      </c>
+      <c r="M28" s="89" t="s">
+        <v>376</v>
+      </c>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="P28" s="89" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q28" s="89" t="s">
+        <v>378</v>
+      </c>
+      <c r="R28" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="S28" s="53"/>
+      <c r="U28" s="86" t="str">
+        <f t="shared" ref="U28:U32" si="0" xml:space="preserve"> MID($N$26,4,1)</f>
+        <v/>
+      </c>
+      <c r="V28" s="69"/>
+    </row>
+    <row r="29" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B29" s="66">
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="E29" s="111" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="H29" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="M29" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="N29" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="111" t="s">
-        <v>234</v>
-      </c>
-      <c r="G29" s="111" t="s">
+      <c r="O29" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q29" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="R29" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="S29" s="54"/>
+      <c r="U29" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V29" s="69"/>
+    </row>
+    <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B30" s="67"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95" t="s">
+        <v>367</v>
+      </c>
+      <c r="F30" s="95" t="s">
+        <v>355</v>
+      </c>
+      <c r="G30" s="95" t="s">
+        <v>369</v>
+      </c>
+      <c r="H30" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95" t="s">
+        <v>371</v>
+      </c>
+      <c r="K30" s="95" t="s">
+        <v>373</v>
+      </c>
+      <c r="L30" s="95" t="s">
+        <v>375</v>
+      </c>
+      <c r="M30" s="95" t="s">
+        <v>377</v>
+      </c>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95" t="s">
+        <v>293</v>
+      </c>
+      <c r="P30" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q30" s="95" t="s">
+        <v>379</v>
+      </c>
+      <c r="R30" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="S30" s="58"/>
+      <c r="U30" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V30" s="69"/>
+    </row>
+    <row r="31" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B31" s="75"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="E31" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="H31" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="I31" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="85"/>
+      <c r="U31" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V31" s="87"/>
+    </row>
+    <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B32" s="65"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="89" t="s">
+        <v>360</v>
+      </c>
+      <c r="E32" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89" t="s">
+        <v>358</v>
+      </c>
+      <c r="H32" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="H29" s="111" t="s">
-        <v>309</v>
-      </c>
-      <c r="I29" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="J29" s="111" t="s">
-        <v>169</v>
-      </c>
-      <c r="K29" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="L29" s="111" t="s">
-        <v>231</v>
-      </c>
-      <c r="M29" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="N29" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="O29" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="P29" s="111" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q29" s="111" t="s">
-        <v>343</v>
-      </c>
-      <c r="R29" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="S29" s="105"/>
-      <c r="U29" s="102" t="e">
-        <f xml:space="preserve"> DEC2HEX(U28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V29" s="110"/>
-    </row>
-    <row r="30" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B30" s="109"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="120" t="s">
-        <v>327</v>
-      </c>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120" t="s">
-        <v>274</v>
-      </c>
-      <c r="G30" s="120" t="s">
-        <v>323</v>
-      </c>
-      <c r="H30" s="120" t="s">
-        <v>325</v>
-      </c>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120" t="s">
-        <v>193</v>
-      </c>
-      <c r="K30" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="L30" s="120" t="s">
-        <v>268</v>
-      </c>
-      <c r="M30" s="120" t="s">
-        <v>409</v>
-      </c>
-      <c r="N30" s="120" t="s">
-        <v>278</v>
-      </c>
-      <c r="O30" s="120" t="s">
-        <v>327</v>
-      </c>
-      <c r="P30" s="120" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q30" s="120" t="s">
-        <v>288</v>
-      </c>
-      <c r="R30" s="120"/>
-      <c r="S30" s="106"/>
-      <c r="U30" s="102" t="s">
-        <v>332</v>
-      </c>
-      <c r="V30" s="110"/>
-    </row>
-    <row r="31" spans="2:22" s="117" customFormat="1" ht="60" customHeight="1">
-      <c r="B31" s="112"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="114" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="114" t="s">
-        <v>393</v>
-      </c>
-      <c r="F31" s="114" t="s">
-        <v>394</v>
-      </c>
-      <c r="G31" s="114" t="s">
-        <v>375</v>
-      </c>
-      <c r="H31" s="114" t="s">
-        <v>379</v>
-      </c>
-      <c r="I31" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="J31" s="114" t="s">
-        <v>313</v>
-      </c>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="M31" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="N31" s="114" t="s">
-        <v>242</v>
-      </c>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q31" s="114" t="s">
-        <v>380</v>
-      </c>
-      <c r="R31" s="114" t="s">
-        <v>248</v>
-      </c>
-      <c r="S31" s="116"/>
-      <c r="V31" s="118"/>
-    </row>
-    <row r="32" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B32" s="107"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="119" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="119" t="s">
-        <v>418</v>
-      </c>
-      <c r="F32" s="119" t="s">
-        <v>420</v>
-      </c>
-      <c r="G32" s="119" t="s">
-        <v>408</v>
-      </c>
-      <c r="H32" s="119" t="s">
-        <v>422</v>
-      </c>
-      <c r="I32" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="J32" s="119" t="s">
-        <v>320</v>
-      </c>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="M32" s="119" t="s">
-        <v>261</v>
-      </c>
-      <c r="N32" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q32" s="119" t="s">
-        <v>424</v>
-      </c>
-      <c r="R32" s="119" t="s">
-        <v>271</v>
-      </c>
-      <c r="S32" s="104"/>
-      <c r="V32" s="110"/>
-    </row>
-    <row r="33" spans="2:22" s="102" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B33" s="108">
+      <c r="I32" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" s="89" t="s">
+        <v>338</v>
+      </c>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="53"/>
+      <c r="U32" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V32" s="69"/>
+    </row>
+    <row r="33" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B33" s="66">
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="111" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="111" t="s">
-        <v>350</v>
-      </c>
-      <c r="F33" s="111" t="s">
-        <v>351</v>
-      </c>
-      <c r="G33" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="H33" s="111" t="s">
-        <v>352</v>
-      </c>
-      <c r="I33" s="111" t="s">
-        <v>353</v>
-      </c>
-      <c r="J33" s="111" t="s">
-        <v>307</v>
-      </c>
-      <c r="K33" s="111" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="E33" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="H33" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="I33" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="J33" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="K33" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="L33" s="111" t="s">
-        <v>226</v>
-      </c>
-      <c r="M33" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="N33" s="111" t="s">
-        <v>228</v>
-      </c>
-      <c r="O33" s="111" t="s">
-        <v>230</v>
-      </c>
-      <c r="P33" s="111" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q33" s="111" t="s">
-        <v>354</v>
-      </c>
-      <c r="R33" s="111" t="s">
-        <v>233</v>
-      </c>
-      <c r="S33" s="105"/>
-      <c r="V33" s="110"/>
-    </row>
-    <row r="34" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="120" t="s">
-        <v>211</v>
-      </c>
-      <c r="E34" s="120" t="s">
-        <v>419</v>
-      </c>
-      <c r="F34" s="120" t="s">
-        <v>421</v>
-      </c>
-      <c r="G34" s="120" t="s">
-        <v>409</v>
-      </c>
-      <c r="H34" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="I34" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="J34" s="120" t="s">
-        <v>321</v>
-      </c>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="M34" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="N34" s="120" t="s">
-        <v>264</v>
-      </c>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q34" s="120" t="s">
-        <v>425</v>
-      </c>
-      <c r="R34" s="120" t="s">
-        <v>272</v>
-      </c>
-      <c r="S34" s="106"/>
-      <c r="V34" s="110"/>
-    </row>
-    <row r="35" spans="2:22" s="117" customFormat="1" ht="60" customHeight="1">
-      <c r="B35" s="112"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="114" t="s">
-        <v>249</v>
-      </c>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114" t="s">
-        <v>381</v>
-      </c>
-      <c r="G35" s="114" t="s">
-        <v>285</v>
-      </c>
-      <c r="H35" s="114" t="s">
-        <v>244</v>
-      </c>
-      <c r="I35" s="114" t="s">
-        <v>382</v>
-      </c>
-      <c r="J35" s="114" t="s">
-        <v>379</v>
-      </c>
-      <c r="K35" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="L35" s="114" t="s">
-        <v>313</v>
-      </c>
-      <c r="M35" s="114" t="s">
-        <v>375</v>
-      </c>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114" t="s">
-        <v>375</v>
-      </c>
-      <c r="R35" s="114" t="s">
-        <v>383</v>
-      </c>
-      <c r="S35" s="116"/>
-      <c r="V35" s="118"/>
-    </row>
-    <row r="36" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B36" s="107"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119" t="s">
-        <v>426</v>
-      </c>
-      <c r="G36" s="119" t="s">
-        <v>289</v>
-      </c>
-      <c r="H36" s="119" t="s">
-        <v>265</v>
-      </c>
-      <c r="I36" s="119" t="s">
-        <v>428</v>
-      </c>
-      <c r="J36" s="119" t="s">
-        <v>422</v>
-      </c>
-      <c r="K36" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="L36" s="119" t="s">
-        <v>320</v>
-      </c>
-      <c r="M36" s="119" t="s">
-        <v>408</v>
-      </c>
-      <c r="N36" s="119"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="119"/>
-      <c r="Q36" s="119" t="s">
-        <v>408</v>
-      </c>
-      <c r="R36" s="119" t="s">
-        <v>430</v>
-      </c>
-      <c r="S36" s="104"/>
-      <c r="V36" s="110"/>
-    </row>
-    <row r="37" spans="2:22" s="102" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B37" s="108">
+      <c r="L33" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="54"/>
+      <c r="V33" s="69"/>
+    </row>
+    <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B34" s="67"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="95" t="s">
+        <v>361</v>
+      </c>
+      <c r="E34" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95" t="s">
+        <v>359</v>
+      </c>
+      <c r="H34" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="I34" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="J34" s="95" t="s">
+        <v>339</v>
+      </c>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="58"/>
+      <c r="V34" s="69"/>
+    </row>
+    <row r="35" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B35" s="75"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="85"/>
+      <c r="V35" s="87"/>
+    </row>
+    <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B36" s="65"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="53"/>
+      <c r="V36" s="69"/>
+    </row>
+    <row r="37" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B37" s="66">
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="C37" s="103"/>
-      <c r="D37" s="111" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="F37" s="111" t="s">
-        <v>355</v>
-      </c>
-      <c r="G37" s="111" t="s">
-        <v>356</v>
-      </c>
-      <c r="H37" s="111" t="s">
-        <v>357</v>
-      </c>
-      <c r="I37" s="111" t="s">
-        <v>358</v>
-      </c>
-      <c r="J37" s="111" t="s">
-        <v>352</v>
-      </c>
-      <c r="K37" s="111" t="s">
-        <v>353</v>
-      </c>
-      <c r="L37" s="111" t="s">
-        <v>307</v>
-      </c>
-      <c r="M37" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="N37" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="O37" s="111" t="s">
-        <v>238</v>
-      </c>
-      <c r="P37" s="111" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q37" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="R37" s="111" t="s">
-        <v>359</v>
-      </c>
-      <c r="S37" s="105"/>
-      <c r="V37" s="110"/>
-    </row>
-    <row r="38" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B38" s="109"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="120" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120" t="s">
-        <v>427</v>
-      </c>
-      <c r="G38" s="120" t="s">
-        <v>290</v>
-      </c>
-      <c r="H38" s="120" t="s">
-        <v>266</v>
-      </c>
-      <c r="I38" s="120" t="s">
-        <v>429</v>
-      </c>
-      <c r="J38" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="K38" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="L38" s="120" t="s">
-        <v>321</v>
-      </c>
-      <c r="M38" s="120" t="s">
-        <v>409</v>
-      </c>
-      <c r="N38" s="120"/>
-      <c r="O38" s="120"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="120" t="s">
-        <v>409</v>
-      </c>
-      <c r="R38" s="120" t="s">
-        <v>431</v>
-      </c>
-      <c r="S38" s="106"/>
-      <c r="V38" s="110"/>
-    </row>
-    <row r="39" spans="2:22" s="117" customFormat="1" ht="60" customHeight="1">
-      <c r="B39" s="112"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" s="114" t="s">
-        <v>185</v>
-      </c>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="K39" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="L39" s="114" t="s">
-        <v>242</v>
-      </c>
-      <c r="M39" s="114"/>
-      <c r="N39" s="114" t="s">
-        <v>246</v>
-      </c>
-      <c r="O39" s="114"/>
-      <c r="P39" s="114" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q39" s="114"/>
-      <c r="R39" s="114" t="s">
-        <v>395</v>
-      </c>
-      <c r="S39" s="116"/>
-      <c r="V39" s="118"/>
-    </row>
-    <row r="40" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B40" s="107"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119" t="s">
-        <v>212</v>
-      </c>
-      <c r="F40" s="119" t="s">
-        <v>214</v>
-      </c>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="K40" s="119" t="s">
-        <v>261</v>
-      </c>
-      <c r="L40" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="M40" s="119"/>
-      <c r="N40" s="119" t="s">
-        <v>269</v>
-      </c>
-      <c r="O40" s="119"/>
-      <c r="P40" s="119" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="119" t="s">
-        <v>434</v>
-      </c>
-      <c r="S40" s="104"/>
-      <c r="V40" s="110"/>
-    </row>
-    <row r="41" spans="2:22" s="102" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B41" s="108">
+      <c r="C37" s="52"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="96"/>
+      <c r="S37" s="54"/>
+      <c r="V37" s="69"/>
+    </row>
+    <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B38" s="67"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="58"/>
+      <c r="V38" s="69"/>
+    </row>
+    <row r="39" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B39" s="75"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="85"/>
+      <c r="V39" s="87"/>
+    </row>
+    <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B40" s="65"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="53"/>
+      <c r="V40" s="69"/>
+    </row>
+    <row r="41" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B41" s="66">
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="C41" s="103"/>
-      <c r="D41" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="111" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="111" t="s">
-        <v>230</v>
-      </c>
-      <c r="H41" s="111" t="s">
-        <v>238</v>
-      </c>
-      <c r="I41" s="111" t="s">
-        <v>229</v>
-      </c>
-      <c r="J41" s="111" t="s">
-        <v>226</v>
-      </c>
-      <c r="K41" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="L41" s="111" t="s">
-        <v>228</v>
-      </c>
-      <c r="M41" s="111" t="s">
-        <v>230</v>
-      </c>
-      <c r="N41" s="111" t="s">
-        <v>284</v>
-      </c>
-      <c r="O41" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="P41" s="111" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q41" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="R41" s="111" t="s">
-        <v>361</v>
-      </c>
-      <c r="S41" s="105"/>
-      <c r="V41" s="110"/>
-    </row>
-    <row r="42" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B42" s="109"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120" t="s">
-        <v>213</v>
-      </c>
-      <c r="F42" s="120" t="s">
-        <v>215</v>
-      </c>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="K42" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="L42" s="120" t="s">
-        <v>264</v>
-      </c>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120" t="s">
-        <v>270</v>
-      </c>
-      <c r="O42" s="120"/>
-      <c r="P42" s="120" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="120" t="s">
-        <v>435</v>
-      </c>
-      <c r="S42" s="106"/>
-      <c r="V42" s="110"/>
-    </row>
-    <row r="43" spans="2:22" s="117" customFormat="1" ht="60" customHeight="1">
-      <c r="B43" s="112"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="114" t="s">
-        <v>285</v>
-      </c>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114" t="s">
-        <v>182</v>
-      </c>
-      <c r="G43" s="114" t="s">
-        <v>254</v>
-      </c>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114" t="s">
-        <v>385</v>
-      </c>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114" t="s">
-        <v>386</v>
-      </c>
-      <c r="L43" s="114" t="s">
-        <v>244</v>
-      </c>
-      <c r="M43" s="114" t="s">
-        <v>382</v>
-      </c>
-      <c r="N43" s="114"/>
-      <c r="O43" s="114" t="s">
-        <v>387</v>
-      </c>
-      <c r="P43" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q43" s="114" t="s">
-        <v>313</v>
-      </c>
-      <c r="R43" s="114" t="s">
-        <v>375</v>
-      </c>
-      <c r="S43" s="116"/>
-      <c r="V43" s="118"/>
-    </row>
-    <row r="44" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B44" s="107"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="119" t="s">
-        <v>289</v>
-      </c>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119" t="s">
-        <v>208</v>
-      </c>
-      <c r="G44" s="119" t="s">
-        <v>282</v>
-      </c>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119" t="s">
-        <v>436</v>
-      </c>
-      <c r="J44" s="119"/>
-      <c r="K44" s="119" t="s">
-        <v>438</v>
-      </c>
-      <c r="L44" s="119" t="s">
-        <v>265</v>
-      </c>
-      <c r="M44" s="119" t="s">
-        <v>428</v>
-      </c>
-      <c r="N44" s="119"/>
-      <c r="O44" s="119" t="s">
-        <v>440</v>
-      </c>
-      <c r="P44" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q44" s="119" t="s">
-        <v>320</v>
-      </c>
-      <c r="R44" s="119" t="s">
-        <v>408</v>
-      </c>
-      <c r="S44" s="104"/>
-      <c r="V44" s="110"/>
-    </row>
-    <row r="45" spans="2:22" s="102" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B45" s="108">
+      <c r="C41" s="52"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="96"/>
+      <c r="R41" s="96"/>
+      <c r="S41" s="54"/>
+      <c r="V41" s="69"/>
+    </row>
+    <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B42" s="67"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="58"/>
+      <c r="V42" s="69"/>
+    </row>
+    <row r="43" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B43" s="75"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="79"/>
+      <c r="R43" s="79"/>
+      <c r="S43" s="85"/>
+      <c r="V43" s="87"/>
+    </row>
+    <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B44" s="65"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="53"/>
+      <c r="V44" s="69"/>
+    </row>
+    <row r="45" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B45" s="66">
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="C45" s="103"/>
-      <c r="D45" s="111" t="s">
-        <v>356</v>
-      </c>
-      <c r="E45" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="F45" s="111" t="s">
-        <v>337</v>
-      </c>
-      <c r="G45" s="111" t="s">
-        <v>362</v>
-      </c>
-      <c r="H45" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="I45" s="111" t="s">
-        <v>363</v>
-      </c>
-      <c r="J45" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="K45" s="111" t="s">
-        <v>364</v>
-      </c>
-      <c r="L45" s="111" t="s">
-        <v>357</v>
-      </c>
-      <c r="M45" s="111" t="s">
-        <v>358</v>
-      </c>
-      <c r="N45" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="O45" s="111" t="s">
-        <v>352</v>
-      </c>
-      <c r="P45" s="111" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q45" s="111" t="s">
-        <v>307</v>
-      </c>
-      <c r="R45" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="S45" s="105"/>
-      <c r="V45" s="110"/>
-    </row>
-    <row r="46" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="120" t="s">
-        <v>290</v>
-      </c>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120" t="s">
-        <v>209</v>
-      </c>
-      <c r="G46" s="120" t="s">
-        <v>283</v>
-      </c>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120" t="s">
-        <v>437</v>
-      </c>
-      <c r="J46" s="120"/>
-      <c r="K46" s="120" t="s">
-        <v>439</v>
-      </c>
-      <c r="L46" s="120" t="s">
-        <v>266</v>
-      </c>
-      <c r="M46" s="120" t="s">
-        <v>429</v>
-      </c>
-      <c r="N46" s="120"/>
-      <c r="O46" s="120" t="s">
-        <v>441</v>
-      </c>
-      <c r="P46" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q46" s="120" t="s">
-        <v>321</v>
-      </c>
-      <c r="R46" s="120" t="s">
-        <v>409</v>
-      </c>
-      <c r="S46" s="106"/>
-      <c r="V46" s="110"/>
-    </row>
-    <row r="47" spans="2:22" s="117" customFormat="1" ht="60" customHeight="1">
-      <c r="B47" s="112"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114" t="s">
-        <v>375</v>
-      </c>
-      <c r="H47" s="114" t="s">
-        <v>383</v>
-      </c>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="K47" s="114" t="s">
-        <v>185</v>
-      </c>
-      <c r="L47" s="114"/>
-      <c r="M47" s="114"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="P47" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q47" s="114" t="s">
-        <v>242</v>
-      </c>
-      <c r="R47" s="114"/>
-      <c r="S47" s="116"/>
-      <c r="V47" s="118"/>
-    </row>
-    <row r="48" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B48" s="107"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="119" t="s">
-        <v>408</v>
-      </c>
-      <c r="H48" s="119" t="s">
-        <v>430</v>
-      </c>
-      <c r="I48" s="119"/>
-      <c r="J48" s="119" t="s">
-        <v>212</v>
-      </c>
-      <c r="K48" s="119" t="s">
-        <v>214</v>
-      </c>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="P48" s="119" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q48" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="R48" s="119"/>
-      <c r="S48" s="104"/>
-      <c r="V48" s="110"/>
-    </row>
-    <row r="49" spans="2:22" s="102" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B49" s="108">
+      <c r="C45" s="52"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="96"/>
+      <c r="Q45" s="96"/>
+      <c r="R45" s="96"/>
+      <c r="S45" s="54"/>
+      <c r="V45" s="69"/>
+    </row>
+    <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B46" s="67"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="58"/>
+      <c r="V46" s="69"/>
+    </row>
+    <row r="47" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B47" s="75"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
+      <c r="Q47" s="79"/>
+      <c r="R47" s="79"/>
+      <c r="S47" s="85"/>
+      <c r="V47" s="87"/>
+    </row>
+    <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B48" s="65"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="53"/>
+      <c r="V48" s="69"/>
+    </row>
+    <row r="49" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B49" s="66">
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="E49" s="111" t="s">
-        <v>238</v>
-      </c>
-      <c r="F49" s="111" t="s">
-        <v>229</v>
-      </c>
-      <c r="G49" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="H49" s="111" t="s">
-        <v>359</v>
-      </c>
-      <c r="I49" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="J49" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="K49" s="111" t="s">
-        <v>177</v>
-      </c>
-      <c r="L49" s="111" t="s">
-        <v>230</v>
-      </c>
-      <c r="M49" s="111" t="s">
-        <v>238</v>
-      </c>
-      <c r="N49" s="111" t="s">
-        <v>229</v>
-      </c>
-      <c r="O49" s="111" t="s">
-        <v>226</v>
-      </c>
-      <c r="P49" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q49" s="111" t="s">
-        <v>228</v>
-      </c>
-      <c r="R49" s="111" t="s">
-        <v>230</v>
-      </c>
-      <c r="S49" s="105"/>
-      <c r="V49" s="110"/>
-    </row>
-    <row r="50" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B50" s="109"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120" t="s">
-        <v>409</v>
-      </c>
-      <c r="H50" s="120" t="s">
-        <v>431</v>
-      </c>
-      <c r="I50" s="120"/>
-      <c r="J50" s="120" t="s">
-        <v>213</v>
-      </c>
-      <c r="K50" s="120" t="s">
-        <v>215</v>
-      </c>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="P50" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q50" s="120" t="s">
-        <v>264</v>
-      </c>
-      <c r="R50" s="120"/>
-      <c r="S50" s="106"/>
-      <c r="V50" s="110"/>
-    </row>
-    <row r="51" spans="2:22" s="117" customFormat="1" ht="60" customHeight="1">
-      <c r="B51" s="112"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="E51" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="F51" s="114" t="s">
-        <v>312</v>
-      </c>
-      <c r="G51" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="H51" s="114" t="s">
-        <v>316</v>
-      </c>
-      <c r="I51" s="114" t="s">
-        <v>373</v>
-      </c>
-      <c r="J51" s="114" t="s">
-        <v>374</v>
-      </c>
-      <c r="K51" s="114"/>
-      <c r="L51" s="114" t="s">
-        <v>393</v>
-      </c>
-      <c r="M51" s="114" t="s">
-        <v>394</v>
-      </c>
-      <c r="N51" s="114" t="s">
-        <v>388</v>
-      </c>
-      <c r="O51" s="114" t="s">
-        <v>328</v>
-      </c>
-      <c r="P51" s="114" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q51" s="114" t="s">
-        <v>182</v>
-      </c>
-      <c r="R51" s="114" t="s">
-        <v>375</v>
-      </c>
-      <c r="S51" s="116"/>
-      <c r="V51" s="118"/>
-    </row>
-    <row r="52" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B52" s="107"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="119" t="s">
-        <v>261</v>
-      </c>
-      <c r="E52" s="119" t="s">
-        <v>267</v>
-      </c>
-      <c r="F52" s="119" t="s">
-        <v>318</v>
-      </c>
-      <c r="G52" s="119" t="s">
-        <v>277</v>
-      </c>
-      <c r="H52" s="119" t="s">
-        <v>326</v>
-      </c>
-      <c r="I52" s="119" t="s">
-        <v>406</v>
-      </c>
-      <c r="J52" s="119" t="s">
-        <v>287</v>
-      </c>
-      <c r="K52" s="119"/>
-      <c r="L52" s="119" t="s">
-        <v>418</v>
-      </c>
-      <c r="M52" s="119" t="s">
-        <v>420</v>
-      </c>
-      <c r="N52" s="119" t="s">
-        <v>442</v>
-      </c>
-      <c r="O52" s="119" t="s">
-        <v>279</v>
-      </c>
-      <c r="P52" s="119" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q52" s="119" t="s">
-        <v>208</v>
-      </c>
-      <c r="R52" s="119" t="s">
-        <v>408</v>
-      </c>
-      <c r="S52" s="104"/>
-      <c r="V52" s="110"/>
-    </row>
-    <row r="53" spans="2:22" s="102" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B53" s="108">
+      <c r="C49" s="52"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="96"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="96"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
+      <c r="Q49" s="96"/>
+      <c r="R49" s="96"/>
+      <c r="S49" s="54"/>
+      <c r="V49" s="69"/>
+    </row>
+    <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B50" s="67"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="95"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="95"/>
+      <c r="S50" s="58"/>
+      <c r="V50" s="69"/>
+    </row>
+    <row r="51" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B51" s="75"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="79"/>
+      <c r="P51" s="79"/>
+      <c r="Q51" s="79"/>
+      <c r="R51" s="79"/>
+      <c r="S51" s="85"/>
+      <c r="V51" s="87"/>
+    </row>
+    <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B52" s="65"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="53"/>
+      <c r="V52" s="69"/>
+    </row>
+    <row r="53" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B53" s="66">
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="C53" s="103"/>
-      <c r="D53" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="E53" s="111" t="s">
-        <v>231</v>
-      </c>
-      <c r="F53" s="111" t="s">
-        <v>306</v>
-      </c>
-      <c r="G53" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="H53" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="I53" s="111" t="s">
-        <v>342</v>
-      </c>
-      <c r="J53" s="111" t="s">
-        <v>343</v>
-      </c>
-      <c r="K53" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="L53" s="111" t="s">
-        <v>350</v>
-      </c>
-      <c r="M53" s="111" t="s">
-        <v>351</v>
-      </c>
-      <c r="N53" s="111" t="s">
-        <v>365</v>
-      </c>
-      <c r="O53" s="111" t="s">
-        <v>338</v>
-      </c>
-      <c r="P53" s="111" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q53" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="R53" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="S53" s="105"/>
-      <c r="V53" s="110"/>
-    </row>
-    <row r="54" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B54" s="109"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="E54" s="120" t="s">
-        <v>268</v>
-      </c>
-      <c r="F54" s="120" t="s">
-        <v>319</v>
-      </c>
-      <c r="G54" s="120" t="s">
-        <v>278</v>
-      </c>
-      <c r="H54" s="120" t="s">
-        <v>327</v>
-      </c>
-      <c r="I54" s="120" t="s">
-        <v>407</v>
-      </c>
-      <c r="J54" s="120" t="s">
-        <v>288</v>
-      </c>
-      <c r="K54" s="120"/>
-      <c r="L54" s="120" t="s">
-        <v>419</v>
-      </c>
-      <c r="M54" s="120" t="s">
-        <v>421</v>
-      </c>
-      <c r="N54" s="120" t="s">
-        <v>443</v>
-      </c>
-      <c r="O54" s="120" t="s">
-        <v>329</v>
-      </c>
-      <c r="P54" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q54" s="120" t="s">
-        <v>209</v>
-      </c>
-      <c r="R54" s="120" t="s">
-        <v>409</v>
-      </c>
-      <c r="S54" s="106"/>
-      <c r="V54" s="110"/>
-    </row>
-    <row r="55" spans="2:22" s="117" customFormat="1" ht="60" customHeight="1">
-      <c r="B55" s="112"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="114" t="s">
-        <v>379</v>
-      </c>
-      <c r="E55" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="F55" s="114" t="s">
-        <v>389</v>
-      </c>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="I55" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="J55" s="114" t="s">
-        <v>242</v>
-      </c>
-      <c r="K55" s="114"/>
-      <c r="L55" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="M55" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="N55" s="114" t="s">
-        <v>390</v>
-      </c>
-      <c r="O55" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="P55" s="114" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q55" s="114" t="s">
-        <v>252</v>
-      </c>
-      <c r="R55" s="114" t="s">
-        <v>391</v>
-      </c>
-      <c r="S55" s="116"/>
-      <c r="V55" s="118"/>
-    </row>
-    <row r="56" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B56" s="107"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="119" t="s">
-        <v>422</v>
-      </c>
-      <c r="E56" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="F56" s="119" t="s">
-        <v>444</v>
-      </c>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="I56" s="119" t="s">
-        <v>261</v>
-      </c>
-      <c r="J56" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119" t="s">
-        <v>261</v>
-      </c>
-      <c r="M56" s="119" t="s">
-        <v>267</v>
-      </c>
-      <c r="N56" s="119" t="s">
-        <v>446</v>
-      </c>
-      <c r="O56" s="119" t="s">
-        <v>275</v>
-      </c>
-      <c r="P56" s="119" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q56" s="119" t="s">
-        <v>280</v>
-      </c>
-      <c r="R56" s="119" t="s">
-        <v>448</v>
-      </c>
-      <c r="S56" s="104"/>
-      <c r="V56" s="110"/>
-    </row>
-    <row r="57" spans="2:22" s="102" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B57" s="108">
+      <c r="C53" s="52"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="96"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="96"/>
+      <c r="O53" s="96"/>
+      <c r="P53" s="96"/>
+      <c r="Q53" s="96"/>
+      <c r="R53" s="96"/>
+      <c r="S53" s="54"/>
+      <c r="V53" s="69"/>
+    </row>
+    <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B54" s="67"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="95"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="95"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="95"/>
+      <c r="S54" s="58"/>
+      <c r="V54" s="69"/>
+    </row>
+    <row r="55" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B55" s="75"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="79"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="85"/>
+      <c r="V55" s="87"/>
+    </row>
+    <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B56" s="65"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="89"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="89"/>
+      <c r="O56" s="89"/>
+      <c r="P56" s="89"/>
+      <c r="Q56" s="89"/>
+      <c r="R56" s="89"/>
+      <c r="S56" s="53"/>
+      <c r="V56" s="69"/>
+    </row>
+    <row r="57" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B57" s="66">
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="C57" s="103"/>
-      <c r="D57" s="111" t="s">
-        <v>352</v>
-      </c>
-      <c r="E57" s="111" t="s">
-        <v>353</v>
-      </c>
-      <c r="F57" s="111" t="s">
-        <v>307</v>
-      </c>
-      <c r="G57" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="H57" s="111" t="s">
-        <v>226</v>
-      </c>
-      <c r="I57" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="J57" s="111" t="s">
-        <v>228</v>
-      </c>
-      <c r="K57" s="111" t="s">
-        <v>230</v>
-      </c>
-      <c r="L57" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="M57" s="111" t="s">
-        <v>231</v>
-      </c>
-      <c r="N57" s="111" t="s">
-        <v>366</v>
-      </c>
-      <c r="O57" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="P57" s="111" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q57" s="111" t="s">
-        <v>239</v>
-      </c>
-      <c r="R57" s="111" t="s">
-        <v>367</v>
-      </c>
-      <c r="S57" s="105"/>
-      <c r="V57" s="110"/>
-    </row>
-    <row r="58" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B58" s="109"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="120" t="s">
-        <v>423</v>
-      </c>
-      <c r="E58" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="F58" s="120" t="s">
-        <v>445</v>
-      </c>
-      <c r="G58" s="120"/>
-      <c r="H58" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="I58" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="J58" s="120" t="s">
-        <v>264</v>
-      </c>
-      <c r="K58" s="120"/>
-      <c r="L58" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="M58" s="120" t="s">
-        <v>268</v>
-      </c>
-      <c r="N58" s="120" t="s">
-        <v>447</v>
-      </c>
-      <c r="O58" s="120" t="s">
-        <v>276</v>
-      </c>
-      <c r="P58" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q58" s="120" t="s">
-        <v>281</v>
-      </c>
-      <c r="R58" s="120" t="s">
-        <v>449</v>
-      </c>
-      <c r="S58" s="106"/>
-      <c r="V58" s="110"/>
-    </row>
-    <row r="59" spans="2:22" s="117" customFormat="1" ht="60" customHeight="1">
-      <c r="B59" s="112"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="114"/>
-      <c r="L59" s="114"/>
-      <c r="M59" s="114"/>
-      <c r="N59" s="114"/>
-      <c r="O59" s="114"/>
-      <c r="P59" s="114"/>
-      <c r="Q59" s="114"/>
-      <c r="R59" s="114"/>
-      <c r="S59" s="116"/>
-      <c r="V59" s="118"/>
-    </row>
-    <row r="60" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B60" s="107"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="119" t="s">
-        <v>277</v>
-      </c>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="119"/>
-      <c r="M60" s="119"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="119"/>
-      <c r="P60" s="119"/>
-      <c r="Q60" s="119"/>
-      <c r="R60" s="119"/>
-      <c r="S60" s="104"/>
-      <c r="V60" s="110"/>
-    </row>
-    <row r="61" spans="2:22" s="102" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="B61" s="108">
+      <c r="C57" s="52"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="96"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="96"/>
+      <c r="R57" s="96"/>
+      <c r="S57" s="54"/>
+      <c r="V57" s="69"/>
+    </row>
+    <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B58" s="67"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="95"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="95"/>
+      <c r="N58" s="95"/>
+      <c r="O58" s="95"/>
+      <c r="P58" s="95"/>
+      <c r="Q58" s="95"/>
+      <c r="R58" s="95"/>
+      <c r="S58" s="58"/>
+      <c r="V58" s="69"/>
+    </row>
+    <row r="59" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B59" s="75"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="79"/>
+      <c r="P59" s="79"/>
+      <c r="Q59" s="79"/>
+      <c r="R59" s="79"/>
+      <c r="S59" s="85"/>
+      <c r="V59" s="87"/>
+    </row>
+    <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B60" s="65"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="89"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="89"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="89"/>
+      <c r="O60" s="89"/>
+      <c r="P60" s="89"/>
+      <c r="Q60" s="89"/>
+      <c r="R60" s="89"/>
+      <c r="S60" s="53"/>
+      <c r="V60" s="69"/>
+    </row>
+    <row r="61" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B61" s="66">
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="C61" s="103"/>
-      <c r="D61" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="E61" s="111" t="s">
-        <v>230</v>
-      </c>
-      <c r="F61" s="111" t="s">
-        <v>238</v>
-      </c>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="111"/>
-      <c r="K61" s="111"/>
-      <c r="L61" s="111"/>
-      <c r="M61" s="111"/>
-      <c r="N61" s="111"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="111"/>
-      <c r="S61" s="105"/>
-      <c r="V61" s="110"/>
-    </row>
-    <row r="62" spans="2:22" s="102" customFormat="1" ht="36" customHeight="1">
-      <c r="B62" s="109"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="120" t="s">
-        <v>278</v>
-      </c>
-      <c r="E62" s="120"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="120"/>
-      <c r="H62" s="120"/>
-      <c r="I62" s="120"/>
-      <c r="J62" s="120"/>
-      <c r="K62" s="120"/>
-      <c r="L62" s="120"/>
-      <c r="M62" s="120"/>
-      <c r="N62" s="120"/>
-      <c r="O62" s="120"/>
-      <c r="P62" s="120"/>
-      <c r="Q62" s="120"/>
-      <c r="R62" s="120"/>
-      <c r="S62" s="106"/>
-      <c r="V62" s="110"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="96"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="96"/>
+      <c r="Q61" s="96"/>
+      <c r="R61" s="96"/>
+      <c r="S61" s="54"/>
+      <c r="V61" s="69"/>
+    </row>
+    <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B62" s="67"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="95"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="95"/>
+      <c r="L62" s="95"/>
+      <c r="M62" s="95"/>
+      <c r="N62" s="95"/>
+      <c r="O62" s="95"/>
+      <c r="P62" s="95"/>
+      <c r="Q62" s="95"/>
+      <c r="R62" s="95"/>
+      <c r="S62" s="58"/>
+      <c r="V62" s="69"/>
+    </row>
+    <row r="63" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B63" s="75"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="79"/>
+      <c r="O63" s="79"/>
+      <c r="P63" s="79"/>
+      <c r="Q63" s="79"/>
+      <c r="R63" s="79"/>
+      <c r="S63" s="85"/>
+      <c r="V63" s="87"/>
+    </row>
+    <row r="64" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B64" s="65"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="89"/>
+      <c r="P64" s="89"/>
+      <c r="Q64" s="89"/>
+      <c r="R64" s="89"/>
+      <c r="S64" s="53"/>
+      <c r="V64" s="69"/>
+    </row>
+    <row r="65" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B65" s="66">
+        <f>B61+1</f>
+        <v>16</v>
+      </c>
+      <c r="C65" s="52"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="96"/>
+      <c r="K65" s="96"/>
+      <c r="L65" s="96"/>
+      <c r="M65" s="96"/>
+      <c r="N65" s="96"/>
+      <c r="O65" s="96"/>
+      <c r="P65" s="96"/>
+      <c r="Q65" s="96"/>
+      <c r="R65" s="96"/>
+      <c r="S65" s="54"/>
+      <c r="V65" s="69"/>
+    </row>
+    <row r="66" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B66" s="67"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="95"/>
+      <c r="M66" s="95"/>
+      <c r="N66" s="95"/>
+      <c r="O66" s="95"/>
+      <c r="P66" s="95"/>
+      <c r="Q66" s="95"/>
+      <c r="R66" s="95"/>
+      <c r="S66" s="58"/>
+      <c r="V66" s="69"/>
+    </row>
+    <row r="67" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B67" s="75"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="79"/>
+      <c r="M67" s="79"/>
+      <c r="N67" s="79"/>
+      <c r="O67" s="79"/>
+      <c r="P67" s="79"/>
+      <c r="Q67" s="79"/>
+      <c r="R67" s="79"/>
+      <c r="S67" s="85"/>
+      <c r="V67" s="87"/>
+    </row>
+    <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B68" s="65"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="89"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="89"/>
+      <c r="M68" s="89"/>
+      <c r="N68" s="89"/>
+      <c r="O68" s="89"/>
+      <c r="P68" s="89"/>
+      <c r="Q68" s="89"/>
+      <c r="R68" s="89"/>
+      <c r="S68" s="53"/>
+      <c r="V68" s="69"/>
+    </row>
+    <row r="69" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B69" s="66">
+        <f>B65+1</f>
+        <v>17</v>
+      </c>
+      <c r="C69" s="52"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="96"/>
+      <c r="K69" s="96"/>
+      <c r="L69" s="96"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="96"/>
+      <c r="O69" s="96"/>
+      <c r="P69" s="96"/>
+      <c r="Q69" s="96"/>
+      <c r="R69" s="96"/>
+      <c r="S69" s="54"/>
+      <c r="V69" s="69"/>
+    </row>
+    <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B70" s="67"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="95"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="95"/>
+      <c r="I70" s="95"/>
+      <c r="J70" s="95"/>
+      <c r="K70" s="95"/>
+      <c r="L70" s="95"/>
+      <c r="M70" s="95"/>
+      <c r="N70" s="95"/>
+      <c r="O70" s="95"/>
+      <c r="P70" s="95"/>
+      <c r="Q70" s="95"/>
+      <c r="R70" s="95"/>
+      <c r="S70" s="58"/>
+      <c r="V70" s="69"/>
+    </row>
+    <row r="71" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B71" s="75"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="79"/>
+      <c r="O71" s="79"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="85"/>
+      <c r="V71" s="87"/>
+    </row>
+    <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B72" s="65"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="89"/>
+      <c r="J72" s="89"/>
+      <c r="K72" s="89"/>
+      <c r="L72" s="89"/>
+      <c r="M72" s="89"/>
+      <c r="N72" s="89"/>
+      <c r="O72" s="89"/>
+      <c r="P72" s="89"/>
+      <c r="Q72" s="89"/>
+      <c r="R72" s="89"/>
+      <c r="S72" s="53"/>
+      <c r="V72" s="69"/>
+    </row>
+    <row r="73" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B73" s="66">
+        <f>B69+1</f>
+        <v>18</v>
+      </c>
+      <c r="C73" s="52"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="96"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="96"/>
+      <c r="K73" s="96"/>
+      <c r="L73" s="96"/>
+      <c r="M73" s="96"/>
+      <c r="N73" s="96"/>
+      <c r="O73" s="96"/>
+      <c r="P73" s="96"/>
+      <c r="Q73" s="96"/>
+      <c r="R73" s="96"/>
+      <c r="S73" s="54"/>
+      <c r="V73" s="69"/>
+    </row>
+    <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B74" s="67"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="95"/>
+      <c r="I74" s="95"/>
+      <c r="J74" s="95"/>
+      <c r="K74" s="95"/>
+      <c r="L74" s="95"/>
+      <c r="M74" s="95"/>
+      <c r="N74" s="95"/>
+      <c r="O74" s="95"/>
+      <c r="P74" s="95"/>
+      <c r="Q74" s="95"/>
+      <c r="R74" s="95"/>
+      <c r="S74" s="58"/>
+      <c r="V74" s="69"/>
+    </row>
+    <row r="75" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B75" s="75"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="79"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="79"/>
+      <c r="O75" s="79"/>
+      <c r="P75" s="79"/>
+      <c r="Q75" s="79"/>
+      <c r="R75" s="79"/>
+      <c r="S75" s="85"/>
+      <c r="V75" s="87"/>
+    </row>
+    <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B76" s="65"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="89"/>
+      <c r="G76" s="89"/>
+      <c r="H76" s="89"/>
+      <c r="I76" s="89"/>
+      <c r="J76" s="89"/>
+      <c r="K76" s="89"/>
+      <c r="L76" s="89"/>
+      <c r="M76" s="89"/>
+      <c r="N76" s="89"/>
+      <c r="O76" s="89"/>
+      <c r="P76" s="89"/>
+      <c r="Q76" s="89"/>
+      <c r="R76" s="89"/>
+      <c r="S76" s="53"/>
+      <c r="V76" s="69"/>
+    </row>
+    <row r="77" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B77" s="66">
+        <f>B73+1</f>
+        <v>19</v>
+      </c>
+      <c r="C77" s="52"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="96"/>
+      <c r="J77" s="96"/>
+      <c r="K77" s="96"/>
+      <c r="L77" s="96"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="96"/>
+      <c r="O77" s="96"/>
+      <c r="P77" s="96"/>
+      <c r="Q77" s="96"/>
+      <c r="R77" s="96"/>
+      <c r="S77" s="54"/>
+      <c r="V77" s="69"/>
+    </row>
+    <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B78" s="67"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="95"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="95"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="95"/>
+      <c r="Q78" s="95"/>
+      <c r="R78" s="95"/>
+      <c r="S78" s="58"/>
+      <c r="V78" s="69"/>
+    </row>
+    <row r="79" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B79" s="75"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="79"/>
+      <c r="L79" s="79"/>
+      <c r="M79" s="79"/>
+      <c r="N79" s="79"/>
+      <c r="O79" s="79"/>
+      <c r="P79" s="79"/>
+      <c r="Q79" s="79"/>
+      <c r="R79" s="79"/>
+      <c r="S79" s="85"/>
+      <c r="V79" s="87"/>
+    </row>
+    <row r="80" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B80" s="65"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="89"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="89"/>
+      <c r="J80" s="89"/>
+      <c r="K80" s="89"/>
+      <c r="L80" s="89"/>
+      <c r="M80" s="89"/>
+      <c r="N80" s="89"/>
+      <c r="O80" s="89"/>
+      <c r="P80" s="89"/>
+      <c r="Q80" s="89"/>
+      <c r="R80" s="89"/>
+      <c r="S80" s="53"/>
+      <c r="V80" s="69"/>
+    </row>
+    <row r="81" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B81" s="66">
+        <f>B77+1</f>
+        <v>20</v>
+      </c>
+      <c r="C81" s="52"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="96"/>
+      <c r="G81" s="96"/>
+      <c r="H81" s="96"/>
+      <c r="I81" s="96"/>
+      <c r="J81" s="96"/>
+      <c r="K81" s="96"/>
+      <c r="L81" s="96"/>
+      <c r="M81" s="96"/>
+      <c r="N81" s="96"/>
+      <c r="O81" s="96"/>
+      <c r="P81" s="96"/>
+      <c r="Q81" s="96"/>
+      <c r="R81" s="96"/>
+      <c r="S81" s="54"/>
+      <c r="V81" s="69"/>
+    </row>
+    <row r="82" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="B82" s="67"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="95"/>
+      <c r="F82" s="95"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="95"/>
+      <c r="I82" s="95"/>
+      <c r="J82" s="95"/>
+      <c r="K82" s="95"/>
+      <c r="L82" s="95"/>
+      <c r="M82" s="95"/>
+      <c r="N82" s="95"/>
+      <c r="O82" s="95"/>
+      <c r="P82" s="95"/>
+      <c r="Q82" s="95"/>
+      <c r="R82" s="95"/>
+      <c r="S82" s="58"/>
+      <c r="V82" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="V3:V13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:R3 D39:P39 R39">
-    <cfRule type="expression" dxfId="15" priority="189">
+  <conditionalFormatting sqref="D3:R3">
+    <cfRule type="expression" dxfId="21" priority="197">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="190">
+    <cfRule type="expression" dxfId="20" priority="198">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="13" priority="45">
+    <cfRule type="expression" dxfId="19" priority="53">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="46">
+    <cfRule type="expression" dxfId="18" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="11" priority="43">
+    <cfRule type="expression" dxfId="17" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="44">
+    <cfRule type="expression" dxfId="16" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="9" priority="41">
+    <cfRule type="expression" dxfId="15" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="42">
+    <cfRule type="expression" dxfId="14" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:R19 D23:G23 D31:R31 D35:R35 D43:R43 D51:R51 D55:R55 D59:R59 J23:R23 D27:R27 D47:N47 R47">
-    <cfRule type="expression" dxfId="7" priority="7">
+  <conditionalFormatting sqref="D19:R19 D27:R27 D31:R31 D35:R35 D43:R43 D51:R51 D55:R55 D59:R59">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:I23">
+  <conditionalFormatting sqref="D23:R23">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:R39">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:R47">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:R63">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -6742,19 +6449,19 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q39">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="D67:R67 D75:R75 D79:R79">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47:Q47">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="D71:R71">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6778,7 +6485,7 @@
     <col min="4" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="8.3984375" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.296875" style="89" customWidth="1"/>
+    <col min="11" max="11" width="13.296875" style="88" customWidth="1"/>
     <col min="12" max="14" width="13.296875" customWidth="1"/>
     <col min="16" max="16" width="8.796875" style="3"/>
     <col min="17" max="17" width="8.796875" style="4"/>
@@ -6820,7 +6527,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6838,7 +6545,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="103" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -6863,7 +6570,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="100"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -6883,7 +6590,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="100"/>
+      <c r="I6" s="104"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -6905,7 +6612,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="100"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -6921,7 +6628,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="100"/>
+      <c r="I7" s="104"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -6943,7 +6650,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="100"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -6959,7 +6666,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="100"/>
+      <c r="I8" s="104"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -6981,7 +6688,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="100"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6997,7 +6704,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="100"/>
+      <c r="I9" s="104"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -7019,7 +6726,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="101"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -7035,7 +6742,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="101"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -7058,7 +6765,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="103" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -7076,7 +6783,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="99" t="s">
+      <c r="I11" s="103" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -7100,7 +6807,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="100"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -7120,7 +6827,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="100"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -7140,7 +6847,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="100"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -7154,7 +6861,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="100"/>
+      <c r="I13" s="104"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -7174,7 +6881,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="100"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -7188,7 +6895,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="100"/>
+      <c r="I14" s="104"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -7208,7 +6915,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="100"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -7222,7 +6929,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="100"/>
+      <c r="I15" s="104"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -7242,7 +6949,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="101"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -7256,7 +6963,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="101"/>
+      <c r="I16" s="105"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
@@ -7291,11 +6998,11 @@
     </row>
     <row r="19" spans="3:14" ht="42.75" customHeight="1">
       <c r="C19" s="36"/>
-      <c r="J19" s="92">
+      <c r="J19" s="91">
         <v>1</v>
       </c>
-      <c r="K19" s="93" t="s">
-        <v>217</v>
+      <c r="K19" s="92" t="s">
+        <v>185</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
@@ -7303,11 +7010,11 @@
     </row>
     <row r="20" spans="3:14" ht="42.75" customHeight="1">
       <c r="C20" s="36"/>
-      <c r="J20" s="92">
+      <c r="J20" s="91">
         <v>7</v>
       </c>
-      <c r="K20" s="93" t="s">
-        <v>221</v>
+      <c r="K20" s="92" t="s">
+        <v>189</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
@@ -7315,11 +7022,11 @@
     </row>
     <row r="21" spans="3:14" ht="42.75" customHeight="1">
       <c r="C21" s="36"/>
-      <c r="J21" s="92">
+      <c r="J21" s="91">
         <v>3</v>
       </c>
-      <c r="K21" s="93" t="s">
-        <v>222</v>
+      <c r="K21" s="92" t="s">
+        <v>190</v>
       </c>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
@@ -7327,11 +7034,11 @@
     </row>
     <row r="22" spans="3:14" ht="42.75" customHeight="1">
       <c r="C22" s="36"/>
-      <c r="J22" s="92">
+      <c r="J22" s="91">
         <v>2</v>
       </c>
-      <c r="K22" s="94" t="s">
-        <v>216</v>
+      <c r="K22" s="93" t="s">
+        <v>184</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
@@ -7339,11 +7046,11 @@
     </row>
     <row r="23" spans="3:14" ht="42.75" customHeight="1">
       <c r="C23" s="36"/>
-      <c r="J23" s="92">
+      <c r="J23" s="91">
         <v>5</v>
       </c>
-      <c r="K23" s="94" t="s">
-        <v>218</v>
+      <c r="K23" s="93" t="s">
+        <v>186</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
@@ -7351,11 +7058,11 @@
     </row>
     <row r="24" spans="3:14" ht="42.75" customHeight="1">
       <c r="C24" s="36"/>
-      <c r="J24" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="K24" s="95" t="s">
-        <v>223</v>
+      <c r="J24" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" s="94" t="s">
+        <v>191</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
@@ -7363,11 +7070,11 @@
     </row>
     <row r="25" spans="3:14" ht="42.75" customHeight="1">
       <c r="C25" s="36"/>
-      <c r="J25" s="92">
+      <c r="J25" s="91">
         <v>4</v>
       </c>
-      <c r="K25" s="93" t="s">
-        <v>224</v>
+      <c r="K25" s="92" t="s">
+        <v>192</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
@@ -7375,11 +7082,11 @@
     </row>
     <row r="26" spans="3:14" ht="42.75" customHeight="1">
       <c r="C26" s="36"/>
-      <c r="J26" s="92">
+      <c r="J26" s="91">
         <v>8</v>
       </c>
-      <c r="K26" s="93" t="s">
-        <v>225</v>
+      <c r="K26" s="92" t="s">
+        <v>193</v>
       </c>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
@@ -7531,13 +7238,13 @@
         <v>81</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>83</v>
@@ -7601,13 +7308,13 @@
         <v>93</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>94</v>
@@ -7668,13 +7375,13 @@
         <v>104</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>105</v>
@@ -7735,13 +7442,13 @@
         <v>115</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="J16" s="40" t="s">
         <v>116</v>
@@ -7802,13 +7509,13 @@
         <v>127</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="J20" s="40" t="s">
         <v>128</v>

--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E938773-C0B6-4208-AFC7-36CF90B5C20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB21DB8B-4FD9-4B01-B0C8-8A3E834B3B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -23,10 +23,11 @@
     <definedName name="FILE_NAME">env!$C$3</definedName>
     <definedName name="IMAGE_URL">env!$C$5</definedName>
     <definedName name="INPUT_FILE_PATH">env!$C$2</definedName>
+    <definedName name="OUTPUT_PATH">env!$C$6</definedName>
     <definedName name="TITLE">env!$C$4</definedName>
-    <definedName name="每列總字數">env!$C$9</definedName>
-    <definedName name="每頁總列數">env!$C$8</definedName>
-    <definedName name="顯示注音輸入">env!$C$7</definedName>
+    <definedName name="每列總字數">env!$C$10</definedName>
+    <definedName name="每頁總列數">env!$C$9</definedName>
+    <definedName name="顯示注音輸入">env!$C$8</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="630">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1012,52 +1013,6 @@
     <t>INPUT_FILE_PATH</t>
   </si>
   <si>
-    <r>
-      <t>C:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="黒体-繁"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>\work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="黒体-繁"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>\Piau-Im</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FILE_NAME</t>
   </si>
   <si>
@@ -1120,6 +1075,394 @@
     <t>尊</t>
   </si>
   <si>
+    <t>ㄚˋ</t>
+  </si>
+  <si>
+    <t>ㄚ</t>
+  </si>
+  <si>
+    <t>ㄚˇ</t>
+  </si>
+  <si>
+    <t>ㄚ+</t>
+  </si>
+  <si>
+    <t>ㄚ_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄚ" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄚ' </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚㄏ</t>
+  </si>
+  <si>
+    <t>ㄚㄏˊ</t>
+  </si>
+  <si>
+    <t>須</t>
+  </si>
+  <si>
+    <t>菩</t>
+  </si>
+  <si>
+    <t>提</t>
+  </si>
+  <si>
+    <t>「</t>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>」</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>https://shoplineimg.com/5db585d59db3cb0012a18bce/5f2a9d3f30cc6200455c1c25/1296x.webp?source_format=jpg</t>
+  </si>
+  <si>
+    <t>以</t>
+  </si>
+  <si>
+    <t>故</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>於</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>每頁總列數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每列總字數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實</t>
+  </si>
+  <si>
+    <t>見</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>得</t>
+  </si>
+  <si>
+    <t>說</t>
+  </si>
+  <si>
+    <t>即</t>
+  </si>
+  <si>
+    <t>非</t>
+  </si>
+  <si>
+    <t>佛</t>
+  </si>
+  <si>
+    <t>告</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>諸</t>
+  </si>
+  <si>
+    <t>正</t>
+  </si>
+  <si>
+    <t>信</t>
+  </si>
+  <si>
+    <t>希</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>頗</t>
+  </si>
+  <si>
+    <t>眾</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>聞</t>
+  </si>
+  <si>
+    <t>章</t>
+  </si>
+  <si>
+    <t>句</t>
+  </si>
+  <si>
+    <t>莫</t>
+  </si>
+  <si>
+    <t>作</t>
+  </si>
+  <si>
+    <t>滅</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>歲</t>
+  </si>
+  <si>
+    <t>持</t>
+  </si>
+  <si>
+    <t>戒</t>
+  </si>
+  <si>
+    <t>修</t>
+  </si>
+  <si>
+    <t>福</t>
+  </si>
+  <si>
+    <t>者</t>
+  </si>
+  <si>
+    <t>此</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>為</t>
+  </si>
+  <si>
+    <t>當</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>、</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>而</t>
+  </si>
+  <si>
+    <t>種</t>
+  </si>
+  <si>
+    <t>善</t>
+  </si>
+  <si>
+    <t>根</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>量</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>萬</t>
+  </si>
+  <si>
+    <t>乃</t>
+  </si>
+  <si>
+    <t>至</t>
+  </si>
+  <si>
+    <t>念</t>
+  </si>
+  <si>
+    <t>淨</t>
+  </si>
+  <si>
+    <t>；</t>
+  </si>
+  <si>
+    <t>悉</t>
+  </si>
+  <si>
+    <t>德</t>
+  </si>
+  <si>
+    <t>復</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>壽</t>
+  </si>
+  <si>
+    <t>法</t>
+  </si>
+  <si>
+    <t>亦</t>
+  </si>
+  <si>
+    <t>取</t>
+  </si>
+  <si>
+    <t>著</t>
+  </si>
+  <si>
+    <t>應</t>
+  </si>
+  <si>
+    <t>義</t>
+  </si>
+  <si>
+    <t>常</t>
+  </si>
+  <si>
+    <t>汝</t>
+  </si>
+  <si>
+    <t>等</t>
+  </si>
+  <si>
+    <t>比</t>
+  </si>
+  <si>
+    <t>丘</t>
+  </si>
+  <si>
+    <t>筏</t>
+  </si>
+  <si>
+    <t>喻</t>
+  </si>
+  <si>
+    <t>尚</t>
+  </si>
+  <si>
+    <t>捨</t>
+  </si>
+  <si>
+    <t>況</t>
+  </si>
+  <si>
+    <t>C:\\work\\Piau-Im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正信希有分第六
+須菩提白佛言：「世尊！頗有眾生，得聞如是言說章句，生實信不？」佛告須菩提：「莫作是說！如來滅後，後五百歲，有持戒修福者，於此章句，能生信心，以此為實。當知是人，不於一佛、二佛、三四五佛而種善根，已於無量千萬佛所種諸善根。聞是章句，乃至一念生淨信者；須菩提！如來悉知悉見，是諸眾生得如是無量福德。何以故？是諸眾生，無復我相、人相、眾生相、壽者相、無法相，亦無非法相。何以故？是諸眾生若心取相，即為著我、人、眾生、壽者。若取法相，即著我、人、眾生、壽者。何以故？若取非法相，即著我、人、眾生、壽者。是故不應取法，不應取非法。以是義故，如來常說：汝等比丘！知我說法，如筏喻者；法尚應捨，何況非法？」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTPUT_PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>〔zⁿia²〕
+【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>ㄐㄧ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ㆩˋ】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sin³〕
+【ㄒㄧㄣ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hi¹〕
+【ㄏㄧˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔u⁷〕
+【ㄨ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>〔hun¹〕
 【ㄏㄨㄣˉ】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1130,6 +1473,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>〔su¹〕
+【ㄙㄨˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔phoo⁵〕
+【ㄆㆦˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔theh⁸〕
+【ㄊㆤㆷ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔peh⁸〕
+【ㄅㆤㆷ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔put⁴〕
+【ㄅㄨㆵ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔gian⁵〕
+【ㆣㄧㄢˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔se³〕
+【ㄙㆤ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zun¹〕
+【ㄗㄨㄣˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔phoo²〕
+【ㄆㆦˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ziong³〕
+【ㄐㄧㆲ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sⁿi¹〕
+【ㄒㆪˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tit⁴〕
+【ㄉㄧㆵ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔bun⁵〕
+【ㆠㄨㄣˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>〔ju⁵〕
 【ㆡㄨˊ】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1140,107 +1548,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔se³〕
-【ㄙㆤ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔zun¹〕
-【ㄗㄨㄣˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄚˋ</t>
-  </si>
-  <si>
-    <t>ㄚ</t>
-  </si>
-  <si>
-    <t>ㄚˇ</t>
-  </si>
-  <si>
-    <t>ㄚ+</t>
-  </si>
-  <si>
-    <t>ㄚ_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ㄚ" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ㄚ' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄚㄏ</t>
-  </si>
-  <si>
-    <t>ㄚㄏˊ</t>
-  </si>
-  <si>
-    <t>須</t>
-  </si>
-  <si>
-    <t>菩</t>
-  </si>
-  <si>
-    <t>提</t>
-  </si>
-  <si>
-    <t>「</t>
-  </si>
-  <si>
-    <t>！</t>
-  </si>
-  <si>
-    <t>云</t>
-  </si>
-  <si>
-    <t>何</t>
-  </si>
-  <si>
-    <t>？</t>
-  </si>
-  <si>
-    <t>」</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>〔su¹〕
-【ㄙㄨˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔phoo⁵〕
-【ㄆㆦˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔theh⁸〕
-【ㄊㆤㆷ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔king¹〕
-【ㄍㄧㄥˉ】</t>
-  </si>
-  <si>
-    <t>〔hi¹〕
-【ㄏㄧˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔lo⁵〕
-【ㄌㄜˊ】</t>
-  </si>
-  <si>
-    <t>〔un⁵〕
-【ㄨㄣˊ】</t>
+    <t>〔suat⁴〕
+【ㄙㄨㄚㆵ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ziong¹〕
+【ㄐㄧㆲˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ku³〕
+【ㄍㄨ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sit⁸〕
+【ㄒㄧㆵ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ko³〕
+【ㄍㄜ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔boh⁸〕
+【ㆠㄜㆷ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lai⁰〕
+【ㄌㄞ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔biat⁸〕
+【ㆠㄧㄚㆵ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔au⁷〕
+【ㄠ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔goo⁷〕
+【ㆣㆦ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔pah⁴〕
+【ㄅㄚㆷ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hue³〕
+【ㄏㄨㆤ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ci⁵〕
+【ㄑㄧˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kai³〕
+【ㄍㄞ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔siu¹〕
+【ㄒㄧㄨˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zia²〕
+【ㄐㄧㄚˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔u⁵〕
+【ㄨˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔cu³〕
+【ㄘㄨ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ling⁵〕
+【ㄌㄧㄥˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sim¹〕
+【ㄒㄧㆬˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔i²〕
+【ㄧˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ui⁵〕
+【ㄨㄧˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tong¹〕
+【ㄉㆲˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zai¹〕
+【ㄗㄞˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lang⁵〕
+【ㄌㄤˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zit⁸〕
+【ㄐㄧㆵ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ji⁷〕
+【ㆢㄧ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔si³〕
+【ㄒㄧ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔li⁵〕
+【ㄌㄧˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zing²〕
+【ㄐㄧㄥˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sian⁷〕
+【ㄒㄧㄢ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kin¹〕
+【ㄍㄧㄣˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔bo⁵〕
+【ㆠㄜˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔liong⁷〕
+【ㄌㄧㆲ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔cing¹〕
+【ㄑㄧㄥˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ban⁷〕
+【ㆠㄢ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔soo²〕
+【ㄙㆦˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zu¹〕
+【ㄗㄨˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔nai²〕
+【ㄋㄞˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zi³〕
+【ㄐㄧ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔liam⁷〕
+【ㄌㄧㆰ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔zing⁷〕
+【ㄐㄧㄥ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔kⁿi³〕
+【ㄍㆪ˪】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1249,204 +1768,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔soo²〕
-【ㄙㆦˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔kim¹〕
-【ㄍㄧㆬˉ】</t>
-  </si>
-  <si>
-    <t>〔kong¹〕
-【ㄍㆲˉ】</t>
+    <t>〔koo³〕
+【ㄍㆦ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔gua²〕
+【ㆣㄨㄚˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔siong¹〕
+【ㄒㄧㆲˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔siu⁷〕
+【ㄒㄧㄨ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔huat⁴〕
+【ㄏㄨㄚㆵ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔iah⁸〕
+【ㄧㄚㆷ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hui¹〕
+【ㄏㄨㄧˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>〔na²〕
 【ㄋㄚˋ】</t>
-  </si>
-  <si>
-    <t>〔pho¹〕
-【ㄆㄜˉ】</t>
-  </si>
-  <si>
-    <t>〔bit⁸〕
-【ㆠㄧㆵ˙】</t>
-  </si>
-  <si>
-    <t>〔u⁵〕
-【ㄨˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://shoplineimg.com/5db585d59db3cb0012a18bce/5f2a9d3f30cc6200455c1c25/1296x.webp?source_format=jpg</t>
-  </si>
-  <si>
-    <t>以</t>
-  </si>
-  <si>
-    <t>故</t>
-  </si>
-  <si>
-    <t>相</t>
-  </si>
-  <si>
-    <t>〔na²〕
-【ㄋㄚˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔i²〕
-【ㄧˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔koo³〕
-【ㄍㆦ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔siong¹〕
-【ㄒㄧㆲˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>於</t>
-  </si>
-  <si>
-    <t>不</t>
-  </si>
-  <si>
-    <t>可</t>
-  </si>
-  <si>
-    <t>意</t>
-  </si>
-  <si>
-    <t>虛</t>
-  </si>
-  <si>
-    <t>也</t>
-  </si>
-  <si>
-    <t>〔put⁴〕
-【ㄅㄨㆵ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔kho²〕
-【ㄎㄜˋ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔i³〕
-【ㄧ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ia⁷〕
-【ㄧㄚ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每頁總列數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每列總字數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>剛</t>
-  </si>
-  <si>
-    <t>般</t>
-  </si>
-  <si>
-    <t>波</t>
-  </si>
-  <si>
-    <t>羅</t>
-  </si>
-  <si>
-    <t>蜜</t>
-  </si>
-  <si>
-    <t>經</t>
-  </si>
-  <si>
-    <t>》</t>
-  </si>
-  <si>
-    <t>《金剛般若波羅蜜經》
-如理實見分第五
-「須菩提！於意云何？可以身相見如來不？」「不也，世尊！不可以身相得見如來。何以故？如來所說身相，即非身相。」佛告須菩提：「凡所有相，皆是虛妄。若見諸相非相，即見如來。」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金剛般若波羅蜜經。如理實見分第五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理</t>
-  </si>
-  <si>
-    <t>實</t>
-  </si>
-  <si>
-    <t>見</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>身</t>
-  </si>
-  <si>
-    <t>來</t>
-  </si>
-  <si>
-    <t>得</t>
-  </si>
-  <si>
-    <t>說</t>
-  </si>
-  <si>
-    <t>即</t>
-  </si>
-  <si>
-    <t>非</t>
-  </si>
-  <si>
-    <t>佛</t>
-  </si>
-  <si>
-    <t>告</t>
-  </si>
-  <si>
-    <t>凡</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>皆</t>
-  </si>
-  <si>
-    <t>妄</t>
-  </si>
-  <si>
-    <t>諸</t>
-  </si>
-  <si>
-    <t>〔pⁿua¹〕
-【ㄅㄨㆩˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔cu²〕
+【ㄘㄨˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ziah⁴〕
+【ㄐㄧㄚㆷ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔tio⁰〕
+【ㄉㄧㄜ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ziong²〕
+【ㄐㄧㆲˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ing¹〕
+【ㄧㄥˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔gi⁷〕
+【ㆣㄧ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔siong⁵〕
+【ㄒㄧㆲˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>〔li²〕
@@ -1454,464 +1848,909 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔sit⁸〕
-【ㄒㄧㆵ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔kⁿi³〕
-【ㄍㆪ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔goo⁷〕
-【ㆣㆦ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔sin¹〕
-【ㄒㄧㄣˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔lai⁰〕
-【ㄌㄞ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔tit⁴〕
-【ㄉㄧㆵ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔la⁰〕
-【ㄌㄚ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔suat⁴〕
-【ㄙㄨㄚㆵ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ziah⁴〕
-【ㄐㄧㄚㆷ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔hui¹〕
-【ㄏㄨㄧˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔put⁸〕
-【ㄅㄨㆵ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔ko³〕
-【ㄍㄜ˪】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔huan⁵〕
-【ㄏㄨㄢˊ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔u⁷〕
-【ㄨ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔kai¹〕
-【ㄍㄞˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔bong⁷〕
-【ㆠㆲ˫】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>〔zu¹〕
-【ㄗㄨˉ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kim¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆬˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kong¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pⁿua¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆩˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>〔tan²〕
+【ㄉㄢˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔pi²〕
+【ㄅㄧˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔khu¹〕
+【ㄎㄨˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔huat⁸〕
+【ㄏㄨㄚㆵ˙】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ju⁷〕
+【ㆡㄨ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔siong⁷〕
+【ㄒㄧㆲ˫】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔sia³〕
+【ㄒㄧㄚ˪】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔hong²〕
+【ㄏㆲˋ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">〔huat⁴〕
+【ㄏㄨㄚㆵ】 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔lak⁸〕
+【ㄌㄚㆻ˙】</t>
+  </si>
+  <si>
+    <t>〔zok⁴〕
+【ㄗㆦㆻ】</t>
+  </si>
+  <si>
+    <t>〔hok⁴〕
+【ㄏㆦㆻ】</t>
+  </si>
+  <si>
+    <t>〔siek⁴〕
+【ㄒㄧㆤㆻ】</t>
+  </si>
+  <si>
+    <t>〔tiek⁴〕
+【ㄉㄧㆤㆻ】</t>
+  </si>
+  <si>
+    <t>〔hok⁸〕
+【ㄏㆦㆻ˙】</t>
+  </si>
+  <si>
+    <t>sin³</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄣ˪</t>
+  </si>
+  <si>
+    <t>su¹</t>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+  </si>
+  <si>
+    <t>phoo⁵</t>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+  </si>
+  <si>
+    <t>theh⁸</t>
+  </si>
+  <si>
+    <t>ㄊㆤㆷ˙</t>
+  </si>
+  <si>
+    <t>put⁴</t>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+  </si>
+  <si>
+    <t>ziong³</t>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˪</t>
+  </si>
+  <si>
+    <t>sⁿi¹</t>
+  </si>
+  <si>
+    <t>ㄒㆪˉ</t>
+  </si>
+  <si>
+    <t>tit⁴</t>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+  </si>
+  <si>
+    <t>bun⁵</t>
+  </si>
+  <si>
+    <t>ㆠㄨㄣˊ</t>
+  </si>
+  <si>
+    <t>ju⁵</t>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+  </si>
+  <si>
+    <t>si⁷</t>
+  </si>
+  <si>
+    <t>ㄒㄧ˫</t>
+  </si>
+  <si>
+    <t>suat⁴</t>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+  </si>
+  <si>
+    <t>ziong¹</t>
+  </si>
+  <si>
+    <t>ㄐㄧㆲˉ</t>
+  </si>
+  <si>
+    <t>ku³</t>
+  </si>
+  <si>
+    <t>ㄍㄨ˪</t>
+  </si>
+  <si>
+    <t>lai⁰</t>
+  </si>
+  <si>
+    <t>ㄌㄞ˙</t>
+  </si>
+  <si>
+    <t>goo⁷</t>
+  </si>
+  <si>
+    <t>ㆣㆦ˫</t>
+  </si>
+  <si>
+    <t>hok⁴</t>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ</t>
+  </si>
+  <si>
+    <t>zia²</t>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+  </si>
+  <si>
+    <t>u⁵</t>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+  </si>
+  <si>
+    <t>sim¹</t>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˉ</t>
+  </si>
+  <si>
+    <t>i²</t>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+  </si>
+  <si>
+    <t>ui⁵</t>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+  </si>
+  <si>
+    <t>zai¹</t>
+  </si>
+  <si>
+    <t>ㄗㄞˉ</t>
+  </si>
+  <si>
+    <t>lang⁵</t>
+  </si>
+  <si>
+    <t>ㄌㄤˊ</t>
+  </si>
+  <si>
+    <t>zit⁸</t>
+  </si>
+  <si>
+    <t>ㄐㄧㆵ˙</t>
+  </si>
+  <si>
+    <t>〔sⁿa¹〕
+【ㄙㆩˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zⁿia²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆩˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u⁷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te⁷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lak⁸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄚㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theh⁸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peh⁸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆤㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put⁴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sⁿi¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㆪˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit⁴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si⁷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat⁴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit⁸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boh⁸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄜㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zok⁴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai⁰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biat⁸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au⁷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄠ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo⁷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pah⁴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hue³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok⁴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i²</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zit⁸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji⁷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sⁿa¹</t>
+  </si>
+  <si>
+    <t>ㄙㆩˉ</t>
+  </si>
+  <si>
+    <t>si³</t>
+  </si>
+  <si>
+    <t>ㄒㄧ˪</t>
+  </si>
+  <si>
+    <t>li⁵</t>
+  </si>
+  <si>
+    <t>ㄌㄧˊ</t>
+  </si>
+  <si>
+    <t>zing²</t>
+  </si>
+  <si>
+    <t>ㄐㄧㄥˋ</t>
+  </si>
+  <si>
+    <t>sian⁷</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄢ˫</t>
+  </si>
+  <si>
+    <t>kin¹</t>
+  </si>
+  <si>
+    <t>ㄍㄧㄣˉ</t>
+  </si>
+  <si>
+    <t>bo⁵</t>
+  </si>
+  <si>
+    <t>ㆠㄜˊ</t>
+  </si>
+  <si>
+    <t>liong⁷</t>
+  </si>
+  <si>
+    <t>ㄌㄧㆲ˫</t>
+  </si>
+  <si>
+    <t>cing¹</t>
+  </si>
+  <si>
+    <t>ㄑㄧㄥˉ</t>
+  </si>
+  <si>
+    <t>ban⁷</t>
+  </si>
+  <si>
+    <t>ㆠㄢ˫</t>
+  </si>
+  <si>
+    <t>soo²</t>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+  </si>
+  <si>
+    <t>zu¹</t>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+  </si>
+  <si>
+    <t>nai²</t>
+  </si>
+  <si>
+    <t>ㄋㄞˋ</t>
+  </si>
+  <si>
+    <t>zi³</t>
+  </si>
+  <si>
+    <t>ㄐㄧ˪</t>
+  </si>
+  <si>
+    <t>liam⁷</t>
+  </si>
+  <si>
+    <t>ㄌㄧㆰ˫</t>
+  </si>
+  <si>
+    <t>zing⁷</t>
+  </si>
+  <si>
+    <t>ㄐㄧㄥ˫</t>
+  </si>
+  <si>
+    <t>siek⁴</t>
+  </si>
+  <si>
+    <t>ㄒㄧㆤㆻ</t>
+  </si>
+  <si>
+    <t>kⁿi³</t>
+  </si>
+  <si>
+    <t>ㄍㆪ˪</t>
+  </si>
+  <si>
+    <t>tiek⁴</t>
+  </si>
+  <si>
+    <t>ㄉㄧㆤㆻ</t>
+  </si>
+  <si>
+    <t>ho⁵</t>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+  </si>
+  <si>
+    <t>koo³</t>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+  </si>
+  <si>
+    <t>hok⁸</t>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ˙</t>
+  </si>
+  <si>
+    <t>gua²</t>
+  </si>
+  <si>
+    <t>ㆣㄨㄚˋ</t>
+  </si>
+  <si>
+    <t>siong¹</t>
+  </si>
+  <si>
+    <t>ㄒㄧㆲˉ</t>
+  </si>
+  <si>
+    <t>siu⁷</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˫</t>
+  </si>
+  <si>
+    <t>huat⁴</t>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+  </si>
+  <si>
+    <t>iah⁸</t>
+  </si>
+  <si>
+    <t>ㄧㄚㆷ˙</t>
+  </si>
+  <si>
+    <t>hui¹</t>
+  </si>
+  <si>
+    <t>ㄏㄨㄧˉ</t>
   </si>
   <si>
     <t>na²</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄋㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pho¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㄜˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit⁸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄥˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ju⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu²</t>
+  </si>
+  <si>
+    <t>ㄘㄨˋ</t>
+  </si>
+  <si>
+    <t>ziah⁴</t>
+  </si>
+  <si>
+    <t>ㄐㄧㄚㆷ</t>
+  </si>
+  <si>
+    <t>tio⁰</t>
+  </si>
+  <si>
+    <t>ㄉㄧㄜ˙</t>
+  </si>
+  <si>
+    <t>ziong²</t>
+  </si>
+  <si>
+    <t>ㄐㄧㆲˋ</t>
+  </si>
+  <si>
+    <t>ing¹</t>
+  </si>
+  <si>
+    <t>ㄧㄥˉ</t>
+  </si>
+  <si>
+    <t>gi⁷</t>
+  </si>
+  <si>
+    <t>ㆣㄧ˫</t>
+  </si>
+  <si>
+    <t>siong⁵</t>
+  </si>
+  <si>
+    <t>ㄒㄧㆲˊ</t>
   </si>
   <si>
     <t>li²</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄌㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit⁸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kⁿi³</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆪ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goo⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoo⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theh⁸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆤㆷ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i³</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>un⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho²</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i²</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sin¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai⁰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>put⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se³</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo³</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>la⁰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo²</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suat⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziah⁴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄚㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hui¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>put⁸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko³</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄜ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huan⁵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄞˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bong⁷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu¹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨˉ</t>
+  </si>
+  <si>
+    <t>tan²</t>
+  </si>
+  <si>
+    <t>ㄉㄢˋ</t>
+  </si>
+  <si>
+    <t>pi²</t>
+  </si>
+  <si>
+    <t>ㄅㄧˋ</t>
+  </si>
+  <si>
+    <t>khu¹</t>
+  </si>
+  <si>
+    <t>ㄎㄨˉ</t>
+  </si>
+  <si>
+    <t>huat⁸</t>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ˙</t>
+  </si>
+  <si>
+    <t>ju⁷</t>
+  </si>
+  <si>
+    <t>ㆡㄨ˫</t>
+  </si>
+  <si>
+    <t>siong⁷</t>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˫</t>
+  </si>
+  <si>
+    <t>sia³</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄚ˪</t>
+  </si>
+  <si>
+    <t>hong²</t>
+  </si>
+  <si>
+    <t>ㄏㆲˋ</t>
+  </si>
+  <si>
+    <t>huat⁴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1919,7 +2758,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="76">
+  <fonts count="78">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2337,13 +3176,6 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -2397,13 +3229,6 @@
       <name val="Sitka Text Semibold"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="MS UI Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif TC Medium"/>
@@ -2451,6 +3276,33 @@
       <color theme="1"/>
       <name val="細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -2648,12 +3500,12 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2831,7 +3683,7 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2846,22 +3698,22 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -2874,14 +3726,14 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -2891,7 +3743,7 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -2907,52 +3759,55 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2962,6 +3817,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2971,7 +3833,55 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3750,10 +4660,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:C9"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -3776,62 +4686,71 @@
       <c r="B2" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>163</v>
+      <c r="C2" s="100" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="100" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>249</v>
+        <v>165</v>
+      </c>
+      <c r="C4" s="63" t="str">
+        <f xml:space="preserve"> "金剛般若波羅蜜經。" &amp; _xlfn.CONCAT(漢字注音!D5:R5)</f>
+        <v>金剛般若波羅蜜經。正信希有分第六</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="72" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="98">
-        <v>20</v>
+      <c r="C8" s="98" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="98">
+      <c r="B9" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="99">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="99">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{DE2F131F-8109-4114-9E19-8669EDE792F8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{DE2F131F-8109-4114-9E19-8669EDE792F8}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3841,10 +4760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
-  <dimension ref="B2:V82"/>
+  <dimension ref="A2:V86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3924,37 +4843,35 @@
       <c r="S2" s="60"/>
       <c r="V2" s="68">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>103</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="2:22" s="78" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="75"/>
       <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
+      <c r="D3" s="77" t="s">
+        <v>290</v>
+      </c>
       <c r="E3" s="77" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="I3" s="77" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="L3" s="77" t="s">
-        <v>207</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="77"/>
       <c r="N3" s="77"/>
       <c r="O3" s="77"/>
@@ -3963,37 +4880,35 @@
       <c r="R3" s="77"/>
       <c r="S3" s="74"/>
       <c r="T3" s="71"/>
-      <c r="V3" s="100" t="s">
-        <v>248</v>
+      <c r="V3" s="101" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
-      <c r="D4" s="89"/>
+      <c r="D4" s="89" t="s">
+        <v>437</v>
+      </c>
       <c r="E4" s="89" t="s">
-        <v>286</v>
+        <v>439</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>288</v>
+        <v>441</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>290</v>
+        <v>443</v>
       </c>
       <c r="H4" s="89" t="s">
-        <v>292</v>
+        <v>445</v>
       </c>
       <c r="I4" s="89" t="s">
-        <v>294</v>
+        <v>447</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="K4" s="89" t="s">
-        <v>298</v>
-      </c>
-      <c r="L4" s="89" t="s">
-        <v>300</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
       <c r="M4" s="89"/>
       <c r="N4" s="89"/>
       <c r="O4" s="89"/>
@@ -4001,156 +4916,168 @@
       <c r="Q4" s="89"/>
       <c r="R4" s="89"/>
       <c r="S4" s="53"/>
-      <c r="V4" s="101"/>
+      <c r="V4" s="102"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="66">
         <v>1</v>
       </c>
-      <c r="D5" s="96" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="G5" s="96" t="s">
-        <v>242</v>
-      </c>
-      <c r="H5" s="96" t="s">
+      <c r="D5" s="95" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="96" t="s">
-        <v>243</v>
-      </c>
-      <c r="J5" s="96" t="s">
-        <v>244</v>
-      </c>
-      <c r="K5" s="96" t="s">
-        <v>245</v>
-      </c>
-      <c r="L5" s="96" t="s">
-        <v>246</v>
-      </c>
-      <c r="M5" s="96" t="s">
-        <v>247</v>
-      </c>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
+      <c r="I5" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="95" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
       <c r="S5" s="54"/>
-      <c r="V5" s="101"/>
+      <c r="V5" s="102"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="95" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" s="95" t="s">
-        <v>291</v>
-      </c>
-      <c r="H6" s="95" t="s">
-        <v>293</v>
-      </c>
-      <c r="I6" s="95" t="s">
-        <v>295</v>
-      </c>
-      <c r="J6" s="95" t="s">
-        <v>297</v>
-      </c>
-      <c r="K6" s="95" t="s">
-        <v>299</v>
-      </c>
-      <c r="L6" s="95" t="s">
-        <v>301</v>
-      </c>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
+      <c r="D6" s="94" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>442</v>
+      </c>
+      <c r="G6" s="94" t="s">
+        <v>444</v>
+      </c>
+      <c r="H6" s="94" t="s">
+        <v>446</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>448</v>
+      </c>
+      <c r="J6" s="94" t="s">
+        <v>450</v>
+      </c>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
       <c r="S6" s="55"/>
-      <c r="V6" s="101"/>
+      <c r="V6" s="102"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="64"/>
       <c r="C7" s="56"/>
       <c r="D7" s="79" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="F7" s="79" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="I7" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7" s="79" t="s">
-        <v>271</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="J7" s="79"/>
       <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
+      <c r="L7" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="M7" s="79" t="s">
+        <v>303</v>
+      </c>
       <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
+      <c r="O7" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="P7" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q7" s="107" t="s">
+        <v>305</v>
+      </c>
+      <c r="R7" s="107" t="s">
+        <v>306</v>
+      </c>
       <c r="S7" s="57"/>
-      <c r="V7" s="101"/>
+      <c r="V7" s="102"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="89" t="s">
-        <v>302</v>
+        <v>451</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>304</v>
+        <v>453</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>306</v>
+        <v>455</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>308</v>
+        <v>457</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>310</v>
+        <v>459</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>312</v>
-      </c>
-      <c r="J8" s="89" t="s">
-        <v>314</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
+      <c r="L8" s="89" t="s">
+        <v>463</v>
+      </c>
+      <c r="M8" s="89" t="s">
+        <v>465</v>
+      </c>
       <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
+      <c r="O8" s="89" t="s">
+        <v>467</v>
+      </c>
+      <c r="P8" s="89" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q8" s="89" t="s">
+        <v>469</v>
+      </c>
+      <c r="R8" s="89" t="s">
+        <v>471</v>
+      </c>
       <c r="S8" s="53"/>
-      <c r="V8" s="101"/>
+      <c r="V8" s="102"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="66">
@@ -4158,163 +5085,189 @@
         <v>2</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="96" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="96" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="96" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="H9" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="I9" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="J9" s="96" t="s">
-        <v>253</v>
-      </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
+      <c r="D9" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="L9" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="M9" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="N9" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="O9" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="P9" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q9" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="R9" s="95" t="s">
+        <v>224</v>
+      </c>
       <c r="S9" s="54"/>
       <c r="T9" s="71"/>
-      <c r="V9" s="101"/>
+      <c r="V9" s="102"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
-      <c r="D10" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10" s="95" t="s">
-        <v>305</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>307</v>
-      </c>
-      <c r="G10" s="95" t="s">
-        <v>309</v>
-      </c>
-      <c r="H10" s="95" t="s">
-        <v>311</v>
-      </c>
-      <c r="I10" s="95" t="s">
-        <v>313</v>
-      </c>
-      <c r="J10" s="95" t="s">
-        <v>315</v>
-      </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
+      <c r="D10" s="94" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" s="94" t="s">
+        <v>454</v>
+      </c>
+      <c r="F10" s="94" t="s">
+        <v>456</v>
+      </c>
+      <c r="G10" s="94" t="s">
+        <v>458</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="I10" s="94" t="s">
+        <v>462</v>
+      </c>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94" t="s">
+        <v>464</v>
+      </c>
+      <c r="M10" s="94" t="s">
+        <v>466</v>
+      </c>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94" t="s">
+        <v>468</v>
+      </c>
+      <c r="P10" s="94" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q10" s="94" t="s">
+        <v>470</v>
+      </c>
+      <c r="R10" s="94" t="s">
+        <v>472</v>
+      </c>
       <c r="S10" s="58"/>
-      <c r="V10" s="101"/>
+      <c r="V10" s="102"/>
     </row>
     <row r="11" spans="2:22" s="83" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="80"/>
       <c r="C11" s="81"/>
       <c r="D11" s="79"/>
       <c r="E11" s="79" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>205</v>
+        <v>308</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="H11" s="79"/>
+        <v>309</v>
+      </c>
+      <c r="H11" s="79" t="s">
+        <v>310</v>
+      </c>
       <c r="I11" s="79" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="J11" s="79" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="K11" s="79" t="s">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="L11" s="79" t="s">
-        <v>211</v>
+        <v>313</v>
       </c>
       <c r="M11" s="79"/>
       <c r="N11" s="82" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="O11" s="82" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="P11" s="82" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="82" t="s">
-        <v>226</v>
-      </c>
-      <c r="R11" s="82" t="s">
-        <v>270</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="R11" s="82"/>
       <c r="S11" s="57"/>
-      <c r="V11" s="101"/>
+      <c r="V11" s="102"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="89"/>
       <c r="E12" s="89" t="s">
-        <v>316</v>
+        <v>473</v>
       </c>
       <c r="F12" s="89" t="s">
-        <v>318</v>
+        <v>475</v>
       </c>
       <c r="G12" s="89" t="s">
-        <v>320</v>
-      </c>
-      <c r="H12" s="89"/>
+        <v>477</v>
+      </c>
+      <c r="H12" s="89" t="s">
+        <v>479</v>
+      </c>
       <c r="I12" s="89" t="s">
-        <v>322</v>
+        <v>461</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>324</v>
+        <v>481</v>
       </c>
       <c r="K12" s="89" t="s">
-        <v>326</v>
+        <v>483</v>
       </c>
       <c r="L12" s="89" t="s">
-        <v>328</v>
+        <v>485</v>
       </c>
       <c r="M12" s="89"/>
       <c r="N12" s="89" t="s">
-        <v>330</v>
+        <v>471</v>
       </c>
       <c r="O12" s="89" t="s">
-        <v>332</v>
+        <v>487</v>
       </c>
       <c r="P12" s="89" t="s">
-        <v>334</v>
+        <v>439</v>
       </c>
       <c r="Q12" s="89" t="s">
-        <v>336</v>
-      </c>
-      <c r="R12" s="89" t="s">
-        <v>308</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="R12" s="89"/>
       <c r="S12" s="53"/>
-      <c r="V12" s="101"/>
+      <c r="V12" s="102"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="66">
@@ -4322,136 +5275,138 @@
         <v>3</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="96" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="96" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="96" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="96" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" s="96" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="96" t="s">
+      <c r="D13" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="L13" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="J13" s="96" t="s">
-        <v>230</v>
-      </c>
-      <c r="K13" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="L13" s="96" t="s">
-        <v>200</v>
-      </c>
-      <c r="M13" s="96" t="s">
+      <c r="M13" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="O13" s="95" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="95" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q13" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="N13" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="O13" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="P13" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q13" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="R13" s="96" t="s">
-        <v>252</v>
+      <c r="R13" s="95" t="s">
+        <v>193</v>
       </c>
       <c r="S13" s="54"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="103"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95" t="s">
-        <v>317</v>
-      </c>
-      <c r="F14" s="95" t="s">
-        <v>319</v>
-      </c>
-      <c r="G14" s="95" t="s">
-        <v>321</v>
-      </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95" t="s">
-        <v>323</v>
-      </c>
-      <c r="J14" s="95" t="s">
-        <v>325</v>
-      </c>
-      <c r="K14" s="95" t="s">
-        <v>327</v>
-      </c>
-      <c r="L14" s="95" t="s">
-        <v>329</v>
-      </c>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95" t="s">
-        <v>331</v>
-      </c>
-      <c r="O14" s="95" t="s">
-        <v>333</v>
-      </c>
-      <c r="P14" s="95" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q14" s="95" t="s">
-        <v>337</v>
-      </c>
-      <c r="R14" s="95" t="s">
-        <v>309</v>
-      </c>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94" t="s">
+        <v>474</v>
+      </c>
+      <c r="F14" s="94" t="s">
+        <v>476</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>478</v>
+      </c>
+      <c r="H14" s="94" t="s">
+        <v>480</v>
+      </c>
+      <c r="I14" s="94" t="s">
+        <v>462</v>
+      </c>
+      <c r="J14" s="94" t="s">
+        <v>482</v>
+      </c>
+      <c r="K14" s="94" t="s">
+        <v>484</v>
+      </c>
+      <c r="L14" s="94" t="s">
+        <v>486</v>
+      </c>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94" t="s">
+        <v>472</v>
+      </c>
+      <c r="O14" s="94" t="s">
+        <v>488</v>
+      </c>
+      <c r="P14" s="94" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q14" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="R14" s="94"/>
       <c r="S14" s="58"/>
       <c r="V14" s="69"/>
     </row>
     <row r="15" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="75"/>
       <c r="C15" s="84"/>
-      <c r="D15" s="79" t="s">
-        <v>180</v>
-      </c>
+      <c r="D15" s="79"/>
       <c r="E15" s="79" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="F15" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="K15" s="79" t="s">
-        <v>236</v>
-      </c>
-      <c r="L15" s="79"/>
+        <v>315</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="H15" s="79" t="s">
+        <v>297</v>
+      </c>
+      <c r="I15" s="79" t="s">
+        <v>298</v>
+      </c>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79" t="s">
+        <v>316</v>
+      </c>
       <c r="M15" s="79" t="s">
-        <v>182</v>
+        <v>381</v>
       </c>
       <c r="N15" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79" t="s">
-        <v>233</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O15" s="79" t="s">
+        <v>311</v>
+      </c>
+      <c r="P15" s="79"/>
       <c r="Q15" s="79" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="R15" s="79" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="S15" s="85"/>
       <c r="V15" s="87"/>
@@ -4459,40 +5414,42 @@
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
-      <c r="D16" s="89" t="s">
-        <v>302</v>
-      </c>
+      <c r="D16" s="89"/>
       <c r="E16" s="89" t="s">
-        <v>338</v>
+        <v>459</v>
       </c>
       <c r="F16" s="89" t="s">
-        <v>340</v>
-      </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89" t="s">
-        <v>340</v>
-      </c>
-      <c r="K16" s="89" t="s">
-        <v>342</v>
-      </c>
-      <c r="L16" s="89"/>
+        <v>489</v>
+      </c>
+      <c r="G16" s="89" t="s">
+        <v>451</v>
+      </c>
+      <c r="H16" s="89" t="s">
+        <v>453</v>
+      </c>
+      <c r="I16" s="89" t="s">
+        <v>455</v>
+      </c>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89" t="s">
+        <v>491</v>
+      </c>
       <c r="M16" s="89" t="s">
-        <v>344</v>
+        <v>493</v>
       </c>
       <c r="N16" s="89" t="s">
-        <v>346</v>
-      </c>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89" t="s">
-        <v>340</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="O16" s="89" t="s">
+        <v>481</v>
+      </c>
+      <c r="P16" s="89"/>
       <c r="Q16" s="89" t="s">
-        <v>330</v>
+        <v>477</v>
       </c>
       <c r="R16" s="89" t="s">
-        <v>332</v>
+        <v>495</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="69"/>
@@ -4503,50 +5460,50 @@
         <v>4</v>
       </c>
       <c r="C17" s="52"/>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="95" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="L17" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="M17" s="95" t="s">
+        <v>229</v>
+      </c>
+      <c r="N17" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" s="96" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="H17" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="I17" s="96" t="s">
-        <v>197</v>
-      </c>
-      <c r="J17" s="96" t="s">
-        <v>228</v>
-      </c>
-      <c r="K17" s="96" t="s">
-        <v>232</v>
-      </c>
-      <c r="L17" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="M17" s="96" t="s">
-        <v>176</v>
-      </c>
-      <c r="N17" s="96" t="s">
-        <v>177</v>
-      </c>
-      <c r="O17" s="96" t="s">
-        <v>198</v>
-      </c>
-      <c r="P17" s="96" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q17" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="R17" s="96" t="s">
-        <v>220</v>
+      <c r="O17" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="P17" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q17" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="R17" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="S17" s="54"/>
       <c r="V17" s="69"/>
@@ -4554,40 +5511,42 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
-      <c r="D18" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="E18" s="95" t="s">
-        <v>339</v>
-      </c>
-      <c r="F18" s="95" t="s">
-        <v>341</v>
-      </c>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95" t="s">
-        <v>341</v>
-      </c>
-      <c r="K18" s="95" t="s">
-        <v>343</v>
-      </c>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95" t="s">
-        <v>345</v>
-      </c>
-      <c r="N18" s="95" t="s">
-        <v>347</v>
-      </c>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q18" s="95" t="s">
-        <v>331</v>
-      </c>
-      <c r="R18" s="95" t="s">
-        <v>333</v>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="F18" s="94" t="s">
+        <v>490</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>452</v>
+      </c>
+      <c r="H18" s="94" t="s">
+        <v>454</v>
+      </c>
+      <c r="I18" s="94" t="s">
+        <v>456</v>
+      </c>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94" t="s">
+        <v>492</v>
+      </c>
+      <c r="M18" s="94" t="s">
+        <v>494</v>
+      </c>
+      <c r="N18" s="94" t="s">
+        <v>480</v>
+      </c>
+      <c r="O18" s="94" t="s">
+        <v>482</v>
+      </c>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94" t="s">
+        <v>478</v>
+      </c>
+      <c r="R18" s="94" t="s">
+        <v>496</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="69"/>
@@ -4596,46 +5555,44 @@
       <c r="B19" s="75"/>
       <c r="C19" s="84"/>
       <c r="D19" s="79" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="E19" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="F19" s="79" t="s">
-        <v>274</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="F19" s="79"/>
       <c r="G19" s="79" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="H19" s="79" t="s">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="I19" s="79" t="s">
-        <v>273</v>
-      </c>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79" t="s">
-        <v>211</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J19" s="79" t="s">
+        <v>322</v>
+      </c>
+      <c r="K19" s="79"/>
       <c r="L19" s="79" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="M19" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="N19" s="79"/>
+        <v>323</v>
+      </c>
+      <c r="N19" s="79" t="s">
+        <v>324</v>
+      </c>
       <c r="O19" s="79" t="s">
-        <v>180</v>
+        <v>325</v>
       </c>
       <c r="P19" s="79" t="s">
-        <v>275</v>
+        <v>382</v>
       </c>
       <c r="Q19" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="R19" s="79" t="s">
-        <v>276</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="R19" s="79"/>
       <c r="S19" s="85"/>
       <c r="V19" s="87"/>
     </row>
@@ -4643,46 +5600,44 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="89" t="s">
-        <v>334</v>
+        <v>497</v>
       </c>
       <c r="E20" s="89" t="s">
-        <v>336</v>
-      </c>
-      <c r="F20" s="89" t="s">
-        <v>348</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="F20" s="89"/>
       <c r="G20" s="89" t="s">
-        <v>308</v>
+        <v>499</v>
       </c>
       <c r="H20" s="89" t="s">
-        <v>302</v>
+        <v>501</v>
       </c>
       <c r="I20" s="89" t="s">
-        <v>338</v>
-      </c>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89" t="s">
-        <v>328</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="J20" s="89" t="s">
+        <v>505</v>
+      </c>
+      <c r="K20" s="89"/>
       <c r="L20" s="89" t="s">
-        <v>332</v>
+        <v>443</v>
       </c>
       <c r="M20" s="89" t="s">
-        <v>350</v>
-      </c>
-      <c r="N20" s="89"/>
+        <v>507</v>
+      </c>
+      <c r="N20" s="89" t="s">
+        <v>509</v>
+      </c>
       <c r="O20" s="89" t="s">
-        <v>302</v>
+        <v>511</v>
       </c>
       <c r="P20" s="89" t="s">
-        <v>352</v>
+        <v>513</v>
       </c>
       <c r="Q20" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="R20" s="89" t="s">
-        <v>356</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="R20" s="89"/>
       <c r="S20" s="53"/>
       <c r="V20" s="69"/>
     </row>
@@ -4692,50 +5647,50 @@
         <v>5</v>
       </c>
       <c r="C21" s="52"/>
-      <c r="D21" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="E21" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="96" t="s">
-        <v>256</v>
-      </c>
-      <c r="G21" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="H21" s="96" t="s">
-        <v>172</v>
-      </c>
-      <c r="I21" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="J21" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="K21" s="96" t="s">
-        <v>200</v>
-      </c>
-      <c r="L21" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="M21" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="N21" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="O21" s="96" t="s">
-        <v>172</v>
-      </c>
-      <c r="P21" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q21" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="R21" s="96" t="s">
-        <v>257</v>
+      <c r="D21" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="H21" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="J21" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="K21" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="N21" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="O21" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="P21" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q21" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="R21" s="95" t="s">
+        <v>167</v>
       </c>
       <c r="S21" s="54"/>
       <c r="V21" s="69"/>
@@ -4743,47 +5698,45 @@
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
-      <c r="D22" s="95" t="s">
-        <v>335</v>
-      </c>
-      <c r="E22" s="95" t="s">
-        <v>337</v>
-      </c>
-      <c r="F22" s="95" t="s">
-        <v>349</v>
-      </c>
-      <c r="G22" s="95" t="s">
-        <v>309</v>
-      </c>
-      <c r="H22" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="I22" s="95" t="s">
-        <v>339</v>
-      </c>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95" t="s">
-        <v>329</v>
-      </c>
-      <c r="L22" s="95" t="s">
-        <v>333</v>
-      </c>
-      <c r="M22" s="95" t="s">
-        <v>351</v>
-      </c>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="P22" s="95" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q22" s="95" t="s">
-        <v>355</v>
-      </c>
-      <c r="R22" s="95" t="s">
-        <v>357</v>
-      </c>
+      <c r="D22" s="94" t="s">
+        <v>498</v>
+      </c>
+      <c r="E22" s="94" t="s">
+        <v>500</v>
+      </c>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94" t="s">
+        <v>500</v>
+      </c>
+      <c r="H22" s="94" t="s">
+        <v>502</v>
+      </c>
+      <c r="I22" s="94" t="s">
+        <v>504</v>
+      </c>
+      <c r="J22" s="94" t="s">
+        <v>506</v>
+      </c>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94" t="s">
+        <v>444</v>
+      </c>
+      <c r="M22" s="94" t="s">
+        <v>508</v>
+      </c>
+      <c r="N22" s="94" t="s">
+        <v>510</v>
+      </c>
+      <c r="O22" s="94" t="s">
+        <v>512</v>
+      </c>
+      <c r="P22" s="94" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q22" s="94" t="s">
+        <v>516</v>
+      </c>
+      <c r="R22" s="94"/>
       <c r="S22" s="58"/>
       <c r="V22" s="69"/>
     </row>
@@ -4791,40 +5744,42 @@
       <c r="B23" s="75"/>
       <c r="C23" s="84"/>
       <c r="D23" s="79" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="E23" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" s="79"/>
+        <v>328</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>312</v>
+      </c>
       <c r="G23" s="79" t="s">
-        <v>277</v>
-      </c>
-      <c r="H23" s="79" t="s">
-        <v>278</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="H23" s="79"/>
       <c r="I23" s="79" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="J23" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79" t="s">
-        <v>279</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="K23" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="L23" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="M23" s="79"/>
       <c r="N23" s="79" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="O23" s="79" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="P23" s="79" t="s">
-        <v>205</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="79" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
       <c r="R23" s="79"/>
       <c r="S23" s="85"/>
@@ -4834,40 +5789,42 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="89" t="s">
-        <v>334</v>
+        <v>517</v>
       </c>
       <c r="E24" s="89" t="s">
-        <v>336</v>
-      </c>
-      <c r="F24" s="89"/>
+        <v>519</v>
+      </c>
+      <c r="F24" s="89" t="s">
+        <v>483</v>
+      </c>
       <c r="G24" s="89" t="s">
-        <v>358</v>
-      </c>
-      <c r="H24" s="89" t="s">
-        <v>360</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="H24" s="89"/>
       <c r="I24" s="89" t="s">
-        <v>334</v>
+        <v>521</v>
       </c>
       <c r="J24" s="89" t="s">
-        <v>336</v>
-      </c>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89" t="s">
-        <v>362</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="K24" s="89" t="s">
+        <v>439</v>
+      </c>
+      <c r="L24" s="89" t="s">
+        <v>523</v>
+      </c>
+      <c r="M24" s="89"/>
       <c r="N24" s="89" t="s">
-        <v>364</v>
+        <v>525</v>
       </c>
       <c r="O24" s="89" t="s">
-        <v>316</v>
+        <v>519</v>
       </c>
       <c r="P24" s="89" t="s">
-        <v>318</v>
+        <v>527</v>
       </c>
       <c r="Q24" s="89" t="s">
-        <v>320</v>
+        <v>487</v>
       </c>
       <c r="R24" s="89"/>
       <c r="S24" s="53"/>
@@ -4879,49 +5836,49 @@
         <v>6</v>
       </c>
       <c r="C25" s="52"/>
-      <c r="D25" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" s="96" t="s">
-        <v>258</v>
-      </c>
-      <c r="H25" s="96" t="s">
-        <v>259</v>
-      </c>
-      <c r="I25" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="J25" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="K25" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="L25" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="M25" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="N25" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="O25" s="96" t="s">
-        <v>194</v>
-      </c>
-      <c r="P25" s="96" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q25" s="96" t="s">
-        <v>196</v>
-      </c>
-      <c r="R25" s="96" t="s">
+      <c r="D25" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" s="95" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="N25" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="P25" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q25" s="95" t="s">
+        <v>204</v>
+      </c>
+      <c r="R25" s="95" t="s">
         <v>174</v>
       </c>
       <c r="S25" s="54"/>
@@ -4930,91 +5887,93 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="95" t="s">
-        <v>335</v>
-      </c>
-      <c r="E26" s="95" t="s">
-        <v>337</v>
-      </c>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95" t="s">
-        <v>359</v>
-      </c>
-      <c r="H26" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="I26" s="95" t="s">
-        <v>335</v>
-      </c>
-      <c r="J26" s="95" t="s">
-        <v>337</v>
-      </c>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95" t="s">
-        <v>363</v>
-      </c>
-      <c r="N26" s="95" t="s">
-        <v>365</v>
-      </c>
-      <c r="O26" s="95" t="s">
-        <v>317</v>
-      </c>
-      <c r="P26" s="95" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q26" s="95" t="s">
-        <v>321</v>
-      </c>
-      <c r="R26" s="95"/>
+      <c r="D26" s="94" t="s">
+        <v>518</v>
+      </c>
+      <c r="E26" s="94" t="s">
+        <v>520</v>
+      </c>
+      <c r="F26" s="94" t="s">
+        <v>484</v>
+      </c>
+      <c r="G26" s="94" t="s">
+        <v>486</v>
+      </c>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94" t="s">
+        <v>522</v>
+      </c>
+      <c r="J26" s="94" t="s">
+        <v>472</v>
+      </c>
+      <c r="K26" s="94" t="s">
+        <v>440</v>
+      </c>
+      <c r="L26" s="94" t="s">
+        <v>524</v>
+      </c>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94" t="s">
+        <v>526</v>
+      </c>
+      <c r="O26" s="94" t="s">
+        <v>520</v>
+      </c>
+      <c r="P26" s="94" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q26" s="94" t="s">
+        <v>488</v>
+      </c>
+      <c r="R26" s="94"/>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
         <f xml:space="preserve"> MID($N$26,3,1)</f>
-        <v>˪</v>
+        <v/>
       </c>
       <c r="V26" s="69"/>
     </row>
     <row r="27" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="75"/>
       <c r="C27" s="84"/>
-      <c r="D27" s="79"/>
+      <c r="D27" s="79" t="s">
+        <v>333</v>
+      </c>
       <c r="E27" s="79" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="F27" s="79" t="s">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="G27" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="H27" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="I27" s="79"/>
+        <v>335</v>
+      </c>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79" t="s">
+        <v>300</v>
+      </c>
       <c r="J27" s="79" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="K27" s="79" t="s">
-        <v>181</v>
+        <v>336</v>
       </c>
       <c r="L27" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="M27" s="79" t="s">
-        <v>284</v>
-      </c>
-      <c r="N27" s="79"/>
+        <v>300</v>
+      </c>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79" t="s">
+        <v>337</v>
+      </c>
       <c r="O27" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="P27" s="79" t="s">
-        <v>270</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="P27" s="79"/>
       <c r="Q27" s="79" t="s">
-        <v>285</v>
+        <v>436</v>
       </c>
       <c r="R27" s="79" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
       <c r="S27" s="85"/>
       <c r="U27" s="86" t="str">
@@ -5026,44 +5985,44 @@
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
-      <c r="D28" s="89"/>
+      <c r="D28" s="89" t="s">
+        <v>529</v>
+      </c>
       <c r="E28" s="89" t="s">
-        <v>366</v>
+        <v>531</v>
       </c>
       <c r="F28" s="89" t="s">
-        <v>354</v>
+        <v>479</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>368</v>
-      </c>
-      <c r="H28" s="89" t="s">
-        <v>336</v>
-      </c>
-      <c r="I28" s="89"/>
+        <v>533</v>
+      </c>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89" t="s">
+        <v>459</v>
+      </c>
       <c r="J28" s="89" t="s">
-        <v>370</v>
+        <v>517</v>
       </c>
       <c r="K28" s="89" t="s">
-        <v>372</v>
+        <v>535</v>
       </c>
       <c r="L28" s="89" t="s">
-        <v>374</v>
-      </c>
-      <c r="M28" s="89" t="s">
-        <v>376</v>
-      </c>
-      <c r="N28" s="89"/>
+        <v>459</v>
+      </c>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89" t="s">
+        <v>537</v>
+      </c>
       <c r="O28" s="89" t="s">
-        <v>292</v>
-      </c>
-      <c r="P28" s="89" t="s">
-        <v>308</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="P28" s="89"/>
       <c r="Q28" s="89" t="s">
-        <v>378</v>
+        <v>539</v>
       </c>
       <c r="R28" s="89" t="s">
-        <v>336</v>
+        <v>541</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="86" t="str">
@@ -5078,50 +6037,50 @@
         <v>7</v>
       </c>
       <c r="C29" s="52"/>
-      <c r="D29" s="96" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="F29" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="H29" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="I29" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" s="96" t="s">
-        <v>264</v>
-      </c>
-      <c r="K29" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" s="96" t="s">
-        <v>231</v>
-      </c>
-      <c r="M29" s="96" t="s">
-        <v>265</v>
-      </c>
-      <c r="N29" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="O29" s="96" t="s">
-        <v>169</v>
-      </c>
-      <c r="P29" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q29" s="96" t="s">
-        <v>266</v>
-      </c>
-      <c r="R29" s="96" t="s">
-        <v>222</v>
+      <c r="D29" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="H29" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="J29" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="M29" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="N29" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="O29" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="P29" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q29" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="R29" s="95" t="s">
+        <v>250</v>
       </c>
       <c r="S29" s="54"/>
       <c r="U29" s="86" t="str">
@@ -5133,44 +6092,44 @@
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95" t="s">
-        <v>367</v>
-      </c>
-      <c r="F30" s="95" t="s">
-        <v>355</v>
-      </c>
-      <c r="G30" s="95" t="s">
-        <v>369</v>
-      </c>
-      <c r="H30" s="95" t="s">
-        <v>337</v>
-      </c>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95" t="s">
-        <v>371</v>
-      </c>
-      <c r="K30" s="95" t="s">
-        <v>373</v>
-      </c>
-      <c r="L30" s="95" t="s">
-        <v>375</v>
-      </c>
-      <c r="M30" s="95" t="s">
-        <v>377</v>
-      </c>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95" t="s">
-        <v>293</v>
-      </c>
-      <c r="P30" s="95" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q30" s="95" t="s">
-        <v>379</v>
-      </c>
-      <c r="R30" s="95" t="s">
-        <v>337</v>
+      <c r="D30" s="94" t="s">
+        <v>530</v>
+      </c>
+      <c r="E30" s="94" t="s">
+        <v>532</v>
+      </c>
+      <c r="F30" s="94" t="s">
+        <v>480</v>
+      </c>
+      <c r="G30" s="94" t="s">
+        <v>534</v>
+      </c>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="J30" s="94" t="s">
+        <v>518</v>
+      </c>
+      <c r="K30" s="94" t="s">
+        <v>536</v>
+      </c>
+      <c r="L30" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94" t="s">
+        <v>538</v>
+      </c>
+      <c r="O30" s="94" t="s">
+        <v>460</v>
+      </c>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94" t="s">
+        <v>540</v>
+      </c>
+      <c r="R30" s="94" t="s">
+        <v>542</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="86" t="str">
@@ -5183,32 +6142,48 @@
       <c r="B31" s="75"/>
       <c r="C31" s="84"/>
       <c r="D31" s="79" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="E31" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="F31" s="79"/>
+        <v>300</v>
+      </c>
+      <c r="F31" s="79" t="s">
+        <v>339</v>
+      </c>
       <c r="G31" s="79" t="s">
-        <v>277</v>
+        <v>340</v>
       </c>
       <c r="H31" s="79" t="s">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="I31" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="79" t="s">
-        <v>273</v>
-      </c>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
+        <v>342</v>
+      </c>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="L31" s="79" t="s">
+        <v>327</v>
+      </c>
+      <c r="M31" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="N31" s="79" t="s">
+        <v>344</v>
+      </c>
+      <c r="O31" s="79" t="s">
+        <v>345</v>
+      </c>
+      <c r="P31" s="79" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q31" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="R31" s="79" t="s">
+        <v>347</v>
+      </c>
       <c r="S31" s="85"/>
       <c r="U31" s="86" t="str">
         <f t="shared" si="0"/>
@@ -5220,32 +6195,48 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="89" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="E32" s="89" t="s">
-        <v>336</v>
-      </c>
-      <c r="F32" s="89"/>
+        <v>394</v>
+      </c>
+      <c r="F32" s="89" t="s">
+        <v>543</v>
+      </c>
       <c r="G32" s="89" t="s">
-        <v>358</v>
+        <v>545</v>
       </c>
       <c r="H32" s="89" t="s">
-        <v>308</v>
+        <v>547</v>
       </c>
       <c r="I32" s="89" t="s">
-        <v>302</v>
-      </c>
-      <c r="J32" s="89" t="s">
-        <v>338</v>
-      </c>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
+        <v>549</v>
+      </c>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="L32" s="89" t="s">
+        <v>422</v>
+      </c>
+      <c r="M32" s="89" t="s">
+        <v>551</v>
+      </c>
+      <c r="N32" s="89" t="s">
+        <v>553</v>
+      </c>
+      <c r="O32" s="89" t="s">
+        <v>555</v>
+      </c>
+      <c r="P32" s="89" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q32" s="89" t="s">
+        <v>394</v>
+      </c>
+      <c r="R32" s="89" t="s">
+        <v>559</v>
+      </c>
       <c r="S32" s="53"/>
       <c r="U32" s="86" t="str">
         <f t="shared" si="0"/>
@@ -5259,114 +6250,194 @@
         <v>8</v>
       </c>
       <c r="C33" s="52"/>
-      <c r="D33" s="96" t="s">
+      <c r="D33" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="H33" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="I33" s="95" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="L33" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="M33" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="N33" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="O33" s="95" t="s">
+        <v>258</v>
+      </c>
+      <c r="P33" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="E33" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="F33" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="G33" s="96" t="s">
-        <v>258</v>
-      </c>
-      <c r="H33" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="I33" s="96" t="s">
-        <v>172</v>
-      </c>
-      <c r="J33" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="K33" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="L33" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
+      <c r="Q33" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="R33" s="95" t="s">
+        <v>195</v>
+      </c>
       <c r="S33" s="54"/>
       <c r="V33" s="69"/>
     </row>
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="E34" s="95" t="s">
-        <v>337</v>
-      </c>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95" t="s">
-        <v>359</v>
-      </c>
-      <c r="H34" s="95" t="s">
-        <v>309</v>
-      </c>
-      <c r="I34" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="J34" s="95" t="s">
-        <v>339</v>
-      </c>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
+      <c r="D34" s="94" t="s">
+        <v>417</v>
+      </c>
+      <c r="E34" s="94" t="s">
+        <v>395</v>
+      </c>
+      <c r="F34" s="94" t="s">
+        <v>544</v>
+      </c>
+      <c r="G34" s="94" t="s">
+        <v>546</v>
+      </c>
+      <c r="H34" s="94" t="s">
+        <v>548</v>
+      </c>
+      <c r="I34" s="94" t="s">
+        <v>550</v>
+      </c>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94" t="s">
+        <v>427</v>
+      </c>
+      <c r="L34" s="94" t="s">
+        <v>423</v>
+      </c>
+      <c r="M34" s="94" t="s">
+        <v>552</v>
+      </c>
+      <c r="N34" s="94" t="s">
+        <v>554</v>
+      </c>
+      <c r="O34" s="94" t="s">
+        <v>556</v>
+      </c>
+      <c r="P34" s="94" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q34" s="94" t="s">
+        <v>395</v>
+      </c>
+      <c r="R34" s="94" t="s">
+        <v>560</v>
+      </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
     </row>
     <row r="35" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="75"/>
       <c r="C35" s="84"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
+      <c r="D35" s="79" t="s">
+        <v>340</v>
+      </c>
+      <c r="E35" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="F35" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="G35" s="79" t="s">
+        <v>342</v>
+      </c>
       <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
+      <c r="I35" s="79" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="K35" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" s="79" t="s">
+        <v>313</v>
+      </c>
       <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79"/>
+      <c r="N35" s="79" t="s">
+        <v>349</v>
+      </c>
+      <c r="O35" s="79" t="s">
+        <v>350</v>
+      </c>
+      <c r="P35" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q35" s="79" t="s">
+        <v>351</v>
+      </c>
+      <c r="R35" s="79" t="s">
+        <v>306</v>
+      </c>
       <c r="S35" s="85"/>
       <c r="V35" s="87"/>
     </row>
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
+      <c r="D36" s="89" t="s">
+        <v>545</v>
+      </c>
+      <c r="E36" s="89" t="s">
+        <v>561</v>
+      </c>
+      <c r="F36" s="89" t="s">
+        <v>547</v>
+      </c>
+      <c r="G36" s="89" t="s">
+        <v>549</v>
+      </c>
       <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
+      <c r="I36" s="89" t="s">
+        <v>402</v>
+      </c>
+      <c r="J36" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="K36" s="89" t="s">
+        <v>410</v>
+      </c>
+      <c r="L36" s="89" t="s">
+        <v>412</v>
+      </c>
       <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="89"/>
+      <c r="N36" s="89" t="s">
+        <v>563</v>
+      </c>
+      <c r="O36" s="89" t="s">
+        <v>565</v>
+      </c>
+      <c r="P36" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q36" s="89" t="s">
+        <v>567</v>
+      </c>
+      <c r="R36" s="89" t="s">
+        <v>398</v>
+      </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
     </row>
@@ -5376,62 +6447,140 @@
         <v>9</v>
       </c>
       <c r="C37" s="52"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
+      <c r="D37" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="E37" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="95" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="I37" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="J37" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="K37" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="L37" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="M37" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="N37" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="O37" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="P37" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q37" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="R37" s="95" t="s">
+        <v>224</v>
+      </c>
       <c r="S37" s="54"/>
       <c r="V37" s="69"/>
     </row>
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
+      <c r="D38" s="94" t="s">
+        <v>546</v>
+      </c>
+      <c r="E38" s="94" t="s">
+        <v>562</v>
+      </c>
+      <c r="F38" s="94" t="s">
+        <v>548</v>
+      </c>
+      <c r="G38" s="94" t="s">
+        <v>550</v>
+      </c>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94" t="s">
+        <v>403</v>
+      </c>
+      <c r="J38" s="94" t="s">
+        <v>407</v>
+      </c>
+      <c r="K38" s="94" t="s">
+        <v>411</v>
+      </c>
+      <c r="L38" s="94" t="s">
+        <v>413</v>
+      </c>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94" t="s">
+        <v>564</v>
+      </c>
+      <c r="O38" s="94" t="s">
+        <v>566</v>
+      </c>
+      <c r="P38" s="94" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q38" s="94" t="s">
+        <v>568</v>
+      </c>
+      <c r="R38" s="94" t="s">
+        <v>399</v>
+      </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
     </row>
     <row r="39" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="75"/>
       <c r="C39" s="84"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
+      <c r="D39" s="79" t="s">
+        <v>352</v>
+      </c>
+      <c r="E39" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="F39" s="79" t="s">
+        <v>326</v>
+      </c>
       <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
+      <c r="H39" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="I39" s="79" t="s">
+        <v>297</v>
+      </c>
+      <c r="J39" s="79" t="s">
+        <v>298</v>
+      </c>
       <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
+      <c r="L39" s="79" t="s">
+        <v>309</v>
+      </c>
+      <c r="M39" s="79" t="s">
+        <v>317</v>
+      </c>
+      <c r="N39" s="79" t="s">
+        <v>383</v>
+      </c>
+      <c r="O39" s="79" t="s">
+        <v>334</v>
+      </c>
       <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
+      <c r="Q39" s="79" t="s">
+        <v>353</v>
+      </c>
       <c r="R39" s="79"/>
       <c r="S39" s="85"/>
       <c r="V39" s="87"/>
@@ -5439,20 +6588,42 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
+      <c r="D40" s="89" t="s">
+        <v>569</v>
+      </c>
+      <c r="E40" s="89" t="s">
+        <v>386</v>
+      </c>
+      <c r="F40" s="89" t="s">
+        <v>420</v>
+      </c>
       <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
+      <c r="H40" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="I40" s="89" t="s">
+        <v>390</v>
+      </c>
+      <c r="J40" s="89" t="s">
+        <v>392</v>
+      </c>
       <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
+      <c r="L40" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="M40" s="89" t="s">
+        <v>414</v>
+      </c>
+      <c r="N40" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="O40" s="89" t="s">
+        <v>430</v>
+      </c>
       <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
+      <c r="Q40" s="89" t="s">
+        <v>573</v>
+      </c>
       <c r="R40" s="89"/>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
@@ -5463,84 +6634,192 @@
         <v>10</v>
       </c>
       <c r="C41" s="52"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
+      <c r="D41" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="E41" s="95" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="H41" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="I41" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="J41" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="K41" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="L41" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="M41" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="N41" s="108" t="s">
+        <v>265</v>
+      </c>
+      <c r="O41" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="P41" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q41" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="R41" s="95" t="s">
+        <v>167</v>
+      </c>
       <c r="S41" s="54"/>
       <c r="V41" s="69"/>
     </row>
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
+      <c r="D42" s="94" t="s">
+        <v>570</v>
+      </c>
+      <c r="E42" s="94" t="s">
+        <v>387</v>
+      </c>
+      <c r="F42" s="94" t="s">
+        <v>421</v>
+      </c>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I42" s="94" t="s">
+        <v>391</v>
+      </c>
+      <c r="J42" s="94" t="s">
+        <v>393</v>
+      </c>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94" t="s">
+        <v>405</v>
+      </c>
+      <c r="M42" s="94" t="s">
+        <v>415</v>
+      </c>
+      <c r="N42" s="94" t="s">
+        <v>572</v>
+      </c>
+      <c r="O42" s="94" t="s">
+        <v>431</v>
+      </c>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94" t="s">
+        <v>574</v>
+      </c>
+      <c r="R42" s="94"/>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
     </row>
     <row r="43" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="75"/>
       <c r="C43" s="84"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
+      <c r="D43" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="E43" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="F43" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="G43" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="H43" s="79" t="s">
+        <v>307</v>
+      </c>
+      <c r="I43" s="79" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="L43" s="79" t="s">
+        <v>344</v>
+      </c>
+      <c r="M43" s="79" t="s">
+        <v>382</v>
+      </c>
+      <c r="N43" s="79" t="s">
+        <v>384</v>
+      </c>
       <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="79"/>
-      <c r="R43" s="79"/>
+      <c r="P43" s="79" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q43" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="R43" s="79" t="s">
+        <v>355</v>
+      </c>
       <c r="S43" s="85"/>
       <c r="V43" s="87"/>
     </row>
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
+      <c r="D44" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="E44" s="89" t="s">
+        <v>561</v>
+      </c>
+      <c r="F44" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44" s="89" t="s">
+        <v>398</v>
+      </c>
+      <c r="H44" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="I44" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="J44" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="K44" s="89" t="s">
+        <v>551</v>
+      </c>
+      <c r="L44" s="89" t="s">
+        <v>553</v>
+      </c>
+      <c r="M44" s="89" t="s">
+        <v>418</v>
+      </c>
+      <c r="N44" s="89" t="s">
+        <v>575</v>
+      </c>
       <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
+      <c r="P44" s="89" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q44" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="R44" s="89" t="s">
+        <v>579</v>
+      </c>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
     </row>
@@ -5550,42 +6829,100 @@
         <v>11</v>
       </c>
       <c r="C45" s="52"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
+      <c r="D45" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="G45" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="H45" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="I45" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="J45" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="K45" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="M45" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="N45" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="O45" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="P45" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q45" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="R45" s="95" t="s">
+        <v>198</v>
+      </c>
       <c r="S45" s="54"/>
       <c r="V45" s="69"/>
     </row>
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="95"/>
+      <c r="D46" s="94" t="s">
+        <v>407</v>
+      </c>
+      <c r="E46" s="94" t="s">
+        <v>562</v>
+      </c>
+      <c r="F46" s="94" t="s">
+        <v>397</v>
+      </c>
+      <c r="G46" s="94" t="s">
+        <v>399</v>
+      </c>
+      <c r="H46" s="94" t="s">
+        <v>401</v>
+      </c>
+      <c r="I46" s="94" t="s">
+        <v>405</v>
+      </c>
+      <c r="J46" s="94" t="s">
+        <v>407</v>
+      </c>
+      <c r="K46" s="94" t="s">
+        <v>552</v>
+      </c>
+      <c r="L46" s="94" t="s">
+        <v>554</v>
+      </c>
+      <c r="M46" s="94" t="s">
+        <v>419</v>
+      </c>
+      <c r="N46" s="94" t="s">
+        <v>576</v>
+      </c>
+      <c r="O46" s="94"/>
+      <c r="P46" s="94" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q46" s="94" t="s">
+        <v>427</v>
+      </c>
+      <c r="R46" s="94" t="s">
+        <v>580</v>
+      </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
     </row>
@@ -5593,20 +6930,42 @@
       <c r="B47" s="75"/>
       <c r="C47" s="84"/>
       <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
+      <c r="E47" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="F47" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="G47" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="H47" s="79" t="s">
+        <v>306</v>
+      </c>
       <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
+      <c r="J47" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="K47" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="L47" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" s="79" t="s">
+        <v>357</v>
+      </c>
       <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
+      <c r="O47" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="P47" s="79" t="s">
+        <v>357</v>
+      </c>
       <c r="Q47" s="79"/>
-      <c r="R47" s="79"/>
+      <c r="R47" s="79" t="s">
+        <v>305</v>
+      </c>
       <c r="S47" s="85"/>
       <c r="V47" s="87"/>
     </row>
@@ -5614,20 +6973,42 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
+      <c r="E48" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="F48" s="89" t="s">
+        <v>561</v>
+      </c>
+      <c r="G48" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="H48" s="89" t="s">
+        <v>398</v>
+      </c>
       <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
+      <c r="J48" s="89" t="s">
+        <v>551</v>
+      </c>
+      <c r="K48" s="89" t="s">
+        <v>581</v>
+      </c>
+      <c r="L48" s="89" t="s">
+        <v>583</v>
+      </c>
+      <c r="M48" s="89" t="s">
+        <v>585</v>
+      </c>
       <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="89"/>
+      <c r="O48" s="89" t="s">
+        <v>432</v>
+      </c>
+      <c r="P48" s="89" t="s">
+        <v>585</v>
+      </c>
       <c r="Q48" s="89"/>
-      <c r="R48" s="89"/>
+      <c r="R48" s="89" t="s">
+        <v>396</v>
+      </c>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
     </row>
@@ -5637,84 +7018,184 @@
         <v>12</v>
       </c>
       <c r="C49" s="52"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="96"/>
+      <c r="D49" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="G49" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="H49" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="J49" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="K49" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="L49" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="M49" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="N49" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="O49" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="P49" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q49" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="R49" s="95" t="s">
+        <v>223</v>
+      </c>
       <c r="S49" s="54"/>
       <c r="V49" s="69"/>
     </row>
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="95"/>
-      <c r="L50" s="95"/>
-      <c r="M50" s="95"/>
-      <c r="N50" s="95"/>
-      <c r="O50" s="95"/>
-      <c r="P50" s="95"/>
-      <c r="Q50" s="95"/>
-      <c r="R50" s="95"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94" t="s">
+        <v>407</v>
+      </c>
+      <c r="F50" s="94" t="s">
+        <v>562</v>
+      </c>
+      <c r="G50" s="94" t="s">
+        <v>397</v>
+      </c>
+      <c r="H50" s="94" t="s">
+        <v>399</v>
+      </c>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94" t="s">
+        <v>552</v>
+      </c>
+      <c r="K50" s="94" t="s">
+        <v>582</v>
+      </c>
+      <c r="L50" s="94" t="s">
+        <v>584</v>
+      </c>
+      <c r="M50" s="94" t="s">
+        <v>586</v>
+      </c>
+      <c r="N50" s="94"/>
+      <c r="O50" s="94" t="s">
+        <v>433</v>
+      </c>
+      <c r="P50" s="94" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="94" t="s">
+        <v>397</v>
+      </c>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
     </row>
     <row r="51" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="75"/>
       <c r="C51" s="84"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
+      <c r="D51" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="E51" s="79" t="s">
+        <v>357</v>
+      </c>
       <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
+      <c r="G51" s="79" t="s">
+        <v>358</v>
+      </c>
+      <c r="H51" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="I51" s="79" t="s">
+        <v>357</v>
+      </c>
       <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
+      <c r="K51" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="L51" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="M51" s="79" t="s">
+        <v>357</v>
+      </c>
       <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="79"/>
-      <c r="R51" s="79"/>
+      <c r="O51" s="79" t="s">
+        <v>360</v>
+      </c>
+      <c r="P51" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q51" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="R51" s="79" t="s">
+        <v>359</v>
+      </c>
       <c r="S51" s="85"/>
       <c r="V51" s="87"/>
     </row>
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
+      <c r="D52" s="89" t="s">
+        <v>398</v>
+      </c>
+      <c r="E52" s="89" t="s">
+        <v>585</v>
+      </c>
       <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
+      <c r="G52" s="89" t="s">
+        <v>587</v>
+      </c>
+      <c r="H52" s="89" t="s">
+        <v>420</v>
+      </c>
+      <c r="I52" s="89" t="s">
+        <v>585</v>
+      </c>
       <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
+      <c r="K52" s="89" t="s">
+        <v>551</v>
+      </c>
+      <c r="L52" s="89" t="s">
+        <v>589</v>
+      </c>
+      <c r="M52" s="89" t="s">
+        <v>585</v>
+      </c>
       <c r="N52" s="89"/>
-      <c r="O52" s="89"/>
-      <c r="P52" s="89"/>
-      <c r="Q52" s="89"/>
-      <c r="R52" s="89"/>
+      <c r="O52" s="89" t="s">
+        <v>591</v>
+      </c>
+      <c r="P52" s="89" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q52" s="89" t="s">
+        <v>593</v>
+      </c>
+      <c r="R52" s="89" t="s">
+        <v>589</v>
+      </c>
       <c r="S52" s="53"/>
       <c r="V52" s="69"/>
     </row>
@@ -5724,62 +7205,140 @@
         <v>13</v>
       </c>
       <c r="C53" s="52"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
-      <c r="K53" s="96"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="96"/>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="96"/>
-      <c r="R53" s="96"/>
+      <c r="D53" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="H53" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="I53" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="J53" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="K53" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="L53" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="M53" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="N53" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="O53" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="P53" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q53" s="95" t="s">
+        <v>211</v>
+      </c>
+      <c r="R53" s="95" t="s">
+        <v>270</v>
+      </c>
       <c r="S53" s="54"/>
       <c r="V53" s="69"/>
     </row>
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="95"/>
-      <c r="L54" s="95"/>
-      <c r="M54" s="95"/>
-      <c r="N54" s="95"/>
-      <c r="O54" s="95"/>
-      <c r="P54" s="95"/>
-      <c r="Q54" s="95"/>
-      <c r="R54" s="95"/>
+      <c r="D54" s="94" t="s">
+        <v>399</v>
+      </c>
+      <c r="E54" s="94" t="s">
+        <v>586</v>
+      </c>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94" t="s">
+        <v>588</v>
+      </c>
+      <c r="H54" s="94" t="s">
+        <v>421</v>
+      </c>
+      <c r="I54" s="94" t="s">
+        <v>586</v>
+      </c>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94" t="s">
+        <v>552</v>
+      </c>
+      <c r="L54" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="M54" s="94" t="s">
+        <v>586</v>
+      </c>
+      <c r="N54" s="94"/>
+      <c r="O54" s="94" t="s">
+        <v>592</v>
+      </c>
+      <c r="P54" s="94" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q54" s="94" t="s">
+        <v>594</v>
+      </c>
+      <c r="R54" s="94" t="s">
+        <v>590</v>
+      </c>
       <c r="S54" s="58"/>
       <c r="V54" s="69"/>
     </row>
     <row r="55" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="75"/>
       <c r="C55" s="84"/>
-      <c r="D55" s="79"/>
+      <c r="D55" s="79" t="s">
+        <v>357</v>
+      </c>
       <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
+      <c r="F55" s="79" t="s">
+        <v>354</v>
+      </c>
+      <c r="G55" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="H55" s="79" t="s">
+        <v>355</v>
+      </c>
       <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
+      <c r="J55" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="K55" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="L55" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="M55" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="N55" s="79" t="s">
+        <v>362</v>
+      </c>
+      <c r="O55" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="P55" s="79" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q55" s="79" t="s">
+        <v>357</v>
+      </c>
       <c r="R55" s="79"/>
       <c r="S55" s="85"/>
       <c r="V55" s="87"/>
@@ -5787,20 +7346,44 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="65"/>
       <c r="C56" s="52"/>
-      <c r="D56" s="89"/>
+      <c r="D56" s="89" t="s">
+        <v>585</v>
+      </c>
       <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
+      <c r="F56" s="89" t="s">
+        <v>577</v>
+      </c>
+      <c r="G56" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="H56" s="89" t="s">
+        <v>579</v>
+      </c>
       <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="89"/>
-      <c r="M56" s="89"/>
-      <c r="N56" s="89"/>
-      <c r="O56" s="89"/>
-      <c r="P56" s="89"/>
-      <c r="Q56" s="89"/>
+      <c r="J56" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="K56" s="89" t="s">
+        <v>561</v>
+      </c>
+      <c r="L56" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="M56" s="89" t="s">
+        <v>398</v>
+      </c>
+      <c r="N56" s="89" t="s">
+        <v>595</v>
+      </c>
+      <c r="O56" s="89" t="s">
+        <v>424</v>
+      </c>
+      <c r="P56" s="89" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q56" s="89" t="s">
+        <v>585</v>
+      </c>
       <c r="R56" s="89"/>
       <c r="S56" s="53"/>
       <c r="V56" s="69"/>
@@ -5811,84 +7394,182 @@
         <v>14</v>
       </c>
       <c r="C57" s="52"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="96"/>
+      <c r="D57" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="I57" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="J57" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="K57" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="L57" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="M57" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="N57" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="O57" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="P57" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q57" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="R57" s="95" t="s">
+        <v>167</v>
+      </c>
       <c r="S57" s="54"/>
       <c r="V57" s="69"/>
     </row>
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="67"/>
       <c r="C58" s="52"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="95"/>
-      <c r="G58" s="95"/>
-      <c r="H58" s="95"/>
-      <c r="I58" s="95"/>
-      <c r="J58" s="95"/>
-      <c r="K58" s="95"/>
-      <c r="L58" s="95"/>
-      <c r="M58" s="95"/>
-      <c r="N58" s="95"/>
-      <c r="O58" s="95"/>
-      <c r="P58" s="95"/>
-      <c r="Q58" s="95"/>
-      <c r="R58" s="95"/>
+      <c r="D58" s="94" t="s">
+        <v>586</v>
+      </c>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94" t="s">
+        <v>578</v>
+      </c>
+      <c r="G58" s="94" t="s">
+        <v>427</v>
+      </c>
+      <c r="H58" s="94" t="s">
+        <v>580</v>
+      </c>
+      <c r="I58" s="94"/>
+      <c r="J58" s="94" t="s">
+        <v>407</v>
+      </c>
+      <c r="K58" s="94" t="s">
+        <v>562</v>
+      </c>
+      <c r="L58" s="94" t="s">
+        <v>397</v>
+      </c>
+      <c r="M58" s="94" t="s">
+        <v>399</v>
+      </c>
+      <c r="N58" s="94" t="s">
+        <v>596</v>
+      </c>
+      <c r="O58" s="94" t="s">
+        <v>425</v>
+      </c>
+      <c r="P58" s="94" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q58" s="94" t="s">
+        <v>586</v>
+      </c>
+      <c r="R58" s="94"/>
       <c r="S58" s="58"/>
       <c r="V58" s="69"/>
     </row>
     <row r="59" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="75"/>
       <c r="C59" s="84"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
+      <c r="D59" s="79" t="s">
+        <v>364</v>
+      </c>
+      <c r="E59" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="F59" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="G59" s="79" t="s">
+        <v>356</v>
+      </c>
       <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
+      <c r="I59" s="79" t="s">
+        <v>335</v>
+      </c>
       <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
+      <c r="K59" s="79" t="s">
+        <v>366</v>
+      </c>
+      <c r="L59" s="79" t="s">
+        <v>306</v>
+      </c>
       <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
+      <c r="N59" s="79" t="s">
+        <v>358</v>
+      </c>
+      <c r="O59" s="79" t="s">
+        <v>326</v>
+      </c>
       <c r="P59" s="79"/>
-      <c r="Q59" s="79"/>
-      <c r="R59" s="79"/>
+      <c r="Q59" s="79" t="s">
+        <v>362</v>
+      </c>
+      <c r="R59" s="79" t="s">
+        <v>363</v>
+      </c>
       <c r="S59" s="85"/>
       <c r="V59" s="87"/>
     </row>
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="65"/>
       <c r="C60" s="52"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
+      <c r="D60" s="89" t="s">
+        <v>599</v>
+      </c>
+      <c r="E60" s="89" t="s">
+        <v>428</v>
+      </c>
+      <c r="F60" s="89" t="s">
+        <v>601</v>
+      </c>
+      <c r="G60" s="89" t="s">
+        <v>583</v>
+      </c>
       <c r="H60" s="89"/>
-      <c r="I60" s="89"/>
+      <c r="I60" s="89" t="s">
+        <v>432</v>
+      </c>
       <c r="J60" s="89"/>
-      <c r="K60" s="89"/>
-      <c r="L60" s="89"/>
+      <c r="K60" s="89" t="s">
+        <v>603</v>
+      </c>
+      <c r="L60" s="89" t="s">
+        <v>398</v>
+      </c>
       <c r="M60" s="89"/>
-      <c r="N60" s="89"/>
-      <c r="O60" s="89"/>
+      <c r="N60" s="89" t="s">
+        <v>587</v>
+      </c>
+      <c r="O60" s="89" t="s">
+        <v>420</v>
+      </c>
       <c r="P60" s="89"/>
-      <c r="Q60" s="89"/>
-      <c r="R60" s="89"/>
+      <c r="Q60" s="89" t="s">
+        <v>595</v>
+      </c>
+      <c r="R60" s="89" t="s">
+        <v>597</v>
+      </c>
       <c r="S60" s="53"/>
       <c r="V60" s="69"/>
     </row>
@@ -5898,62 +7579,134 @@
         <v>15</v>
       </c>
       <c r="C61" s="52"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="96"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="96"/>
-      <c r="P61" s="96"/>
-      <c r="Q61" s="96"/>
-      <c r="R61" s="96"/>
+      <c r="D61" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="F61" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="G61" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="H61" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="I61" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="J61" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="K61" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="L61" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="M61" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="N61" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="O61" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="P61" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q61" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="R61" s="95" t="s">
+        <v>272</v>
+      </c>
       <c r="S61" s="54"/>
       <c r="V61" s="69"/>
     </row>
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="67"/>
       <c r="C62" s="52"/>
-      <c r="D62" s="95"/>
-      <c r="E62" s="95"/>
-      <c r="F62" s="95"/>
-      <c r="G62" s="95"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="95"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="95"/>
-      <c r="N62" s="95"/>
-      <c r="O62" s="95"/>
-      <c r="P62" s="95"/>
-      <c r="Q62" s="95"/>
-      <c r="R62" s="95"/>
+      <c r="D62" s="94" t="s">
+        <v>600</v>
+      </c>
+      <c r="E62" s="94" t="s">
+        <v>429</v>
+      </c>
+      <c r="F62" s="94" t="s">
+        <v>602</v>
+      </c>
+      <c r="G62" s="94" t="s">
+        <v>584</v>
+      </c>
+      <c r="H62" s="94"/>
+      <c r="I62" s="94" t="s">
+        <v>433</v>
+      </c>
+      <c r="J62" s="94"/>
+      <c r="K62" s="94" t="s">
+        <v>604</v>
+      </c>
+      <c r="L62" s="94" t="s">
+        <v>399</v>
+      </c>
+      <c r="M62" s="94"/>
+      <c r="N62" s="94" t="s">
+        <v>588</v>
+      </c>
+      <c r="O62" s="94" t="s">
+        <v>421</v>
+      </c>
+      <c r="P62" s="94"/>
+      <c r="Q62" s="94" t="s">
+        <v>596</v>
+      </c>
+      <c r="R62" s="94" t="s">
+        <v>598</v>
+      </c>
       <c r="S62" s="58"/>
       <c r="V62" s="69"/>
     </row>
     <row r="63" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="75"/>
       <c r="C63" s="84"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
+      <c r="D63" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="E63" s="79" t="s">
+        <v>357</v>
+      </c>
       <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
+      <c r="G63" s="79" t="s">
+        <v>364</v>
+      </c>
+      <c r="H63" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="I63" s="79" t="s">
+        <v>356</v>
+      </c>
       <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
+      <c r="K63" s="79" t="s">
+        <v>335</v>
+      </c>
       <c r="L63" s="79"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="79"/>
+      <c r="M63" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="N63" s="79" t="s">
+        <v>306</v>
+      </c>
       <c r="O63" s="79"/>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="79"/>
+      <c r="P63" s="79" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q63" s="79" t="s">
+        <v>326</v>
+      </c>
       <c r="R63" s="79"/>
       <c r="S63" s="85"/>
       <c r="V63" s="87"/>
@@ -5961,20 +7714,40 @@
     <row r="64" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="65"/>
       <c r="C64" s="52"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
+      <c r="D64" s="89" t="s">
+        <v>589</v>
+      </c>
+      <c r="E64" s="89" t="s">
+        <v>585</v>
+      </c>
       <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
+      <c r="G64" s="89" t="s">
+        <v>599</v>
+      </c>
+      <c r="H64" s="89" t="s">
+        <v>601</v>
+      </c>
+      <c r="I64" s="89" t="s">
+        <v>583</v>
+      </c>
       <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
+      <c r="K64" s="89" t="s">
+        <v>432</v>
+      </c>
       <c r="L64" s="89"/>
-      <c r="M64" s="89"/>
-      <c r="N64" s="89"/>
+      <c r="M64" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="N64" s="89" t="s">
+        <v>398</v>
+      </c>
       <c r="O64" s="89"/>
-      <c r="P64" s="89"/>
-      <c r="Q64" s="89"/>
+      <c r="P64" s="89" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q64" s="89" t="s">
+        <v>420</v>
+      </c>
       <c r="R64" s="89"/>
       <c r="S64" s="53"/>
       <c r="V64" s="69"/>
@@ -5985,84 +7758,182 @@
         <v>16</v>
       </c>
       <c r="C65" s="52"/>
-      <c r="D65" s="96"/>
-      <c r="E65" s="96"/>
-      <c r="F65" s="96"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="96"/>
-      <c r="J65" s="96"/>
-      <c r="K65" s="96"/>
-      <c r="L65" s="96"/>
-      <c r="M65" s="96"/>
-      <c r="N65" s="96"/>
-      <c r="O65" s="96"/>
-      <c r="P65" s="96"/>
-      <c r="Q65" s="96"/>
-      <c r="R65" s="96"/>
+      <c r="D65" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="E65" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="G65" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="I65" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="J65" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="K65" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="L65" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="M65" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="N65" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="O65" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="P65" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q65" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="R65" s="95" t="s">
+        <v>174</v>
+      </c>
       <c r="S65" s="54"/>
       <c r="V65" s="69"/>
     </row>
     <row r="66" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="67"/>
       <c r="C66" s="52"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="95"/>
-      <c r="M66" s="95"/>
-      <c r="N66" s="95"/>
-      <c r="O66" s="95"/>
-      <c r="P66" s="95"/>
-      <c r="Q66" s="95"/>
-      <c r="R66" s="95"/>
+      <c r="D66" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="E66" s="94" t="s">
+        <v>586</v>
+      </c>
+      <c r="F66" s="94"/>
+      <c r="G66" s="94" t="s">
+        <v>600</v>
+      </c>
+      <c r="H66" s="94" t="s">
+        <v>602</v>
+      </c>
+      <c r="I66" s="94" t="s">
+        <v>584</v>
+      </c>
+      <c r="J66" s="94"/>
+      <c r="K66" s="94" t="s">
+        <v>433</v>
+      </c>
+      <c r="L66" s="94"/>
+      <c r="M66" s="94" t="s">
+        <v>397</v>
+      </c>
+      <c r="N66" s="94" t="s">
+        <v>399</v>
+      </c>
+      <c r="O66" s="94"/>
+      <c r="P66" s="94" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q66" s="94" t="s">
+        <v>421</v>
+      </c>
+      <c r="R66" s="94"/>
       <c r="S66" s="58"/>
       <c r="V66" s="69"/>
     </row>
     <row r="67" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="75"/>
       <c r="C67" s="84"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
+      <c r="D67" s="79" t="s">
+        <v>354</v>
+      </c>
+      <c r="E67" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="F67" s="79" t="s">
+        <v>355</v>
+      </c>
       <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
+      <c r="H67" s="79" t="s">
+        <v>362</v>
+      </c>
+      <c r="I67" s="79" t="s">
+        <v>363</v>
+      </c>
+      <c r="J67" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="K67" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="L67" s="79" t="s">
+        <v>357</v>
+      </c>
       <c r="M67" s="79"/>
-      <c r="N67" s="79"/>
-      <c r="O67" s="79"/>
-      <c r="P67" s="79"/>
+      <c r="N67" s="79" t="s">
+        <v>364</v>
+      </c>
+      <c r="O67" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="P67" s="79" t="s">
+        <v>356</v>
+      </c>
       <c r="Q67" s="79"/>
-      <c r="R67" s="79"/>
+      <c r="R67" s="79" t="s">
+        <v>335</v>
+      </c>
       <c r="S67" s="85"/>
       <c r="V67" s="87"/>
     </row>
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="65"/>
       <c r="C68" s="52"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
+      <c r="D68" s="89" t="s">
+        <v>577</v>
+      </c>
+      <c r="E68" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="F68" s="89" t="s">
+        <v>579</v>
+      </c>
       <c r="G68" s="89"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="89"/>
-      <c r="J68" s="89"/>
-      <c r="K68" s="89"/>
-      <c r="L68" s="89"/>
+      <c r="H68" s="89" t="s">
+        <v>595</v>
+      </c>
+      <c r="I68" s="89" t="s">
+        <v>597</v>
+      </c>
+      <c r="J68" s="89" t="s">
+        <v>593</v>
+      </c>
+      <c r="K68" s="89" t="s">
+        <v>589</v>
+      </c>
+      <c r="L68" s="89" t="s">
+        <v>585</v>
+      </c>
       <c r="M68" s="89"/>
-      <c r="N68" s="89"/>
-      <c r="O68" s="89"/>
-      <c r="P68" s="89"/>
+      <c r="N68" s="89" t="s">
+        <v>599</v>
+      </c>
+      <c r="O68" s="89" t="s">
+        <v>601</v>
+      </c>
+      <c r="P68" s="89" t="s">
+        <v>583</v>
+      </c>
       <c r="Q68" s="89"/>
-      <c r="R68" s="89"/>
+      <c r="R68" s="89" t="s">
+        <v>432</v>
+      </c>
       <c r="S68" s="53"/>
       <c r="V68" s="69"/>
     </row>
@@ -6072,42 +7943,96 @@
         <v>17</v>
       </c>
       <c r="C69" s="52"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="96"/>
-      <c r="F69" s="96"/>
-      <c r="G69" s="96"/>
-      <c r="H69" s="96"/>
-      <c r="I69" s="96"/>
-      <c r="J69" s="96"/>
-      <c r="K69" s="96"/>
-      <c r="L69" s="96"/>
-      <c r="M69" s="96"/>
-      <c r="N69" s="96"/>
-      <c r="O69" s="96"/>
-      <c r="P69" s="96"/>
-      <c r="Q69" s="96"/>
-      <c r="R69" s="96"/>
+      <c r="D69" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="G69" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="H69" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="I69" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="J69" s="95" t="s">
+        <v>211</v>
+      </c>
+      <c r="K69" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="L69" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="M69" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="N69" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="O69" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="P69" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q69" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="R69" s="95" t="s">
+        <v>245</v>
+      </c>
       <c r="S69" s="54"/>
       <c r="V69" s="69"/>
     </row>
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="67"/>
       <c r="C70" s="52"/>
-      <c r="D70" s="95"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="95"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="95"/>
-      <c r="I70" s="95"/>
-      <c r="J70" s="95"/>
-      <c r="K70" s="95"/>
-      <c r="L70" s="95"/>
-      <c r="M70" s="95"/>
-      <c r="N70" s="95"/>
-      <c r="O70" s="95"/>
-      <c r="P70" s="95"/>
-      <c r="Q70" s="95"/>
-      <c r="R70" s="95"/>
+      <c r="D70" s="94" t="s">
+        <v>578</v>
+      </c>
+      <c r="E70" s="94" t="s">
+        <v>427</v>
+      </c>
+      <c r="F70" s="94" t="s">
+        <v>580</v>
+      </c>
+      <c r="G70" s="94"/>
+      <c r="H70" s="94" t="s">
+        <v>596</v>
+      </c>
+      <c r="I70" s="94" t="s">
+        <v>598</v>
+      </c>
+      <c r="J70" s="94" t="s">
+        <v>594</v>
+      </c>
+      <c r="K70" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="L70" s="94" t="s">
+        <v>586</v>
+      </c>
+      <c r="M70" s="94"/>
+      <c r="N70" s="94" t="s">
+        <v>600</v>
+      </c>
+      <c r="O70" s="94" t="s">
+        <v>602</v>
+      </c>
+      <c r="P70" s="94" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q70" s="94"/>
+      <c r="R70" s="94" t="s">
+        <v>433</v>
+      </c>
       <c r="S70" s="58"/>
       <c r="V70" s="69"/>
     </row>
@@ -6115,20 +8040,42 @@
       <c r="B71" s="75"/>
       <c r="C71" s="84"/>
       <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
+      <c r="E71" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="F71" s="79" t="s">
+        <v>306</v>
+      </c>
       <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
+      <c r="H71" s="79" t="s">
+        <v>358</v>
+      </c>
+      <c r="I71" s="79" t="s">
+        <v>326</v>
+      </c>
       <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
-      <c r="N71" s="79"/>
-      <c r="O71" s="79"/>
-      <c r="P71" s="79"/>
+      <c r="K71" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="L71" s="79" t="s">
+        <v>355</v>
+      </c>
+      <c r="M71" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="N71" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="O71" s="79" t="s">
+        <v>363</v>
+      </c>
+      <c r="P71" s="79" t="s">
+        <v>359</v>
+      </c>
       <c r="Q71" s="79"/>
-      <c r="R71" s="79"/>
+      <c r="R71" s="79" t="s">
+        <v>300</v>
+      </c>
       <c r="S71" s="85"/>
       <c r="V71" s="87"/>
     </row>
@@ -6136,20 +8083,42 @@
       <c r="B72" s="65"/>
       <c r="C72" s="52"/>
       <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
-      <c r="F72" s="89"/>
+      <c r="E72" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="F72" s="89" t="s">
+        <v>398</v>
+      </c>
       <c r="G72" s="89"/>
-      <c r="H72" s="89"/>
-      <c r="I72" s="89"/>
+      <c r="H72" s="89" t="s">
+        <v>587</v>
+      </c>
+      <c r="I72" s="89" t="s">
+        <v>420</v>
+      </c>
       <c r="J72" s="89"/>
-      <c r="K72" s="89"/>
-      <c r="L72" s="89"/>
-      <c r="M72" s="89"/>
-      <c r="N72" s="89"/>
-      <c r="O72" s="89"/>
-      <c r="P72" s="89"/>
+      <c r="K72" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="L72" s="89" t="s">
+        <v>579</v>
+      </c>
+      <c r="M72" s="89" t="s">
+        <v>394</v>
+      </c>
+      <c r="N72" s="89" t="s">
+        <v>605</v>
+      </c>
+      <c r="O72" s="89" t="s">
+        <v>597</v>
+      </c>
+      <c r="P72" s="89" t="s">
+        <v>589</v>
+      </c>
       <c r="Q72" s="89"/>
-      <c r="R72" s="89"/>
+      <c r="R72" s="89" t="s">
+        <v>394</v>
+      </c>
       <c r="S72" s="53"/>
       <c r="V72" s="69"/>
     </row>
@@ -6159,62 +8128,138 @@
         <v>18</v>
       </c>
       <c r="C73" s="52"/>
-      <c r="D73" s="96"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="96"/>
-      <c r="L73" s="96"/>
-      <c r="M73" s="96"/>
-      <c r="N73" s="96"/>
-      <c r="O73" s="96"/>
-      <c r="P73" s="96"/>
-      <c r="Q73" s="96"/>
-      <c r="R73" s="96"/>
+      <c r="D73" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="F73" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="G73" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="H73" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="I73" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="J73" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="K73" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="L73" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="M73" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="N73" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="O73" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="P73" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q73" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="R73" s="95" t="s">
+        <v>201</v>
+      </c>
       <c r="S73" s="54"/>
       <c r="V73" s="69"/>
     </row>
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="67"/>
       <c r="C74" s="52"/>
-      <c r="D74" s="95"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="95"/>
-      <c r="I74" s="95"/>
-      <c r="J74" s="95"/>
-      <c r="K74" s="95"/>
-      <c r="L74" s="95"/>
-      <c r="M74" s="95"/>
-      <c r="N74" s="95"/>
-      <c r="O74" s="95"/>
-      <c r="P74" s="95"/>
-      <c r="Q74" s="95"/>
-      <c r="R74" s="95"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94" t="s">
+        <v>397</v>
+      </c>
+      <c r="F74" s="94" t="s">
+        <v>399</v>
+      </c>
+      <c r="G74" s="94"/>
+      <c r="H74" s="94" t="s">
+        <v>588</v>
+      </c>
+      <c r="I74" s="94" t="s">
+        <v>421</v>
+      </c>
+      <c r="J74" s="94"/>
+      <c r="K74" s="94" t="s">
+        <v>407</v>
+      </c>
+      <c r="L74" s="94" t="s">
+        <v>580</v>
+      </c>
+      <c r="M74" s="94" t="s">
+        <v>395</v>
+      </c>
+      <c r="N74" s="94" t="s">
+        <v>606</v>
+      </c>
+      <c r="O74" s="94" t="s">
+        <v>598</v>
+      </c>
+      <c r="P74" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q74" s="94"/>
+      <c r="R74" s="94" t="s">
+        <v>395</v>
+      </c>
       <c r="S74" s="58"/>
       <c r="V74" s="69"/>
     </row>
     <row r="75" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="75"/>
       <c r="C75" s="84"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
+      <c r="D75" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="E75" s="79" t="s">
+        <v>363</v>
+      </c>
+      <c r="F75" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="G75" s="79" t="s">
+        <v>359</v>
+      </c>
       <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
+      <c r="I75" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="J75" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="K75" s="79" t="s">
+        <v>368</v>
+      </c>
+      <c r="L75" s="79" t="s">
+        <v>355</v>
+      </c>
       <c r="M75" s="79"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="79"/>
-      <c r="P75" s="79"/>
-      <c r="Q75" s="79"/>
+      <c r="N75" s="79" t="s">
+        <v>309</v>
+      </c>
+      <c r="O75" s="79" t="s">
+        <v>317</v>
+      </c>
+      <c r="P75" s="79" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q75" s="79" t="s">
+        <v>311</v>
+      </c>
       <c r="R75" s="79"/>
       <c r="S75" s="85"/>
       <c r="V75" s="87"/>
@@ -6222,20 +8267,44 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="65"/>
       <c r="C76" s="52"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="89"/>
-      <c r="G76" s="89"/>
+      <c r="D76" s="89" t="s">
+        <v>605</v>
+      </c>
+      <c r="E76" s="89" t="s">
+        <v>597</v>
+      </c>
+      <c r="F76" s="89" t="s">
+        <v>593</v>
+      </c>
+      <c r="G76" s="89" t="s">
+        <v>589</v>
+      </c>
       <c r="H76" s="89"/>
-      <c r="I76" s="89"/>
-      <c r="J76" s="89"/>
-      <c r="K76" s="89"/>
-      <c r="L76" s="89"/>
+      <c r="I76" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="J76" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="K76" s="89" t="s">
+        <v>607</v>
+      </c>
+      <c r="L76" s="89" t="s">
+        <v>579</v>
+      </c>
       <c r="M76" s="89"/>
-      <c r="N76" s="89"/>
-      <c r="O76" s="89"/>
-      <c r="P76" s="89"/>
-      <c r="Q76" s="89"/>
+      <c r="N76" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="O76" s="89" t="s">
+        <v>414</v>
+      </c>
+      <c r="P76" s="89" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q76" s="89" t="s">
+        <v>408</v>
+      </c>
       <c r="R76" s="89"/>
       <c r="S76" s="53"/>
       <c r="V76" s="69"/>
@@ -6246,62 +8315,140 @@
         <v>19</v>
       </c>
       <c r="C77" s="52"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="96"/>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="96"/>
-      <c r="L77" s="96"/>
-      <c r="M77" s="96"/>
-      <c r="N77" s="96"/>
-      <c r="O77" s="96"/>
-      <c r="P77" s="96"/>
-      <c r="Q77" s="96"/>
-      <c r="R77" s="96"/>
+      <c r="D77" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="E77" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="F77" s="95" t="s">
+        <v>211</v>
+      </c>
+      <c r="G77" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="H77" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="I77" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="J77" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="K77" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="L77" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="M77" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="N77" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="O77" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="P77" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q77" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="R77" s="95" t="s">
+        <v>173</v>
+      </c>
       <c r="S77" s="54"/>
       <c r="V77" s="69"/>
     </row>
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="67"/>
       <c r="C78" s="52"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="95"/>
-      <c r="K78" s="95"/>
-      <c r="L78" s="95"/>
-      <c r="M78" s="95"/>
-      <c r="N78" s="95"/>
-      <c r="O78" s="95"/>
-      <c r="P78" s="95"/>
-      <c r="Q78" s="95"/>
-      <c r="R78" s="95"/>
+      <c r="D78" s="94" t="s">
+        <v>606</v>
+      </c>
+      <c r="E78" s="94" t="s">
+        <v>598</v>
+      </c>
+      <c r="F78" s="94" t="s">
+        <v>594</v>
+      </c>
+      <c r="G78" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="H78" s="94"/>
+      <c r="I78" s="94" t="s">
+        <v>427</v>
+      </c>
+      <c r="J78" s="94" t="s">
+        <v>407</v>
+      </c>
+      <c r="K78" s="94" t="s">
+        <v>608</v>
+      </c>
+      <c r="L78" s="94" t="s">
+        <v>580</v>
+      </c>
+      <c r="M78" s="94"/>
+      <c r="N78" s="94" t="s">
+        <v>405</v>
+      </c>
+      <c r="O78" s="94" t="s">
+        <v>415</v>
+      </c>
+      <c r="P78" s="94" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q78" s="94" t="s">
+        <v>409</v>
+      </c>
+      <c r="R78" s="94"/>
       <c r="S78" s="58"/>
       <c r="V78" s="69"/>
     </row>
     <row r="79" spans="2:22" s="86" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="75"/>
       <c r="C79" s="84"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
+      <c r="D79" s="79" t="s">
+        <v>370</v>
+      </c>
+      <c r="E79" s="79" t="s">
+        <v>371</v>
+      </c>
+      <c r="F79" s="79" t="s">
+        <v>372</v>
+      </c>
+      <c r="G79" s="79" t="s">
+        <v>373</v>
+      </c>
       <c r="H79" s="79"/>
-      <c r="I79" s="79"/>
-      <c r="J79" s="79"/>
-      <c r="K79" s="79"/>
-      <c r="L79" s="79"/>
+      <c r="I79" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="J79" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="K79" s="79" t="s">
+        <v>311</v>
+      </c>
+      <c r="L79" s="79" t="s">
+        <v>359</v>
+      </c>
       <c r="M79" s="79"/>
-      <c r="N79" s="79"/>
-      <c r="O79" s="79"/>
-      <c r="P79" s="79"/>
-      <c r="Q79" s="79"/>
+      <c r="N79" s="79" t="s">
+        <v>309</v>
+      </c>
+      <c r="O79" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="P79" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q79" s="79" t="s">
+        <v>326</v>
+      </c>
       <c r="R79" s="79"/>
       <c r="S79" s="85"/>
       <c r="V79" s="87"/>
@@ -6309,68 +8456,303 @@
     <row r="80" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="65"/>
       <c r="C80" s="52"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="89"/>
-      <c r="F80" s="89"/>
-      <c r="G80" s="89"/>
+      <c r="D80" s="89" t="s">
+        <v>611</v>
+      </c>
+      <c r="E80" s="89" t="s">
+        <v>613</v>
+      </c>
+      <c r="F80" s="89" t="s">
+        <v>615</v>
+      </c>
+      <c r="G80" s="89" t="s">
+        <v>617</v>
+      </c>
       <c r="H80" s="89"/>
-      <c r="I80" s="89"/>
-      <c r="J80" s="89"/>
-      <c r="K80" s="89"/>
-      <c r="L80" s="89"/>
+      <c r="I80" s="89" t="s">
+        <v>430</v>
+      </c>
+      <c r="J80" s="89" t="s">
+        <v>583</v>
+      </c>
+      <c r="K80" s="89" t="s">
+        <v>408</v>
+      </c>
+      <c r="L80" s="89" t="s">
+        <v>589</v>
+      </c>
       <c r="M80" s="89"/>
-      <c r="N80" s="89"/>
-      <c r="O80" s="89"/>
-      <c r="P80" s="89"/>
-      <c r="Q80" s="89"/>
+      <c r="N80" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="O80" s="89" t="s">
+        <v>619</v>
+      </c>
+      <c r="P80" s="89" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q80" s="89" t="s">
+        <v>420</v>
+      </c>
       <c r="R80" s="89"/>
       <c r="S80" s="53"/>
       <c r="V80" s="69"/>
     </row>
-    <row r="81" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="81" spans="1:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="66">
         <f>B77+1</f>
         <v>20</v>
       </c>
       <c r="C81" s="52"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="96"/>
-      <c r="J81" s="96"/>
-      <c r="K81" s="96"/>
-      <c r="L81" s="96"/>
-      <c r="M81" s="96"/>
-      <c r="N81" s="96"/>
-      <c r="O81" s="96"/>
-      <c r="P81" s="96"/>
-      <c r="Q81" s="96"/>
-      <c r="R81" s="96"/>
+      <c r="D81" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="E81" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="F81" s="95" t="s">
+        <v>279</v>
+      </c>
+      <c r="G81" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="H81" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="I81" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="J81" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="K81" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="L81" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="M81" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="N81" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="O81" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="P81" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q81" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="R81" s="95" t="s">
+        <v>264</v>
+      </c>
       <c r="S81" s="54"/>
       <c r="V81" s="69"/>
     </row>
-    <row r="82" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+    <row r="82" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="67"/>
       <c r="C82" s="52"/>
-      <c r="D82" s="95"/>
-      <c r="E82" s="95"/>
-      <c r="F82" s="95"/>
-      <c r="G82" s="95"/>
-      <c r="H82" s="95"/>
-      <c r="I82" s="95"/>
-      <c r="J82" s="95"/>
-      <c r="K82" s="95"/>
-      <c r="L82" s="95"/>
-      <c r="M82" s="95"/>
-      <c r="N82" s="95"/>
-      <c r="O82" s="95"/>
-      <c r="P82" s="95"/>
-      <c r="Q82" s="95"/>
-      <c r="R82" s="95"/>
+      <c r="D82" s="94" t="s">
+        <v>612</v>
+      </c>
+      <c r="E82" s="94" t="s">
+        <v>614</v>
+      </c>
+      <c r="F82" s="94" t="s">
+        <v>616</v>
+      </c>
+      <c r="G82" s="94" t="s">
+        <v>618</v>
+      </c>
+      <c r="H82" s="94"/>
+      <c r="I82" s="94" t="s">
+        <v>431</v>
+      </c>
+      <c r="J82" s="94" t="s">
+        <v>584</v>
+      </c>
+      <c r="K82" s="94" t="s">
+        <v>409</v>
+      </c>
+      <c r="L82" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="M82" s="94"/>
+      <c r="N82" s="94" t="s">
+        <v>405</v>
+      </c>
+      <c r="O82" s="94" t="s">
+        <v>620</v>
+      </c>
+      <c r="P82" s="94" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q82" s="94" t="s">
+        <v>421</v>
+      </c>
+      <c r="R82" s="94"/>
       <c r="S82" s="58"/>
       <c r="V82" s="69"/>
+    </row>
+    <row r="83" spans="1:22" s="86" customFormat="1" ht="60" customHeight="1">
+      <c r="B83" s="75"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="E83" s="79" t="s">
+        <v>376</v>
+      </c>
+      <c r="F83" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="G83" s="79" t="s">
+        <v>377</v>
+      </c>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79" t="s">
+        <v>354</v>
+      </c>
+      <c r="J83" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="K83" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="L83" s="79" t="s">
+        <v>379</v>
+      </c>
+      <c r="M83" s="79"/>
+      <c r="N83" s="79"/>
+      <c r="O83" s="79"/>
+      <c r="P83" s="79"/>
+      <c r="Q83" s="79"/>
+      <c r="R83" s="79"/>
+      <c r="S83" s="85"/>
+      <c r="V83" s="87"/>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" s="1"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="89" t="s">
+        <v>589</v>
+      </c>
+      <c r="E84" s="89" t="s">
+        <v>623</v>
+      </c>
+      <c r="F84" s="89" t="s">
+        <v>605</v>
+      </c>
+      <c r="G84" s="89" t="s">
+        <v>625</v>
+      </c>
+      <c r="H84" s="89"/>
+      <c r="I84" s="89" t="s">
+        <v>577</v>
+      </c>
+      <c r="J84" s="89" t="s">
+        <v>627</v>
+      </c>
+      <c r="K84" s="89" t="s">
+        <v>593</v>
+      </c>
+      <c r="L84" s="89" t="s">
+        <v>629</v>
+      </c>
+      <c r="M84" s="89"/>
+      <c r="N84" s="89"/>
+      <c r="O84" s="89"/>
+      <c r="P84" s="89"/>
+      <c r="Q84" s="89"/>
+      <c r="R84" s="89"/>
+      <c r="S84" s="53"/>
+    </row>
+    <row r="85" spans="1:22" ht="67.5">
+      <c r="A85" s="1"/>
+      <c r="B85" s="66">
+        <f>B81+1</f>
+        <v>21</v>
+      </c>
+      <c r="C85" s="52"/>
+      <c r="D85" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="E85" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="F85" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="G85" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="H85" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="I85" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="J85" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="K85" s="95" t="s">
+        <v>211</v>
+      </c>
+      <c r="L85" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="M85" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="N85" s="95" t="s">
+        <v>194</v>
+      </c>
+      <c r="O85" s="95"/>
+      <c r="P85" s="95"/>
+      <c r="Q85" s="95"/>
+      <c r="R85" s="95"/>
+      <c r="S85" s="54"/>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" s="1"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="E86" s="94" t="s">
+        <v>624</v>
+      </c>
+      <c r="F86" s="94" t="s">
+        <v>606</v>
+      </c>
+      <c r="G86" s="94" t="s">
+        <v>626</v>
+      </c>
+      <c r="H86" s="94"/>
+      <c r="I86" s="94" t="s">
+        <v>578</v>
+      </c>
+      <c r="J86" s="94" t="s">
+        <v>628</v>
+      </c>
+      <c r="K86" s="94" t="s">
+        <v>594</v>
+      </c>
+      <c r="L86" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="M86" s="94"/>
+      <c r="N86" s="94"/>
+      <c r="O86" s="94"/>
+      <c r="P86" s="94"/>
+      <c r="Q86" s="94"/>
+      <c r="R86" s="94"/>
+      <c r="S86" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6378,90 +8760,106 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="21" priority="197">
+    <cfRule type="expression" dxfId="25" priority="205">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="198">
+    <cfRule type="expression" dxfId="24" priority="206">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="19" priority="53">
+    <cfRule type="expression" dxfId="23" priority="61">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="54">
+    <cfRule type="expression" dxfId="22" priority="62">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="17" priority="51">
+    <cfRule type="expression" dxfId="21" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="52">
+    <cfRule type="expression" dxfId="20" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="15" priority="49">
+  <conditionalFormatting sqref="D15:F15 J15:R15">
+    <cfRule type="expression" dxfId="19" priority="57">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="50">
+    <cfRule type="expression" dxfId="18" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19 D27:R27 D31:R31 D35:R35 D43:R43 D51:R51 D55:R55 D59:R59">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67 D75:R75 D79:R79">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="6" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83:R83">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:I15">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6527,7 +8925,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6545,7 +8943,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="104" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -6570,7 +8968,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="104"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -6590,7 +8988,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="104"/>
+      <c r="I6" s="105"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -6612,7 +9010,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="104"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -6628,7 +9026,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="104"/>
+      <c r="I7" s="105"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -6650,7 +9048,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="104"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -6666,7 +9064,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="104"/>
+      <c r="I8" s="105"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -6688,7 +9086,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="104"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6704,7 +9102,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="104"/>
+      <c r="I9" s="105"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6726,7 +9124,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="105"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -6742,7 +9140,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="105"/>
+      <c r="I10" s="106"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -6765,7 +9163,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="104" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -6783,7 +9181,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="103" t="s">
+      <c r="I11" s="104" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -6807,7 +9205,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="104"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -6827,7 +9225,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="104"/>
+      <c r="I12" s="105"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -6847,7 +9245,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="104"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -6861,7 +9259,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="104"/>
+      <c r="I13" s="105"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -6881,7 +9279,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="104"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -6895,7 +9293,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="104"/>
+      <c r="I14" s="105"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -6915,7 +9313,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="104"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -6929,7 +9327,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="104"/>
+      <c r="I15" s="105"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -6949,7 +9347,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="105"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -6963,7 +9361,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="105"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
@@ -6998,11 +9396,11 @@
     </row>
     <row r="19" spans="3:14" ht="42.75" customHeight="1">
       <c r="C19" s="36"/>
-      <c r="J19" s="91">
+      <c r="J19" s="90">
         <v>1</v>
       </c>
-      <c r="K19" s="92" t="s">
-        <v>185</v>
+      <c r="K19" s="91" t="s">
+        <v>178</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
@@ -7010,11 +9408,11 @@
     </row>
     <row r="20" spans="3:14" ht="42.75" customHeight="1">
       <c r="C20" s="36"/>
-      <c r="J20" s="91">
+      <c r="J20" s="90">
         <v>7</v>
       </c>
-      <c r="K20" s="92" t="s">
-        <v>189</v>
+      <c r="K20" s="91" t="s">
+        <v>182</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
@@ -7022,11 +9420,11 @@
     </row>
     <row r="21" spans="3:14" ht="42.75" customHeight="1">
       <c r="C21" s="36"/>
-      <c r="J21" s="91">
+      <c r="J21" s="90">
         <v>3</v>
       </c>
-      <c r="K21" s="92" t="s">
-        <v>190</v>
+      <c r="K21" s="91" t="s">
+        <v>183</v>
       </c>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
@@ -7034,11 +9432,11 @@
     </row>
     <row r="22" spans="3:14" ht="42.75" customHeight="1">
       <c r="C22" s="36"/>
-      <c r="J22" s="91">
+      <c r="J22" s="90">
         <v>2</v>
       </c>
-      <c r="K22" s="93" t="s">
-        <v>184</v>
+      <c r="K22" s="92" t="s">
+        <v>177</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
@@ -7046,11 +9444,11 @@
     </row>
     <row r="23" spans="3:14" ht="42.75" customHeight="1">
       <c r="C23" s="36"/>
-      <c r="J23" s="91">
+      <c r="J23" s="90">
         <v>5</v>
       </c>
-      <c r="K23" s="93" t="s">
-        <v>186</v>
+      <c r="K23" s="92" t="s">
+        <v>179</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
@@ -7058,11 +9456,11 @@
     </row>
     <row r="24" spans="3:14" ht="42.75" customHeight="1">
       <c r="C24" s="36"/>
-      <c r="J24" s="91" t="s">
-        <v>191</v>
-      </c>
-      <c r="K24" s="94" t="s">
-        <v>191</v>
+      <c r="J24" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" s="93" t="s">
+        <v>184</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
@@ -7070,11 +9468,11 @@
     </row>
     <row r="25" spans="3:14" ht="42.75" customHeight="1">
       <c r="C25" s="36"/>
-      <c r="J25" s="91">
+      <c r="J25" s="90">
         <v>4</v>
       </c>
-      <c r="K25" s="92" t="s">
-        <v>192</v>
+      <c r="K25" s="91" t="s">
+        <v>185</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
@@ -7082,11 +9480,11 @@
     </row>
     <row r="26" spans="3:14" ht="42.75" customHeight="1">
       <c r="C26" s="36"/>
-      <c r="J26" s="91">
+      <c r="J26" s="90">
         <v>8</v>
       </c>
-      <c r="K26" s="92" t="s">
-        <v>193</v>
+      <c r="K26" s="91" t="s">
+        <v>186</v>
       </c>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
@@ -7238,13 +9636,13 @@
         <v>81</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>83</v>
@@ -7308,13 +9706,13 @@
         <v>93</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>94</v>
@@ -7375,13 +9773,13 @@
         <v>104</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>105</v>
@@ -7442,13 +9840,13 @@
         <v>115</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J16" s="40" t="s">
         <v>116</v>
@@ -7509,13 +9907,13 @@
         <v>127</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J20" s="40" t="s">
         <v>128</v>

--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D3E6C8-F711-48D2-8D67-FE8D1F915564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D59BD956-4EC4-415A-B30A-35C198990E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="420" windowWidth="36150" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-25665" yWindow="345" windowWidth="21180" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>

--- a/Tai_Gi_Zu_Im_Bun.xlsx
+++ b/Tai_Gi_Zu_Im_Bun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC772577-790E-493C-826C-3610537FA9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF9273E-3336-489B-89F6-CD13E09DD0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="420" windowWidth="36150" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="1725" yWindow="14490" windowWidth="36150" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="250">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1278,96 +1278,6 @@
   </si>
   <si>
     <t>諸</t>
-  </si>
-  <si>
-    <t>可</t>
-  </si>
-  <si>
-    <t>二</t>
-  </si>
-  <si>
-    <t>相</t>
-  </si>
-  <si>
-    <t>見</t>
-  </si>
-  <si>
-    <t>也</t>
-  </si>
-  <si>
-    <t>得</t>
-  </si>
-  <si>
-    <t>故</t>
-  </si>
-  <si>
-    <t>善</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>子</t>
-  </si>
-  <si>
-    <t>、</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>恆</t>
-  </si>
-  <si>
-    <t>河</t>
-  </si>
-  <si>
-    <t>沙</t>
-  </si>
-  <si>
-    <t>身</t>
-  </si>
-  <si>
-    <t>命</t>
-  </si>
-  <si>
-    <t>布</t>
-  </si>
-  <si>
-    <t>施</t>
-  </si>
-  <si>
-    <t>復</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>乃</t>
-  </si>
-  <si>
-    <t>至</t>
-  </si>
-  <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>句</t>
-  </si>
-  <si>
-    <t>偈</t>
-  </si>
-  <si>
-    <t>他</t>
-  </si>
-  <si>
-    <t>其</t>
-  </si>
-  <si>
-    <t>福</t>
   </si>
 </sst>
 </file>
@@ -4798,9 +4708,7 @@
       <c r="Q57" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="R57" s="87" t="s">
-        <v>245</v>
-      </c>
+      <c r="R57" s="87"/>
       <c r="S57" s="89"/>
       <c r="V57" s="60"/>
     </row>
@@ -4873,51 +4781,21 @@
         <v>15</v>
       </c>
       <c r="C61" s="84"/>
-      <c r="D61" s="87" t="s">
-        <v>246</v>
-      </c>
-      <c r="E61" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="F61" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="G61" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="H61" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="I61" s="87" t="s">
-        <v>246</v>
-      </c>
-      <c r="J61" s="87" t="s">
-        <v>230</v>
-      </c>
-      <c r="K61" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="L61" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="M61" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="N61" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="O61" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="P61" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q61" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="R61" s="87" t="s">
-        <v>244</v>
-      </c>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="87"/>
+      <c r="M61" s="87"/>
+      <c r="N61" s="87"/>
+      <c r="O61" s="87"/>
+      <c r="P61" s="87"/>
+      <c r="Q61" s="87"/>
+      <c r="R61" s="87"/>
       <c r="S61" s="89"/>
       <c r="V61" s="60"/>
     </row>
@@ -4990,24 +4868,12 @@
         <v>16</v>
       </c>
       <c r="C65" s="84"/>
-      <c r="D65" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="E65" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="F65" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="G65" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="H65" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="I65" s="87" t="s">
-        <v>230</v>
-      </c>
+      <c r="D65" s="87"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="87"/>
+      <c r="I65" s="87"/>
       <c r="J65" s="87"/>
       <c r="K65" s="87"/>
       <c r="L65" s="87"/>
@@ -5089,51 +4955,21 @@
         <v>17</v>
       </c>
       <c r="C69" s="84"/>
-      <c r="D69" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="E69" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F69" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G69" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="H69" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="I69" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="J69" s="87" t="s">
-        <v>214</v>
-      </c>
-      <c r="K69" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="L69" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="M69" s="87" t="s">
-        <v>250</v>
-      </c>
-      <c r="N69" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="O69" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="P69" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q69" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="R69" s="87" t="s">
-        <v>252</v>
-      </c>
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="87"/>
+      <c r="I69" s="87"/>
+      <c r="J69" s="87"/>
+      <c r="K69" s="87"/>
+      <c r="L69" s="87"/>
+      <c r="M69" s="87"/>
+      <c r="N69" s="87"/>
+      <c r="O69" s="87"/>
+      <c r="P69" s="87"/>
+      <c r="Q69" s="87"/>
+      <c r="R69" s="87"/>
       <c r="S69" s="89"/>
       <c r="V69" s="60"/>
     </row>
@@ -5206,51 +5042,21 @@
         <v>18</v>
       </c>
       <c r="C73" s="84"/>
-      <c r="D73" s="87" t="s">
-        <v>253</v>
-      </c>
-      <c r="E73" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="F73" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="G73" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="H73" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="I73" s="87" t="s">
-        <v>216</v>
-      </c>
-      <c r="J73" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="K73" s="87" t="s">
-        <v>240</v>
-      </c>
-      <c r="L73" s="87" t="s">
-        <v>254</v>
-      </c>
-      <c r="M73" s="87" t="s">
-        <v>230</v>
-      </c>
-      <c r="N73" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="O73" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="P73" s="87" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q73" s="87" t="s">
-        <v>240</v>
-      </c>
-      <c r="R73" s="87" t="s">
-        <v>250</v>
-      </c>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="87"/>
+      <c r="I73" s="87"/>
+      <c r="J73" s="87"/>
+      <c r="K73" s="87"/>
+      <c r="L73" s="87"/>
+      <c r="M73" s="87"/>
+      <c r="N73" s="87"/>
+      <c r="O73" s="87"/>
+      <c r="P73" s="87"/>
+      <c r="Q73" s="87"/>
+      <c r="R73" s="87"/>
       <c r="S73" s="89"/>
       <c r="V73" s="60"/>
     </row>
@@ -5323,51 +5129,21 @@
         <v>19</v>
       </c>
       <c r="C77" s="84"/>
-      <c r="D77" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="E77" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="F77" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="G77" s="88" t="s">
-        <v>251</v>
-      </c>
-      <c r="H77" s="87" t="s">
-        <v>252</v>
-      </c>
-      <c r="I77" s="87" t="s">
-        <v>255</v>
-      </c>
-      <c r="J77" s="87" t="s">
-        <v>253</v>
-      </c>
-      <c r="K77" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="L77" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="M77" s="87" t="s">
-        <v>230</v>
-      </c>
-      <c r="N77" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="O77" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="P77" s="87" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q77" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="R77" s="87" t="s">
-        <v>184</v>
-      </c>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="87"/>
+      <c r="I77" s="87"/>
+      <c r="J77" s="87"/>
+      <c r="K77" s="87"/>
+      <c r="L77" s="87"/>
+      <c r="M77" s="87"/>
+      <c r="N77" s="87"/>
+      <c r="O77" s="87"/>
+      <c r="P77" s="87"/>
+      <c r="Q77" s="87"/>
+      <c r="R77" s="87"/>
       <c r="S77" s="89"/>
       <c r="V77" s="60"/>
     </row>
@@ -5440,51 +5216,21 @@
         <v>20</v>
       </c>
       <c r="C81" s="84"/>
-      <c r="D81" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="E81" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="F81" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="G81" s="88" t="s">
-        <v>190</v>
-      </c>
-      <c r="H81" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="I81" s="87" t="s">
-        <v>252</v>
-      </c>
-      <c r="J81" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="K81" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="L81" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="M81" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="N81" s="87" t="s">
-        <v>252</v>
-      </c>
-      <c r="O81" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="P81" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q81" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="R81" s="87" t="s">
-        <v>191</v>
-      </c>
+      <c r="D81" s="87"/>
+      <c r="E81" s="87"/>
+      <c r="F81" s="87"/>
+      <c r="G81" s="88"/>
+      <c r="H81" s="87"/>
+      <c r="I81" s="87"/>
+      <c r="J81" s="87"/>
+      <c r="K81" s="87"/>
+      <c r="L81" s="87"/>
+      <c r="M81" s="87"/>
+      <c r="N81" s="87"/>
+      <c r="O81" s="87"/>
+      <c r="P81" s="87"/>
+      <c r="Q81" s="87"/>
+      <c r="R81" s="87"/>
       <c r="S81" s="89"/>
       <c r="V81" s="60"/>
     </row>
@@ -5557,51 +5303,21 @@
         <v>21</v>
       </c>
       <c r="C85" s="84"/>
-      <c r="D85" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="E85" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="F85" s="87" t="s">
-        <v>252</v>
-      </c>
-      <c r="G85" s="88" t="s">
-        <v>230</v>
-      </c>
-      <c r="H85" s="87" t="s">
-        <v>216</v>
-      </c>
-      <c r="I85" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="J85" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="K85" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="L85" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="M85" s="87" t="s">
-        <v>205</v>
-      </c>
-      <c r="N85" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="O85" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="P85" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q85" s="87" t="s">
-        <v>258</v>
-      </c>
-      <c r="R85" s="87" t="s">
-        <v>259</v>
-      </c>
+      <c r="D85" s="87"/>
+      <c r="E85" s="87"/>
+      <c r="F85" s="87"/>
+      <c r="G85" s="88"/>
+      <c r="H85" s="87"/>
+      <c r="I85" s="87"/>
+      <c r="J85" s="87"/>
+      <c r="K85" s="87"/>
+      <c r="L85" s="87"/>
+      <c r="M85" s="87"/>
+      <c r="N85" s="87"/>
+      <c r="O85" s="87"/>
+      <c r="P85" s="87"/>
+      <c r="Q85" s="87"/>
+      <c r="R85" s="87"/>
       <c r="S85" s="89"/>
       <c r="V85" s="60"/>
     </row>
@@ -5674,51 +5390,21 @@
         <v>22</v>
       </c>
       <c r="C89" s="84"/>
-      <c r="D89" s="87" t="s">
-        <v>260</v>
-      </c>
-      <c r="E89" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="F89" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="G89" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="H89" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="I89" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="J89" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="K89" s="87" t="s">
-        <v>264</v>
-      </c>
-      <c r="L89" s="87" t="s">
-        <v>265</v>
-      </c>
-      <c r="M89" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="N89" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="O89" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="P89" s="87" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q89" s="87" t="s">
-        <v>269</v>
-      </c>
-      <c r="R89" s="87" t="s">
-        <v>194</v>
-      </c>
+      <c r="D89" s="87"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="87"/>
+      <c r="I89" s="87"/>
+      <c r="J89" s="87"/>
+      <c r="K89" s="87"/>
+      <c r="L89" s="87"/>
+      <c r="M89" s="87"/>
+      <c r="N89" s="87"/>
+      <c r="O89" s="87"/>
+      <c r="P89" s="87"/>
+      <c r="Q89" s="87"/>
+      <c r="R89" s="87"/>
       <c r="S89" s="89"/>
       <c r="V89" s="60"/>
     </row>
@@ -5791,51 +5477,21 @@
         <v>23</v>
       </c>
       <c r="C93" s="84"/>
-      <c r="D93" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="E93" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="F93" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="G93" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="I93" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="J93" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="K93" s="87" t="s">
-        <v>210</v>
-      </c>
-      <c r="L93" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="M93" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="N93" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="O93" s="87" t="s">
-        <v>273</v>
-      </c>
-      <c r="P93" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q93" s="87" t="s">
-        <v>187</v>
-      </c>
-      <c r="R93" s="87" t="s">
-        <v>274</v>
-      </c>
+      <c r="D93" s="87"/>
+      <c r="E93" s="87"/>
+      <c r="F93" s="87"/>
+      <c r="G93" s="88"/>
+      <c r="H93" s="87"/>
+      <c r="I93" s="87"/>
+      <c r="J93" s="87"/>
+      <c r="K93" s="87"/>
+      <c r="L93" s="87"/>
+      <c r="M93" s="87"/>
+      <c r="N93" s="87"/>
+      <c r="O93" s="87"/>
+      <c r="P93" s="87"/>
+      <c r="Q93" s="87"/>
+      <c r="R93" s="87"/>
       <c r="S93" s="89"/>
       <c r="V93" s="60"/>
     </row>
@@ -5908,51 +5564,21 @@
         <v>24</v>
       </c>
       <c r="C97" s="84"/>
-      <c r="D97" s="87" t="s">
-        <v>275</v>
-      </c>
-      <c r="E97" s="87" t="s">
-        <v>276</v>
-      </c>
-      <c r="F97" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="G97" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="H97" s="87" t="s">
-        <v>219</v>
-      </c>
-      <c r="I97" s="87" t="s">
-        <v>277</v>
-      </c>
-      <c r="J97" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="K97" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="L97" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="M97" s="87" t="s">
-        <v>278</v>
-      </c>
-      <c r="N97" s="87" t="s">
-        <v>279</v>
-      </c>
-      <c r="O97" s="87" t="s">
-        <v>248</v>
-      </c>
-      <c r="P97" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q97" s="87" t="s">
-        <v>205</v>
-      </c>
-      <c r="R97" s="87" t="s">
-        <v>216</v>
-      </c>
+      <c r="D97" s="87"/>
+      <c r="E97" s="87"/>
+      <c r="F97" s="87"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="87"/>
+      <c r="I97" s="87"/>
+      <c r="J97" s="87"/>
+      <c r="K97" s="87"/>
+      <c r="L97" s="87"/>
+      <c r="M97" s="87"/>
+      <c r="N97" s="87"/>
+      <c r="O97" s="87"/>
+      <c r="P97" s="87"/>
+      <c r="Q97" s="87"/>
+      <c r="R97" s="87"/>
       <c r="S97" s="89"/>
       <c r="V97" s="60"/>
     </row>
